--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6710"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1135">
   <si>
     <t>id</t>
   </si>
@@ -3426,6 +3426,12 @@
   </si>
   <si>
     <t>ajuste8b</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
 </sst>
 </file>
@@ -4307,11 +4313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L384" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N401" sqref="N401"/>
+      <selection pane="bottomRight" activeCell="U398" sqref="U398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7749,7 +7755,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="55">
         <v>116</v>
       </c>
@@ -7797,7 +7803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="55">
         <v>119</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="55">
         <v>120</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="55">
         <v>123</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="55">
         <v>124</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="55">
         <v>127</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="55">
         <v>130</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="55">
         <v>131</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="55">
         <v>137</v>
       </c>
@@ -8105,7 +8111,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="55">
         <v>138</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A145" s="55">
         <v>145</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A147" s="55">
         <v>147</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A148" s="55">
         <v>148</v>
       </c>
@@ -8306,7 +8312,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A150" s="55">
         <v>150</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A151" s="55">
         <v>151</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A152" s="55">
         <v>152</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="55">
         <v>206</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="55">
         <v>207</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="55">
         <v>208</v>
       </c>
@@ -9251,7 +9257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="55">
         <v>209</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="55">
         <v>212</v>
       </c>
@@ -9347,7 +9353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="55">
         <v>215</v>
       </c>
@@ -12372,7 +12378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B394" s="55" t="s">
         <v>1110</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>1055</v>
       </c>
       <c r="U398" s="54">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.35">
@@ -12546,11 +12552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12601,7 +12607,7 @@
         <v>1120</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="E2" s="55"/>
     </row>
@@ -12616,10 +12622,10 @@
         <v>1121</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\COVID2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6710"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -16,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AI$403</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3471,8 +3476,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4350,57 +4355,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C381" sqref="C381"/>
+      <selection pane="bottomRight" activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="12" style="55" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="54" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="54" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="54" customWidth="1"/>
-    <col min="13" max="14" width="16.5703125" style="54" customWidth="1"/>
-    <col min="15" max="16" width="15.7109375" style="54" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="54" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="55" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="54" customWidth="1"/>
+    <col min="13" max="14" width="16.54296875" style="54" customWidth="1"/>
+    <col min="15" max="16" width="15.7265625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="54" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="54" customWidth="1"/>
     <col min="19" max="19" width="15" style="54" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="54" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" style="54" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="54" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" style="54" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="53" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" style="53" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="54"/>
-    <col min="29" max="30" width="12.28515625" style="54" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="54" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="54"/>
-    <col min="34" max="34" width="15.28515625" style="54" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="53"/>
+    <col min="20" max="20" width="19.54296875" style="54" customWidth="1"/>
+    <col min="21" max="22" width="12.1796875" style="54" customWidth="1"/>
+    <col min="23" max="24" width="14.453125" style="54" customWidth="1"/>
+    <col min="25" max="25" width="19.7265625" style="54" customWidth="1"/>
+    <col min="26" max="26" width="17.26953125" style="53" customWidth="1"/>
+    <col min="27" max="27" width="15.81640625" style="53" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="54"/>
+    <col min="29" max="30" width="12.26953125" style="54" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" style="54" customWidth="1"/>
+    <col min="32" max="33" width="9.1796875" style="54"/>
+    <col min="34" max="34" width="15.26953125" style="54" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>5</v>
       </c>
@@ -4680,7 +4685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4808,7 +4813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -4840,7 +4845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -4918,7 +4923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>17</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>18</v>
       </c>
@@ -5045,7 +5050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>19</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>20</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>21</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="55">
         <v>22</v>
       </c>
@@ -5149,7 +5154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>23</v>
       </c>
@@ -5172,7 +5177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>24</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>25</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>26</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="55">
         <v>27</v>
       </c>
@@ -5276,7 +5281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="55">
         <v>28</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>29</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>30</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>31</v>
       </c>
@@ -5368,7 +5373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="55">
         <v>32</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>33</v>
       </c>
@@ -5408,7 +5413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>34</v>
       </c>
@@ -5428,7 +5433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>35</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>36</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>37</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="71" customFormat="1">
+    <row r="38" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69">
         <v>38</v>
       </c>
@@ -5538,7 +5543,7 @@
       <c r="AG38" s="70"/>
       <c r="AH38" s="70"/>
     </row>
-    <row r="39" spans="1:34" s="71" customFormat="1">
+    <row r="39" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69">
         <v>39</v>
       </c>
@@ -5588,7 +5593,7 @@
       <c r="AG39" s="70"/>
       <c r="AH39" s="70"/>
     </row>
-    <row r="40" spans="1:34" s="71" customFormat="1">
+    <row r="40" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69">
         <v>40</v>
       </c>
@@ -5638,7 +5643,7 @@
       <c r="AG40" s="70"/>
       <c r="AH40" s="70"/>
     </row>
-    <row r="41" spans="1:34" s="71" customFormat="1">
+    <row r="41" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69">
         <v>41</v>
       </c>
@@ -5688,7 +5693,7 @@
       <c r="AG41" s="70"/>
       <c r="AH41" s="70"/>
     </row>
-    <row r="42" spans="1:34" s="71" customFormat="1">
+    <row r="42" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69">
         <v>42</v>
       </c>
@@ -5738,7 +5743,7 @@
       <c r="AG42" s="70"/>
       <c r="AH42" s="70"/>
     </row>
-    <row r="43" spans="1:34" s="71" customFormat="1">
+    <row r="43" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="69">
         <v>43</v>
       </c>
@@ -5788,7 +5793,7 @@
       <c r="AG43" s="70"/>
       <c r="AH43" s="70"/>
     </row>
-    <row r="44" spans="1:34" s="71" customFormat="1">
+    <row r="44" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="69">
         <v>44</v>
       </c>
@@ -5842,7 +5847,7 @@
       </c>
       <c r="AH44" s="70"/>
     </row>
-    <row r="45" spans="1:34" s="71" customFormat="1">
+    <row r="45" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="69">
         <v>45</v>
       </c>
@@ -5896,7 +5901,7 @@
       </c>
       <c r="AH45" s="70"/>
     </row>
-    <row r="46" spans="1:34" s="71" customFormat="1">
+    <row r="46" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69">
         <v>46</v>
       </c>
@@ -5950,7 +5955,7 @@
       </c>
       <c r="AH46" s="70"/>
     </row>
-    <row r="47" spans="1:34" s="71" customFormat="1">
+    <row r="47" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69">
         <v>47</v>
       </c>
@@ -6004,7 +6009,7 @@
       </c>
       <c r="AH47" s="70"/>
     </row>
-    <row r="48" spans="1:34" s="71" customFormat="1">
+    <row r="48" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="69">
         <v>48</v>
       </c>
@@ -6058,7 +6063,7 @@
       </c>
       <c r="AH48" s="70"/>
     </row>
-    <row r="49" spans="1:34" s="71" customFormat="1">
+    <row r="49" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="69">
         <v>49</v>
       </c>
@@ -6112,7 +6117,7 @@
       </c>
       <c r="AH49" s="70"/>
     </row>
-    <row r="50" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="69">
         <v>50</v>
       </c>
@@ -6164,7 +6169,7 @@
       <c r="AG50" s="70"/>
       <c r="AH50" s="70"/>
     </row>
-    <row r="51" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69">
         <v>51</v>
       </c>
@@ -6218,7 +6223,7 @@
       </c>
       <c r="AH51" s="70"/>
     </row>
-    <row r="52" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69">
         <v>52</v>
       </c>
@@ -6272,7 +6277,7 @@
       </c>
       <c r="AH52" s="70"/>
     </row>
-    <row r="53" spans="1:34" s="71" customFormat="1" ht="15.6" customHeight="1">
+    <row r="53" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69">
         <v>53</v>
       </c>
@@ -6324,7 +6329,7 @@
       <c r="AG53" s="70"/>
       <c r="AH53" s="70"/>
     </row>
-    <row r="54" spans="1:34" s="71" customFormat="1" ht="15.6" customHeight="1">
+    <row r="54" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="69">
         <v>54</v>
       </c>
@@ -6378,7 +6383,7 @@
       </c>
       <c r="AH54" s="70"/>
     </row>
-    <row r="55" spans="1:34" s="71" customFormat="1" ht="15.6" customHeight="1">
+    <row r="55" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69">
         <v>55</v>
       </c>
@@ -6432,7 +6437,7 @@
       </c>
       <c r="AH55" s="70"/>
     </row>
-    <row r="56" spans="1:34" s="71" customFormat="1" ht="15.6" customHeight="1">
+    <row r="56" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="69">
         <v>56</v>
       </c>
@@ -6486,7 +6491,7 @@
       </c>
       <c r="AH56" s="70"/>
     </row>
-    <row r="57" spans="1:34" s="71" customFormat="1" ht="27" customHeight="1">
+    <row r="57" spans="1:34" s="71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="69">
         <v>57</v>
       </c>
@@ -6538,7 +6543,7 @@
       <c r="AG57" s="70"/>
       <c r="AH57" s="70"/>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="55">
         <v>58</v>
       </c>
@@ -6561,7 +6566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="55">
         <v>59</v>
       </c>
@@ -6581,7 +6586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="55">
         <v>60</v>
       </c>
@@ -6604,7 +6609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="55">
         <v>61</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="55">
         <v>62</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>63</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="55">
         <v>64</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6719,7 +6724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6782,7 +6787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6825,7 +6830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -6862,7 +6867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="67" customFormat="1">
+    <row r="73" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="64">
         <v>73</v>
       </c>
@@ -6925,7 +6930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="67" customFormat="1">
+    <row r="74" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="64">
         <v>74</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="67" customFormat="1">
+    <row r="75" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="64">
         <v>75</v>
       </c>
@@ -7053,7 +7058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="67" customFormat="1">
+    <row r="76" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="64">
         <v>76</v>
       </c>
@@ -7112,7 +7117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="67" customFormat="1">
+    <row r="77" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7168,7 +7173,7 @@
       </c>
       <c r="AH77" s="66"/>
     </row>
-    <row r="78" spans="1:35" s="67" customFormat="1">
+    <row r="78" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7224,7 +7229,7 @@
       </c>
       <c r="AH78" s="66"/>
     </row>
-    <row r="79" spans="1:35" s="67" customFormat="1">
+    <row r="79" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7274,7 +7279,7 @@
       <c r="AG79" s="66"/>
       <c r="AH79" s="66"/>
     </row>
-    <row r="80" spans="1:35" s="67" customFormat="1">
+    <row r="80" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="64">
         <v>80</v>
       </c>
@@ -7341,7 +7346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:35" s="78" customFormat="1">
+    <row r="81" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7395,7 +7400,7 @@
       <c r="AG81" s="77"/>
       <c r="AH81" s="77"/>
     </row>
-    <row r="82" spans="1:35" s="67" customFormat="1">
+    <row r="82" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:35" s="67" customFormat="1">
+    <row r="83" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7522,7 +7527,7 @@
       </c>
       <c r="AH83" s="66"/>
     </row>
-    <row r="84" spans="1:35" s="67" customFormat="1">
+    <row r="84" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="64">
         <v>84</v>
       </c>
@@ -7574,7 +7579,7 @@
       <c r="AG84" s="66"/>
       <c r="AH84" s="66"/>
     </row>
-    <row r="85" spans="1:35" s="67" customFormat="1">
+    <row r="85" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="64">
         <v>85</v>
       </c>
@@ -7626,7 +7631,7 @@
       <c r="AG85" s="66"/>
       <c r="AH85" s="66"/>
     </row>
-    <row r="86" spans="1:35" s="67" customFormat="1">
+    <row r="86" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="64">
         <v>86</v>
       </c>
@@ -7678,7 +7683,7 @@
       <c r="AG86" s="66"/>
       <c r="AH86" s="66"/>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="55">
         <v>87</v>
       </c>
@@ -7698,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="55">
         <v>88</v>
       </c>
@@ -7718,7 +7723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="55">
         <v>89</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="55">
         <v>90</v>
       </c>
@@ -7758,7 +7763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="55">
         <v>91</v>
       </c>
@@ -7775,7 +7780,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="55">
         <v>92</v>
       </c>
@@ -7792,7 +7797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="55">
         <v>93</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="55">
         <v>94</v>
       </c>
@@ -7832,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="55">
         <v>95</v>
       </c>
@@ -7852,7 +7857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="55">
         <v>96</v>
       </c>
@@ -7872,7 +7877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="55">
         <v>97</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="55">
         <v>98</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="55">
         <v>99</v>
       </c>
@@ -7926,7 +7931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="55">
         <v>100</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="55">
         <v>101</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="55">
         <v>102</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="55">
         <v>103</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="55">
         <v>104</v>
       </c>
@@ -8020,7 +8025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="55">
         <v>105</v>
       </c>
@@ -8040,7 +8045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="55">
         <v>106</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="55">
         <v>107</v>
       </c>
@@ -8080,7 +8085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="55">
         <v>108</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="55">
         <v>109</v>
       </c>
@@ -8117,7 +8122,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="55">
         <v>110</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="55">
         <v>111</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="55">
         <v>112</v>
       </c>
@@ -8174,7 +8179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="55">
         <v>113</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="55">
         <v>114</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="55">
         <v>115</v>
       </c>
@@ -8231,7 +8236,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="30">
+    <row r="116" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="55">
         <v>116</v>
       </c>
@@ -8251,7 +8256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="55">
         <v>117</v>
       </c>
@@ -8268,7 +8273,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="55">
         <v>118</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="45">
+    <row r="119" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="55">
         <v>119</v>
       </c>
@@ -8308,7 +8313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="30">
+    <row r="120" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="55">
         <v>120</v>
       </c>
@@ -8328,7 +8333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="55">
         <v>121</v>
       </c>
@@ -8345,7 +8350,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="55">
         <v>122</v>
       </c>
@@ -8365,7 +8370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="45">
+    <row r="123" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="55">
         <v>123</v>
       </c>
@@ -8385,7 +8390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="45">
+    <row r="124" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="55">
         <v>124</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="55">
         <v>125</v>
       </c>
@@ -8422,7 +8427,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="55">
         <v>126</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="30">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="55">
         <v>127</v>
       </c>
@@ -8462,7 +8467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="55">
         <v>128</v>
       </c>
@@ -8479,7 +8484,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="55">
         <v>129</v>
       </c>
@@ -8499,7 +8504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="30">
+    <row r="130" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="55">
         <v>130</v>
       </c>
@@ -8519,7 +8524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="55">
         <v>131</v>
       </c>
@@ -8536,7 +8541,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="55">
         <v>132</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="55">
         <v>133</v>
       </c>
@@ -8576,7 +8581,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="55">
         <v>134</v>
       </c>
@@ -8596,7 +8601,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="55">
         <v>135</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="55">
         <v>136</v>
       </c>
@@ -8633,7 +8638,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="55">
         <v>137</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="45">
+    <row r="138" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="55">
         <v>138</v>
       </c>
@@ -8673,7 +8678,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="55">
         <v>139</v>
       </c>
@@ -8693,7 +8698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="55">
         <v>140</v>
       </c>
@@ -8713,7 +8718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="55">
         <v>141</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="18" customHeight="1">
+    <row r="142" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="55">
         <v>142</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="55">
         <v>143</v>
       </c>
@@ -8770,7 +8775,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="55">
         <v>144</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:34" ht="45">
+    <row r="145" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="55">
         <v>145</v>
       </c>
@@ -8810,7 +8815,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:34">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" s="55">
         <v>146</v>
       </c>
@@ -8830,7 +8835,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:34">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" s="55">
         <v>147</v>
       </c>
@@ -8850,7 +8855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:34" ht="30">
+    <row r="148" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="55">
         <v>148</v>
       </c>
@@ -8870,7 +8875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:34">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" s="55">
         <v>149</v>
       </c>
@@ -8890,7 +8895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="30">
+    <row r="150" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="55">
         <v>150</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="30">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" s="55">
         <v>151</v>
       </c>
@@ -8924,7 +8929,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="30">
+    <row r="152" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="55">
         <v>152</v>
       </c>
@@ -8941,7 +8946,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="153" spans="1:34">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" s="55">
         <v>152</v>
       </c>
@@ -8961,7 +8966,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:34">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" s="55">
         <v>153</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:34">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" s="55">
         <v>154</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:34">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" s="55">
         <v>155</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:34">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" s="55">
         <v>156</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="24.75" customHeight="1">
+    <row r="158" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="55">
         <v>157</v>
       </c>
@@ -9082,7 +9087,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:34">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" s="55">
         <v>158</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="160" spans="1:34">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" s="55">
         <v>159</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="55">
         <v>160</v>
       </c>
@@ -9133,7 +9138,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="55">
         <v>161</v>
       </c>
@@ -9150,7 +9155,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="55">
         <v>162</v>
       </c>
@@ -9167,7 +9172,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="55">
         <v>163</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="55">
         <v>164</v>
       </c>
@@ -9205,7 +9210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="55">
         <v>165</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="55">
         <v>166</v>
       </c>
@@ -9245,7 +9250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="55">
         <v>167</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="55">
         <v>168</v>
       </c>
@@ -9282,7 +9287,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="55">
         <v>169</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="55">
         <v>170</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="55">
         <v>171</v>
       </c>
@@ -9333,7 +9338,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="55">
         <v>172</v>
       </c>
@@ -9350,7 +9355,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="55">
         <v>173</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="55">
         <v>174</v>
       </c>
@@ -9384,7 +9389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="55">
         <v>175</v>
       </c>
@@ -9401,7 +9406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="55">
         <v>176</v>
       </c>
@@ -9421,7 +9426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="55">
         <v>177</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="55">
         <v>178</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="55">
         <v>179</v>
       </c>
@@ -9481,7 +9486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="55">
         <v>180</v>
       </c>
@@ -9498,7 +9503,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="55">
         <v>181</v>
       </c>
@@ -9515,7 +9520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="55">
         <v>182</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="55">
         <v>183</v>
       </c>
@@ -9555,7 +9560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="55">
         <v>184</v>
       </c>
@@ -9575,7 +9580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="55">
         <v>185</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="55">
         <v>186</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="55">
         <v>187</v>
       </c>
@@ -9629,7 +9634,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="55">
         <v>188</v>
       </c>
@@ -9649,7 +9654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="55">
         <v>189</v>
       </c>
@@ -9669,7 +9674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="55">
         <v>190</v>
       </c>
@@ -9689,7 +9694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="55">
         <v>191</v>
       </c>
@@ -9709,7 +9714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="55">
         <v>192</v>
       </c>
@@ -9726,7 +9731,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="55">
         <v>193</v>
       </c>
@@ -9743,7 +9748,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="55">
         <v>194</v>
       </c>
@@ -9760,7 +9765,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="55">
         <v>195</v>
       </c>
@@ -9777,7 +9782,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="55">
         <v>196</v>
       </c>
@@ -9794,7 +9799,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="55">
         <v>197</v>
       </c>
@@ -9811,7 +9816,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="55">
         <v>198</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="55">
         <v>199</v>
       </c>
@@ -9846,7 +9851,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="55">
         <v>200</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="55">
         <v>201</v>
       </c>
@@ -9888,7 +9893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="55">
         <v>202</v>
       </c>
@@ -9909,7 +9914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="55">
         <v>203</v>
       </c>
@@ -9930,7 +9935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="55">
         <v>204</v>
       </c>
@@ -9948,7 +9953,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="55">
         <v>205</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="45">
+    <row r="207" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="55">
         <v>206</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="30">
+    <row r="208" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="55">
         <v>207</v>
       </c>
@@ -10008,7 +10013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="30">
+    <row r="209" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="55">
         <v>208</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="45">
+    <row r="210" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A210" s="55">
         <v>209</v>
       </c>
@@ -10050,7 +10055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" s="55">
         <v>210</v>
       </c>
@@ -10068,7 +10073,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" s="55">
         <v>211</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="45">
+    <row r="213" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="55">
         <v>212</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="30">
+    <row r="214" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="55">
         <v>213</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="30">
+    <row r="215" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="55">
         <v>214</v>
       </c>
@@ -10149,7 +10154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="45">
+    <row r="216" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A216" s="55">
         <v>215</v>
       </c>
@@ -10170,7 +10175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" s="55">
         <v>216</v>
       </c>
@@ -10188,7 +10193,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" s="55">
         <v>217</v>
       </c>
@@ -10208,7 +10213,7 @@
       <c r="G218" s="53"/>
       <c r="H218" s="53"/>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" s="55">
         <v>218</v>
       </c>
@@ -10227,7 +10232,7 @@
       <c r="G219" s="53"/>
       <c r="H219" s="53"/>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" s="55">
         <v>219</v>
       </c>
@@ -10247,7 +10252,7 @@
       <c r="G220" s="53"/>
       <c r="H220" s="53"/>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" s="55">
         <v>220</v>
       </c>
@@ -10267,7 +10272,7 @@
       <c r="G221" s="53"/>
       <c r="H221" s="53"/>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" s="55">
         <v>221</v>
       </c>
@@ -10287,7 +10292,7 @@
       <c r="G222" s="53"/>
       <c r="H222" s="53"/>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" s="55">
         <v>222</v>
       </c>
@@ -10307,7 +10312,7 @@
       <c r="G223" s="53"/>
       <c r="H223" s="53"/>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="55">
         <v>223</v>
       </c>
@@ -10327,7 +10332,7 @@
       <c r="G224" s="53"/>
       <c r="H224" s="53"/>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" s="55">
         <v>224</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" s="55">
         <v>225</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" s="55">
         <v>226</v>
       </c>
@@ -10396,7 +10401,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" s="55">
         <v>227</v>
       </c>
@@ -10419,7 +10424,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" s="55">
         <v>228</v>
       </c>
@@ -10439,7 +10444,7 @@
       <c r="G229" s="53"/>
       <c r="H229" s="53"/>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="55">
         <v>229</v>
       </c>
@@ -10459,7 +10464,7 @@
       <c r="G230" s="53"/>
       <c r="H230" s="53"/>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="55">
         <v>230</v>
       </c>
@@ -10482,7 +10487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" s="55">
         <v>231</v>
       </c>
@@ -10505,7 +10510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" s="55">
         <v>232</v>
       </c>
@@ -10528,7 +10533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" s="55">
         <v>233</v>
       </c>
@@ -10551,7 +10556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" s="55">
         <v>234</v>
       </c>
@@ -10571,7 +10576,7 @@
       <c r="G235" s="53"/>
       <c r="H235" s="53"/>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" s="55">
         <v>235</v>
       </c>
@@ -10591,7 +10596,7 @@
       <c r="G236" s="53"/>
       <c r="H236" s="53"/>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" s="55">
         <v>236</v>
       </c>
@@ -10611,7 +10616,7 @@
       <c r="G237" s="53"/>
       <c r="H237" s="53"/>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="55">
         <v>237</v>
       </c>
@@ -10631,7 +10636,7 @@
       <c r="G238" s="53"/>
       <c r="H238" s="53"/>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" s="55">
         <v>238</v>
       </c>
@@ -10651,7 +10656,7 @@
       <c r="G239" s="53"/>
       <c r="H239" s="53"/>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>239</v>
       </c>
@@ -10671,7 +10676,7 @@
       <c r="G240" s="53"/>
       <c r="H240" s="53"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" s="55">
         <v>240</v>
       </c>
@@ -10691,7 +10696,7 @@
       <c r="G241" s="53"/>
       <c r="H241" s="53"/>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" s="55">
         <v>241</v>
       </c>
@@ -10711,7 +10716,7 @@
       <c r="G242" s="53"/>
       <c r="H242" s="53"/>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" s="55">
         <v>242</v>
       </c>
@@ -10734,7 +10739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" s="55">
         <v>243</v>
       </c>
@@ -10757,7 +10762,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="55">
         <v>244</v>
       </c>
@@ -10780,7 +10785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="55">
         <v>245</v>
       </c>
@@ -10803,7 +10808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="55">
         <v>246</v>
       </c>
@@ -10823,7 +10828,7 @@
       <c r="G247" s="53"/>
       <c r="H247" s="53"/>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" s="55">
         <v>247</v>
       </c>
@@ -10843,7 +10848,7 @@
       <c r="G248" s="53"/>
       <c r="H248" s="53"/>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" s="55">
         <v>248</v>
       </c>
@@ -10866,7 +10871,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" s="55">
         <v>249</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" s="55">
         <v>250</v>
       </c>
@@ -10912,7 +10917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" s="55">
         <v>251</v>
       </c>
@@ -10935,7 +10940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" s="55">
         <v>252</v>
       </c>
@@ -10955,7 +10960,7 @@
       <c r="G253" s="53"/>
       <c r="H253" s="53"/>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" s="55">
         <v>253</v>
       </c>
@@ -10975,7 +10980,7 @@
       <c r="G254" s="53"/>
       <c r="H254" s="53"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" s="55">
         <v>254</v>
       </c>
@@ -10995,7 +11000,7 @@
       <c r="G255" s="53"/>
       <c r="H255" s="53"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" s="55">
         <v>255</v>
       </c>
@@ -11015,7 +11020,7 @@
       <c r="G256" s="53"/>
       <c r="H256" s="53"/>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" s="55">
         <v>256</v>
       </c>
@@ -11035,7 +11040,7 @@
       <c r="G257" s="53"/>
       <c r="H257" s="53"/>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" s="55">
         <v>257</v>
       </c>
@@ -11055,7 +11060,7 @@
       <c r="G258" s="53"/>
       <c r="H258" s="53"/>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" s="55">
         <v>258</v>
       </c>
@@ -11075,7 +11080,7 @@
       <c r="G259" s="53"/>
       <c r="H259" s="53"/>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" s="55">
         <v>301</v>
       </c>
@@ -11095,7 +11100,7 @@
       <c r="G260" s="53"/>
       <c r="H260" s="53"/>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" s="55">
         <v>302</v>
       </c>
@@ -11118,7 +11123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" s="55">
         <v>303</v>
       </c>
@@ -11141,7 +11146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" s="55">
         <v>304</v>
       </c>
@@ -11164,7 +11169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" s="55">
         <v>305</v>
       </c>
@@ -11187,7 +11192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" s="55">
         <v>306</v>
       </c>
@@ -11207,7 +11212,7 @@
       <c r="G265" s="53"/>
       <c r="H265" s="53"/>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" s="55">
         <v>307</v>
       </c>
@@ -11227,7 +11232,7 @@
       <c r="G266" s="53"/>
       <c r="H266" s="53"/>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" s="55">
         <v>308</v>
       </c>
@@ -11250,7 +11255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" s="55">
         <v>309</v>
       </c>
@@ -11273,7 +11278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" s="55">
         <v>310</v>
       </c>
@@ -11296,7 +11301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270" s="55">
         <v>311</v>
       </c>
@@ -11319,7 +11324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271" s="55">
         <v>312</v>
       </c>
@@ -11339,7 +11344,7 @@
       <c r="G271" s="53"/>
       <c r="H271" s="53"/>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272" s="55">
         <v>313</v>
       </c>
@@ -11359,7 +11364,7 @@
       <c r="G272" s="53"/>
       <c r="H272" s="53"/>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273" s="55">
         <v>314</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274" s="55">
         <v>315</v>
       </c>
@@ -11405,7 +11410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275" s="55">
         <v>316</v>
       </c>
@@ -11428,7 +11433,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276" s="55">
         <v>317</v>
       </c>
@@ -11451,7 +11456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277" s="55">
         <v>318</v>
       </c>
@@ -11471,7 +11476,7 @@
       <c r="G277" s="53"/>
       <c r="H277" s="53"/>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A278" s="55">
         <v>319</v>
       </c>
@@ -11491,7 +11496,7 @@
       <c r="G278" s="53"/>
       <c r="H278" s="53"/>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A279" s="55">
         <v>320</v>
       </c>
@@ -11514,7 +11519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A280" s="55">
         <v>321</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281" s="55">
         <v>322</v>
       </c>
@@ -11560,7 +11565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" s="55">
         <v>323</v>
       </c>
@@ -11583,7 +11588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283" s="55">
         <v>324</v>
       </c>
@@ -11603,7 +11608,7 @@
       <c r="G283" s="53"/>
       <c r="H283" s="53"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284" s="55">
         <v>325</v>
       </c>
@@ -11623,7 +11628,7 @@
       <c r="G284" s="53"/>
       <c r="H284" s="53"/>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285" s="55">
         <v>326</v>
       </c>
@@ -11643,7 +11648,7 @@
       <c r="G285" s="53"/>
       <c r="H285" s="53"/>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A286" s="55">
         <v>327</v>
       </c>
@@ -11663,7 +11668,7 @@
       <c r="G286" s="53"/>
       <c r="H286" s="53"/>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A287" s="55">
         <v>328</v>
       </c>
@@ -11683,7 +11688,7 @@
       <c r="G287" s="53"/>
       <c r="H287" s="53"/>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A288" s="55">
         <v>329</v>
       </c>
@@ -11703,7 +11708,7 @@
       <c r="G288" s="53"/>
       <c r="H288" s="53"/>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A289" s="55">
         <v>330</v>
       </c>
@@ -11723,7 +11728,7 @@
       <c r="G289" s="53"/>
       <c r="H289" s="53"/>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290" s="55">
         <v>331</v>
       </c>
@@ -11743,7 +11748,7 @@
       <c r="G290" s="53"/>
       <c r="H290" s="53"/>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" s="55">
         <v>332</v>
       </c>
@@ -11766,7 +11771,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" s="55">
         <v>333</v>
       </c>
@@ -11789,7 +11794,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" s="55">
         <v>334</v>
       </c>
@@ -11812,7 +11817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294" s="55">
         <v>335</v>
       </c>
@@ -11835,7 +11840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A295" s="55">
         <v>336</v>
       </c>
@@ -11855,7 +11860,7 @@
       <c r="G295" s="53"/>
       <c r="H295" s="53"/>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A296" s="55">
         <v>337</v>
       </c>
@@ -11875,7 +11880,7 @@
       <c r="G296" s="53"/>
       <c r="H296" s="53"/>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A297" s="55">
         <v>338</v>
       </c>
@@ -11898,7 +11903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298" s="55">
         <v>339</v>
       </c>
@@ -11921,7 +11926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299" s="55">
         <v>340</v>
       </c>
@@ -11944,7 +11949,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300" s="55">
         <v>341</v>
       </c>
@@ -11967,7 +11972,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" s="55">
         <v>342</v>
       </c>
@@ -11987,7 +11992,7 @@
       <c r="G301" s="53"/>
       <c r="H301" s="53"/>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A302" s="55">
         <v>343</v>
       </c>
@@ -12007,7 +12012,7 @@
       <c r="G302" s="53"/>
       <c r="H302" s="53"/>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A303" s="55">
         <v>344</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304" s="55">
         <v>345</v>
       </c>
@@ -12053,7 +12058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="305" spans="1:33">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A305" s="55">
         <v>346</v>
       </c>
@@ -12076,7 +12081,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="306" spans="1:33">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A306" s="55">
         <v>347</v>
       </c>
@@ -12099,7 +12104,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:33">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A307" s="55">
         <v>348</v>
       </c>
@@ -12119,7 +12124,7 @@
       <c r="G307" s="53"/>
       <c r="H307" s="53"/>
     </row>
-    <row r="308" spans="1:33">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A308" s="55">
         <v>349</v>
       </c>
@@ -12139,7 +12144,7 @@
       <c r="G308" s="53"/>
       <c r="H308" s="53"/>
     </row>
-    <row r="309" spans="1:33">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A309" s="55">
         <v>350</v>
       </c>
@@ -12162,7 +12167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="310" spans="1:33">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A310" s="55">
         <v>351</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="311" spans="1:33">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A311" s="55">
         <v>352</v>
       </c>
@@ -12208,7 +12213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="312" spans="1:33">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A312" s="55">
         <v>353</v>
       </c>
@@ -12231,7 +12236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="313" spans="1:33">
+    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A313" s="55">
         <v>354</v>
       </c>
@@ -12251,7 +12256,7 @@
       <c r="G313" s="53"/>
       <c r="H313" s="53"/>
     </row>
-    <row r="314" spans="1:33">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A314" s="55">
         <v>355</v>
       </c>
@@ -12271,7 +12276,7 @@
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
     </row>
-    <row r="315" spans="1:33">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A315" s="55">
         <v>356</v>
       </c>
@@ -12294,7 +12299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="316" spans="1:33">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A316" s="55">
         <v>357</v>
       </c>
@@ -12326,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:33">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A317" s="55">
         <v>358</v>
       </c>
@@ -12349,7 +12354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:33">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A318" s="55">
         <v>359</v>
       </c>
@@ -12372,7 +12377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="319" spans="1:33">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A319" s="55">
         <v>360</v>
       </c>
@@ -12392,7 +12397,7 @@
       <c r="G319" s="53"/>
       <c r="H319" s="53"/>
     </row>
-    <row r="320" spans="1:33">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A320" s="55">
         <v>361</v>
       </c>
@@ -12412,7 +12417,7 @@
       <c r="G320" s="53"/>
       <c r="H320" s="53"/>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A321" s="55">
         <v>362</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322" s="55">
         <v>363</v>
       </c>
@@ -12458,7 +12463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323" s="55">
         <v>364</v>
       </c>
@@ -12481,7 +12486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324" s="55">
         <v>365</v>
       </c>
@@ -12504,7 +12509,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325" s="55">
         <v>366</v>
       </c>
@@ -12524,7 +12529,7 @@
       <c r="G325" s="53"/>
       <c r="H325" s="53"/>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A326" s="55">
         <v>367</v>
       </c>
@@ -12544,7 +12549,7 @@
       <c r="G326" s="53"/>
       <c r="H326" s="53"/>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A327" s="55">
         <v>368</v>
       </c>
@@ -12567,7 +12572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A328" s="55">
         <v>369</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A329" s="55">
         <v>370</v>
       </c>
@@ -12613,7 +12618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330" s="55">
         <v>371</v>
       </c>
@@ -12636,7 +12641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331" s="55">
         <v>372</v>
       </c>
@@ -12656,7 +12661,7 @@
       <c r="G331" s="53"/>
       <c r="H331" s="53"/>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332" s="55">
         <v>373</v>
       </c>
@@ -12676,7 +12681,7 @@
       <c r="G332" s="53"/>
       <c r="H332" s="53"/>
     </row>
-    <row r="333" spans="1:18">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333" s="55">
         <v>374</v>
       </c>
@@ -12699,7 +12704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334" s="55">
         <v>375</v>
       </c>
@@ -12722,7 +12727,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="335" spans="1:18">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335" s="55">
         <v>376</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336" s="55">
         <v>377</v>
       </c>
@@ -12768,7 +12773,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="337" spans="1:18">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337" s="55">
         <v>378</v>
       </c>
@@ -12788,7 +12793,7 @@
       <c r="G337" s="53"/>
       <c r="H337" s="53"/>
     </row>
-    <row r="338" spans="1:18">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338" s="55">
         <v>379</v>
       </c>
@@ -12808,7 +12813,7 @@
       <c r="G338" s="53"/>
       <c r="H338" s="53"/>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339" s="55">
         <v>380</v>
       </c>
@@ -12831,7 +12836,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="340" spans="1:18">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340" s="55">
         <v>381</v>
       </c>
@@ -12854,7 +12859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="341" spans="1:18">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341" s="55">
         <v>382</v>
       </c>
@@ -12877,7 +12882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="342" spans="1:18">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A342" s="55">
         <v>383</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="343" spans="1:18">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A343" s="55">
         <v>384</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A344" s="55">
         <v>385</v>
       </c>
@@ -12934,7 +12939,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="345" spans="1:18">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A345" s="55">
         <v>386</v>
       </c>
@@ -12955,7 +12960,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A346" s="55">
         <v>387</v>
       </c>
@@ -12976,7 +12981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="347" spans="1:18">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A347" s="55">
         <v>388</v>
       </c>
@@ -12997,7 +13002,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A348" s="55">
         <v>389</v>
       </c>
@@ -13018,7 +13023,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="349" spans="1:18">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A349" s="55">
         <v>390</v>
       </c>
@@ -13036,7 +13041,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A350" s="55">
         <v>391</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="351" spans="1:18">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A351" s="55">
         <v>392</v>
       </c>
@@ -13075,7 +13080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="352" spans="1:18">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A352" s="55">
         <v>393</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A353" s="55">
         <v>394</v>
       </c>
@@ -13117,7 +13122,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A354" s="55">
         <v>395</v>
       </c>
@@ -13138,7 +13143,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A355" s="55">
         <v>396</v>
       </c>
@@ -13156,7 +13161,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A356" s="55">
         <v>397</v>
       </c>
@@ -13174,7 +13179,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A357" s="55">
         <v>398</v>
       </c>
@@ -13195,7 +13200,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358" s="55">
         <v>399</v>
       </c>
@@ -13216,7 +13221,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A359" s="55">
         <v>400</v>
       </c>
@@ -13237,7 +13242,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A360" s="55">
         <v>401</v>
       </c>
@@ -13258,7 +13263,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="361" spans="1:18">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A361" s="55">
         <v>402</v>
       </c>
@@ -13276,7 +13281,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362" s="55">
         <v>403</v>
       </c>
@@ -13294,7 +13299,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A363" s="55">
         <v>404</v>
       </c>
@@ -13312,7 +13317,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A364" s="55">
         <v>405</v>
       </c>
@@ -13330,7 +13335,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A365" s="55">
         <v>406</v>
       </c>
@@ -13348,7 +13353,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A366" s="55">
         <v>407</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A367" s="55">
         <v>408</v>
       </c>
@@ -13384,7 +13389,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="368" spans="1:18">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A368" s="55">
         <v>409</v>
       </c>
@@ -13402,7 +13407,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="369" spans="1:35">
+    <row r="369" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A369" s="55">
         <v>410</v>
       </c>
@@ -13420,7 +13425,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="370" spans="1:35">
+    <row r="370" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A370" s="55">
         <v>411</v>
       </c>
@@ -13438,7 +13443,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="371" spans="1:35">
+    <row r="371" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A371" s="55">
         <v>412</v>
       </c>
@@ -13456,7 +13461,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="372" spans="1:35">
+    <row r="372" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A372" s="55">
         <v>413</v>
       </c>
@@ -13474,7 +13479,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="373" spans="1:35">
+    <row r="373" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A373" s="55">
         <v>414</v>
       </c>
@@ -13492,7 +13497,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="374" spans="1:35">
+    <row r="374" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A374" s="55">
         <v>415</v>
       </c>
@@ -13510,7 +13515,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="375" spans="1:35">
+    <row r="375" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A375" s="55">
         <v>416</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="376" spans="1:35">
+    <row r="376" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A376" s="55">
         <v>417</v>
       </c>
@@ -13546,7 +13551,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="377" spans="1:35">
+    <row r="377" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A377" s="55">
         <v>418</v>
       </c>
@@ -13564,7 +13569,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="378" spans="1:35">
+    <row r="378" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A378" s="55">
         <v>419</v>
       </c>
@@ -13582,7 +13587,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="379" spans="1:35">
+    <row r="379" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A379" s="55">
         <v>420</v>
       </c>
@@ -13600,7 +13605,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="380" spans="1:35">
+    <row r="380" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A380" s="55">
         <v>421</v>
       </c>
@@ -13621,7 +13626,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="381" spans="1:35">
+    <row r="381" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A381" s="55">
         <v>421</v>
       </c>
@@ -13650,7 +13655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:35" s="78" customFormat="1">
+    <row r="382" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="75">
         <v>422</v>
       </c>
@@ -13696,7 +13701,7 @@
       <c r="AG382" s="77"/>
       <c r="AH382" s="77"/>
     </row>
-    <row r="383" spans="1:35" s="78" customFormat="1">
+    <row r="383" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A383" s="75">
         <v>423</v>
       </c>
@@ -13744,7 +13749,7 @@
       <c r="AG383" s="77"/>
       <c r="AH383" s="77"/>
     </row>
-    <row r="384" spans="1:35">
+    <row r="384" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A384" s="55">
         <v>424</v>
       </c>
@@ -13764,7 +13769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:34" s="78" customFormat="1">
+    <row r="385" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="75">
         <v>425</v>
       </c>
@@ -13810,7 +13815,7 @@
       <c r="AG385" s="77"/>
       <c r="AH385" s="77"/>
     </row>
-    <row r="386" spans="1:34" s="78" customFormat="1" ht="21.6" customHeight="1">
+    <row r="386" spans="1:34" s="78" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="75">
         <v>427</v>
       </c>
@@ -13856,7 +13861,7 @@
       <c r="AG386" s="77"/>
       <c r="AH386" s="77"/>
     </row>
-    <row r="387" spans="1:34" s="78" customFormat="1">
+    <row r="387" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="75">
         <v>428</v>
       </c>
@@ -13902,7 +13907,7 @@
       <c r="AG387" s="77"/>
       <c r="AH387" s="77"/>
     </row>
-    <row r="388" spans="1:34" s="78" customFormat="1">
+    <row r="388" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="75">
         <v>429</v>
       </c>
@@ -13948,7 +13953,7 @@
       <c r="AG388" s="77"/>
       <c r="AH388" s="77"/>
     </row>
-    <row r="389" spans="1:34">
+    <row r="389" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A389" s="55">
         <v>430</v>
       </c>
@@ -13968,7 +13973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:34">
+    <row r="390" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A390" s="55">
         <v>432</v>
       </c>
@@ -13988,7 +13993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:34">
+    <row r="391" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A391" s="55">
         <v>433</v>
       </c>
@@ -14008,7 +14013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:34">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A392" s="55">
         <v>434</v>
       </c>
@@ -14028,7 +14033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:34">
+    <row r="393" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A393" s="55">
         <v>435</v>
       </c>
@@ -14048,7 +14053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:34" ht="60">
+    <row r="394" spans="1:34" ht="58" x14ac:dyDescent="0.35">
       <c r="B394" s="55" t="s">
         <v>1109</v>
       </c>
@@ -14065,7 +14070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:34">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A395" s="55">
         <v>437</v>
       </c>
@@ -14085,7 +14090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:34" ht="30">
+    <row r="396" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A396" s="55">
         <v>438</v>
       </c>
@@ -14105,7 +14110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:34" ht="45">
+    <row r="397" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A397" s="55">
         <v>439</v>
       </c>
@@ -14125,7 +14130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:34">
+    <row r="398" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A398" s="55">
         <v>440</v>
       </c>
@@ -14145,7 +14150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:34" s="78" customFormat="1">
+    <row r="399" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A399" s="75">
         <v>441</v>
       </c>
@@ -14191,7 +14196,7 @@
       <c r="AG399" s="77"/>
       <c r="AH399" s="77"/>
     </row>
-    <row r="400" spans="1:34">
+    <row r="400" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A400" s="55">
         <v>442</v>
       </c>
@@ -14211,7 +14216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401" s="55">
         <v>443</v>
       </c>
@@ -14231,7 +14236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402" s="55">
         <v>444</v>
       </c>
@@ -14251,7 +14256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403" s="55">
         <v>445</v>
       </c>
@@ -14278,7 +14283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14288,27 +14293,27 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
-    <col min="7" max="24" width="9.140625" style="2"/>
-    <col min="25" max="25" width="17.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="23.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="17.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="25.453125" style="2" customWidth="1"/>
+    <col min="7" max="24" width="9.1796875" style="2"/>
+    <col min="25" max="25" width="17.26953125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="2"/>
+    <col min="27" max="27" width="23.26953125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.453125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.26953125" style="2" customWidth="1"/>
     <col min="30" max="30" width="21" style="2" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" style="2"/>
-    <col min="33" max="33" width="31.85546875" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="32" width="9.1796875" style="2"/>
+    <col min="33" max="33" width="31.81640625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="62" customFormat="1" ht="15.75">
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
@@ -14325,7 +14330,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
@@ -14340,7 +14345,7 @@
       </c>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
@@ -14364,22 +14369,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="28" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="28"/>
-    <col min="6" max="10" width="8.7109375" style="27"/>
+    <col min="1" max="1" width="7.1796875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="28" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="28"/>
+    <col min="6" max="10" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1034</v>
       </c>
@@ -14426,7 +14431,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -14473,7 +14478,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -14520,7 +14525,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -14567,7 +14572,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -14614,7 +14619,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -14661,7 +14666,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -14708,7 +14713,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -14755,7 +14760,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -14802,7 +14807,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -14849,7 +14854,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -14896,7 +14901,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -14943,7 +14948,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -14990,7 +14995,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -15037,7 +15042,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -15084,7 +15089,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -15131,7 +15136,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -15178,7 +15183,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -15225,7 +15230,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -15272,7 +15277,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -15319,7 +15324,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -15366,7 +15371,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -15413,7 +15418,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -15460,7 +15465,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -15507,7 +15512,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -15554,7 +15559,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -15601,7 +15606,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -15648,7 +15653,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -15695,7 +15700,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -15742,7 +15747,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -15774,7 +15779,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -15806,7 +15811,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -15841,7 +15846,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -15876,7 +15881,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -15979,7 +15984,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -16011,7 +16016,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -16043,7 +16048,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44">
         <v>38</v>
       </c>
@@ -16075,7 +16080,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -16107,7 +16112,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -16139,7 +16144,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -16171,7 +16176,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="40">
         <v>42</v>
       </c>
@@ -16203,7 +16208,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="40">
         <v>43</v>
       </c>
@@ -16235,7 +16240,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>44</v>
       </c>
@@ -16267,7 +16272,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="40">
         <v>45</v>
       </c>
@@ -16299,7 +16304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="40">
         <v>46</v>
       </c>
@@ -16331,7 +16336,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="40">
         <v>47</v>
       </c>
@@ -16363,7 +16368,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="40">
         <v>48</v>
       </c>
@@ -16395,7 +16400,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="40">
         <v>49</v>
       </c>
@@ -16427,7 +16432,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="40">
         <v>50</v>
       </c>
@@ -16459,7 +16464,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>51</v>
       </c>
@@ -16491,7 +16496,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -16523,7 +16528,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="23">
         <v>53</v>
       </c>
@@ -16555,7 +16560,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -16587,7 +16592,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -16619,7 +16624,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -16651,7 +16656,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40">
         <v>57</v>
       </c>
@@ -16683,7 +16688,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -16715,7 +16720,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="40">
         <v>59</v>
       </c>
@@ -16747,7 +16752,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -16779,7 +16784,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -16811,7 +16816,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -16843,7 +16848,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="40">
         <v>63</v>
       </c>
@@ -16875,7 +16880,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="40">
         <v>64</v>
       </c>
@@ -16907,7 +16912,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -16939,7 +16944,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -16971,7 +16976,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" thickBot="1">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -17003,7 +17008,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -17035,7 +17040,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="40">
         <v>69</v>
       </c>
@@ -17067,7 +17072,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -17099,7 +17104,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -17131,7 +17136,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -17163,7 +17168,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="40">
         <v>73</v>
       </c>
@@ -17195,7 +17200,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -17227,7 +17232,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -17259,7 +17264,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -17291,7 +17296,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -17323,7 +17328,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -17355,7 +17360,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -17387,7 +17392,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -17419,7 +17424,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -17451,7 +17456,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -17483,7 +17488,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -17515,7 +17520,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -17547,7 +17552,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -17579,7 +17584,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -17611,7 +17616,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -17643,7 +17648,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -17675,7 +17680,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -17707,7 +17712,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>90</v>
       </c>
@@ -17739,7 +17744,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="23">
         <v>91</v>
       </c>
@@ -17771,7 +17776,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="24">
         <v>92</v>
       </c>
@@ -17803,7 +17808,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -17835,7 +17840,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -17867,7 +17872,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="24">
         <v>95</v>
       </c>
@@ -17899,7 +17904,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1">
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -17931,7 +17936,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="24">
         <v>97</v>
       </c>
@@ -17963,7 +17968,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1">
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -17995,7 +18000,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1">
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="24">
         <v>99</v>
       </c>
@@ -18027,7 +18032,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -18059,7 +18064,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1">
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="24">
         <v>101</v>
       </c>
@@ -18091,7 +18096,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1">
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -18123,7 +18128,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="24">
         <v>103</v>
       </c>
@@ -18155,7 +18160,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1">
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="44">
         <v>104</v>
       </c>
@@ -18187,7 +18192,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1">
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -18219,7 +18224,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1">
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="24">
         <v>106</v>
       </c>
@@ -18251,7 +18256,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1">
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -18283,7 +18288,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1">
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="24">
         <v>108</v>
       </c>
@@ -18315,7 +18320,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1">
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -18347,7 +18352,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" thickBot="1">
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="24">
         <v>110</v>
       </c>
@@ -18379,7 +18384,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1">
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="44">
         <v>111</v>
       </c>
@@ -18411,7 +18416,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -18443,7 +18448,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1">
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="24">
         <v>113</v>
       </c>
@@ -18475,7 +18480,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1">
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="44">
         <v>114</v>
       </c>
@@ -18507,7 +18512,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1">
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -18539,7 +18544,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1">
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="44">
         <v>116</v>
       </c>
@@ -18571,7 +18576,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1">
+    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -18603,7 +18608,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" thickBot="1">
+    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="44">
         <v>118</v>
       </c>
@@ -18635,7 +18640,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" thickBot="1">
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -18667,7 +18672,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1">
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -18699,7 +18704,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1">
+    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -18731,7 +18736,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1">
+    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="23">
         <v>122</v>
       </c>
@@ -18763,7 +18768,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" thickBot="1">
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="23">
         <v>123</v>
       </c>
@@ -18795,7 +18800,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" thickBot="1">
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="24">
         <v>124</v>
       </c>
@@ -18827,7 +18832,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1">
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -18859,7 +18864,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" thickBot="1">
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="24">
         <v>126</v>
       </c>
@@ -18891,7 +18896,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" thickBot="1">
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -18923,7 +18928,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" thickBot="1">
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="24">
         <v>128</v>
       </c>
@@ -18955,7 +18960,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" thickBot="1">
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -18987,7 +18992,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" thickBot="1">
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -19019,7 +19024,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1">
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -19051,7 +19056,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" thickBot="1">
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -19083,7 +19088,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" thickBot="1">
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -19115,7 +19120,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" thickBot="1">
+    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -19147,7 +19152,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickBot="1">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="24">
         <v>135</v>
       </c>
@@ -19179,7 +19184,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" thickBot="1">
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -19211,7 +19216,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" thickBot="1">
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -19243,7 +19248,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" thickBot="1">
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="24">
         <v>138</v>
       </c>
@@ -19275,7 +19280,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" thickBot="1">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="44">
         <v>139</v>
       </c>
@@ -19307,7 +19312,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" thickBot="1">
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="40">
         <v>140</v>
       </c>
@@ -19339,7 +19344,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" thickBot="1">
+    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="44">
         <v>141</v>
       </c>
@@ -19371,7 +19376,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" thickBot="1">
+    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -19403,7 +19408,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" thickBot="1">
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="24">
         <v>143</v>
       </c>
@@ -19435,7 +19440,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" thickBot="1">
+    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="44">
         <v>144</v>
       </c>
@@ -19467,7 +19472,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1">
+    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="40">
         <v>145</v>
       </c>
@@ -19499,7 +19504,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" thickBot="1">
+    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="44">
         <v>146</v>
       </c>
@@ -19531,7 +19536,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" thickBot="1">
+    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="40">
         <v>147</v>
       </c>
@@ -19563,7 +19568,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" thickBot="1">
+    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -19595,7 +19600,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" thickBot="1">
+    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="24">
         <v>149</v>
       </c>
@@ -19627,7 +19632,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" thickBot="1">
+    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="44">
         <v>150</v>
       </c>
@@ -19659,7 +19664,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" thickBot="1">
+    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="40">
         <v>151</v>
       </c>
@@ -19691,7 +19696,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" thickBot="1">
+    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="44">
         <v>152</v>
       </c>
@@ -19723,7 +19728,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.75" thickBot="1">
+    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="40">
         <v>153</v>
       </c>
@@ -19755,7 +19760,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.75" thickBot="1">
+    <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="44">
         <v>154</v>
       </c>
@@ -19787,7 +19792,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.75" thickBot="1">
+    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="40">
         <v>155</v>
       </c>
@@ -19819,7 +19824,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" thickBot="1">
+    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="44">
         <v>156</v>
       </c>
@@ -19851,7 +19856,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" thickBot="1">
+    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -19883,7 +19888,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.75" thickBot="1">
+    <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="24">
         <v>158</v>
       </c>
@@ -19915,7 +19920,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15.75" thickBot="1">
+    <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="44">
         <v>159</v>
       </c>
@@ -19947,7 +19952,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15.75" thickBot="1">
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="40">
         <v>160</v>
       </c>
@@ -19979,7 +19984,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15.75" thickBot="1">
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="44">
         <v>161</v>
       </c>
@@ -20011,7 +20016,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15.75" thickBot="1">
+    <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="40">
         <v>162</v>
       </c>
@@ -20043,7 +20048,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15.75" thickBot="1">
+    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -20075,7 +20080,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15.75" thickBot="1">
+    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="24">
         <v>164</v>
       </c>
@@ -20107,7 +20112,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15.75" thickBot="1">
+    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="44">
         <v>165</v>
       </c>
@@ -20139,7 +20144,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15.75" thickBot="1">
+    <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="40">
         <v>166</v>
       </c>
@@ -20171,7 +20176,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15.75" thickBot="1">
+    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -20203,7 +20208,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15.75" thickBot="1">
+    <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="24">
         <v>168</v>
       </c>
@@ -20235,7 +20240,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15.75" thickBot="1">
+    <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="44">
         <v>169</v>
       </c>
@@ -20267,7 +20272,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" thickBot="1">
+    <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="40">
         <v>170</v>
       </c>
@@ -20299,7 +20304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" thickBot="1">
+    <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="44">
         <v>171</v>
       </c>
@@ -20331,7 +20336,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" thickBot="1">
+    <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="40">
         <v>172</v>
       </c>
@@ -20363,7 +20368,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" thickBot="1">
+    <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="44">
         <v>173</v>
       </c>
@@ -20395,7 +20400,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" thickBot="1">
+    <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="40">
         <v>174</v>
       </c>
@@ -20427,7 +20432,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" thickBot="1">
+    <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="44">
         <v>175</v>
       </c>
@@ -20459,7 +20464,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" thickBot="1">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="40">
         <v>176</v>
       </c>
@@ -20491,7 +20496,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" thickBot="1">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="44">
         <v>177</v>
       </c>
@@ -20523,7 +20528,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" thickBot="1">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -20555,7 +20560,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" thickBot="1">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="24">
         <v>179</v>
       </c>
@@ -20587,7 +20592,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" thickBot="1">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="44">
         <v>180</v>
       </c>
@@ -20619,7 +20624,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" thickBot="1">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="40">
         <v>181</v>
       </c>
@@ -20651,7 +20656,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" thickBot="1">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="44">
         <v>182</v>
       </c>
@@ -20683,7 +20688,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" thickBot="1">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="40">
         <v>183</v>
       </c>
@@ -20715,7 +20720,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" thickBot="1">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="44">
         <v>184</v>
       </c>
@@ -20747,7 +20752,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15.75" thickBot="1">
+    <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -20779,7 +20784,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" thickBot="1">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="24">
         <v>186</v>
       </c>
@@ -20811,7 +20816,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15.75" thickBot="1">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="44">
         <v>187</v>
       </c>
@@ -20843,7 +20848,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" thickBot="1">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="40">
         <v>188</v>
       </c>
@@ -20875,7 +20880,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" thickBot="1">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -20907,7 +20912,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" thickBot="1">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="24">
         <v>190</v>
       </c>
@@ -20939,7 +20944,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" thickBot="1">
+    <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="44">
         <v>191</v>
       </c>
@@ -20971,7 +20976,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" thickBot="1">
+    <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -21003,7 +21008,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" thickBot="1">
+    <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="24">
         <v>193</v>
       </c>
@@ -21035,7 +21040,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.75" thickBot="1">
+    <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="44">
         <v>194</v>
       </c>
@@ -21067,7 +21072,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.75" thickBot="1">
+    <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="40">
         <v>195</v>
       </c>
@@ -21099,7 +21104,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.75" thickBot="1">
+    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="44">
         <v>196</v>
       </c>
@@ -21131,7 +21136,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15.75" thickBot="1">
+    <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -21163,7 +21168,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.75" thickBot="1">
+    <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="24">
         <v>198</v>
       </c>
@@ -21195,7 +21200,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.75" thickBot="1">
+    <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="44">
         <v>199</v>
       </c>
@@ -21227,7 +21232,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15.75" thickBot="1">
+    <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="40">
         <v>200</v>
       </c>
@@ -21259,7 +21264,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15.75" thickBot="1">
+    <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -21291,7 +21296,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.75" thickBot="1">
+    <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="24">
         <v>202</v>
       </c>
@@ -21323,7 +21328,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.75" thickBot="1">
+    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="44">
         <v>203</v>
       </c>
@@ -21355,7 +21360,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.75" thickBot="1">
+    <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -21387,7 +21392,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.75" thickBot="1">
+    <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="24">
         <v>205</v>
       </c>
@@ -21419,7 +21424,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" thickBot="1">
+    <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="44">
         <v>206</v>
       </c>
@@ -21451,7 +21456,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15.75" thickBot="1">
+    <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="40">
         <v>207</v>
       </c>
@@ -21483,7 +21488,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15.75" thickBot="1">
+    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -21515,7 +21520,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15.75" thickBot="1">
+    <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="23">
         <v>209</v>
       </c>
@@ -21547,7 +21552,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15.75" thickBot="1">
+    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="24">
         <v>210</v>
       </c>
@@ -21579,7 +21584,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15.75" thickBot="1">
+    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -21611,7 +21616,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15.75" thickBot="1">
+    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="24">
         <v>212</v>
       </c>
@@ -21643,7 +21648,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15.75" thickBot="1">
+    <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="44">
         <v>213</v>
       </c>
@@ -21675,7 +21680,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15.75" thickBot="1">
+    <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="40">
         <v>214</v>
       </c>
@@ -21707,7 +21712,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15.75" thickBot="1">
+    <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="44">
         <v>215</v>
       </c>
@@ -21729,7 +21734,7 @@
       <c r="I216" s="30"/>
       <c r="J216" s="31"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" thickBot="1">
+    <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="40">
         <v>216</v>
       </c>
@@ -21751,7 +21756,7 @@
       <c r="I217" s="33"/>
       <c r="J217" s="34"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" thickBot="1">
+    <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="44">
         <v>217</v>
       </c>
@@ -21773,7 +21778,7 @@
       <c r="I218" s="33"/>
       <c r="J218" s="34"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" thickBot="1">
+    <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="40">
         <v>218</v>
       </c>
@@ -21795,7 +21800,7 @@
       <c r="I219" s="33"/>
       <c r="J219" s="34"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" thickBot="1">
+    <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="44">
         <v>219</v>
       </c>
@@ -21817,7 +21822,7 @@
       <c r="I220" s="33"/>
       <c r="J220" s="34"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" thickBot="1">
+    <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="40">
         <v>220</v>
       </c>
@@ -21839,7 +21844,7 @@
       <c r="I221" s="33"/>
       <c r="J221" s="34"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" thickBot="1">
+    <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="44">
         <v>221</v>
       </c>
@@ -21861,7 +21866,7 @@
       <c r="I222" s="33"/>
       <c r="J222" s="34"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" thickBot="1">
+    <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="40">
         <v>222</v>
       </c>
@@ -21883,7 +21888,7 @@
       <c r="I223" s="33"/>
       <c r="J223" s="34"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" thickBot="1">
+    <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -21905,7 +21910,7 @@
       <c r="I224" s="33"/>
       <c r="J224" s="34"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" thickBot="1">
+    <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="23">
         <v>224</v>
       </c>
@@ -21927,7 +21932,7 @@
       <c r="I225" s="33"/>
       <c r="J225" s="34"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" thickBot="1">
+    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="23">
         <v>225</v>
       </c>
@@ -21949,7 +21954,7 @@
       <c r="I226" s="33"/>
       <c r="J226" s="34"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" thickBot="1">
+    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="23">
         <v>226</v>
       </c>
@@ -21971,7 +21976,7 @@
       <c r="I227" s="33"/>
       <c r="J227" s="34"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" thickBot="1">
+    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="23">
         <v>227</v>
       </c>
@@ -21993,7 +21998,7 @@
       <c r="I228" s="33"/>
       <c r="J228" s="34"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" thickBot="1">
+    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="24">
         <v>228</v>
       </c>
@@ -22015,7 +22020,7 @@
       <c r="I229" s="33"/>
       <c r="J229" s="34"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" thickBot="1">
+    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="44">
         <v>229</v>
       </c>
@@ -22037,7 +22042,7 @@
       <c r="I230" s="33"/>
       <c r="J230" s="34"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" thickBot="1">
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="40">
         <v>230</v>
       </c>
@@ -22059,7 +22064,7 @@
       <c r="I231" s="33"/>
       <c r="J231" s="34"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" thickBot="1">
+    <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="44">
         <v>231</v>
       </c>
@@ -22081,7 +22086,7 @@
       <c r="I232" s="33"/>
       <c r="J232" s="34"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" thickBot="1">
+    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="40">
         <v>232</v>
       </c>
@@ -22103,7 +22108,7 @@
       <c r="I233" s="33"/>
       <c r="J233" s="34"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" thickBot="1">
+    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="44">
         <v>233</v>
       </c>
@@ -22125,7 +22130,7 @@
       <c r="I234" s="33"/>
       <c r="J234" s="34"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" thickBot="1">
+    <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="40">
         <v>234</v>
       </c>
@@ -22147,7 +22152,7 @@
       <c r="I235" s="33"/>
       <c r="J235" s="34"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" thickBot="1">
+    <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="44">
         <v>235</v>
       </c>
@@ -22169,7 +22174,7 @@
       <c r="I236" s="33"/>
       <c r="J236" s="34"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" thickBot="1">
+    <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="40">
         <v>236</v>
       </c>
@@ -22191,7 +22196,7 @@
       <c r="I237" s="33"/>
       <c r="J237" s="34"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" thickBot="1">
+    <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -22213,7 +22218,7 @@
       <c r="I238" s="33"/>
       <c r="J238" s="34"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" thickBot="1">
+    <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="24">
         <v>238</v>
       </c>
@@ -22235,7 +22240,7 @@
       <c r="I239" s="33"/>
       <c r="J239" s="34"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" thickBot="1">
+    <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="44">
         <v>239</v>
       </c>
@@ -22257,7 +22262,7 @@
       <c r="I240" s="33"/>
       <c r="J240" s="34"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" thickBot="1">
+    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="40">
         <v>240</v>
       </c>
@@ -22279,7 +22284,7 @@
       <c r="I241" s="33"/>
       <c r="J241" s="34"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" thickBot="1">
+    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="44">
         <v>241</v>
       </c>
@@ -22301,7 +22306,7 @@
       <c r="I242" s="33"/>
       <c r="J242" s="34"/>
     </row>
-    <row r="243" spans="1:10" ht="15.75" thickBot="1">
+    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="40">
         <v>242</v>
       </c>
@@ -22323,7 +22328,7 @@
       <c r="I243" s="33"/>
       <c r="J243" s="34"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" thickBot="1">
+    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="44">
         <v>243</v>
       </c>
@@ -22345,7 +22350,7 @@
       <c r="I244" s="33"/>
       <c r="J244" s="34"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" thickBot="1">
+    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="40">
         <v>244</v>
       </c>
@@ -22367,7 +22372,7 @@
       <c r="I245" s="33"/>
       <c r="J245" s="34"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" thickBot="1">
+    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="44">
         <v>245</v>
       </c>
@@ -22389,7 +22394,7 @@
       <c r="I246" s="33"/>
       <c r="J246" s="34"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" thickBot="1">
+    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="40">
         <v>246</v>
       </c>
@@ -22411,7 +22416,7 @@
       <c r="I247" s="33"/>
       <c r="J247" s="34"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" thickBot="1">
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="44">
         <v>247</v>
       </c>
@@ -22433,7 +22438,7 @@
       <c r="I248" s="33"/>
       <c r="J248" s="34"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" thickBot="1">
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="40">
         <v>248</v>
       </c>
@@ -22455,7 +22460,7 @@
       <c r="I249" s="33"/>
       <c r="J249" s="34"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" thickBot="1">
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -22477,7 +22482,7 @@
       <c r="I250" s="33"/>
       <c r="J250" s="34"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" thickBot="1">
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="24">
         <v>250</v>
       </c>
@@ -22499,7 +22504,7 @@
       <c r="I251" s="33"/>
       <c r="J251" s="34"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" thickBot="1">
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="44">
         <v>251</v>
       </c>
@@ -22521,7 +22526,7 @@
       <c r="I252" s="33"/>
       <c r="J252" s="34"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" thickBot="1">
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="40">
         <v>252</v>
       </c>
@@ -22543,7 +22548,7 @@
       <c r="I253" s="33"/>
       <c r="J253" s="34"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" thickBot="1">
+    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -22565,7 +22570,7 @@
       <c r="I254" s="33"/>
       <c r="J254" s="34"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" thickBot="1">
+    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="23">
         <v>254</v>
       </c>
@@ -22587,7 +22592,7 @@
       <c r="I255" s="33"/>
       <c r="J255" s="34"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" thickBot="1">
+    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="23">
         <v>255</v>
       </c>
@@ -22609,7 +22614,7 @@
       <c r="I256" s="33"/>
       <c r="J256" s="34"/>
     </row>
-    <row r="257" spans="1:10" ht="15.75" thickBot="1">
+    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="24">
         <v>256</v>
       </c>
@@ -22631,7 +22636,7 @@
       <c r="I257" s="33"/>
       <c r="J257" s="34"/>
     </row>
-    <row r="258" spans="1:10" ht="15.75" thickBot="1">
+    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="44">
         <v>257</v>
       </c>
@@ -22653,7 +22658,7 @@
       <c r="I258" s="33"/>
       <c r="J258" s="34"/>
     </row>
-    <row r="259" spans="1:10" ht="15.75" thickBot="1">
+    <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="40">
         <v>258</v>
       </c>
@@ -22675,7 +22680,7 @@
       <c r="I259" s="33"/>
       <c r="J259" s="34"/>
     </row>
-    <row r="260" spans="1:10" ht="15.75" thickBot="1">
+    <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -22697,7 +22702,7 @@
       <c r="I260" s="33"/>
       <c r="J260" s="34"/>
     </row>
-    <row r="261" spans="1:10" ht="15.75" thickBot="1">
+    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="24">
         <v>260</v>
       </c>
@@ -22719,7 +22724,7 @@
       <c r="I261" s="33"/>
       <c r="J261" s="34"/>
     </row>
-    <row r="262" spans="1:10" ht="15.75" thickBot="1">
+    <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="40">
         <v>261</v>
       </c>
@@ -22741,7 +22746,7 @@
       <c r="I262" s="33"/>
       <c r="J262" s="34"/>
     </row>
-    <row r="263" spans="1:10" ht="15.75" thickBot="1">
+    <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="40">
         <v>262</v>
       </c>
@@ -22763,7 +22768,7 @@
       <c r="I263" s="33"/>
       <c r="J263" s="34"/>
     </row>
-    <row r="264" spans="1:10" ht="15.75" thickBot="1">
+    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="20">
         <v>263</v>
       </c>
@@ -22785,7 +22790,7 @@
       <c r="I264" s="33"/>
       <c r="J264" s="34"/>
     </row>
-    <row r="265" spans="1:10" ht="15.75" thickBot="1">
+    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="24">
         <v>264</v>
       </c>
@@ -22807,7 +22812,7 @@
       <c r="I265" s="33"/>
       <c r="J265" s="34"/>
     </row>
-    <row r="266" spans="1:10" ht="15.75" thickBot="1">
+    <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="40">
         <v>265</v>
       </c>
@@ -22829,7 +22834,7 @@
       <c r="I266" s="33"/>
       <c r="J266" s="34"/>
     </row>
-    <row r="267" spans="1:10" ht="15.75" thickBot="1">
+    <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="20">
         <v>266</v>
       </c>
@@ -22851,7 +22856,7 @@
       <c r="I267" s="33"/>
       <c r="J267" s="34"/>
     </row>
-    <row r="268" spans="1:10" ht="15.75" thickBot="1">
+    <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -22873,7 +22878,7 @@
       <c r="I268" s="33"/>
       <c r="J268" s="34"/>
     </row>
-    <row r="269" spans="1:10" ht="15.75" thickBot="1">
+    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="20">
         <v>268</v>
       </c>
@@ -22895,7 +22900,7 @@
       <c r="I269" s="33"/>
       <c r="J269" s="34"/>
     </row>
-    <row r="270" spans="1:10" ht="15.75" thickBot="1">
+    <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="23">
         <v>269</v>
       </c>
@@ -22917,7 +22922,7 @@
       <c r="I270" s="33"/>
       <c r="J270" s="34"/>
     </row>
-    <row r="271" spans="1:10" ht="15.75" thickBot="1">
+    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="24">
         <v>270</v>
       </c>
@@ -22939,7 +22944,7 @@
       <c r="I271" s="33"/>
       <c r="J271" s="34"/>
     </row>
-    <row r="272" spans="1:10" ht="15.75" thickBot="1">
+    <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="44">
         <v>271</v>
       </c>
@@ -22961,7 +22966,7 @@
       <c r="I272" s="33"/>
       <c r="J272" s="34"/>
     </row>
-    <row r="273" spans="1:10" ht="15.75" thickBot="1">
+    <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="40">
         <v>272</v>
       </c>
@@ -22983,7 +22988,7 @@
       <c r="I273" s="33"/>
       <c r="J273" s="34"/>
     </row>
-    <row r="274" spans="1:10" ht="15.75" thickBot="1">
+    <row r="274" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="20">
         <v>273</v>
       </c>
@@ -23005,7 +23010,7 @@
       <c r="I274" s="33"/>
       <c r="J274" s="34"/>
     </row>
-    <row r="275" spans="1:10" ht="15.75" thickBot="1">
+    <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="24">
         <v>274</v>
       </c>
@@ -23027,7 +23032,7 @@
       <c r="I275" s="33"/>
       <c r="J275" s="34"/>
     </row>
-    <row r="276" spans="1:10" ht="15.75" thickBot="1">
+    <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="44">
         <v>275</v>
       </c>
@@ -23049,7 +23054,7 @@
       <c r="I276" s="33"/>
       <c r="J276" s="34"/>
     </row>
-    <row r="277" spans="1:10" ht="15.75" thickBot="1">
+    <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="40">
         <v>276</v>
       </c>
@@ -23071,7 +23076,7 @@
       <c r="I277" s="33"/>
       <c r="J277" s="34"/>
     </row>
-    <row r="278" spans="1:10" ht="15.75" thickBot="1">
+    <row r="278" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="44">
         <v>277</v>
       </c>
@@ -23093,7 +23098,7 @@
       <c r="I278" s="33"/>
       <c r="J278" s="34"/>
     </row>
-    <row r="279" spans="1:10" ht="15.75" thickBot="1">
+    <row r="279" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="40">
         <v>278</v>
       </c>
@@ -23115,7 +23120,7 @@
       <c r="I279" s="33"/>
       <c r="J279" s="34"/>
     </row>
-    <row r="280" spans="1:10" ht="15.75" thickBot="1">
+    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="20">
         <v>279</v>
       </c>
@@ -23137,7 +23142,7 @@
       <c r="I280" s="33"/>
       <c r="J280" s="34"/>
     </row>
-    <row r="281" spans="1:10" ht="15.75" thickBot="1">
+    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="23">
         <v>280</v>
       </c>
@@ -23159,7 +23164,7 @@
       <c r="I281" s="33"/>
       <c r="J281" s="34"/>
     </row>
-    <row r="282" spans="1:10" ht="15.75" thickBot="1">
+    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="24">
         <v>281</v>
       </c>
@@ -23181,7 +23186,7 @@
       <c r="I282" s="33"/>
       <c r="J282" s="34"/>
     </row>
-    <row r="283" spans="1:10" ht="15.75" thickBot="1">
+    <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="44">
         <v>282</v>
       </c>
@@ -23203,7 +23208,7 @@
       <c r="I283" s="33"/>
       <c r="J283" s="34"/>
     </row>
-    <row r="284" spans="1:10" ht="15.75" thickBot="1">
+    <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="40">
         <v>283</v>
       </c>
@@ -23225,7 +23230,7 @@
       <c r="I284" s="33"/>
       <c r="J284" s="34"/>
     </row>
-    <row r="285" spans="1:10" ht="15.75" thickBot="1">
+    <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="20">
         <v>284</v>
       </c>
@@ -23247,7 +23252,7 @@
       <c r="I285" s="33"/>
       <c r="J285" s="34"/>
     </row>
-    <row r="286" spans="1:10" ht="15.75" thickBot="1">
+    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="23">
         <v>285</v>
       </c>
@@ -23269,7 +23274,7 @@
       <c r="I286" s="33"/>
       <c r="J286" s="34"/>
     </row>
-    <row r="287" spans="1:10" ht="15.75" thickBot="1">
+    <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="24">
         <v>286</v>
       </c>
@@ -23291,7 +23296,7 @@
       <c r="I287" s="33"/>
       <c r="J287" s="34"/>
     </row>
-    <row r="288" spans="1:10" ht="15.75" thickBot="1">
+    <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="20">
         <v>287</v>
       </c>
@@ -23313,7 +23318,7 @@
       <c r="I288" s="33"/>
       <c r="J288" s="34"/>
     </row>
-    <row r="289" spans="1:10" ht="15.75" thickBot="1">
+    <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="24">
         <v>288</v>
       </c>
@@ -23335,7 +23340,7 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
     </row>
-    <row r="290" spans="1:10" ht="15.75" thickBot="1">
+    <row r="290" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="40">
         <v>289</v>
       </c>
@@ -23357,7 +23362,7 @@
       <c r="I290" s="33"/>
       <c r="J290" s="34"/>
     </row>
-    <row r="291" spans="1:10" ht="15.75" thickBot="1">
+    <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="44">
         <v>290</v>
       </c>
@@ -23379,7 +23384,7 @@
       <c r="I291" s="33"/>
       <c r="J291" s="34"/>
     </row>
-    <row r="292" spans="1:10" ht="15.75" thickBot="1">
+    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="40">
         <v>291</v>
       </c>
@@ -23401,7 +23406,7 @@
       <c r="I292" s="33"/>
       <c r="J292" s="34"/>
     </row>
-    <row r="293" spans="1:10" ht="15.75" thickBot="1">
+    <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="44">
         <v>292</v>
       </c>
@@ -23423,7 +23428,7 @@
       <c r="I293" s="33"/>
       <c r="J293" s="34"/>
     </row>
-    <row r="294" spans="1:10" ht="15.75" thickBot="1">
+    <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="40">
         <v>293</v>
       </c>
@@ -23445,7 +23450,7 @@
       <c r="I294" s="33"/>
       <c r="J294" s="34"/>
     </row>
-    <row r="295" spans="1:10" ht="15.75" thickBot="1">
+    <row r="295" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="40">
         <v>294</v>
       </c>
@@ -23467,7 +23472,7 @@
       <c r="I295" s="33"/>
       <c r="J295" s="34"/>
     </row>
-    <row r="296" spans="1:10" ht="15.75" thickBot="1">
+    <row r="296" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="44">
         <v>295</v>
       </c>
@@ -23489,7 +23494,7 @@
       <c r="I296" s="33"/>
       <c r="J296" s="34"/>
     </row>
-    <row r="297" spans="1:10" ht="15.75" thickBot="1">
+    <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="20">
         <v>296</v>
       </c>
@@ -23511,7 +23516,7 @@
       <c r="I297" s="33"/>
       <c r="J297" s="34"/>
     </row>
-    <row r="298" spans="1:10" ht="15.75" thickBot="1">
+    <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="24">
         <v>297</v>
       </c>
@@ -23533,7 +23538,7 @@
       <c r="I298" s="33"/>
       <c r="J298" s="34"/>
     </row>
-    <row r="299" spans="1:10" ht="15.75" thickBot="1">
+    <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="40">
         <v>298</v>
       </c>
@@ -23555,7 +23560,7 @@
       <c r="I299" s="33"/>
       <c r="J299" s="34"/>
     </row>
-    <row r="300" spans="1:10" ht="15.75" thickBot="1">
+    <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="20">
         <v>299</v>
       </c>
@@ -23577,7 +23582,7 @@
       <c r="I300" s="33"/>
       <c r="J300" s="34"/>
     </row>
-    <row r="301" spans="1:10" ht="15.75" thickBot="1">
+    <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="24">
         <v>300</v>
       </c>
@@ -23599,7 +23604,7 @@
       <c r="I301" s="33"/>
       <c r="J301" s="34"/>
     </row>
-    <row r="302" spans="1:10" ht="15.75" thickBot="1">
+    <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="23">
         <v>301</v>
       </c>
@@ -23621,7 +23626,7 @@
       <c r="I302" s="33"/>
       <c r="J302" s="34"/>
     </row>
-    <row r="303" spans="1:10" ht="15.75" thickBot="1">
+    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="44">
         <v>302</v>
       </c>
@@ -23643,7 +23648,7 @@
       <c r="I303" s="33"/>
       <c r="J303" s="34"/>
     </row>
-    <row r="304" spans="1:10" ht="15.75" thickBot="1">
+    <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="40">
         <v>303</v>
       </c>
@@ -23665,7 +23670,7 @@
       <c r="I304" s="33"/>
       <c r="J304" s="34"/>
     </row>
-    <row r="305" spans="1:10" ht="15.75" thickBot="1">
+    <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="44">
         <v>304</v>
       </c>
@@ -23687,7 +23692,7 @@
       <c r="I305" s="33"/>
       <c r="J305" s="34"/>
     </row>
-    <row r="306" spans="1:10" ht="15.75" thickBot="1">
+    <row r="306" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="40">
         <v>305</v>
       </c>
@@ -23709,7 +23714,7 @@
       <c r="I306" s="33"/>
       <c r="J306" s="34"/>
     </row>
-    <row r="307" spans="1:10" ht="15.75" thickBot="1">
+    <row r="307" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="44">
         <v>306</v>
       </c>
@@ -23731,7 +23736,7 @@
       <c r="I307" s="33"/>
       <c r="J307" s="34"/>
     </row>
-    <row r="308" spans="1:10" ht="15.75" thickBot="1">
+    <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="40">
         <v>307</v>
       </c>
@@ -23753,7 +23758,7 @@
       <c r="I308" s="33"/>
       <c r="J308" s="34"/>
     </row>
-    <row r="309" spans="1:10" ht="15.75" thickBot="1">
+    <row r="309" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="44">
         <v>308</v>
       </c>
@@ -23775,7 +23780,7 @@
       <c r="I309" s="33"/>
       <c r="J309" s="34"/>
     </row>
-    <row r="310" spans="1:10" ht="15.75" thickBot="1">
+    <row r="310" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="40">
         <v>309</v>
       </c>
@@ -23797,7 +23802,7 @@
       <c r="I310" s="33"/>
       <c r="J310" s="34"/>
     </row>
-    <row r="311" spans="1:10" ht="15.75" thickBot="1">
+    <row r="311" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="44">
         <v>310</v>
       </c>
@@ -23819,7 +23824,7 @@
       <c r="I311" s="33"/>
       <c r="J311" s="34"/>
     </row>
-    <row r="312" spans="1:10" ht="15.75" thickBot="1">
+    <row r="312" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="40">
         <v>311</v>
       </c>
@@ -23841,7 +23846,7 @@
       <c r="I312" s="33"/>
       <c r="J312" s="34"/>
     </row>
-    <row r="313" spans="1:10" ht="15.75" thickBot="1">
+    <row r="313" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="20">
         <v>312</v>
       </c>
@@ -23863,7 +23868,7 @@
       <c r="I313" s="33"/>
       <c r="J313" s="34"/>
     </row>
-    <row r="314" spans="1:10" ht="15.75" thickBot="1">
+    <row r="314" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="24">
         <v>313</v>
       </c>
@@ -23885,7 +23890,7 @@
       <c r="I314" s="33"/>
       <c r="J314" s="34"/>
     </row>
-    <row r="315" spans="1:10" ht="15.75" thickBot="1">
+    <row r="315" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="44">
         <v>314</v>
       </c>
@@ -23907,7 +23912,7 @@
       <c r="I315" s="33"/>
       <c r="J315" s="34"/>
     </row>
-    <row r="316" spans="1:10" ht="15.75" thickBot="1">
+    <row r="316" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="20">
         <v>315</v>
       </c>
@@ -23929,7 +23934,7 @@
       <c r="I316" s="33"/>
       <c r="J316" s="34"/>
     </row>
-    <row r="317" spans="1:10" ht="15.75" thickBot="1">
+    <row r="317" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="24">
         <v>316</v>
       </c>
@@ -23951,7 +23956,7 @@
       <c r="I317" s="33"/>
       <c r="J317" s="34"/>
     </row>
-    <row r="318" spans="1:10" ht="15.75" thickBot="1">
+    <row r="318" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="44">
         <v>317</v>
       </c>
@@ -23973,7 +23978,7 @@
       <c r="I318" s="33"/>
       <c r="J318" s="34"/>
     </row>
-    <row r="319" spans="1:10" ht="15.75" thickBot="1">
+    <row r="319" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="40">
         <v>318</v>
       </c>
@@ -23995,7 +24000,7 @@
       <c r="I319" s="33"/>
       <c r="J319" s="34"/>
     </row>
-    <row r="320" spans="1:10" ht="15.75" thickBot="1">
+    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="44">
         <v>319</v>
       </c>
@@ -24017,7 +24022,7 @@
       <c r="I320" s="33"/>
       <c r="J320" s="34"/>
     </row>
-    <row r="321" spans="1:10" ht="15.75" thickBot="1">
+    <row r="321" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="40">
         <v>320</v>
       </c>
@@ -24039,7 +24044,7 @@
       <c r="I321" s="33"/>
       <c r="J321" s="34"/>
     </row>
-    <row r="322" spans="1:10" ht="15.75" thickBot="1">
+    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="44">
         <v>321</v>
       </c>
@@ -24061,7 +24066,7 @@
       <c r="I322" s="33"/>
       <c r="J322" s="34"/>
     </row>
-    <row r="323" spans="1:10" ht="15.75" thickBot="1">
+    <row r="323" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="40">
         <v>322</v>
       </c>
@@ -24083,7 +24088,7 @@
       <c r="I323" s="33"/>
       <c r="J323" s="34"/>
     </row>
-    <row r="324" spans="1:10" ht="15.75" thickBot="1">
+    <row r="324" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="44">
         <v>323</v>
       </c>
@@ -24105,7 +24110,7 @@
       <c r="I324" s="33"/>
       <c r="J324" s="34"/>
     </row>
-    <row r="325" spans="1:10" ht="15.75" thickBot="1">
+    <row r="325" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="40">
         <v>324</v>
       </c>
@@ -24127,7 +24132,7 @@
       <c r="I325" s="33"/>
       <c r="J325" s="34"/>
     </row>
-    <row r="326" spans="1:10" ht="15.75" thickBot="1">
+    <row r="326" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="23">
         <v>325</v>
       </c>
@@ -24149,7 +24154,7 @@
       <c r="I326" s="33"/>
       <c r="J326" s="34"/>
     </row>
-    <row r="327" spans="1:10" ht="15.75" thickBot="1">
+    <row r="327" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="44">
         <v>326</v>
       </c>
@@ -24171,7 +24176,7 @@
       <c r="I327" s="33"/>
       <c r="J327" s="34"/>
     </row>
-    <row r="328" spans="1:10" ht="15.75" thickBot="1">
+    <row r="328" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="20">
         <v>327</v>
       </c>
@@ -24193,7 +24198,7 @@
       <c r="I328" s="33"/>
       <c r="J328" s="34"/>
     </row>
-    <row r="329" spans="1:10" ht="15.75" thickBot="1">
+    <row r="329" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="24">
         <v>328</v>
       </c>
@@ -24215,7 +24220,7 @@
       <c r="I329" s="33"/>
       <c r="J329" s="34"/>
     </row>
-    <row r="330" spans="1:10" ht="15.75" thickBot="1">
+    <row r="330" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="44">
         <v>329</v>
       </c>
@@ -24237,7 +24242,7 @@
       <c r="I330" s="33"/>
       <c r="J330" s="34"/>
     </row>
-    <row r="331" spans="1:10" ht="15.75" thickBot="1">
+    <row r="331" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="40">
         <v>330</v>
       </c>
@@ -24259,7 +24264,7 @@
       <c r="I331" s="33"/>
       <c r="J331" s="34"/>
     </row>
-    <row r="332" spans="1:10" ht="15.75" thickBot="1">
+    <row r="332" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="20">
         <v>331</v>
       </c>
@@ -24281,7 +24286,7 @@
       <c r="I332" s="33"/>
       <c r="J332" s="34"/>
     </row>
-    <row r="333" spans="1:10" ht="15.75" thickBot="1">
+    <row r="333" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="24">
         <v>332</v>
       </c>
@@ -24303,7 +24308,7 @@
       <c r="I333" s="33"/>
       <c r="J333" s="34"/>
     </row>
-    <row r="334" spans="1:10" ht="15.75" thickBot="1">
+    <row r="334" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="44">
         <v>333</v>
       </c>
@@ -24325,7 +24330,7 @@
       <c r="I334" s="33"/>
       <c r="J334" s="34"/>
     </row>
-    <row r="335" spans="1:10" ht="15.75" thickBot="1">
+    <row r="335" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="20">
         <v>334</v>
       </c>
@@ -24347,7 +24352,7 @@
       <c r="I335" s="33"/>
       <c r="J335" s="34"/>
     </row>
-    <row r="336" spans="1:10" ht="15.75" thickBot="1">
+    <row r="336" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="24">
         <v>335</v>
       </c>
@@ -24369,7 +24374,7 @@
       <c r="I336" s="33"/>
       <c r="J336" s="34"/>
     </row>
-    <row r="337" spans="1:10" ht="15.75" thickBot="1">
+    <row r="337" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="44">
         <v>336</v>
       </c>
@@ -24391,7 +24396,7 @@
       <c r="I337" s="33"/>
       <c r="J337" s="34"/>
     </row>
-    <row r="338" spans="1:10" ht="15.75" thickBot="1">
+    <row r="338" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="40">
         <v>337</v>
       </c>
@@ -24413,7 +24418,7 @@
       <c r="I338" s="33"/>
       <c r="J338" s="34"/>
     </row>
-    <row r="339" spans="1:10" ht="15.75" thickBot="1">
+    <row r="339" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="44">
         <v>338</v>
       </c>
@@ -24435,7 +24440,7 @@
       <c r="I339" s="33"/>
       <c r="J339" s="34"/>
     </row>
-    <row r="340" spans="1:10" ht="15.75" thickBot="1">
+    <row r="340" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="40">
         <v>339</v>
       </c>
@@ -24457,7 +24462,7 @@
       <c r="I340" s="33"/>
       <c r="J340" s="34"/>
     </row>
-    <row r="341" spans="1:10" ht="15.75" thickBot="1">
+    <row r="341" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="44">
         <v>340</v>
       </c>
@@ -24479,7 +24484,7 @@
       <c r="I341" s="33"/>
       <c r="J341" s="34"/>
     </row>
-    <row r="342" spans="1:10" ht="15.75" thickBot="1">
+    <row r="342" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="40">
         <v>341</v>
       </c>
@@ -24501,7 +24506,7 @@
       <c r="I342" s="33"/>
       <c r="J342" s="34"/>
     </row>
-    <row r="343" spans="1:10" ht="15.75" thickBot="1">
+    <row r="343" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="44">
         <v>342</v>
       </c>
@@ -24523,7 +24528,7 @@
       <c r="I343" s="33"/>
       <c r="J343" s="34"/>
     </row>
-    <row r="344" spans="1:10" ht="15.75" thickBot="1">
+    <row r="344" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="40">
         <v>343</v>
       </c>
@@ -24545,7 +24550,7 @@
       <c r="I344" s="33"/>
       <c r="J344" s="34"/>
     </row>
-    <row r="345" spans="1:10" ht="15.75" thickBot="1">
+    <row r="345" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="44">
         <v>344</v>
       </c>
@@ -24567,7 +24572,7 @@
       <c r="I345" s="33"/>
       <c r="J345" s="34"/>
     </row>
-    <row r="346" spans="1:10" ht="15.75" thickBot="1">
+    <row r="346" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="20">
         <v>345</v>
       </c>
@@ -24589,7 +24594,7 @@
       <c r="I346" s="33"/>
       <c r="J346" s="34"/>
     </row>
-    <row r="347" spans="1:10" ht="15.75" thickBot="1">
+    <row r="347" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="24">
         <v>346</v>
       </c>
@@ -24611,7 +24616,7 @@
       <c r="I347" s="33"/>
       <c r="J347" s="34"/>
     </row>
-    <row r="348" spans="1:10" ht="15.75" thickBot="1">
+    <row r="348" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="44">
         <v>347</v>
       </c>
@@ -24633,7 +24638,7 @@
       <c r="I348" s="33"/>
       <c r="J348" s="34"/>
     </row>
-    <row r="349" spans="1:10" ht="15.75" thickBot="1">
+    <row r="349" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="20">
         <v>348</v>
       </c>
@@ -24655,7 +24660,7 @@
       <c r="I349" s="33"/>
       <c r="J349" s="34"/>
     </row>
-    <row r="350" spans="1:10" ht="15.75" thickBot="1">
+    <row r="350" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="23">
         <v>349</v>
       </c>
@@ -24677,7 +24682,7 @@
       <c r="I350" s="33"/>
       <c r="J350" s="34"/>
     </row>
-    <row r="351" spans="1:10" ht="15.75" thickBot="1">
+    <row r="351" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="24">
         <v>350</v>
       </c>
@@ -24699,7 +24704,7 @@
       <c r="I351" s="33"/>
       <c r="J351" s="34"/>
     </row>
-    <row r="352" spans="1:10" ht="15.75" thickBot="1">
+    <row r="352" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="44">
         <v>351</v>
       </c>
@@ -24721,7 +24726,7 @@
       <c r="I352" s="33"/>
       <c r="J352" s="34"/>
     </row>
-    <row r="353" spans="1:10" ht="15.75" thickBot="1">
+    <row r="353" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="40">
         <v>352</v>
       </c>
@@ -24743,7 +24748,7 @@
       <c r="I353" s="33"/>
       <c r="J353" s="34"/>
     </row>
-    <row r="354" spans="1:10" ht="15.75" thickBot="1">
+    <row r="354" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="44">
         <v>353</v>
       </c>
@@ -24765,7 +24770,7 @@
       <c r="I354" s="33"/>
       <c r="J354" s="34"/>
     </row>
-    <row r="355" spans="1:10" ht="15.75" thickBot="1">
+    <row r="355" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="40">
         <v>354</v>
       </c>
@@ -24787,7 +24792,7 @@
       <c r="I355" s="33"/>
       <c r="J355" s="34"/>
     </row>
-    <row r="356" spans="1:10" ht="15.75" thickBot="1">
+    <row r="356" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="20">
         <v>355</v>
       </c>
@@ -24809,7 +24814,7 @@
       <c r="I356" s="33"/>
       <c r="J356" s="34"/>
     </row>
-    <row r="357" spans="1:10" ht="15.75" thickBot="1">
+    <row r="357" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="24">
         <v>356</v>
       </c>
@@ -24831,7 +24836,7 @@
       <c r="I357" s="33"/>
       <c r="J357" s="34"/>
     </row>
-    <row r="358" spans="1:10" ht="15.75" thickBot="1">
+    <row r="358" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="20">
         <v>357</v>
       </c>
@@ -24853,7 +24858,7 @@
       <c r="I358" s="33"/>
       <c r="J358" s="34"/>
     </row>
-    <row r="359" spans="1:10" ht="15.75" thickBot="1">
+    <row r="359" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="24">
         <v>358</v>
       </c>
@@ -24875,7 +24880,7 @@
       <c r="I359" s="33"/>
       <c r="J359" s="34"/>
     </row>
-    <row r="360" spans="1:10" ht="15.75" thickBot="1">
+    <row r="360" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="44">
         <v>359</v>
       </c>
@@ -24897,7 +24902,7 @@
       <c r="I360" s="33"/>
       <c r="J360" s="34"/>
     </row>
-    <row r="361" spans="1:10" ht="15.75" thickBot="1">
+    <row r="361" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="40">
         <v>360</v>
       </c>
@@ -24919,7 +24924,7 @@
       <c r="I361" s="33"/>
       <c r="J361" s="34"/>
     </row>
-    <row r="362" spans="1:10" ht="15.75" thickBot="1">
+    <row r="362" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="44">
         <v>361</v>
       </c>
@@ -24941,7 +24946,7 @@
       <c r="I362" s="33"/>
       <c r="J362" s="34"/>
     </row>
-    <row r="363" spans="1:10" ht="15.75" thickBot="1">
+    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="40">
         <v>362</v>
       </c>
@@ -24963,7 +24968,7 @@
       <c r="I363" s="33"/>
       <c r="J363" s="34"/>
     </row>
-    <row r="364" spans="1:10" ht="15.75" thickBot="1">
+    <row r="364" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="44">
         <v>363</v>
       </c>
@@ -24985,7 +24990,7 @@
       <c r="I364" s="33"/>
       <c r="J364" s="34"/>
     </row>
-    <row r="365" spans="1:10" ht="15.75" thickBot="1">
+    <row r="365" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="40">
         <v>364</v>
       </c>
@@ -25007,7 +25012,7 @@
       <c r="I365" s="33"/>
       <c r="J365" s="34"/>
     </row>
-    <row r="366" spans="1:10" ht="15.75" thickBot="1">
+    <row r="366" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="44">
         <v>365</v>
       </c>
@@ -25029,7 +25034,7 @@
       <c r="I366" s="33"/>
       <c r="J366" s="34"/>
     </row>
-    <row r="367" spans="1:10" ht="15.75" thickBot="1">
+    <row r="367" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="40">
         <v>366</v>
       </c>
@@ -25051,7 +25056,7 @@
       <c r="I367" s="33"/>
       <c r="J367" s="34"/>
     </row>
-    <row r="368" spans="1:10" ht="15.75" thickBot="1">
+    <row r="368" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="44">
         <v>367</v>
       </c>
@@ -25073,7 +25078,7 @@
       <c r="I368" s="33"/>
       <c r="J368" s="34"/>
     </row>
-    <row r="369" spans="1:10" ht="15.75" thickBot="1">
+    <row r="369" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="40">
         <v>368</v>
       </c>
@@ -25095,7 +25100,7 @@
       <c r="I369" s="33"/>
       <c r="J369" s="34"/>
     </row>
-    <row r="370" spans="1:10" ht="15.75" thickBot="1">
+    <row r="370" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="20">
         <v>369</v>
       </c>
@@ -25117,7 +25122,7 @@
       <c r="I370" s="33"/>
       <c r="J370" s="34"/>
     </row>
-    <row r="371" spans="1:10" ht="15.75" thickBot="1">
+    <row r="371" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="23">
         <v>370</v>
       </c>
@@ -25139,7 +25144,7 @@
       <c r="I371" s="33"/>
       <c r="J371" s="34"/>
     </row>
-    <row r="372" spans="1:10" ht="15.75" thickBot="1">
+    <row r="372" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="24">
         <v>371</v>
       </c>
@@ -25161,7 +25166,7 @@
       <c r="I372" s="33"/>
       <c r="J372" s="34"/>
     </row>
-    <row r="373" spans="1:10" ht="15.75" thickBot="1">
+    <row r="373" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="44">
         <v>372</v>
       </c>
@@ -25183,7 +25188,7 @@
       <c r="I373" s="33"/>
       <c r="J373" s="34"/>
     </row>
-    <row r="374" spans="1:10" ht="15.75" thickBot="1">
+    <row r="374" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="40">
         <v>373</v>
       </c>
@@ -25205,7 +25210,7 @@
       <c r="I374" s="33"/>
       <c r="J374" s="34"/>
     </row>
-    <row r="375" spans="1:10" ht="15.75" thickBot="1">
+    <row r="375" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="20">
         <v>374</v>
       </c>
@@ -25227,7 +25232,7 @@
       <c r="I375" s="33"/>
       <c r="J375" s="34"/>
     </row>
-    <row r="376" spans="1:10" ht="15.75" thickBot="1">
+    <row r="376" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="23">
         <v>375</v>
       </c>
@@ -25249,7 +25254,7 @@
       <c r="I376" s="33"/>
       <c r="J376" s="34"/>
     </row>
-    <row r="377" spans="1:10" ht="15.75" thickBot="1">
+    <row r="377" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="24">
         <v>376</v>
       </c>
@@ -25271,7 +25276,7 @@
       <c r="I377" s="33"/>
       <c r="J377" s="34"/>
     </row>
-    <row r="378" spans="1:10" ht="15.75" thickBot="1">
+    <row r="378" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="44">
         <v>377</v>
       </c>
@@ -25293,7 +25298,7 @@
       <c r="I378" s="33"/>
       <c r="J378" s="34"/>
     </row>
-    <row r="379" spans="1:10" ht="15.75" thickBot="1">
+    <row r="379" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="40">
         <v>378</v>
       </c>
@@ -25315,7 +25320,7 @@
       <c r="I379" s="33"/>
       <c r="J379" s="34"/>
     </row>
-    <row r="380" spans="1:10" ht="15.75" thickBot="1">
+    <row r="380" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="20">
         <v>379</v>
       </c>
@@ -25337,7 +25342,7 @@
       <c r="I380" s="33"/>
       <c r="J380" s="34"/>
     </row>
-    <row r="381" spans="1:10" ht="15.75" thickBot="1">
+    <row r="381" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="23">
         <v>380</v>
       </c>
@@ -25359,7 +25364,7 @@
       <c r="I381" s="33"/>
       <c r="J381" s="34"/>
     </row>
-    <row r="382" spans="1:10" ht="15.75" thickBot="1">
+    <row r="382" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="24">
         <v>381</v>
       </c>
@@ -25381,7 +25386,7 @@
       <c r="I382" s="33"/>
       <c r="J382" s="34"/>
     </row>
-    <row r="383" spans="1:10" ht="15.75" thickBot="1">
+    <row r="383" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="20">
         <v>382</v>
       </c>
@@ -25403,7 +25408,7 @@
       <c r="I383" s="33"/>
       <c r="J383" s="34"/>
     </row>
-    <row r="384" spans="1:10" ht="15.75" thickBot="1">
+    <row r="384" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="24">
         <v>383</v>
       </c>
@@ -25425,7 +25430,7 @@
       <c r="I384" s="33"/>
       <c r="J384" s="34"/>
     </row>
-    <row r="385" spans="1:10" ht="15.75" thickBot="1">
+    <row r="385" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="40">
         <v>384</v>
       </c>
@@ -25447,7 +25452,7 @@
       <c r="I385" s="33"/>
       <c r="J385" s="34"/>
     </row>
-    <row r="386" spans="1:10" ht="15.75" thickBot="1">
+    <row r="386" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="20">
         <v>385</v>
       </c>
@@ -25469,7 +25474,7 @@
       <c r="I386" s="33"/>
       <c r="J386" s="34"/>
     </row>
-    <row r="387" spans="1:10" ht="15.75" thickBot="1">
+    <row r="387" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="24">
         <v>386</v>
       </c>
@@ -25491,7 +25496,7 @@
       <c r="I387" s="33"/>
       <c r="J387" s="34"/>
     </row>
-    <row r="388" spans="1:10" ht="15.75" thickBot="1">
+    <row r="388" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="23">
         <v>387</v>
       </c>
@@ -25513,7 +25518,7 @@
       <c r="I388" s="33"/>
       <c r="J388" s="34"/>
     </row>
-    <row r="389" spans="1:10" ht="15.75" thickBot="1">
+    <row r="389" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="44">
         <v>388</v>
       </c>
@@ -25535,7 +25540,7 @@
       <c r="I389" s="33"/>
       <c r="J389" s="34"/>
     </row>
-    <row r="390" spans="1:10" ht="15.75" thickBot="1">
+    <row r="390" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="40">
         <v>389</v>
       </c>
@@ -25557,7 +25562,7 @@
       <c r="I390" s="33"/>
       <c r="J390" s="34"/>
     </row>
-    <row r="391" spans="1:10" ht="15.75" thickBot="1">
+    <row r="391" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="23">
         <v>390</v>
       </c>
@@ -25579,7 +25584,7 @@
       <c r="I391" s="33"/>
       <c r="J391" s="34"/>
     </row>
-    <row r="392" spans="1:10" ht="15.75" thickBot="1">
+    <row r="392" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="44">
         <v>391</v>
       </c>
@@ -25601,7 +25606,7 @@
       <c r="I392" s="33"/>
       <c r="J392" s="34"/>
     </row>
-    <row r="393" spans="1:10" ht="15.75" thickBot="1">
+    <row r="393" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="40">
         <v>392</v>
       </c>
@@ -25623,7 +25628,7 @@
       <c r="I393" s="33"/>
       <c r="J393" s="34"/>
     </row>
-    <row r="394" spans="1:10" ht="15.75" thickBot="1">
+    <row r="394" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="44">
         <v>393</v>
       </c>
@@ -25645,7 +25650,7 @@
       <c r="I394" s="33"/>
       <c r="J394" s="34"/>
     </row>
-    <row r="395" spans="1:10" ht="15.75" thickBot="1">
+    <row r="395" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="20">
         <v>394</v>
       </c>
@@ -25667,7 +25672,7 @@
       <c r="I395" s="33"/>
       <c r="J395" s="34"/>
     </row>
-    <row r="396" spans="1:10" ht="15.75" thickBot="1">
+    <row r="396" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="24">
         <v>395</v>
       </c>
@@ -25689,7 +25694,7 @@
       <c r="I396" s="33"/>
       <c r="J396" s="34"/>
     </row>
-    <row r="397" spans="1:10" ht="15.75" thickBot="1">
+    <row r="397" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="44">
         <v>396</v>
       </c>
@@ -25711,7 +25716,7 @@
       <c r="I397" s="33"/>
       <c r="J397" s="34"/>
     </row>
-    <row r="398" spans="1:10" ht="15.75" thickBot="1">
+    <row r="398" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="20">
         <v>397</v>
       </c>
@@ -25733,7 +25738,7 @@
       <c r="I398" s="33"/>
       <c r="J398" s="34"/>
     </row>
-    <row r="399" spans="1:10" ht="15.75" thickBot="1">
+    <row r="399" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="24">
         <v>398</v>
       </c>
@@ -25755,7 +25760,7 @@
       <c r="I399" s="33"/>
       <c r="J399" s="34"/>
     </row>
-    <row r="400" spans="1:10" ht="15.75" thickBot="1">
+    <row r="400" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="44">
         <v>399</v>
       </c>
@@ -25777,7 +25782,7 @@
       <c r="I400" s="33"/>
       <c r="J400" s="34"/>
     </row>
-    <row r="401" spans="1:10" ht="15.75" thickBot="1">
+    <row r="401" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" s="40">
         <v>400</v>
       </c>
@@ -25799,7 +25804,7 @@
       <c r="I401" s="33"/>
       <c r="J401" s="34"/>
     </row>
-    <row r="402" spans="1:10" ht="15.75" thickBot="1">
+    <row r="402" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="44">
         <v>401</v>
       </c>
@@ -25821,7 +25826,7 @@
       <c r="I402" s="33"/>
       <c r="J402" s="34"/>
     </row>
-    <row r="403" spans="1:10" ht="15.75" thickBot="1">
+    <row r="403" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="40">
         <v>402</v>
       </c>
@@ -25850,20 +25855,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>271</v>
       </c>
@@ -25871,7 +25876,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>272</v>
       </c>
@@ -25879,7 +25884,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45.75" thickBot="1">
+    <row r="3" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>273</v>
       </c>
@@ -25887,7 +25892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75" thickBot="1">
+    <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>274</v>
       </c>
@@ -25895,7 +25900,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>275</v>
       </c>
@@ -25903,7 +25908,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>276</v>
       </c>
@@ -25911,7 +25916,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1">
+    <row r="7" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>277</v>
       </c>
@@ -25919,7 +25924,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1">
+    <row r="8" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>278</v>
       </c>
@@ -25927,7 +25932,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>279</v>
       </c>
@@ -25935,7 +25940,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>280</v>
       </c>
@@ -25943,7 +25948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>281</v>
       </c>
@@ -25951,7 +25956,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>282</v>
       </c>
@@ -25959,7 +25964,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>283</v>
       </c>
@@ -25967,7 +25972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>284</v>
       </c>
@@ -25975,7 +25980,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>285</v>
       </c>
@@ -25983,7 +25988,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>286</v>
       </c>
@@ -25991,7 +25996,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>287</v>
       </c>
@@ -25999,7 +26004,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>288</v>
       </c>
@@ -26007,7 +26012,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>289</v>
       </c>
@@ -26015,7 +26020,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>290</v>
       </c>
@@ -26023,7 +26028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>291</v>
       </c>
@@ -26031,7 +26036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45.75" thickBot="1">
+    <row r="22" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>292</v>
       </c>
@@ -26039,7 +26044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>293</v>
       </c>
@@ -26047,7 +26052,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>294</v>
       </c>
@@ -26055,7 +26060,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>295</v>
       </c>
@@ -26063,7 +26068,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45.75" thickBot="1">
+    <row r="26" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>296</v>
       </c>
@@ -26071,7 +26076,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45.75" thickBot="1">
+    <row r="27" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>297</v>
       </c>
@@ -26079,7 +26084,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>298</v>
       </c>
@@ -26087,7 +26092,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30.75" thickBot="1">
+    <row r="29" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>299</v>
       </c>
@@ -26095,7 +26100,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>300</v>
       </c>
@@ -26103,7 +26108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>301</v>
       </c>
@@ -26111,7 +26116,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>302</v>
       </c>
@@ -26119,7 +26124,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>303</v>
       </c>
@@ -26127,7 +26132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30.75" thickBot="1">
+    <row r="34" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>304</v>
       </c>
@@ -26141,1334 +26146,1334 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A264"/>
   <sheetViews>
     <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5">
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5">
+    <row r="2" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5">
+    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="19.5">
+    <row r="4" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.5">
+    <row r="5" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20.25" thickBot="1">
+    <row r="6" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5">
+    <row r="7" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="19.5">
+    <row r="8" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="19.5">
+    <row r="9" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="19.5">
+    <row r="10" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="19.5">
+    <row r="11" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20.25" thickBot="1">
+    <row r="12" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="19.5">
+    <row r="13" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="19.5">
+    <row r="14" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="19.5">
+    <row r="15" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="19.5">
+    <row r="16" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="19.5">
+    <row r="17" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20.25" thickBot="1">
+    <row r="18" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="19.5">
+    <row r="19" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="19.5">
+    <row r="20" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="19.5">
+    <row r="21" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="19.5">
+    <row r="22" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="19.5">
+    <row r="23" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20.25" thickBot="1">
+    <row r="24" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="19.5">
+    <row r="25" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="19.5">
+    <row r="26" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="19.5">
+    <row r="27" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="19.5">
+    <row r="28" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="19.5">
+    <row r="29" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20.25" thickBot="1">
+    <row r="30" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="19.5">
+    <row r="31" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="19.5">
+    <row r="32" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="19.5">
+    <row r="33" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="19.5">
+    <row r="34" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="19.5">
+    <row r="35" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="20.25" thickBot="1">
+    <row r="36" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="19.5">
+    <row r="37" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="19.5">
+    <row r="38" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="19.5">
+    <row r="39" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="19.5">
+    <row r="40" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="19.5">
+    <row r="41" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="20.25" thickBot="1">
+    <row r="42" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="19.5">
+    <row r="43" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="19.5">
+    <row r="44" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="19.5">
+    <row r="45" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="19.5">
+    <row r="46" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="19.5">
+    <row r="47" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="20.25" thickBot="1">
+    <row r="48" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="19.5">
+    <row r="49" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="19.5">
+    <row r="50" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="19.5">
+    <row r="51" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="19.5">
+    <row r="52" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="19.5">
+    <row r="53" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="20.25" thickBot="1">
+    <row r="54" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="19.5">
+    <row r="55" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="19.5">
+    <row r="56" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="19.5">
+    <row r="57" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="19.5">
+    <row r="58" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="19.5">
+    <row r="59" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="20.25" thickBot="1">
+    <row r="60" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="19.5">
+    <row r="61" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="19.5">
+    <row r="62" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="19.5">
+    <row r="63" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="19.5">
+    <row r="64" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="19.5">
+    <row r="65" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20.25" thickBot="1">
+    <row r="66" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="14" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="19.5">
+    <row r="67" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="19.5">
+    <row r="68" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="19.5">
+    <row r="69" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="19.5">
+    <row r="70" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="19.5">
+    <row r="71" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.25" thickBot="1">
+    <row r="72" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="19.5">
+    <row r="73" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="19.5">
+    <row r="74" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="19.5">
+    <row r="75" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="19.5">
+    <row r="76" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="19.5">
+    <row r="77" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.25" thickBot="1">
+    <row r="78" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="19.5">
+    <row r="79" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="19.5">
+    <row r="80" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="19.5">
+    <row r="81" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="19.5">
+    <row r="82" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="19.5">
+    <row r="83" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20.25" thickBot="1">
+    <row r="84" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="19.5">
+    <row r="85" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="19.5">
+    <row r="86" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="19.5">
+    <row r="87" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="19.5">
+    <row r="88" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="19.5">
+    <row r="89" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20.25" thickBot="1">
+    <row r="90" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="19.5">
+    <row r="91" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="19.5">
+    <row r="92" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="19.5">
+    <row r="93" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="19.5">
+    <row r="94" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="19.5">
+    <row r="95" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20.25" thickBot="1">
+    <row r="96" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="19.5">
+    <row r="97" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="19.5">
+    <row r="98" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="19.5">
+    <row r="99" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="19.5">
+    <row r="100" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="19.5">
+    <row r="101" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20.25" thickBot="1">
+    <row r="102" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="19.5">
+    <row r="103" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="19.5">
+    <row r="104" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="19.5">
+    <row r="105" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="19.5">
+    <row r="106" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="19.5">
+    <row r="107" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="20.25" thickBot="1">
+    <row r="108" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="14" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="19.5">
+    <row r="109" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="19.5">
+    <row r="110" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="19.5">
+    <row r="111" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="19.5">
+    <row r="112" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="19.5">
+    <row r="113" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="20.25" thickBot="1">
+    <row r="114" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="19.5">
+    <row r="115" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="19.5">
+    <row r="116" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="19.5">
+    <row r="117" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="19.5">
+    <row r="118" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="19.5">
+    <row r="119" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="20.25" thickBot="1">
+    <row r="120" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="19.5">
+    <row r="121" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="19.5">
+    <row r="122" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="19.5">
+    <row r="123" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A123" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="19.5">
+    <row r="124" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A124" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="19.5">
+    <row r="125" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A125" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20.25" thickBot="1">
+    <row r="126" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="19.5">
+    <row r="127" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="19.5">
+    <row r="128" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="19.5">
+    <row r="129" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A129" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="19.5">
+    <row r="130" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A130" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="19.5">
+    <row r="131" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A131" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="20.25" thickBot="1">
+    <row r="132" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="19.5">
+    <row r="133" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="19.5">
+    <row r="134" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A134" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="19.5">
+    <row r="135" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A135" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="19.5">
+    <row r="136" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="19.5">
+    <row r="137" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="20.25" thickBot="1">
+    <row r="138" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="14" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="19.5">
+    <row r="139" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="19.5">
+    <row r="140" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A140" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="19.5">
+    <row r="141" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A141" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="19.5">
+    <row r="142" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A142" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="19.5">
+    <row r="143" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A143" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="20.25" thickBot="1">
+    <row r="144" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="19.5">
+    <row r="145" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="19.5">
+    <row r="146" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A146" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="19.5">
+    <row r="147" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A147" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="19.5">
+    <row r="148" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A148" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="19.5">
+    <row r="149" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A149" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="20.25" thickBot="1">
+    <row r="150" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A150" s="14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="19.5">
+    <row r="151" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="19.5">
+    <row r="152" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A152" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="19.5">
+    <row r="153" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A153" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="19.5">
+    <row r="154" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="19.5">
+    <row r="155" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="20.25" thickBot="1">
+    <row r="156" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A156" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="19.5">
+    <row r="157" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="19.5">
+    <row r="158" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="19.5">
+    <row r="159" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="19.5">
+    <row r="160" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="19.5">
+    <row r="161" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="20.25" thickBot="1">
+    <row r="162" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="19.5">
+    <row r="163" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="19.5">
+    <row r="164" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="19.5">
+    <row r="165" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="8" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="19.5">
+    <row r="166" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="19.5">
+    <row r="167" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="20.25" thickBot="1">
+    <row r="168" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A168" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="19.5">
+    <row r="169" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="19.5">
+    <row r="170" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="8" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="19.5">
+    <row r="171" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="8" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="19.5">
+    <row r="172" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="19.5">
+    <row r="173" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="20.25" thickBot="1">
+    <row r="174" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="19.5">
+    <row r="175" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="19.5">
+    <row r="176" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A176" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="19.5">
+    <row r="177" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A177" s="8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="19.5">
+    <row r="178" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A178" s="8" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="19.5">
+    <row r="179" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A179" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="20.25" thickBot="1">
+    <row r="180" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A180" s="14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="19.5">
+    <row r="181" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="19.5">
+    <row r="182" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="19.5">
+    <row r="183" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="8" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="19.5">
+    <row r="184" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="19.5">
+    <row r="185" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="20.25" thickBot="1">
+    <row r="186" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A186" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="19.5">
+    <row r="187" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A187" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="19.5">
+    <row r="188" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A188" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="19.5">
+    <row r="189" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="8" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="19.5">
+    <row r="190" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="19.5">
+    <row r="191" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="20.25" thickBot="1">
+    <row r="192" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="19.5">
+    <row r="193" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="19.5">
+    <row r="194" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A194" s="8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="19.5">
+    <row r="195" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="19.5">
+    <row r="196" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="19.5">
+    <row r="197" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="20.25" thickBot="1">
+    <row r="198" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="14" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="19.5">
+    <row r="199" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="13" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="19.5">
+    <row r="200" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A200" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="19.5">
+    <row r="201" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="19.5">
+    <row r="202" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A202" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="19.5">
+    <row r="203" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="20.25" thickBot="1">
+    <row r="204" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="14" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="19.5">
+    <row r="205" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="19.5">
+    <row r="206" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="19.5">
+    <row r="207" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A207" s="8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="19.5">
+    <row r="208" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="19.5">
+    <row r="209" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A209" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="20.25" thickBot="1">
+    <row r="210" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A210" s="14" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="19.5">
+    <row r="211" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="19.5">
+    <row r="212" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A212" s="8" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="19.5">
+    <row r="213" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A213" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="19.5">
+    <row r="214" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A214" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="19.5">
+    <row r="215" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A215" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="20.25" thickBot="1">
+    <row r="216" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="14" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="19.5">
+    <row r="217" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A217" s="13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="19.5">
+    <row r="218" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A218" s="8" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="19.5">
+    <row r="219" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A219" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="19.5">
+    <row r="220" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A220" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="19.5">
+    <row r="221" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A221" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="20.25" thickBot="1">
+    <row r="222" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="19.5">
+    <row r="223" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A223" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="19.5">
+    <row r="224" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A224" s="8" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="19.5">
+    <row r="225" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A225" s="8" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="19.5">
+    <row r="226" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A226" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="19.5">
+    <row r="227" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A227" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="20.25" thickBot="1">
+    <row r="228" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A228" s="14" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="19.5">
+    <row r="229" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A229" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="19.5">
+    <row r="230" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A230" s="8" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="19.5">
+    <row r="231" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A231" s="8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="19.5">
+    <row r="232" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A232" s="8" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="19.5">
+    <row r="233" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A233" s="8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="20.25" thickBot="1">
+    <row r="234" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="14" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="19.5">
+    <row r="235" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A235" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="19.5">
+    <row r="236" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A236" s="8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="19.5">
+    <row r="237" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A237" s="8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="19.5">
+    <row r="238" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A238" s="8" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="19.5">
+    <row r="239" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A239" s="8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="20.25" thickBot="1">
+    <row r="240" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="14" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="19.5">
+    <row r="241" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A241" s="13" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="19.5">
+    <row r="242" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A242" s="8" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="19.5">
+    <row r="243" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A243" s="8" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="19.5">
+    <row r="244" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A244" s="8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="19.5">
+    <row r="245" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A245" s="8" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="20.25" thickBot="1">
+    <row r="246" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A246" s="14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="19.5">
+    <row r="247" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A247" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="19.5">
+    <row r="248" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A248" s="8" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="19.5">
+    <row r="249" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A249" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="19.5">
+    <row r="250" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A250" s="8" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="19.5">
+    <row r="251" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A251" s="8" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="20.25" thickBot="1">
+    <row r="252" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A252" s="14" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="19.5">
+    <row r="253" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A253" s="13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="19.5">
+    <row r="254" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A254" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="19.5">
+    <row r="255" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A255" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="19.5">
+    <row r="256" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A256" s="8" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="19.5">
+    <row r="257" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A257" s="8" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="20.25" thickBot="1">
+    <row r="258" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="14" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="19.5">
+    <row r="259" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A259" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="19.5">
+    <row r="260" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A260" s="8" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="19.5">
+    <row r="261" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A261" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="19.5">
+    <row r="262" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A262" s="8" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="19.5">
+    <row r="263" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A263" s="8" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="20.25" thickBot="1">
+    <row r="264" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="14" t="s">
         <v>533</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -4387,7 +4387,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\COVID2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6710"/>
   </bookViews>
@@ -19,14 +14,14 @@
     <sheet name="Full2" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AI$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taulavariables!$A$1:$AH$403</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="1153">
   <si>
     <t>id</t>
   </si>
@@ -3339,9 +3334,6 @@
   </si>
   <si>
     <t>Grupo de edad</t>
-  </si>
-  <si>
-    <t>Taula09</t>
   </si>
   <si>
     <t>FX.Biguanidas</t>
@@ -4373,7 +4365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4381,13 +4373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI403"/>
+  <dimension ref="A1:AH403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="H386" sqref="H386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4411,19 +4403,19 @@
     <col min="19" max="19" width="15" style="54" customWidth="1"/>
     <col min="20" max="20" width="19.54296875" style="54" customWidth="1"/>
     <col min="21" max="22" width="12.1796875" style="54" customWidth="1"/>
-    <col min="23" max="24" width="14.453125" style="54" customWidth="1"/>
-    <col min="25" max="25" width="19.7265625" style="54" customWidth="1"/>
-    <col min="26" max="26" width="17.26953125" style="53" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" style="53" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" style="54"/>
-    <col min="29" max="30" width="12.26953125" style="54" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" style="54" customWidth="1"/>
-    <col min="32" max="33" width="9.1796875" style="54"/>
-    <col min="34" max="34" width="15.26953125" style="54" customWidth="1"/>
-    <col min="35" max="16384" width="9.1796875" style="53"/>
+    <col min="23" max="23" width="14.453125" style="54" customWidth="1"/>
+    <col min="24" max="24" width="19.7265625" style="54" customWidth="1"/>
+    <col min="25" max="25" width="17.26953125" style="53" customWidth="1"/>
+    <col min="26" max="26" width="15.81640625" style="53" customWidth="1"/>
+    <col min="27" max="27" width="9.1796875" style="54"/>
+    <col min="28" max="29" width="12.26953125" style="54" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="54" customWidth="1"/>
+    <col min="31" max="32" width="9.1796875" style="54"/>
+    <col min="33" max="33" width="15.26953125" style="54" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4493,44 +4485,41 @@
       <c r="W1" s="54" t="s">
         <v>1016</v>
       </c>
-      <c r="X1" s="63" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="54" t="s">
         <v>69</v>
       </c>
+      <c r="Y1" s="58" t="s">
+        <v>128</v>
+      </c>
       <c r="Z1" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="58" t="s">
         <v>129</v>
       </c>
+      <c r="AA1" s="54" t="s">
+        <v>1073</v>
+      </c>
       <c r="AB1" s="54" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AC1" s="54" t="s">
         <v>1074</v>
       </c>
+      <c r="AC1" s="63" t="s">
+        <v>1075</v>
+      </c>
       <c r="AD1" s="63" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AE1" s="63" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="AF1" s="63" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AG1" s="63" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AH1" s="63" t="s">
         <v>1092</v>
       </c>
-      <c r="AI1" s="53" t="s">
+      <c r="AH1" s="53" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4558,8 +4547,11 @@
       <c r="N2" s="54">
         <v>2</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="X2" s="54" t="s">
         <v>70</v>
+      </c>
+      <c r="AA2" s="54">
+        <v>2</v>
       </c>
       <c r="AB2" s="54">
         <v>2</v>
@@ -4576,11 +4568,8 @@
       <c r="AF2" s="54">
         <v>2</v>
       </c>
-      <c r="AG2" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4611,8 +4600,11 @@
       <c r="V3" s="54">
         <v>1</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="X3" s="54" t="s">
         <v>70</v>
+      </c>
+      <c r="AA3" s="54">
+        <v>3</v>
       </c>
       <c r="AB3" s="54">
         <v>3</v>
@@ -4630,16 +4622,13 @@
         <v>3</v>
       </c>
       <c r="AG3" s="54">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="54">
         <v>2</v>
       </c>
-      <c r="AI3" s="53">
+      <c r="AH3" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4667,11 +4656,11 @@
       <c r="N4" s="54">
         <v>4</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="X4" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>5</v>
       </c>
@@ -4699,11 +4688,11 @@
       <c r="N5" s="54">
         <v>5</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="X5" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4731,11 +4720,11 @@
       <c r="N6" s="54">
         <v>6</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="X6" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4763,11 +4752,11 @@
       <c r="N7" s="54">
         <v>7</v>
       </c>
-      <c r="Y7" s="54" t="s">
+      <c r="X7" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4795,11 +4784,11 @@
       <c r="N8" s="54">
         <v>8</v>
       </c>
-      <c r="Y8" s="54" t="s">
+      <c r="X8" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4827,11 +4816,11 @@
       <c r="N9" s="54">
         <v>9</v>
       </c>
-      <c r="Y9" s="54" t="s">
+      <c r="X9" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -4859,11 +4848,11 @@
       <c r="N10" s="54">
         <v>10</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="X10" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -4888,11 +4877,11 @@
       <c r="N11" s="54">
         <v>11</v>
       </c>
-      <c r="Y11" s="54" t="s">
+      <c r="X11" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -4911,11 +4900,11 @@
       <c r="K12" s="54">
         <v>12</v>
       </c>
-      <c r="Y12" s="54" t="s">
+      <c r="X12" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -4937,11 +4926,11 @@
       <c r="N13" s="54">
         <v>13</v>
       </c>
-      <c r="Y13" s="54" t="s">
+      <c r="X13" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -4963,11 +4952,11 @@
       <c r="N14" s="54">
         <v>14</v>
       </c>
-      <c r="Y14" s="54" t="s">
+      <c r="X14" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -4989,11 +4978,11 @@
       <c r="N15" s="54">
         <v>15</v>
       </c>
-      <c r="Y15" s="54" t="s">
+      <c r="X15" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -5012,11 +5001,11 @@
       <c r="K16" s="54">
         <v>16</v>
       </c>
-      <c r="Y16" s="54" t="s">
+      <c r="X16" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>17</v>
       </c>
@@ -5038,11 +5027,11 @@
       <c r="N17" s="54">
         <v>17</v>
       </c>
-      <c r="Y17" s="54" t="s">
+      <c r="X17" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>18</v>
       </c>
@@ -5064,11 +5053,11 @@
       <c r="N18" s="54">
         <v>18</v>
       </c>
-      <c r="Y18" s="54" t="s">
+      <c r="X18" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>19</v>
       </c>
@@ -5090,11 +5079,11 @@
       <c r="N19" s="54">
         <v>19</v>
       </c>
-      <c r="Y19" s="54" t="s">
+      <c r="X19" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>20</v>
       </c>
@@ -5116,11 +5105,11 @@
       <c r="N20" s="54">
         <v>20</v>
       </c>
-      <c r="Y20" s="54" t="s">
+      <c r="X20" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>21</v>
       </c>
@@ -5142,11 +5131,11 @@
       <c r="N21" s="54">
         <v>21</v>
       </c>
-      <c r="Y21" s="54" t="s">
+      <c r="X21" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="55">
         <v>22</v>
       </c>
@@ -5168,11 +5157,11 @@
       <c r="N22" s="54">
         <v>22</v>
       </c>
-      <c r="Y22" s="54" t="s">
+      <c r="X22" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>23</v>
       </c>
@@ -5191,11 +5180,11 @@
       <c r="K23" s="54">
         <v>23</v>
       </c>
-      <c r="Y23" s="54" t="s">
+      <c r="X23" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>24</v>
       </c>
@@ -5217,11 +5206,11 @@
       <c r="N24" s="54">
         <v>24</v>
       </c>
-      <c r="Y24" s="54" t="s">
+      <c r="X24" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>25</v>
       </c>
@@ -5243,11 +5232,11 @@
       <c r="N25" s="54">
         <v>25</v>
       </c>
-      <c r="Y25" s="54" t="s">
+      <c r="X25" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>26</v>
       </c>
@@ -5269,11 +5258,11 @@
       <c r="N26" s="54">
         <v>26</v>
       </c>
-      <c r="Y26" s="54" t="s">
+      <c r="X26" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="55">
         <v>27</v>
       </c>
@@ -5295,11 +5284,11 @@
       <c r="N27" s="54">
         <v>27</v>
       </c>
-      <c r="Y27" s="54" t="s">
+      <c r="X27" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="55">
         <v>28</v>
       </c>
@@ -5321,11 +5310,11 @@
       <c r="N28" s="54">
         <v>28</v>
       </c>
-      <c r="Y28" s="54" t="s">
+      <c r="X28" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>29</v>
       </c>
@@ -5347,11 +5336,11 @@
       <c r="N29" s="54">
         <v>29</v>
       </c>
-      <c r="Y29" s="54" t="s">
+      <c r="X29" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>30</v>
       </c>
@@ -5367,11 +5356,11 @@
       <c r="F30" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Y30" s="54" t="s">
+      <c r="X30" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>31</v>
       </c>
@@ -5387,11 +5376,11 @@
       <c r="F31" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Y31" s="54" t="s">
+      <c r="X31" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="55">
         <v>32</v>
       </c>
@@ -5407,11 +5396,11 @@
       <c r="F32" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="Y32" s="54" t="s">
+      <c r="X32" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>33</v>
       </c>
@@ -5427,11 +5416,11 @@
       <c r="F33" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="Y33" s="54" t="s">
+      <c r="X33" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>34</v>
       </c>
@@ -5447,11 +5436,11 @@
       <c r="F34" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Y34" s="54" t="s">
+      <c r="X34" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>35</v>
       </c>
@@ -5467,11 +5456,11 @@
       <c r="F35" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="Y35" s="54" t="s">
+      <c r="X35" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>36</v>
       </c>
@@ -5487,11 +5476,11 @@
       <c r="F36" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="Y36" s="54" t="s">
+      <c r="X36" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>37</v>
       </c>
@@ -5507,16 +5496,16 @@
       <c r="F37" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="Y37" s="54" t="s">
+      <c r="X37" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69">
         <v>38</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69" t="s">
@@ -5549,24 +5538,23 @@
       <c r="U38" s="70"/>
       <c r="V38" s="70"/>
       <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="70" t="s">
+      <c r="X38" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA38" s="70"/>
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
       <c r="AD38" s="70"/>
       <c r="AE38" s="70"/>
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
-      <c r="AH38" s="70"/>
-    </row>
-    <row r="39" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69">
         <v>39</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="69" t="s">
@@ -5599,24 +5587,23 @@
       <c r="U39" s="70"/>
       <c r="V39" s="70"/>
       <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70" t="s">
+      <c r="X39" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA39" s="70"/>
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
       <c r="AD39" s="70"/>
       <c r="AE39" s="70"/>
       <c r="AF39" s="70"/>
       <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-    </row>
-    <row r="40" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69">
         <v>40</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="72" t="s">
@@ -5649,24 +5636,23 @@
       <c r="U40" s="70"/>
       <c r="V40" s="70"/>
       <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70" t="s">
+      <c r="X40" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA40" s="70"/>
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
       <c r="AD40" s="70"/>
       <c r="AE40" s="70"/>
       <c r="AF40" s="70"/>
       <c r="AG40" s="70"/>
-      <c r="AH40" s="70"/>
-    </row>
-    <row r="41" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69">
         <v>41</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="69" t="s">
@@ -5699,24 +5685,23 @@
       <c r="U41" s="70"/>
       <c r="V41" s="70"/>
       <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70" t="s">
+      <c r="X41" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA41" s="70"/>
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
       <c r="AD41" s="70"/>
       <c r="AE41" s="70"/>
       <c r="AF41" s="70"/>
       <c r="AG41" s="70"/>
-      <c r="AH41" s="70"/>
-    </row>
-    <row r="42" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69">
         <v>42</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="69" t="s">
@@ -5749,24 +5734,23 @@
       <c r="U42" s="70"/>
       <c r="V42" s="70"/>
       <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70" t="s">
+      <c r="X42" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA42" s="70"/>
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
       <c r="AD42" s="70"/>
       <c r="AE42" s="70"/>
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
-      <c r="AH42" s="70"/>
-    </row>
-    <row r="43" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="69">
         <v>43</v>
       </c>
       <c r="B43" s="69" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69" t="s">
@@ -5799,24 +5783,23 @@
       <c r="U43" s="70"/>
       <c r="V43" s="70"/>
       <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70" t="s">
+      <c r="X43" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA43" s="70"/>
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
       <c r="AD43" s="70"/>
       <c r="AE43" s="70"/>
       <c r="AF43" s="70"/>
       <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-    </row>
-    <row r="44" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="69">
         <v>44</v>
       </c>
       <c r="B44" s="69" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69" t="s">
@@ -5849,28 +5832,27 @@
       <c r="U44" s="70"/>
       <c r="V44" s="70"/>
       <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70" t="s">
+      <c r="X44" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA44" s="70"/>
       <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70">
+      <c r="AC44" s="70">
         <v>30</v>
       </c>
+      <c r="AD44" s="70"/>
       <c r="AE44" s="70"/>
-      <c r="AF44" s="70"/>
-      <c r="AG44" s="70">
+      <c r="AF44" s="70">
         <v>30</v>
       </c>
-      <c r="AH44" s="70"/>
-    </row>
-    <row r="45" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG44" s="70"/>
+    </row>
+    <row r="45" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="69">
         <v>45</v>
       </c>
       <c r="B45" s="69" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69" t="s">
@@ -5903,28 +5885,27 @@
       <c r="U45" s="70"/>
       <c r="V45" s="70"/>
       <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="70" t="s">
+      <c r="X45" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA45" s="70"/>
       <c r="AB45" s="70"/>
-      <c r="AC45" s="70"/>
-      <c r="AD45" s="70">
+      <c r="AC45" s="70">
         <v>31</v>
       </c>
+      <c r="AD45" s="70"/>
       <c r="AE45" s="70"/>
-      <c r="AF45" s="70"/>
-      <c r="AG45" s="70">
+      <c r="AF45" s="70">
         <v>31</v>
       </c>
-      <c r="AH45" s="70"/>
-    </row>
-    <row r="46" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG45" s="70"/>
+    </row>
+    <row r="46" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69">
         <v>46</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="73" t="s">
@@ -5957,28 +5938,27 @@
       <c r="U46" s="70"/>
       <c r="V46" s="70"/>
       <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="70" t="s">
+      <c r="X46" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA46" s="70"/>
       <c r="AB46" s="70"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="70">
+      <c r="AC46" s="70">
         <v>32</v>
       </c>
+      <c r="AD46" s="70"/>
       <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="70">
+      <c r="AF46" s="70">
         <v>32</v>
       </c>
-      <c r="AH46" s="70"/>
-    </row>
-    <row r="47" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG46" s="70"/>
+    </row>
+    <row r="47" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69">
         <v>47</v>
       </c>
       <c r="B47" s="69" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="73" t="s">
@@ -6011,28 +5991,27 @@
       <c r="U47" s="70"/>
       <c r="V47" s="70"/>
       <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="70" t="s">
+      <c r="X47" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA47" s="70"/>
       <c r="AB47" s="70"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="70">
+      <c r="AC47" s="70">
         <v>33</v>
       </c>
+      <c r="AD47" s="70"/>
       <c r="AE47" s="70"/>
-      <c r="AF47" s="70"/>
-      <c r="AG47" s="70">
+      <c r="AF47" s="70">
         <v>33</v>
       </c>
-      <c r="AH47" s="70"/>
-    </row>
-    <row r="48" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG47" s="70"/>
+    </row>
+    <row r="48" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="69">
         <v>48</v>
       </c>
       <c r="B48" s="69" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C48" s="69"/>
       <c r="D48" s="72" t="s">
@@ -6065,28 +6044,27 @@
       <c r="U48" s="70"/>
       <c r="V48" s="70"/>
       <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70" t="s">
+      <c r="X48" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA48" s="70"/>
       <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70">
+      <c r="AC48" s="70">
         <v>34</v>
       </c>
+      <c r="AD48" s="70"/>
       <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="70">
+      <c r="AF48" s="70">
         <v>34</v>
       </c>
-      <c r="AH48" s="70"/>
-    </row>
-    <row r="49" spans="1:34" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG48" s="70"/>
+    </row>
+    <row r="49" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="69">
         <v>49</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C49" s="69"/>
       <c r="D49" s="69" t="s">
@@ -6119,28 +6097,27 @@
       <c r="U49" s="70"/>
       <c r="V49" s="70"/>
       <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70" t="s">
+      <c r="X49" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA49" s="70"/>
       <c r="AB49" s="70"/>
-      <c r="AC49" s="70"/>
-      <c r="AD49" s="70">
+      <c r="AC49" s="70">
         <v>35</v>
       </c>
+      <c r="AD49" s="70"/>
       <c r="AE49" s="70"/>
-      <c r="AF49" s="70"/>
-      <c r="AG49" s="70">
+      <c r="AF49" s="70">
         <v>35</v>
       </c>
-      <c r="AH49" s="70"/>
-    </row>
-    <row r="50" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG49" s="70"/>
+    </row>
+    <row r="50" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="69">
         <v>50</v>
       </c>
       <c r="B50" s="69" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C50" s="69"/>
       <c r="D50" s="69" t="s">
@@ -6175,24 +6152,23 @@
       <c r="U50" s="70"/>
       <c r="V50" s="70"/>
       <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70" t="s">
+      <c r="X50" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA50" s="70"/>
       <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
       <c r="AD50" s="70"/>
       <c r="AE50" s="70"/>
       <c r="AF50" s="70"/>
       <c r="AG50" s="70"/>
-      <c r="AH50" s="70"/>
-    </row>
-    <row r="51" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69">
         <v>51</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="69" t="s">
@@ -6225,28 +6201,27 @@
       <c r="U51" s="70"/>
       <c r="V51" s="70"/>
       <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70" t="s">
+      <c r="X51" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA51" s="70"/>
       <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="70">
+      <c r="AC51" s="70">
         <v>37</v>
       </c>
+      <c r="AD51" s="70"/>
       <c r="AE51" s="70"/>
-      <c r="AF51" s="70"/>
-      <c r="AG51" s="70">
+      <c r="AF51" s="70">
         <v>37</v>
       </c>
-      <c r="AH51" s="70"/>
-    </row>
-    <row r="52" spans="1:34" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG51" s="70"/>
+    </row>
+    <row r="52" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69">
         <v>52</v>
       </c>
       <c r="B52" s="69" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="69" t="s">
@@ -6279,28 +6254,27 @@
       <c r="U52" s="70"/>
       <c r="V52" s="70"/>
       <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70" t="s">
+      <c r="X52" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA52" s="70"/>
       <c r="AB52" s="70"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="70">
+      <c r="AC52" s="70">
         <v>38</v>
       </c>
+      <c r="AD52" s="70"/>
       <c r="AE52" s="70"/>
-      <c r="AF52" s="70"/>
-      <c r="AG52" s="70">
+      <c r="AF52" s="70">
         <v>38</v>
       </c>
-      <c r="AH52" s="70"/>
-    </row>
-    <row r="53" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG52" s="70"/>
+    </row>
+    <row r="53" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69">
         <v>53</v>
       </c>
       <c r="B53" s="69" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="71" t="s">
@@ -6335,24 +6309,23 @@
       <c r="U53" s="70"/>
       <c r="V53" s="70"/>
       <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
-      <c r="Y53" s="70" t="s">
+      <c r="X53" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA53" s="70"/>
       <c r="AB53" s="70"/>
       <c r="AC53" s="70"/>
       <c r="AD53" s="70"/>
       <c r="AE53" s="70"/>
       <c r="AF53" s="70"/>
       <c r="AG53" s="70"/>
-      <c r="AH53" s="70"/>
-    </row>
-    <row r="54" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="69">
         <v>54</v>
       </c>
       <c r="B54" s="69" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="69" t="s">
@@ -6385,28 +6358,27 @@
       <c r="U54" s="70"/>
       <c r="V54" s="70"/>
       <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
-      <c r="Y54" s="70" t="s">
+      <c r="X54" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA54" s="70"/>
       <c r="AB54" s="70"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="70">
+      <c r="AC54" s="70">
         <v>40</v>
       </c>
+      <c r="AD54" s="70"/>
       <c r="AE54" s="70"/>
-      <c r="AF54" s="70"/>
-      <c r="AG54" s="70">
+      <c r="AF54" s="70">
         <v>40</v>
       </c>
-      <c r="AH54" s="70"/>
-    </row>
-    <row r="55" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG54" s="70"/>
+    </row>
+    <row r="55" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69">
         <v>55</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C55" s="69"/>
       <c r="D55" s="71" t="s">
@@ -6439,28 +6411,27 @@
       <c r="U55" s="70"/>
       <c r="V55" s="70"/>
       <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="70" t="s">
+      <c r="X55" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA55" s="70"/>
       <c r="AB55" s="70"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="70">
+      <c r="AC55" s="70">
         <v>41</v>
       </c>
+      <c r="AD55" s="70"/>
       <c r="AE55" s="70"/>
-      <c r="AF55" s="70"/>
-      <c r="AG55" s="70">
+      <c r="AF55" s="70">
         <v>41</v>
       </c>
-      <c r="AH55" s="70"/>
-    </row>
-    <row r="56" spans="1:34" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG55" s="70"/>
+    </row>
+    <row r="56" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="69">
         <v>56</v>
       </c>
       <c r="B56" s="69" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="71" t="s">
@@ -6493,28 +6464,27 @@
       <c r="U56" s="70"/>
       <c r="V56" s="70"/>
       <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
-      <c r="Y56" s="70" t="s">
+      <c r="X56" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA56" s="70"/>
       <c r="AB56" s="70"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="70">
+      <c r="AC56" s="70">
         <v>42</v>
       </c>
+      <c r="AD56" s="70"/>
       <c r="AE56" s="70"/>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="70">
+      <c r="AF56" s="70">
         <v>42</v>
       </c>
-      <c r="AH56" s="70"/>
-    </row>
-    <row r="57" spans="1:34" s="71" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG56" s="70"/>
+    </row>
+    <row r="57" spans="1:33" s="71" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="69">
         <v>57</v>
       </c>
       <c r="B57" s="69" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="74" t="s">
@@ -6549,19 +6519,18 @@
       <c r="U57" s="70"/>
       <c r="V57" s="70"/>
       <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70" t="s">
+      <c r="X57" s="70" t="s">
         <v>79</v>
       </c>
+      <c r="AA57" s="70"/>
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
       <c r="AD57" s="70"/>
       <c r="AE57" s="70"/>
       <c r="AF57" s="70"/>
       <c r="AG57" s="70"/>
-      <c r="AH57" s="70"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="55">
         <v>58</v>
       </c>
@@ -6580,11 +6549,11 @@
       <c r="Q58" s="54">
         <v>1</v>
       </c>
-      <c r="Y58" s="54" t="s">
+      <c r="X58" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="55">
         <v>59</v>
       </c>
@@ -6600,11 +6569,11 @@
       <c r="F59" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="Y59" s="54" t="s">
+      <c r="X59" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="55">
         <v>60</v>
       </c>
@@ -6623,11 +6592,11 @@
       <c r="Q60" s="54">
         <v>3</v>
       </c>
-      <c r="Y60" s="54" t="s">
+      <c r="X60" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="55">
         <v>61</v>
       </c>
@@ -6646,11 +6615,11 @@
       <c r="Q61" s="54">
         <v>4</v>
       </c>
-      <c r="Y61" s="54" t="s">
+      <c r="X61" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="55">
         <v>62</v>
       </c>
@@ -6669,11 +6638,11 @@
       <c r="Q62" s="54">
         <v>5</v>
       </c>
-      <c r="Y62" s="54" t="s">
+      <c r="X62" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>63</v>
       </c>
@@ -6692,11 +6661,11 @@
       <c r="Q63" s="54">
         <v>6</v>
       </c>
-      <c r="Y63" s="54" t="s">
+      <c r="X63" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="55">
         <v>64</v>
       </c>
@@ -6715,11 +6684,11 @@
       <c r="Q64" s="54">
         <v>7</v>
       </c>
-      <c r="Y64" s="54" t="s">
+      <c r="X64" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6738,11 +6707,11 @@
       <c r="Q65" s="54">
         <v>8</v>
       </c>
-      <c r="Y65" s="54" t="s">
+      <c r="X65" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6758,11 +6727,11 @@
       <c r="F66" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="Y66" s="54" t="s">
+      <c r="X66" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6781,11 +6750,11 @@
       <c r="R67" s="54">
         <v>1</v>
       </c>
-      <c r="Y67" s="54" t="s">
+      <c r="X67" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6801,11 +6770,11 @@
       <c r="F68" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="Y68" s="54" t="s">
+      <c r="X68" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6824,11 +6793,11 @@
       <c r="R69" s="54">
         <v>2</v>
       </c>
-      <c r="Y69" s="54" t="s">
+      <c r="X69" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6844,11 +6813,11 @@
       <c r="F70" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="Y70" s="54" t="s">
+      <c r="X70" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6864,11 +6833,11 @@
       <c r="F71" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="Y71" s="54" t="s">
+      <c r="X71" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -6881,16 +6850,16 @@
       <c r="F72" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="Y72" s="54" t="s">
+      <c r="X72" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="64">
         <v>73</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C73" s="64" t="s">
         <v>1098</v>
@@ -6927,36 +6896,35 @@
       <c r="U73" s="66"/>
       <c r="V73" s="66"/>
       <c r="W73" s="66"/>
-      <c r="X73" s="66"/>
-      <c r="Y73" s="66" t="s">
+      <c r="X73" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA73" s="66"/>
       <c r="AB73" s="66"/>
-      <c r="AC73" s="66"/>
-      <c r="AD73" s="66">
+      <c r="AC73" s="66">
         <v>20</v>
       </c>
+      <c r="AD73" s="66"/>
       <c r="AE73" s="66"/>
-      <c r="AF73" s="66"/>
+      <c r="AF73" s="66">
+        <v>20</v>
+      </c>
       <c r="AG73" s="66">
-        <v>20</v>
-      </c>
-      <c r="AH73" s="66">
         <v>5</v>
       </c>
-      <c r="AI73" s="67">
+      <c r="AH73" s="67">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="64">
         <v>74</v>
       </c>
       <c r="B74" s="68" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C74" s="68" t="s">
         <v>1140</v>
-      </c>
-      <c r="C74" s="68" t="s">
-        <v>1141</v>
       </c>
       <c r="D74" s="65" t="s">
         <v>1059</v>
@@ -6991,33 +6959,32 @@
       <c r="V74" s="66"/>
       <c r="W74" s="66"/>
       <c r="X74" s="66"/>
-      <c r="Y74" s="66"/>
+      <c r="AA74" s="66"/>
       <c r="AB74" s="66"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66">
+      <c r="AC74" s="66">
         <v>21</v>
       </c>
+      <c r="AD74" s="66"/>
       <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
+      <c r="AF74" s="66">
+        <v>21</v>
+      </c>
       <c r="AG74" s="66">
-        <v>21</v>
-      </c>
-      <c r="AH74" s="66">
         <v>6</v>
       </c>
-      <c r="AI74" s="67">
+      <c r="AH74" s="67">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="64">
         <v>75</v>
       </c>
       <c r="B75" s="64" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C75" s="64" t="s">
         <v>1142</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>1143</v>
       </c>
       <c r="D75" s="67" t="s">
         <v>1058</v>
@@ -7051,40 +7018,39 @@
       <c r="U75" s="66"/>
       <c r="V75" s="66"/>
       <c r="W75" s="66"/>
-      <c r="X75" s="66"/>
-      <c r="Y75" s="66" t="s">
+      <c r="X75" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="AB75" s="66"/>
+      <c r="AA75" s="66"/>
+      <c r="AB75" s="66">
+        <v>4</v>
+      </c>
       <c r="AC75" s="66">
+        <v>22</v>
+      </c>
+      <c r="AD75" s="66"/>
+      <c r="AE75" s="66">
         <v>4</v>
       </c>
-      <c r="AD75" s="66">
+      <c r="AF75" s="66">
         <v>22</v>
       </c>
-      <c r="AE75" s="66"/>
-      <c r="AF75" s="66">
+      <c r="AG75" s="66">
         <v>4</v>
       </c>
-      <c r="AG75" s="66">
-        <v>22</v>
-      </c>
-      <c r="AH75" s="66">
-        <v>4</v>
-      </c>
-      <c r="AI75" s="67">
+      <c r="AH75" s="67">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="64">
         <v>76</v>
       </c>
       <c r="B76" s="64" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C76" s="64" t="s">
         <v>1144</v>
-      </c>
-      <c r="C76" s="64" t="s">
-        <v>1145</v>
       </c>
       <c r="D76" s="64" t="s">
         <v>1057</v>
@@ -7118,24 +7084,23 @@
       <c r="U76" s="66"/>
       <c r="V76" s="66"/>
       <c r="W76" s="66"/>
-      <c r="X76" s="66"/>
-      <c r="Y76" s="66" t="s">
+      <c r="X76" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA76" s="66"/>
       <c r="AB76" s="66"/>
       <c r="AC76" s="66"/>
       <c r="AD76" s="66"/>
       <c r="AE76" s="66"/>
       <c r="AF76" s="66"/>
-      <c r="AG76" s="66"/>
-      <c r="AH76" s="66">
+      <c r="AG76" s="66">
         <v>7</v>
       </c>
-      <c r="AI76" s="67">
+      <c r="AH76" s="67">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7175,23 +7140,22 @@
       <c r="U77" s="66"/>
       <c r="V77" s="66"/>
       <c r="W77" s="66"/>
-      <c r="X77" s="66"/>
-      <c r="Y77" s="66" t="s">
+      <c r="X77" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA77" s="66"/>
       <c r="AB77" s="66"/>
-      <c r="AC77" s="66"/>
-      <c r="AD77" s="66">
+      <c r="AC77" s="66">
         <v>24</v>
       </c>
+      <c r="AD77" s="66"/>
       <c r="AE77" s="66"/>
-      <c r="AF77" s="66"/>
-      <c r="AG77" s="66">
+      <c r="AF77" s="66">
         <v>24</v>
       </c>
-      <c r="AH77" s="66"/>
-    </row>
-    <row r="78" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG77" s="66"/>
+    </row>
+    <row r="78" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7231,23 +7195,22 @@
       <c r="U78" s="66"/>
       <c r="V78" s="66"/>
       <c r="W78" s="66"/>
-      <c r="X78" s="66"/>
-      <c r="Y78" s="66" t="s">
+      <c r="X78" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA78" s="66"/>
       <c r="AB78" s="66"/>
-      <c r="AC78" s="66"/>
-      <c r="AD78" s="66">
+      <c r="AC78" s="66">
         <v>25</v>
       </c>
+      <c r="AD78" s="66"/>
       <c r="AE78" s="66"/>
-      <c r="AF78" s="66"/>
-      <c r="AG78" s="66">
+      <c r="AF78" s="66">
         <v>25</v>
       </c>
-      <c r="AH78" s="66"/>
-    </row>
-    <row r="79" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG78" s="66"/>
+    </row>
+    <row r="79" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7285,27 +7248,26 @@
       <c r="U79" s="66"/>
       <c r="V79" s="66"/>
       <c r="W79" s="66"/>
-      <c r="X79" s="66"/>
-      <c r="Y79" s="66" t="s">
+      <c r="X79" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA79" s="66"/>
       <c r="AB79" s="66"/>
       <c r="AC79" s="66"/>
       <c r="AD79" s="66"/>
       <c r="AE79" s="66"/>
       <c r="AF79" s="66"/>
       <c r="AG79" s="66"/>
-      <c r="AH79" s="66"/>
-    </row>
-    <row r="80" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="64">
         <v>80</v>
       </c>
       <c r="B80" s="64" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C80" s="64" t="s">
         <v>1146</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>1147</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>1054</v>
@@ -7339,32 +7301,31 @@
       <c r="U80" s="66"/>
       <c r="V80" s="66"/>
       <c r="W80" s="66"/>
-      <c r="X80" s="66"/>
-      <c r="Y80" s="66" t="s">
+      <c r="X80" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="AB80" s="66"/>
+      <c r="AA80" s="66"/>
+      <c r="AB80" s="66">
+        <v>6</v>
+      </c>
       <c r="AC80" s="66">
+        <v>27</v>
+      </c>
+      <c r="AD80" s="66"/>
+      <c r="AE80" s="66">
         <v>6</v>
       </c>
-      <c r="AD80" s="66">
+      <c r="AF80" s="66">
         <v>27</v>
       </c>
-      <c r="AE80" s="66"/>
-      <c r="AF80" s="66">
-        <v>6</v>
-      </c>
       <c r="AG80" s="66">
-        <v>27</v>
-      </c>
-      <c r="AH80" s="66">
         <v>8</v>
       </c>
-      <c r="AI80" s="67">
+      <c r="AH80" s="67">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7404,21 +7365,18 @@
       <c r="U81" s="77"/>
       <c r="V81" s="77"/>
       <c r="W81" s="77"/>
-      <c r="X81" s="77">
-        <v>8</v>
-      </c>
-      <c r="Y81" s="77" t="s">
+      <c r="X81" s="77" t="s">
         <v>123</v>
       </c>
+      <c r="AA81" s="77"/>
       <c r="AB81" s="77"/>
       <c r="AC81" s="77"/>
       <c r="AD81" s="77"/>
       <c r="AE81" s="77"/>
       <c r="AF81" s="77"/>
       <c r="AG81" s="77"/>
-      <c r="AH81" s="77"/>
-    </row>
-    <row r="82" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7426,7 +7384,7 @@
         <v>144</v>
       </c>
       <c r="C82" s="64" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D82" s="64" t="s">
         <v>1052</v>
@@ -7460,32 +7418,31 @@
       <c r="U82" s="66"/>
       <c r="V82" s="66"/>
       <c r="W82" s="66"/>
-      <c r="X82" s="66"/>
-      <c r="Y82" s="66" t="s">
+      <c r="X82" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="AB82" s="66"/>
+      <c r="AA82" s="66"/>
+      <c r="AB82" s="66">
+        <v>7</v>
+      </c>
       <c r="AC82" s="66">
+        <v>28</v>
+      </c>
+      <c r="AD82" s="66"/>
+      <c r="AE82" s="66">
         <v>7</v>
       </c>
-      <c r="AD82" s="66">
+      <c r="AF82" s="66">
         <v>28</v>
       </c>
-      <c r="AE82" s="66"/>
-      <c r="AF82" s="66">
-        <v>7</v>
-      </c>
       <c r="AG82" s="66">
-        <v>28</v>
-      </c>
-      <c r="AH82" s="66">
         <v>9</v>
       </c>
-      <c r="AI82" s="67">
+      <c r="AH82" s="67">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7525,32 +7482,31 @@
       <c r="U83" s="66"/>
       <c r="V83" s="66"/>
       <c r="W83" s="66"/>
-      <c r="X83" s="66"/>
-      <c r="Y83" s="66" t="s">
+      <c r="X83" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="AB83" s="66"/>
+      <c r="AA83" s="66"/>
+      <c r="AB83" s="66">
+        <v>5</v>
+      </c>
       <c r="AC83" s="66">
+        <v>29</v>
+      </c>
+      <c r="AD83" s="66"/>
+      <c r="AE83" s="66">
         <v>5</v>
       </c>
-      <c r="AD83" s="66">
+      <c r="AF83" s="66">
         <v>29</v>
       </c>
-      <c r="AE83" s="66"/>
-      <c r="AF83" s="66">
-        <v>5</v>
-      </c>
-      <c r="AG83" s="66">
-        <v>29</v>
-      </c>
-      <c r="AH83" s="66"/>
-    </row>
-    <row r="84" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG83" s="66"/>
+    </row>
+    <row r="84" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="64">
         <v>84</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C84" s="64"/>
       <c r="D84" s="64" t="s">
@@ -7585,24 +7541,23 @@
       <c r="U84" s="66"/>
       <c r="V84" s="66"/>
       <c r="W84" s="66"/>
-      <c r="X84" s="66"/>
-      <c r="Y84" s="66" t="s">
+      <c r="X84" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA84" s="66"/>
       <c r="AB84" s="66"/>
       <c r="AC84" s="66"/>
       <c r="AD84" s="66"/>
       <c r="AE84" s="66"/>
       <c r="AF84" s="66"/>
       <c r="AG84" s="66"/>
-      <c r="AH84" s="66"/>
-    </row>
-    <row r="85" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="64">
         <v>85</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C85" s="64"/>
       <c r="D85" s="64" t="s">
@@ -7637,24 +7592,23 @@
       <c r="U85" s="66"/>
       <c r="V85" s="66"/>
       <c r="W85" s="66"/>
-      <c r="X85" s="66"/>
-      <c r="Y85" s="66" t="s">
+      <c r="X85" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA85" s="66"/>
       <c r="AB85" s="66"/>
       <c r="AC85" s="66"/>
       <c r="AD85" s="66"/>
       <c r="AE85" s="66"/>
       <c r="AF85" s="66"/>
       <c r="AG85" s="66"/>
-      <c r="AH85" s="66"/>
-    </row>
-    <row r="86" spans="1:35" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:34" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="64">
         <v>86</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C86" s="64"/>
       <c r="D86" s="64" t="s">
@@ -7689,19 +7643,18 @@
       <c r="U86" s="66"/>
       <c r="V86" s="66"/>
       <c r="W86" s="66"/>
-      <c r="X86" s="66"/>
-      <c r="Y86" s="66" t="s">
+      <c r="X86" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="AA86" s="66"/>
       <c r="AB86" s="66"/>
       <c r="AC86" s="66"/>
       <c r="AD86" s="66"/>
       <c r="AE86" s="66"/>
       <c r="AF86" s="66"/>
       <c r="AG86" s="66"/>
-      <c r="AH86" s="66"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="55">
         <v>87</v>
       </c>
@@ -7721,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="55">
         <v>88</v>
       </c>
@@ -7741,7 +7694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="55">
         <v>89</v>
       </c>
@@ -7761,7 +7714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="55">
         <v>90</v>
       </c>
@@ -7781,7 +7734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="55">
         <v>91</v>
       </c>
@@ -7798,7 +7751,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="55">
         <v>92</v>
       </c>
@@ -7815,7 +7768,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="55">
         <v>93</v>
       </c>
@@ -7835,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="55">
         <v>94</v>
       </c>
@@ -7855,7 +7808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="55">
         <v>95</v>
       </c>
@@ -7875,7 +7828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="55">
         <v>96</v>
       </c>
@@ -8813,7 +8766,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="55">
         <v>145</v>
       </c>
@@ -8833,7 +8786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="55">
         <v>146</v>
       </c>
@@ -8853,7 +8806,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="55">
         <v>147</v>
       </c>
@@ -8873,7 +8826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="55">
         <v>148</v>
       </c>
@@ -8893,7 +8846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" s="55">
         <v>149</v>
       </c>
@@ -8913,7 +8866,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="55">
         <v>150</v>
       </c>
@@ -8930,7 +8883,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="55">
         <v>151</v>
       </c>
@@ -8947,7 +8900,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="55">
         <v>152</v>
       </c>
@@ -8964,7 +8917,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" s="55">
         <v>152</v>
       </c>
@@ -8984,7 +8937,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" s="55">
         <v>153</v>
       </c>
@@ -9000,14 +8953,14 @@
       <c r="F154" s="55" t="s">
         <v>567</v>
       </c>
+      <c r="Y154" s="53">
+        <v>1</v>
+      </c>
       <c r="Z154" s="53">
         <v>1</v>
       </c>
-      <c r="AA154" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" s="55">
         <v>154</v>
       </c>
@@ -9023,22 +8976,22 @@
       <c r="F155" s="55" t="s">
         <v>132</v>
       </c>
+      <c r="Y155" s="53">
+        <v>2</v>
+      </c>
       <c r="Z155" s="53">
-        <v>2</v>
-      </c>
-      <c r="AA155" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" s="55">
         <v>155</v>
       </c>
       <c r="B156" s="55" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C156" s="55" t="s">
         <v>1151</v>
-      </c>
-      <c r="C156" s="55" t="s">
-        <v>1152</v>
       </c>
       <c r="D156" s="55" t="s">
         <v>1081</v>
@@ -9052,20 +9005,20 @@
       <c r="G156" s="54">
         <v>1</v>
       </c>
+      <c r="AA156" s="54">
+        <v>1</v>
+      </c>
       <c r="AB156" s="54">
         <v>1</v>
       </c>
       <c r="AC156" s="54">
         <v>1</v>
       </c>
-      <c r="AD156" s="54">
+      <c r="AG156" s="54">
         <v>1</v>
       </c>
-      <c r="AH156" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" s="55">
         <v>156</v>
       </c>
@@ -9088,7 +9041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="55">
         <v>157</v>
       </c>
@@ -9105,7 +9058,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" s="55">
         <v>158</v>
       </c>
@@ -9122,7 +9075,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" s="55">
         <v>159</v>
       </c>
@@ -12076,7 +12029,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A305" s="55">
         <v>346</v>
       </c>
@@ -12099,7 +12052,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A306" s="55">
         <v>347</v>
       </c>
@@ -12122,7 +12075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A307" s="55">
         <v>348</v>
       </c>
@@ -12142,7 +12095,7 @@
       <c r="G307" s="53"/>
       <c r="H307" s="53"/>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A308" s="55">
         <v>349</v>
       </c>
@@ -12162,7 +12115,7 @@
       <c r="G308" s="53"/>
       <c r="H308" s="53"/>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A309" s="55">
         <v>350</v>
       </c>
@@ -12185,7 +12138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A310" s="55">
         <v>351</v>
       </c>
@@ -12208,7 +12161,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A311" s="55">
         <v>352</v>
       </c>
@@ -12231,7 +12184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A312" s="55">
         <v>353</v>
       </c>
@@ -12254,7 +12207,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A313" s="55">
         <v>354</v>
       </c>
@@ -12274,7 +12227,7 @@
       <c r="G313" s="53"/>
       <c r="H313" s="53"/>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A314" s="55">
         <v>355</v>
       </c>
@@ -12294,7 +12247,7 @@
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A315" s="55">
         <v>356</v>
       </c>
@@ -12317,7 +12270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A316" s="55">
         <v>357</v>
       </c>
@@ -12339,17 +12292,17 @@
       <c r="R316" s="54">
         <v>160</v>
       </c>
+      <c r="AD316" s="54">
+        <v>1</v>
+      </c>
       <c r="AE316" s="54">
         <v>1</v>
       </c>
       <c r="AF316" s="54">
         <v>1</v>
       </c>
-      <c r="AG316" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A317" s="55">
         <v>358</v>
       </c>
@@ -12372,7 +12325,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A318" s="55">
         <v>359</v>
       </c>
@@ -12395,7 +12348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A319" s="55">
         <v>360</v>
       </c>
@@ -12415,7 +12368,7 @@
       <c r="G319" s="53"/>
       <c r="H319" s="53"/>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A320" s="55">
         <v>361</v>
       </c>
@@ -13425,7 +13378,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="369" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A369" s="55">
         <v>410</v>
       </c>
@@ -13443,7 +13396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="370" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A370" s="55">
         <v>411</v>
       </c>
@@ -13461,7 +13414,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="371" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A371" s="55">
         <v>412</v>
       </c>
@@ -13479,7 +13432,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="372" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A372" s="55">
         <v>413</v>
       </c>
@@ -13497,7 +13450,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="373" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A373" s="55">
         <v>414</v>
       </c>
@@ -13515,7 +13468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="374" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A374" s="55">
         <v>415</v>
       </c>
@@ -13533,7 +13486,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="375" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A375" s="55">
         <v>416</v>
       </c>
@@ -13551,7 +13504,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="376" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A376" s="55">
         <v>417</v>
       </c>
@@ -13569,7 +13522,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="377" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A377" s="55">
         <v>418</v>
       </c>
@@ -13587,7 +13540,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="378" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A378" s="55">
         <v>419</v>
       </c>
@@ -13605,7 +13558,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="379" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A379" s="55">
         <v>420</v>
       </c>
@@ -13623,7 +13576,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="380" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A380" s="55">
         <v>421</v>
       </c>
@@ -13644,7 +13597,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="381" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" s="55">
         <v>421</v>
       </c>
@@ -13666,19 +13619,19 @@
       <c r="V381" s="54">
         <v>2</v>
       </c>
-      <c r="AH381" s="54">
+      <c r="AG381" s="54">
         <v>2</v>
       </c>
-      <c r="AI381" s="53">
+      <c r="AH381" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="75">
         <v>422</v>
       </c>
       <c r="B382" s="75" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C382" s="75"/>
       <c r="D382" s="79" t="s">
@@ -13706,25 +13659,24 @@
       <c r="T382" s="77"/>
       <c r="U382" s="77"/>
       <c r="V382" s="77"/>
-      <c r="W382" s="77"/>
-      <c r="X382" s="77">
-        <v>3</v>
-      </c>
-      <c r="Y382" s="77"/>
+      <c r="W382" s="77">
+        <v>6</v>
+      </c>
+      <c r="X382" s="77"/>
+      <c r="AA382" s="77"/>
       <c r="AB382" s="77"/>
       <c r="AC382" s="77"/>
       <c r="AD382" s="77"/>
       <c r="AE382" s="77"/>
       <c r="AF382" s="77"/>
       <c r="AG382" s="77"/>
-      <c r="AH382" s="77"/>
-    </row>
-    <row r="383" spans="1:35" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A383" s="75">
         <v>423</v>
       </c>
       <c r="B383" s="75" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C383" s="75"/>
       <c r="D383" s="78" t="s">
@@ -13753,26 +13705,23 @@
       <c r="U383" s="77"/>
       <c r="V383" s="77"/>
       <c r="W383" s="77">
-        <v>3</v>
-      </c>
-      <c r="X383" s="77">
-        <v>4</v>
-      </c>
-      <c r="Y383" s="77"/>
+        <v>5</v>
+      </c>
+      <c r="X383" s="77"/>
+      <c r="AA383" s="77"/>
       <c r="AB383" s="77"/>
       <c r="AC383" s="77"/>
       <c r="AD383" s="77"/>
       <c r="AE383" s="77"/>
       <c r="AF383" s="77"/>
       <c r="AG383" s="77"/>
-      <c r="AH383" s="77"/>
-    </row>
-    <row r="384" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A384" s="55">
         <v>424</v>
       </c>
       <c r="B384" s="55" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D384" s="53" t="s">
         <v>1046</v>
@@ -13784,10 +13733,10 @@
         <v>723</v>
       </c>
       <c r="W384" s="54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="75">
         <v>425</v>
       </c>
@@ -13820,20 +13769,19 @@
       <c r="T385" s="77"/>
       <c r="U385" s="77"/>
       <c r="V385" s="77"/>
-      <c r="W385" s="77"/>
-      <c r="X385" s="77">
-        <v>5</v>
-      </c>
-      <c r="Y385" s="77"/>
+      <c r="W385" s="77">
+        <v>3</v>
+      </c>
+      <c r="X385" s="77"/>
+      <c r="AA385" s="77"/>
       <c r="AB385" s="77"/>
       <c r="AC385" s="77"/>
       <c r="AD385" s="77"/>
       <c r="AE385" s="77"/>
       <c r="AF385" s="77"/>
       <c r="AG385" s="77"/>
-      <c r="AH385" s="77"/>
-    </row>
-    <row r="386" spans="1:34" s="78" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="1:33" s="78" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="75">
         <v>427</v>
       </c>
@@ -13850,8 +13798,12 @@
       <c r="F386" s="78" t="s">
         <v>725</v>
       </c>
-      <c r="G386" s="77"/>
-      <c r="H386" s="77"/>
+      <c r="G386" s="77">
+        <v>1</v>
+      </c>
+      <c r="H386" s="77">
+        <v>1</v>
+      </c>
       <c r="I386" s="77"/>
       <c r="J386" s="77"/>
       <c r="K386" s="77"/>
@@ -13866,25 +13818,24 @@
       <c r="T386" s="77"/>
       <c r="U386" s="77"/>
       <c r="V386" s="77"/>
-      <c r="W386" s="77"/>
-      <c r="X386" s="77">
+      <c r="W386" s="77">
         <v>2</v>
       </c>
-      <c r="Y386" s="77"/>
+      <c r="X386" s="77"/>
+      <c r="AA386" s="77"/>
       <c r="AB386" s="77"/>
       <c r="AC386" s="77"/>
       <c r="AD386" s="77"/>
       <c r="AE386" s="77"/>
       <c r="AF386" s="77"/>
       <c r="AG386" s="77"/>
-      <c r="AH386" s="77"/>
-    </row>
-    <row r="387" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="75">
         <v>428</v>
       </c>
       <c r="B387" s="75" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C387" s="75"/>
       <c r="D387" s="76" t="s">
@@ -13912,25 +13863,24 @@
       <c r="T387" s="77"/>
       <c r="U387" s="77"/>
       <c r="V387" s="77"/>
-      <c r="W387" s="77"/>
-      <c r="X387" s="77">
+      <c r="W387" s="77">
         <v>1</v>
       </c>
-      <c r="Y387" s="77"/>
+      <c r="X387" s="77"/>
+      <c r="AA387" s="77"/>
       <c r="AB387" s="77"/>
       <c r="AC387" s="77"/>
       <c r="AD387" s="77"/>
       <c r="AE387" s="77"/>
       <c r="AF387" s="77"/>
       <c r="AG387" s="77"/>
-      <c r="AH387" s="77"/>
-    </row>
-    <row r="388" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="75">
         <v>429</v>
       </c>
       <c r="B388" s="75" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C388" s="75"/>
       <c r="D388" s="76" t="s">
@@ -13958,25 +13908,24 @@
       <c r="T388" s="77"/>
       <c r="U388" s="77"/>
       <c r="V388" s="77"/>
-      <c r="W388" s="77"/>
-      <c r="X388" s="77">
-        <v>6</v>
-      </c>
-      <c r="Y388" s="77"/>
+      <c r="W388" s="77">
+        <v>4</v>
+      </c>
+      <c r="X388" s="77"/>
+      <c r="AA388" s="77"/>
       <c r="AB388" s="77"/>
       <c r="AC388" s="77"/>
       <c r="AD388" s="77"/>
       <c r="AE388" s="77"/>
       <c r="AF388" s="77"/>
       <c r="AG388" s="77"/>
-      <c r="AH388" s="77"/>
-    </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A389" s="55">
         <v>430</v>
       </c>
       <c r="B389" s="55" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D389" s="56" t="s">
         <v>1031</v>
@@ -13991,12 +13940,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A390" s="55">
         <v>432</v>
       </c>
       <c r="B390" s="55" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D390" s="53" t="s">
         <v>1032</v>
@@ -14011,12 +13960,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A391" s="55">
         <v>433</v>
       </c>
       <c r="B391" s="55" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D391" s="56" t="s">
         <v>1033</v>
@@ -14031,12 +13980,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A392" s="55">
         <v>434</v>
       </c>
       <c r="B392" s="55" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D392" s="56" t="s">
         <v>1034</v>
@@ -14051,12 +14000,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A393" s="55">
         <v>435</v>
       </c>
       <c r="B393" s="55" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D393" s="53" t="s">
         <v>1035</v>
@@ -14071,12 +14020,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:34" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:33" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="55">
         <v>436</v>
       </c>
       <c r="B394" s="55" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D394" s="60" t="s">
         <v>1072</v>
@@ -14091,12 +14040,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A395" s="55">
         <v>437</v>
       </c>
       <c r="B395" s="55" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D395" s="53" t="s">
         <v>1036</v>
@@ -14111,12 +14060,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="55">
         <v>438</v>
       </c>
       <c r="B396" s="55" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D396" s="60" t="s">
         <v>1037</v>
@@ -14131,12 +14080,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:34" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:33" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="55">
         <v>439</v>
       </c>
       <c r="B397" s="55" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D397" s="60" t="s">
         <v>1038</v>
@@ -14151,7 +14100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A398" s="55">
         <v>440</v>
       </c>
@@ -14171,7 +14120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A399" s="75">
         <v>441</v>
       </c>
@@ -14204,20 +14153,19 @@
       <c r="T399" s="77"/>
       <c r="U399" s="77"/>
       <c r="V399" s="77"/>
-      <c r="W399" s="77"/>
-      <c r="X399" s="77">
+      <c r="W399" s="77">
         <v>9</v>
       </c>
-      <c r="Y399" s="77"/>
+      <c r="X399" s="77"/>
+      <c r="AA399" s="77"/>
       <c r="AB399" s="77"/>
       <c r="AC399" s="77"/>
       <c r="AD399" s="77"/>
       <c r="AE399" s="77"/>
       <c r="AF399" s="77"/>
       <c r="AG399" s="77"/>
-      <c r="AH399" s="77"/>
-    </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A400" s="55">
         <v>442</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1157">
   <si>
     <t>id</t>
   </si>
@@ -3492,6 +3492,12 @@
   </si>
   <si>
     <t>Acute kidney failure</t>
+  </si>
+  <si>
+    <t>ajuste9</t>
+  </si>
+  <si>
+    <t>ajuste10</t>
   </si>
 </sst>
 </file>
@@ -4395,19 +4401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH404"/>
+  <dimension ref="A1:AJ404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AA389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6.26953125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" style="55" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" style="55" customWidth="1"/>
     <col min="4" max="4" width="47.1796875" style="55" customWidth="1"/>
     <col min="5" max="5" width="26.453125" style="55" customWidth="1"/>
@@ -4434,10 +4440,11 @@
     <col min="30" max="30" width="13.1796875" style="54" customWidth="1"/>
     <col min="31" max="32" width="9.1796875" style="54"/>
     <col min="33" max="33" width="15.26953125" style="54" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="53"/>
+    <col min="34" max="34" width="4.81640625" style="53" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4540,8 +4547,14 @@
       <c r="AH1" s="53" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI1" s="53" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AJ1" s="53" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4590,8 +4603,14 @@
       <c r="AF2" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1">
+      <c r="AI2" s="53">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4649,8 +4668,14 @@
       <c r="AH3" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="53">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4682,7 +4707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5" s="55">
         <v>5</v>
       </c>
@@ -4714,7 +4739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4746,7 +4771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4778,7 +4803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4810,7 +4835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4842,7 +4867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -4874,7 +4899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -4903,7 +4928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -4926,7 +4951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -4978,7 +5003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -5004,7 +5029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -6710,7 +6735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:36">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6733,7 +6758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:36">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6753,7 +6778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:36">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6776,7 +6801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:36">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6796,7 +6821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:36">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6819,7 +6844,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:36">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6839,7 +6864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:36">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6859,7 +6884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:36">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -6876,7 +6901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="67" customFormat="1">
+    <row r="73" spans="1:36" s="67" customFormat="1">
       <c r="A73" s="64">
         <v>73</v>
       </c>
@@ -6937,8 +6962,14 @@
       <c r="AH73" s="67">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:34" s="67" customFormat="1">
+      <c r="AI73" s="67">
+        <v>5</v>
+      </c>
+      <c r="AJ73" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" s="67" customFormat="1">
       <c r="A74" s="64">
         <v>74</v>
       </c>
@@ -6997,8 +7028,14 @@
       <c r="AH74" s="67">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:34" s="67" customFormat="1">
+      <c r="AI74" s="67">
+        <v>6</v>
+      </c>
+      <c r="AJ74" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" s="67" customFormat="1">
       <c r="A75" s="64">
         <v>75</v>
       </c>
@@ -7063,8 +7100,14 @@
       <c r="AH75" s="67">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:34" s="67" customFormat="1">
+      <c r="AI75" s="67">
+        <v>4</v>
+      </c>
+      <c r="AJ75" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" s="67" customFormat="1">
       <c r="A76" s="64">
         <v>76</v>
       </c>
@@ -7130,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="67" customFormat="1">
+    <row r="77" spans="1:36" s="67" customFormat="1">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7184,8 +7227,11 @@
         <v>24</v>
       </c>
       <c r="AG77" s="66"/>
-    </row>
-    <row r="78" spans="1:34" s="67" customFormat="1">
+      <c r="AJ77" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" s="67" customFormat="1">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7240,7 +7286,7 @@
       </c>
       <c r="AG78" s="66"/>
     </row>
-    <row r="79" spans="1:34" s="67" customFormat="1">
+    <row r="79" spans="1:36" s="67" customFormat="1">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7289,7 +7335,7 @@
       <c r="AF79" s="66"/>
       <c r="AG79" s="66"/>
     </row>
-    <row r="80" spans="1:34" s="67" customFormat="1">
+    <row r="80" spans="1:36" s="67" customFormat="1">
       <c r="A80" s="64">
         <v>80</v>
       </c>
@@ -7354,8 +7400,11 @@
       <c r="AH80" s="67">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:34" s="78" customFormat="1">
+      <c r="AJ80" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" s="78" customFormat="1">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7406,7 +7455,7 @@
       <c r="AF81" s="77"/>
       <c r="AG81" s="77"/>
     </row>
-    <row r="82" spans="1:34" s="67" customFormat="1">
+    <row r="82" spans="1:36" s="67" customFormat="1">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7471,8 +7520,11 @@
       <c r="AH82" s="67">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:34" s="67" customFormat="1">
+      <c r="AJ82" s="67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" s="67" customFormat="1">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7530,8 +7582,11 @@
         <v>29</v>
       </c>
       <c r="AG83" s="66"/>
-    </row>
-    <row r="84" spans="1:34" s="67" customFormat="1">
+      <c r="AJ83" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" s="67" customFormat="1">
       <c r="A84" s="64">
         <v>84</v>
       </c>
@@ -7582,7 +7637,7 @@
       <c r="AF84" s="66"/>
       <c r="AG84" s="66"/>
     </row>
-    <row r="85" spans="1:34" s="67" customFormat="1">
+    <row r="85" spans="1:36" s="67" customFormat="1">
       <c r="A85" s="64">
         <v>85</v>
       </c>
@@ -7633,7 +7688,7 @@
       <c r="AF85" s="66"/>
       <c r="AG85" s="66"/>
     </row>
-    <row r="86" spans="1:34" s="67" customFormat="1">
+    <row r="86" spans="1:36" s="67" customFormat="1">
       <c r="A86" s="64">
         <v>86</v>
       </c>
@@ -7684,7 +7739,7 @@
       <c r="AF86" s="66"/>
       <c r="AG86" s="66"/>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:36">
       <c r="A87" s="55">
         <v>87</v>
       </c>
@@ -7704,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:36">
       <c r="A88" s="55">
         <v>88</v>
       </c>
@@ -7724,7 +7779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:36">
       <c r="A89" s="55">
         <v>89</v>
       </c>
@@ -7744,7 +7799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:36">
       <c r="A90" s="55">
         <v>90</v>
       </c>
@@ -7764,7 +7819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:36">
       <c r="A91" s="55">
         <v>91</v>
       </c>
@@ -7781,7 +7836,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:36">
       <c r="A92" s="55">
         <v>92</v>
       </c>
@@ -7798,7 +7853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:36">
       <c r="A93" s="55">
         <v>93</v>
       </c>
@@ -7818,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:36">
       <c r="A94" s="55">
         <v>94</v>
       </c>
@@ -7838,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:36">
       <c r="A95" s="55">
         <v>95</v>
       </c>
@@ -7858,7 +7913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:36">
       <c r="A96" s="55">
         <v>96</v>
       </c>
@@ -8796,7 +8851,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="29">
+    <row r="145" spans="1:36" ht="29">
       <c r="A145" s="55">
         <v>145</v>
       </c>
@@ -8816,7 +8871,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:33">
+    <row r="146" spans="1:36">
       <c r="A146" s="55">
         <v>146</v>
       </c>
@@ -8836,7 +8891,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:33">
+    <row r="147" spans="1:36">
       <c r="A147" s="55">
         <v>147</v>
       </c>
@@ -8856,7 +8911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="29">
+    <row r="148" spans="1:36" ht="29">
       <c r="A148" s="55">
         <v>148</v>
       </c>
@@ -8876,7 +8931,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:33">
+    <row r="149" spans="1:36">
       <c r="A149" s="55">
         <v>149</v>
       </c>
@@ -8896,7 +8951,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="29">
+    <row r="150" spans="1:36" ht="29">
       <c r="A150" s="55">
         <v>150</v>
       </c>
@@ -8913,7 +8968,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="29">
+    <row r="151" spans="1:36" ht="29">
       <c r="A151" s="55">
         <v>151</v>
       </c>
@@ -8930,7 +8985,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="29">
+    <row r="152" spans="1:36" ht="29">
       <c r="A152" s="55">
         <v>152</v>
       </c>
@@ -8947,7 +9002,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="153" spans="1:33">
+    <row r="153" spans="1:36">
       <c r="A153" s="55">
         <v>152</v>
       </c>
@@ -8967,7 +9022,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:33">
+    <row r="154" spans="1:36">
       <c r="A154" s="55">
         <v>153</v>
       </c>
@@ -8990,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:33">
+    <row r="155" spans="1:36">
       <c r="A155" s="55">
         <v>154</v>
       </c>
@@ -9013,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:33">
+    <row r="156" spans="1:36">
       <c r="A156" s="55">
         <v>155</v>
       </c>
@@ -9047,8 +9102,14 @@
       <c r="AG156" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:33">
+      <c r="AI156" s="53">
+        <v>1</v>
+      </c>
+      <c r="AJ156" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36">
       <c r="A157" s="55">
         <v>156</v>
       </c>
@@ -9071,7 +9132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="24.75" customHeight="1">
+    <row r="158" spans="1:36" ht="24.75" customHeight="1">
       <c r="A158" s="55">
         <v>157</v>
       </c>
@@ -9088,7 +9149,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:33">
+    <row r="159" spans="1:36">
       <c r="A159" s="55">
         <v>158</v>
       </c>
@@ -9105,7 +9166,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="160" spans="1:33">
+    <row r="160" spans="1:36">
       <c r="A160" s="55">
         <v>159</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1159">
   <si>
     <t>id</t>
   </si>
@@ -3498,6 +3498,12 @@
   </si>
   <si>
     <t>ajuste10</t>
+  </si>
+  <si>
+    <t>ajuste11</t>
+  </si>
+  <si>
+    <t>ajuste12</t>
   </si>
 </sst>
 </file>
@@ -4401,13 +4407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ404"/>
+  <dimension ref="A1:AL404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA389" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4444,7 +4450,7 @@
     <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4553,8 +4559,14 @@
       <c r="AJ1" s="53" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK1" s="53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AL1" s="53" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4603,14 +4615,26 @@
       <c r="AF2" s="54">
         <v>2</v>
       </c>
+      <c r="AG2" s="54">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="53">
+        <v>2</v>
+      </c>
       <c r="AI2" s="53">
         <v>2</v>
       </c>
       <c r="AJ2" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1">
+      <c r="AK2" s="53">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4674,8 +4698,14 @@
       <c r="AJ3" s="53">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="53">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4707,7 +4737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38">
       <c r="A5" s="55">
         <v>5</v>
       </c>
@@ -4739,7 +4769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:38">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4771,7 +4801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4803,7 +4833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:38">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4835,7 +4865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4867,7 +4897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -4899,7 +4929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -4928,7 +4958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -4951,7 +4981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -4977,7 +5007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -5003,7 +5033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -5029,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -6735,7 +6765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:38">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6758,7 +6788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:38">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6778,7 +6808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:38">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6801,7 +6831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:38">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6821,7 +6851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:38">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6844,7 +6874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:38">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6864,7 +6894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:38">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6884,7 +6914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:38">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -6901,7 +6931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:36" s="67" customFormat="1">
+    <row r="73" spans="1:38" s="67" customFormat="1">
       <c r="A73" s="64">
         <v>73</v>
       </c>
@@ -6968,8 +6998,14 @@
       <c r="AJ73" s="67">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:36" s="67" customFormat="1">
+      <c r="AK73" s="67">
+        <v>5</v>
+      </c>
+      <c r="AL73" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" s="67" customFormat="1">
       <c r="A74" s="64">
         <v>74</v>
       </c>
@@ -7034,8 +7070,14 @@
       <c r="AJ74" s="67">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" s="67" customFormat="1">
+      <c r="AK74" s="67">
+        <v>6</v>
+      </c>
+      <c r="AL74" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" s="67" customFormat="1">
       <c r="A75" s="64">
         <v>75</v>
       </c>
@@ -7106,8 +7148,14 @@
       <c r="AJ75" s="67">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:36" s="67" customFormat="1">
+      <c r="AK75" s="67">
+        <v>4</v>
+      </c>
+      <c r="AL75" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" s="67" customFormat="1">
       <c r="A76" s="64">
         <v>76</v>
       </c>
@@ -7172,8 +7220,14 @@
       <c r="AH76" s="67">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:36" s="67" customFormat="1">
+      <c r="AJ76" s="67">
+        <v>10</v>
+      </c>
+      <c r="AL76" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" s="67" customFormat="1">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7227,11 +7281,8 @@
         <v>24</v>
       </c>
       <c r="AG77" s="66"/>
-      <c r="AJ77" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:36" s="67" customFormat="1">
+    </row>
+    <row r="78" spans="1:38" s="67" customFormat="1">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7286,7 +7337,7 @@
       </c>
       <c r="AG78" s="66"/>
     </row>
-    <row r="79" spans="1:36" s="67" customFormat="1">
+    <row r="79" spans="1:38" s="67" customFormat="1">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7335,7 +7386,7 @@
       <c r="AF79" s="66"/>
       <c r="AG79" s="66"/>
     </row>
-    <row r="80" spans="1:36" s="67" customFormat="1">
+    <row r="80" spans="1:38" s="67" customFormat="1">
       <c r="A80" s="64">
         <v>80</v>
       </c>
@@ -7403,8 +7454,11 @@
       <c r="AJ80" s="67">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:36" s="78" customFormat="1">
+      <c r="AL80" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" s="78" customFormat="1">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7448,14 +7502,33 @@
         <v>123</v>
       </c>
       <c r="AA81" s="77"/>
-      <c r="AB81" s="77"/>
-      <c r="AC81" s="77"/>
+      <c r="AB81" s="77">
+        <v>7</v>
+      </c>
+      <c r="AC81" s="77">
+        <v>28</v>
+      </c>
       <c r="AD81" s="77"/>
-      <c r="AE81" s="77"/>
-      <c r="AF81" s="77"/>
-      <c r="AG81" s="77"/>
-    </row>
-    <row r="82" spans="1:36" s="67" customFormat="1">
+      <c r="AE81" s="77">
+        <v>7</v>
+      </c>
+      <c r="AF81" s="77">
+        <v>28</v>
+      </c>
+      <c r="AG81" s="77">
+        <v>9</v>
+      </c>
+      <c r="AH81" s="78">
+        <v>9</v>
+      </c>
+      <c r="AJ81" s="78">
+        <v>9</v>
+      </c>
+      <c r="AL81" s="78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" s="67" customFormat="1">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7501,30 +7574,14 @@
         <v>123</v>
       </c>
       <c r="AA82" s="66"/>
-      <c r="AB82" s="66">
-        <v>7</v>
-      </c>
-      <c r="AC82" s="66">
-        <v>28</v>
-      </c>
+      <c r="AB82" s="66"/>
+      <c r="AC82" s="66"/>
       <c r="AD82" s="66"/>
-      <c r="AE82" s="66">
-        <v>7</v>
-      </c>
-      <c r="AF82" s="66">
-        <v>28</v>
-      </c>
-      <c r="AG82" s="66">
-        <v>9</v>
-      </c>
-      <c r="AH82" s="67">
-        <v>9</v>
-      </c>
-      <c r="AJ82" s="67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:36" s="67" customFormat="1">
+      <c r="AE82" s="66"/>
+      <c r="AF82" s="66"/>
+      <c r="AG82" s="66"/>
+    </row>
+    <row r="83" spans="1:38" s="67" customFormat="1">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7585,8 +7642,11 @@
       <c r="AJ83" s="67">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" s="67" customFormat="1">
+      <c r="AL83" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" s="67" customFormat="1">
       <c r="A84" s="64">
         <v>84</v>
       </c>
@@ -7637,7 +7697,7 @@
       <c r="AF84" s="66"/>
       <c r="AG84" s="66"/>
     </row>
-    <row r="85" spans="1:36" s="67" customFormat="1">
+    <row r="85" spans="1:38" s="67" customFormat="1">
       <c r="A85" s="64">
         <v>85</v>
       </c>
@@ -7688,7 +7748,7 @@
       <c r="AF85" s="66"/>
       <c r="AG85" s="66"/>
     </row>
-    <row r="86" spans="1:36" s="67" customFormat="1">
+    <row r="86" spans="1:38" s="67" customFormat="1">
       <c r="A86" s="64">
         <v>86</v>
       </c>
@@ -7739,7 +7799,7 @@
       <c r="AF86" s="66"/>
       <c r="AG86" s="66"/>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:38">
       <c r="A87" s="55">
         <v>87</v>
       </c>
@@ -7759,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:38">
       <c r="A88" s="55">
         <v>88</v>
       </c>
@@ -7779,7 +7839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:38">
       <c r="A89" s="55">
         <v>89</v>
       </c>
@@ -7799,7 +7859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:38">
       <c r="A90" s="55">
         <v>90</v>
       </c>
@@ -7819,7 +7879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:38">
       <c r="A91" s="55">
         <v>91</v>
       </c>
@@ -7836,7 +7896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:38">
       <c r="A92" s="55">
         <v>92</v>
       </c>
@@ -7853,7 +7913,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:38">
       <c r="A93" s="55">
         <v>93</v>
       </c>
@@ -7873,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:38">
       <c r="A94" s="55">
         <v>94</v>
       </c>
@@ -7893,7 +7953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:38">
       <c r="A95" s="55">
         <v>95</v>
       </c>
@@ -7913,7 +7973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:38">
       <c r="A96" s="55">
         <v>96</v>
       </c>
@@ -12120,7 +12180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="305" spans="1:32">
+    <row r="305" spans="1:38">
       <c r="A305" s="55">
         <v>346</v>
       </c>
@@ -12143,7 +12203,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="306" spans="1:32">
+    <row r="306" spans="1:38">
       <c r="A306" s="55">
         <v>347</v>
       </c>
@@ -12166,7 +12226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="307" spans="1:32">
+    <row r="307" spans="1:38">
       <c r="A307" s="55">
         <v>348</v>
       </c>
@@ -12186,7 +12246,7 @@
       <c r="G307" s="53"/>
       <c r="H307" s="53"/>
     </row>
-    <row r="308" spans="1:32">
+    <row r="308" spans="1:38">
       <c r="A308" s="55">
         <v>349</v>
       </c>
@@ -12206,7 +12266,7 @@
       <c r="G308" s="53"/>
       <c r="H308" s="53"/>
     </row>
-    <row r="309" spans="1:32">
+    <row r="309" spans="1:38">
       <c r="A309" s="55">
         <v>350</v>
       </c>
@@ -12229,7 +12289,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="310" spans="1:32">
+    <row r="310" spans="1:38">
       <c r="A310" s="55">
         <v>351</v>
       </c>
@@ -12252,7 +12312,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="311" spans="1:32">
+    <row r="311" spans="1:38">
       <c r="A311" s="55">
         <v>352</v>
       </c>
@@ -12275,7 +12335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="312" spans="1:32">
+    <row r="312" spans="1:38">
       <c r="A312" s="55">
         <v>353</v>
       </c>
@@ -12298,7 +12358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="313" spans="1:32">
+    <row r="313" spans="1:38">
       <c r="A313" s="55">
         <v>354</v>
       </c>
@@ -12318,7 +12378,7 @@
       <c r="G313" s="53"/>
       <c r="H313" s="53"/>
     </row>
-    <row r="314" spans="1:32">
+    <row r="314" spans="1:38">
       <c r="A314" s="55">
         <v>355</v>
       </c>
@@ -12338,7 +12398,7 @@
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
     </row>
-    <row r="315" spans="1:32">
+    <row r="315" spans="1:38">
       <c r="A315" s="55">
         <v>356</v>
       </c>
@@ -12361,7 +12421,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="316" spans="1:32">
+    <row r="316" spans="1:38">
       <c r="A316" s="55">
         <v>357</v>
       </c>
@@ -12392,8 +12452,14 @@
       <c r="AF316" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:32">
+      <c r="AK316" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL316" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:38">
       <c r="A317" s="55">
         <v>358</v>
       </c>
@@ -12416,7 +12482,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="318" spans="1:32">
+    <row r="318" spans="1:38">
       <c r="A318" s="55">
         <v>359</v>
       </c>
@@ -12439,7 +12505,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="319" spans="1:32">
+    <row r="319" spans="1:38">
       <c r="A319" s="55">
         <v>360</v>
       </c>
@@ -12459,7 +12525,7 @@
       <c r="G319" s="53"/>
       <c r="H319" s="53"/>
     </row>
-    <row r="320" spans="1:32">
+    <row r="320" spans="1:38">
       <c r="A320" s="55">
         <v>361</v>
       </c>
@@ -13708,12 +13774,6 @@
         <v>1102</v>
       </c>
       <c r="V381" s="54">
-        <v>2</v>
-      </c>
-      <c r="AG381" s="54">
-        <v>2</v>
-      </c>
-      <c r="AH381" s="53">
         <v>2</v>
       </c>
     </row>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -4410,10 +4410,10 @@
   <dimension ref="A1:AL404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AB62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -7502,31 +7502,12 @@
         <v>123</v>
       </c>
       <c r="AA81" s="77"/>
-      <c r="AB81" s="77">
-        <v>7</v>
-      </c>
-      <c r="AC81" s="77">
-        <v>28</v>
-      </c>
+      <c r="AB81" s="77"/>
+      <c r="AC81" s="77"/>
       <c r="AD81" s="77"/>
-      <c r="AE81" s="77">
-        <v>7</v>
-      </c>
-      <c r="AF81" s="77">
-        <v>28</v>
-      </c>
-      <c r="AG81" s="77">
-        <v>9</v>
-      </c>
-      <c r="AH81" s="78">
-        <v>9</v>
-      </c>
-      <c r="AJ81" s="78">
-        <v>9</v>
-      </c>
-      <c r="AL81" s="78">
-        <v>9</v>
-      </c>
+      <c r="AE81" s="77"/>
+      <c r="AF81" s="77"/>
+      <c r="AG81" s="77"/>
     </row>
     <row r="82" spans="1:38" s="67" customFormat="1">
       <c r="A82" s="64">
@@ -7574,12 +7555,31 @@
         <v>123</v>
       </c>
       <c r="AA82" s="66"/>
-      <c r="AB82" s="66"/>
-      <c r="AC82" s="66"/>
+      <c r="AB82" s="66">
+        <v>7</v>
+      </c>
+      <c r="AC82" s="66">
+        <v>28</v>
+      </c>
       <c r="AD82" s="66"/>
-      <c r="AE82" s="66"/>
-      <c r="AF82" s="66"/>
-      <c r="AG82" s="66"/>
+      <c r="AE82" s="66">
+        <v>7</v>
+      </c>
+      <c r="AF82" s="66">
+        <v>28</v>
+      </c>
+      <c r="AG82" s="66">
+        <v>9</v>
+      </c>
+      <c r="AH82" s="67">
+        <v>9</v>
+      </c>
+      <c r="AJ82" s="67">
+        <v>9</v>
+      </c>
+      <c r="AL82" s="67">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:38" s="67" customFormat="1">
       <c r="A83" s="64">

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -4410,10 +4410,10 @@
   <dimension ref="A1:AL404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Z74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO82" sqref="AO82"/>
+      <selection pane="bottomRight" activeCell="AG83" sqref="AG83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4446,7 +4446,7 @@
     <col min="30" max="30" width="13.1796875" style="54" customWidth="1"/>
     <col min="31" max="32" width="9.1796875" style="54"/>
     <col min="33" max="33" width="15.26953125" style="54" customWidth="1"/>
-    <col min="34" max="34" width="4.81640625" style="53" customWidth="1"/>
+    <col min="34" max="34" width="8.08984375" style="53" customWidth="1"/>
     <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
@@ -7638,7 +7638,12 @@
       <c r="AF83" s="66">
         <v>29</v>
       </c>
-      <c r="AG83" s="66"/>
+      <c r="AG83" s="66">
+        <v>10</v>
+      </c>
+      <c r="AH83" s="67">
+        <v>10</v>
+      </c>
       <c r="AJ83" s="67">
         <v>7</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1159">
   <si>
     <t>id</t>
   </si>
@@ -3498,13 +3498,19 @@
   </si>
   <si>
     <t>G_DIABETIC_DG2.OB</t>
+  </si>
+  <si>
+    <t>COVID Pendiente.BASAL</t>
+  </si>
+  <si>
+    <t>COVID Pendiente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3955,7 +3961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4197,6 +4203,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4486,21 +4495,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D368" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" style="55" customWidth="1"/>
     <col min="2" max="2" width="41.453125" style="55" customWidth="1"/>
     <col min="3" max="3" width="22" style="55" customWidth="1"/>
-    <col min="4" max="4" width="47.1796875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="75.453125" style="55" customWidth="1"/>
     <col min="5" max="5" width="26.453125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="55.1796875" style="55" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" style="54" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="54" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" style="54" customWidth="1"/>
@@ -4527,7 +4536,7 @@
     <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" customHeight="1">
+    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4717,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1">
+    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4821,7 +4830,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1">
+    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="84">
         <v>5</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -5029,7 +5038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -5078,7 +5087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -5104,7 +5113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -5153,7 +5162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>17</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>18</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>19</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>20</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>21</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="55">
         <v>22</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>23</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>24</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>25</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>26</v>
       </c>
@@ -5410,7 +5419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="55">
         <v>27</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="55">
         <v>28</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>29</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>30</v>
       </c>
@@ -5508,7 +5517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>31</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="55">
         <v>32</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>33</v>
       </c>
@@ -5568,7 +5577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>34</v>
       </c>
@@ -5588,7 +5597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>35</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>36</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>37</v>
       </c>
@@ -5648,7 +5657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="71" customFormat="1">
+    <row r="38" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69">
         <v>38</v>
       </c>
@@ -5697,7 +5706,7 @@
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
     </row>
-    <row r="39" spans="1:33" s="71" customFormat="1">
+    <row r="39" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69">
         <v>39</v>
       </c>
@@ -5746,7 +5755,7 @@
       <c r="AF39" s="70"/>
       <c r="AG39" s="70"/>
     </row>
-    <row r="40" spans="1:33" s="71" customFormat="1">
+    <row r="40" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69">
         <v>40</v>
       </c>
@@ -5795,7 +5804,7 @@
       <c r="AF40" s="70"/>
       <c r="AG40" s="70"/>
     </row>
-    <row r="41" spans="1:33" s="71" customFormat="1">
+    <row r="41" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69">
         <v>41</v>
       </c>
@@ -5844,7 +5853,7 @@
       <c r="AF41" s="70"/>
       <c r="AG41" s="70"/>
     </row>
-    <row r="42" spans="1:33" s="71" customFormat="1">
+    <row r="42" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="69">
         <v>42</v>
       </c>
@@ -5893,7 +5902,7 @@
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
     </row>
-    <row r="43" spans="1:33" s="71" customFormat="1">
+    <row r="43" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="69">
         <v>43</v>
       </c>
@@ -5942,7 +5951,7 @@
       <c r="AF43" s="70"/>
       <c r="AG43" s="70"/>
     </row>
-    <row r="44" spans="1:33" s="71" customFormat="1">
+    <row r="44" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="69">
         <v>44</v>
       </c>
@@ -5995,7 +6004,7 @@
       </c>
       <c r="AG44" s="70"/>
     </row>
-    <row r="45" spans="1:33" s="71" customFormat="1">
+    <row r="45" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="69">
         <v>45</v>
       </c>
@@ -6048,7 +6057,7 @@
       </c>
       <c r="AG45" s="70"/>
     </row>
-    <row r="46" spans="1:33" s="71" customFormat="1">
+    <row r="46" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="69">
         <v>46</v>
       </c>
@@ -6101,7 +6110,7 @@
       </c>
       <c r="AG46" s="70"/>
     </row>
-    <row r="47" spans="1:33" s="71" customFormat="1">
+    <row r="47" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="69">
         <v>47</v>
       </c>
@@ -6154,7 +6163,7 @@
       </c>
       <c r="AG47" s="70"/>
     </row>
-    <row r="48" spans="1:33" s="71" customFormat="1">
+    <row r="48" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="69">
         <v>48</v>
       </c>
@@ -6207,7 +6216,7 @@
       </c>
       <c r="AG48" s="70"/>
     </row>
-    <row r="49" spans="1:33" s="71" customFormat="1">
+    <row r="49" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="69">
         <v>49</v>
       </c>
@@ -6260,7 +6269,7 @@
       </c>
       <c r="AG49" s="70"/>
     </row>
-    <row r="50" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="69">
         <v>50</v>
       </c>
@@ -6311,7 +6320,7 @@
       <c r="AF50" s="70"/>
       <c r="AG50" s="70"/>
     </row>
-    <row r="51" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="69">
         <v>51</v>
       </c>
@@ -6364,7 +6373,7 @@
       </c>
       <c r="AG51" s="70"/>
     </row>
-    <row r="52" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69">
         <v>52</v>
       </c>
@@ -6417,7 +6426,7 @@
       </c>
       <c r="AG52" s="70"/>
     </row>
-    <row r="53" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
+    <row r="53" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="69">
         <v>53</v>
       </c>
@@ -6468,7 +6477,7 @@
       <c r="AF53" s="70"/>
       <c r="AG53" s="70"/>
     </row>
-    <row r="54" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
+    <row r="54" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="69">
         <v>54</v>
       </c>
@@ -6521,7 +6530,7 @@
       </c>
       <c r="AG54" s="70"/>
     </row>
-    <row r="55" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
+    <row r="55" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="69">
         <v>55</v>
       </c>
@@ -6574,7 +6583,7 @@
       </c>
       <c r="AG55" s="70"/>
     </row>
-    <row r="56" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
+    <row r="56" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="69">
         <v>56</v>
       </c>
@@ -6627,7 +6636,7 @@
       </c>
       <c r="AG56" s="70"/>
     </row>
-    <row r="57" spans="1:33" s="71" customFormat="1" ht="19" customHeight="1">
+    <row r="57" spans="1:33" s="71" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="69">
         <v>57</v>
       </c>
@@ -6678,7 +6687,7 @@
       <c r="AF57" s="70"/>
       <c r="AG57" s="70"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="55">
         <v>58</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="55">
         <v>59</v>
       </c>
@@ -6721,7 +6730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="55">
         <v>60</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="55">
         <v>61</v>
       </c>
@@ -6767,7 +6776,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="55">
         <v>62</v>
       </c>
@@ -6790,7 +6799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>63</v>
       </c>
@@ -6813,7 +6822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="55">
         <v>64</v>
       </c>
@@ -6836,7 +6845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6879,7 +6888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6902,7 +6911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6922,7 +6931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6945,7 +6954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6965,7 +6974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6985,7 +6994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="67" customFormat="1">
+    <row r="73" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="64">
         <v>73</v>
       </c>
@@ -7079,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="67" customFormat="1">
+    <row r="74" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="64">
         <v>74</v>
       </c>
@@ -7156,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="67" customFormat="1">
+    <row r="75" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="64">
         <v>75</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="67" customFormat="1">
+    <row r="76" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="64">
         <v>76</v>
       </c>
@@ -7312,7 +7321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="67" customFormat="1">
+    <row r="77" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7368,7 +7377,7 @@
       <c r="AG77" s="66"/>
       <c r="AM77" s="66"/>
     </row>
-    <row r="78" spans="1:39" s="67" customFormat="1">
+    <row r="78" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7424,7 +7433,7 @@
       <c r="AG78" s="66"/>
       <c r="AM78" s="66"/>
     </row>
-    <row r="79" spans="1:39" s="67" customFormat="1">
+    <row r="79" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7474,7 +7483,7 @@
       <c r="AG79" s="66"/>
       <c r="AM79" s="66"/>
     </row>
-    <row r="80" spans="1:39" s="67" customFormat="1">
+    <row r="80" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="64">
         <v>80</v>
       </c>
@@ -7549,7 +7558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="78" customFormat="1">
+    <row r="81" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7601,7 +7610,7 @@
       <c r="AG81" s="77"/>
       <c r="AM81" s="77"/>
     </row>
-    <row r="82" spans="1:39" s="67" customFormat="1">
+    <row r="82" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7676,7 +7685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="67" customFormat="1">
+    <row r="83" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7749,7 +7758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="67" customFormat="1">
+    <row r="84" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="64">
         <v>84</v>
       </c>
@@ -7800,7 +7809,7 @@
       <c r="AF84" s="66"/>
       <c r="AG84" s="66"/>
     </row>
-    <row r="85" spans="1:39" s="67" customFormat="1">
+    <row r="85" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="64">
         <v>85</v>
       </c>
@@ -7851,7 +7860,7 @@
       <c r="AF85" s="66"/>
       <c r="AG85" s="66"/>
     </row>
-    <row r="86" spans="1:39" s="67" customFormat="1">
+    <row r="86" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="64">
         <v>86</v>
       </c>
@@ -7902,7 +7911,7 @@
       <c r="AF86" s="66"/>
       <c r="AG86" s="66"/>
     </row>
-    <row r="87" spans="1:39" s="67" customFormat="1">
+    <row r="87" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="64">
         <v>86</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A88" s="55">
         <v>87</v>
       </c>
@@ -7970,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A89" s="55">
         <v>88</v>
       </c>
@@ -7990,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" s="55">
         <v>89</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A91" s="55">
         <v>90</v>
       </c>
@@ -8030,7 +8039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A92" s="55">
         <v>91</v>
       </c>
@@ -8047,7 +8056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A93" s="55">
         <v>92</v>
       </c>
@@ -8064,7 +8073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A94" s="55">
         <v>93</v>
       </c>
@@ -8084,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A95" s="55">
         <v>94</v>
       </c>
@@ -8104,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A96" s="55">
         <v>95</v>
       </c>
@@ -8124,7 +8133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="55">
         <v>96</v>
       </c>
@@ -8144,7 +8153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="55">
         <v>97</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="55">
         <v>98</v>
       </c>
@@ -8178,7 +8187,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="55">
         <v>99</v>
       </c>
@@ -8198,7 +8207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="55">
         <v>100</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="55">
         <v>101</v>
       </c>
@@ -8238,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="55">
         <v>102</v>
       </c>
@@ -8258,7 +8267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="55">
         <v>103</v>
       </c>
@@ -8275,7 +8284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="55">
         <v>104</v>
       </c>
@@ -8292,7 +8301,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="55">
         <v>105</v>
       </c>
@@ -8312,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="55">
         <v>106</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="55">
         <v>107</v>
       </c>
@@ -8352,7 +8361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="55">
         <v>108</v>
       </c>
@@ -8372,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="55">
         <v>109</v>
       </c>
@@ -8389,7 +8398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="55">
         <v>110</v>
       </c>
@@ -8406,7 +8415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="55">
         <v>111</v>
       </c>
@@ -8426,7 +8435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="55">
         <v>112</v>
       </c>
@@ -8446,7 +8455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="55">
         <v>113</v>
       </c>
@@ -8466,7 +8475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="55">
         <v>114</v>
       </c>
@@ -8486,7 +8495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="55">
         <v>115</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="29">
+    <row r="117" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="55">
         <v>116</v>
       </c>
@@ -8523,7 +8532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="55">
         <v>117</v>
       </c>
@@ -8540,7 +8549,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="55">
         <v>118</v>
       </c>
@@ -8560,7 +8569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="43.5">
+    <row r="120" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="55">
         <v>119</v>
       </c>
@@ -8580,7 +8589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="29">
+    <row r="121" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="55">
         <v>120</v>
       </c>
@@ -8600,7 +8609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="55">
         <v>121</v>
       </c>
@@ -8617,7 +8626,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="55">
         <v>122</v>
       </c>
@@ -8637,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="43.5">
+    <row r="124" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="55">
         <v>123</v>
       </c>
@@ -8657,7 +8666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="29">
+    <row r="125" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="55">
         <v>124</v>
       </c>
@@ -8677,7 +8686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="55">
         <v>125</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="55">
         <v>126</v>
       </c>
@@ -8714,7 +8723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="55">
         <v>127</v>
       </c>
@@ -8734,7 +8743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="55">
         <v>128</v>
       </c>
@@ -8751,7 +8760,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="55">
         <v>129</v>
       </c>
@@ -8771,7 +8780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="29">
+    <row r="131" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="55">
         <v>130</v>
       </c>
@@ -8791,7 +8800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="55">
         <v>131</v>
       </c>
@@ -8808,7 +8817,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="55">
         <v>132</v>
       </c>
@@ -8828,7 +8837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="55">
         <v>133</v>
       </c>
@@ -8848,7 +8857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="55">
         <v>134</v>
       </c>
@@ -8868,7 +8877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="55">
         <v>135</v>
       </c>
@@ -8888,7 +8897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="55">
         <v>136</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="55">
         <v>137</v>
       </c>
@@ -8925,7 +8934,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="43.5">
+    <row r="139" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="55">
         <v>138</v>
       </c>
@@ -8945,7 +8954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="55">
         <v>139</v>
       </c>
@@ -8965,7 +8974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="55">
         <v>140</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="55">
         <v>141</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="18" customHeight="1">
+    <row r="143" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="55">
         <v>142</v>
       </c>
@@ -9025,7 +9034,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="55">
         <v>143</v>
       </c>
@@ -9042,7 +9051,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A145" s="55">
         <v>144</v>
       </c>
@@ -9062,7 +9071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="1:39" ht="29">
+    <row r="146" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="55">
         <v>145</v>
       </c>
@@ -9082,7 +9091,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A147" s="55">
         <v>146</v>
       </c>
@@ -9102,7 +9111,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A148" s="55">
         <v>147</v>
       </c>
@@ -9122,7 +9131,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:39" ht="29">
+    <row r="149" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="55">
         <v>148</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A150" s="55">
         <v>149</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:39" ht="29">
+    <row r="151" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="55">
         <v>150</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="152" spans="1:39" ht="29">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A152" s="55">
         <v>151</v>
       </c>
@@ -9196,7 +9205,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="29">
+    <row r="153" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="55">
         <v>152</v>
       </c>
@@ -9213,7 +9222,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A154" s="55">
         <v>152</v>
       </c>
@@ -9233,20 +9242,21 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A155" s="55">
         <v>153</v>
       </c>
-      <c r="B155" s="55" t="s">
+      <c r="B155" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="D155" s="55" t="s">
-        <v>562</v>
-      </c>
-      <c r="E155" s="55" t="s">
-        <v>562</v>
-      </c>
-      <c r="F155" s="55" t="s">
+      <c r="C155" s="89"/>
+      <c r="D155" s="89" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E155" s="89" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F155" s="89" t="s">
         <v>562</v>
       </c>
       <c r="Y155" s="53">
@@ -9256,20 +9266,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A156" s="55">
         <v>154</v>
       </c>
-      <c r="B156" s="55" t="s">
+      <c r="B156" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D156" s="55" t="s">
+      <c r="C156" s="89"/>
+      <c r="D156" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E156" s="55" t="s">
+      <c r="E156" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="F156" s="55" t="s">
+      <c r="F156" s="89" t="s">
         <v>132</v>
       </c>
       <c r="Y156" s="53">
@@ -9279,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A157" s="55">
         <v>155</v>
       </c>
@@ -9323,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A158" s="55">
         <v>156</v>
       </c>
@@ -9346,7 +9357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:39" ht="24.75" customHeight="1">
+    <row r="159" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="55">
         <v>157</v>
       </c>
@@ -9363,7 +9374,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A160" s="55">
         <v>158</v>
       </c>
@@ -9380,7 +9391,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="55">
         <v>159</v>
       </c>
@@ -9397,7 +9408,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="55">
         <v>160</v>
       </c>
@@ -9414,7 +9425,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="55">
         <v>161</v>
       </c>
@@ -9431,7 +9442,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="55">
         <v>162</v>
       </c>
@@ -9448,7 +9459,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="55">
         <v>163</v>
       </c>
@@ -9465,7 +9476,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="55">
         <v>164</v>
       </c>
@@ -9486,7 +9497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="55">
         <v>165</v>
       </c>
@@ -9506,7 +9517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="55">
         <v>166</v>
       </c>
@@ -9526,7 +9537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="55">
         <v>167</v>
       </c>
@@ -9546,7 +9557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="55">
         <v>168</v>
       </c>
@@ -9563,7 +9574,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="55">
         <v>169</v>
       </c>
@@ -9580,7 +9591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="55">
         <v>170</v>
       </c>
@@ -9597,7 +9608,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="55">
         <v>171</v>
       </c>
@@ -9614,7 +9625,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="55">
         <v>172</v>
       </c>
@@ -9631,7 +9642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="55">
         <v>173</v>
       </c>
@@ -9648,7 +9659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="55">
         <v>174</v>
       </c>
@@ -9665,7 +9676,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="55">
         <v>175</v>
       </c>
@@ -9682,7 +9693,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="55">
         <v>176</v>
       </c>
@@ -9702,7 +9713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="55">
         <v>177</v>
       </c>
@@ -9722,7 +9733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="55">
         <v>178</v>
       </c>
@@ -9742,7 +9753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="55">
         <v>179</v>
       </c>
@@ -9762,7 +9773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="55">
         <v>180</v>
       </c>
@@ -9779,7 +9790,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="55">
         <v>181</v>
       </c>
@@ -9796,7 +9807,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="55">
         <v>182</v>
       </c>
@@ -9816,7 +9827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="55">
         <v>183</v>
       </c>
@@ -9836,7 +9847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="55">
         <v>184</v>
       </c>
@@ -9856,7 +9867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="55">
         <v>185</v>
       </c>
@@ -9876,7 +9887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="55">
         <v>186</v>
       </c>
@@ -9893,7 +9904,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="55">
         <v>187</v>
       </c>
@@ -9910,7 +9921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="55">
         <v>188</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="55">
         <v>189</v>
       </c>
@@ -9950,7 +9961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="55">
         <v>190</v>
       </c>
@@ -9970,7 +9981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="55">
         <v>191</v>
       </c>
@@ -9990,7 +10001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="55">
         <v>192</v>
       </c>
@@ -10007,7 +10018,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="55">
         <v>193</v>
       </c>
@@ -10024,7 +10035,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="55">
         <v>194</v>
       </c>
@@ -10041,7 +10052,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="55">
         <v>195</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="55">
         <v>196</v>
       </c>
@@ -10075,7 +10086,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="55">
         <v>197</v>
       </c>
@@ -10092,7 +10103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -10109,7 +10120,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="55">
         <v>199</v>
       </c>
@@ -10127,7 +10138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="55">
         <v>200</v>
       </c>
@@ -10148,7 +10159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="55">
         <v>201</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="55">
         <v>202</v>
       </c>
@@ -10190,7 +10201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="55">
         <v>203</v>
       </c>
@@ -10211,7 +10222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="55">
         <v>204</v>
       </c>
@@ -10229,7 +10240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="55">
         <v>205</v>
       </c>
@@ -10247,7 +10258,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="29">
+    <row r="208" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="55">
         <v>206</v>
       </c>
@@ -10268,7 +10279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="29">
+    <row r="209" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="55">
         <v>207</v>
       </c>
@@ -10289,7 +10300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="29">
+    <row r="210" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="55">
         <v>208</v>
       </c>
@@ -10310,7 +10321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="43.5">
+    <row r="211" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="55">
         <v>209</v>
       </c>
@@ -10331,7 +10342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" s="55">
         <v>210</v>
       </c>
@@ -10349,7 +10360,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" s="55">
         <v>211</v>
       </c>
@@ -10367,7 +10378,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="29">
+    <row r="214" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="55">
         <v>212</v>
       </c>
@@ -10388,7 +10399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="29">
+    <row r="215" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="55">
         <v>213</v>
       </c>
@@ -10409,7 +10420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="29">
+    <row r="216" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="55">
         <v>214</v>
       </c>
@@ -10430,7 +10441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="43.5">
+    <row r="217" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A217" s="55">
         <v>215</v>
       </c>
@@ -10451,7 +10462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" s="55">
         <v>216</v>
       </c>
@@ -10469,7 +10480,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" s="55">
         <v>217</v>
       </c>
@@ -10489,7 +10500,7 @@
       <c r="G219" s="53"/>
       <c r="H219" s="53"/>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" s="55">
         <v>218</v>
       </c>
@@ -10508,7 +10519,7 @@
       <c r="G220" s="53"/>
       <c r="H220" s="53"/>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" s="55">
         <v>219</v>
       </c>
@@ -10528,7 +10539,7 @@
       <c r="G221" s="53"/>
       <c r="H221" s="53"/>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" s="55">
         <v>220</v>
       </c>
@@ -10548,7 +10559,7 @@
       <c r="G222" s="53"/>
       <c r="H222" s="53"/>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" s="55">
         <v>221</v>
       </c>
@@ -10568,7 +10579,7 @@
       <c r="G223" s="53"/>
       <c r="H223" s="53"/>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="55">
         <v>222</v>
       </c>
@@ -10588,7 +10599,7 @@
       <c r="G224" s="53"/>
       <c r="H224" s="53"/>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" s="55">
         <v>223</v>
       </c>
@@ -10608,7 +10619,7 @@
       <c r="G225" s="53"/>
       <c r="H225" s="53"/>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" s="55">
         <v>224</v>
       </c>
@@ -10631,7 +10642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" s="55">
         <v>225</v>
       </c>
@@ -10654,7 +10665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" s="55">
         <v>226</v>
       </c>
@@ -10677,7 +10688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" s="55">
         <v>227</v>
       </c>
@@ -10700,7 +10711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" s="55">
         <v>228</v>
       </c>
@@ -10720,7 +10731,7 @@
       <c r="G230" s="53"/>
       <c r="H230" s="53"/>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" s="55">
         <v>229</v>
       </c>
@@ -10740,7 +10751,7 @@
       <c r="G231" s="53"/>
       <c r="H231" s="53"/>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" s="55">
         <v>230</v>
       </c>
@@ -10763,7 +10774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" s="55">
         <v>231</v>
       </c>
@@ -10786,7 +10797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" s="55">
         <v>232</v>
       </c>
@@ -10809,7 +10820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" s="55">
         <v>233</v>
       </c>
@@ -10832,7 +10843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" s="55">
         <v>234</v>
       </c>
@@ -10852,7 +10863,7 @@
       <c r="G236" s="53"/>
       <c r="H236" s="53"/>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" s="55">
         <v>235</v>
       </c>
@@ -10872,7 +10883,7 @@
       <c r="G237" s="53"/>
       <c r="H237" s="53"/>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" s="55">
         <v>236</v>
       </c>
@@ -10892,7 +10903,7 @@
       <c r="G238" s="53"/>
       <c r="H238" s="53"/>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" s="55">
         <v>237</v>
       </c>
@@ -10912,7 +10923,7 @@
       <c r="G239" s="53"/>
       <c r="H239" s="53"/>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -10932,7 +10943,7 @@
       <c r="G240" s="53"/>
       <c r="H240" s="53"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" s="55">
         <v>239</v>
       </c>
@@ -10952,7 +10963,7 @@
       <c r="G241" s="53"/>
       <c r="H241" s="53"/>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" s="55">
         <v>240</v>
       </c>
@@ -10972,7 +10983,7 @@
       <c r="G242" s="53"/>
       <c r="H242" s="53"/>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" s="55">
         <v>241</v>
       </c>
@@ -10992,7 +11003,7 @@
       <c r="G243" s="53"/>
       <c r="H243" s="53"/>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" s="55">
         <v>242</v>
       </c>
@@ -11015,7 +11026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="55">
         <v>243</v>
       </c>
@@ -11038,7 +11049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="55">
         <v>244</v>
       </c>
@@ -11061,7 +11072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="55">
         <v>245</v>
       </c>
@@ -11084,7 +11095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" s="55">
         <v>246</v>
       </c>
@@ -11104,7 +11115,7 @@
       <c r="G248" s="53"/>
       <c r="H248" s="53"/>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" s="55">
         <v>247</v>
       </c>
@@ -11124,7 +11135,7 @@
       <c r="G249" s="53"/>
       <c r="H249" s="53"/>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" s="55">
         <v>248</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" s="55">
         <v>249</v>
       </c>
@@ -11170,7 +11181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" s="55">
         <v>250</v>
       </c>
@@ -11193,7 +11204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" s="55">
         <v>251</v>
       </c>
@@ -11216,7 +11227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" s="55">
         <v>252</v>
       </c>
@@ -11236,7 +11247,7 @@
       <c r="G254" s="53"/>
       <c r="H254" s="53"/>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" s="55">
         <v>253</v>
       </c>
@@ -11256,7 +11267,7 @@
       <c r="G255" s="53"/>
       <c r="H255" s="53"/>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" s="55">
         <v>254</v>
       </c>
@@ -11276,7 +11287,7 @@
       <c r="G256" s="53"/>
       <c r="H256" s="53"/>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" s="55">
         <v>255</v>
       </c>
@@ -11296,7 +11307,7 @@
       <c r="G257" s="53"/>
       <c r="H257" s="53"/>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" s="55">
         <v>256</v>
       </c>
@@ -11316,7 +11327,7 @@
       <c r="G258" s="53"/>
       <c r="H258" s="53"/>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" s="55">
         <v>257</v>
       </c>
@@ -11336,7 +11347,7 @@
       <c r="G259" s="53"/>
       <c r="H259" s="53"/>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" s="55">
         <v>258</v>
       </c>
@@ -11356,7 +11367,7 @@
       <c r="G260" s="53"/>
       <c r="H260" s="53"/>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" s="55">
         <v>301</v>
       </c>
@@ -11376,7 +11387,7 @@
       <c r="G261" s="53"/>
       <c r="H261" s="53"/>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" s="55">
         <v>302</v>
       </c>
@@ -11399,7 +11410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" s="55">
         <v>303</v>
       </c>
@@ -11422,7 +11433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" s="55">
         <v>304</v>
       </c>
@@ -11445,7 +11456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" s="55">
         <v>305</v>
       </c>
@@ -11468,7 +11479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" s="55">
         <v>306</v>
       </c>
@@ -11488,7 +11499,7 @@
       <c r="G266" s="53"/>
       <c r="H266" s="53"/>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" s="55">
         <v>307</v>
       </c>
@@ -11508,7 +11519,7 @@
       <c r="G267" s="53"/>
       <c r="H267" s="53"/>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" s="55">
         <v>308</v>
       </c>
@@ -11531,7 +11542,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" s="55">
         <v>309</v>
       </c>
@@ -11554,7 +11565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270" s="55">
         <v>310</v>
       </c>
@@ -11577,7 +11588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271" s="55">
         <v>311</v>
       </c>
@@ -11600,7 +11611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272" s="55">
         <v>312</v>
       </c>
@@ -11620,7 +11631,7 @@
       <c r="G272" s="53"/>
       <c r="H272" s="53"/>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273" s="55">
         <v>313</v>
       </c>
@@ -11640,7 +11651,7 @@
       <c r="G273" s="53"/>
       <c r="H273" s="53"/>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274" s="55">
         <v>314</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275" s="55">
         <v>315</v>
       </c>
@@ -11686,7 +11697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276" s="55">
         <v>316</v>
       </c>
@@ -11709,7 +11720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277" s="55">
         <v>317</v>
       </c>
@@ -11732,7 +11743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A278" s="55">
         <v>318</v>
       </c>
@@ -11752,7 +11763,7 @@
       <c r="G278" s="53"/>
       <c r="H278" s="53"/>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A279" s="55">
         <v>319</v>
       </c>
@@ -11772,7 +11783,7 @@
       <c r="G279" s="53"/>
       <c r="H279" s="53"/>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A280" s="55">
         <v>320</v>
       </c>
@@ -11795,7 +11806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281" s="55">
         <v>321</v>
       </c>
@@ -11818,7 +11829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" s="55">
         <v>322</v>
       </c>
@@ -11841,7 +11852,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283" s="55">
         <v>323</v>
       </c>
@@ -11864,7 +11875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284" s="55">
         <v>324</v>
       </c>
@@ -11884,7 +11895,7 @@
       <c r="G284" s="53"/>
       <c r="H284" s="53"/>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285" s="55">
         <v>325</v>
       </c>
@@ -11904,7 +11915,7 @@
       <c r="G285" s="53"/>
       <c r="H285" s="53"/>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A286" s="55">
         <v>326</v>
       </c>
@@ -11924,7 +11935,7 @@
       <c r="G286" s="53"/>
       <c r="H286" s="53"/>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A287" s="55">
         <v>327</v>
       </c>
@@ -11944,7 +11955,7 @@
       <c r="G287" s="53"/>
       <c r="H287" s="53"/>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A288" s="55">
         <v>328</v>
       </c>
@@ -11964,7 +11975,7 @@
       <c r="G288" s="53"/>
       <c r="H288" s="53"/>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A289" s="55">
         <v>329</v>
       </c>
@@ -11984,7 +11995,7 @@
       <c r="G289" s="53"/>
       <c r="H289" s="53"/>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290" s="55">
         <v>330</v>
       </c>
@@ -12004,7 +12015,7 @@
       <c r="G290" s="53"/>
       <c r="H290" s="53"/>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" s="55">
         <v>331</v>
       </c>
@@ -12024,7 +12035,7 @@
       <c r="G291" s="53"/>
       <c r="H291" s="53"/>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" s="55">
         <v>332</v>
       </c>
@@ -12047,7 +12058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" s="55">
         <v>333</v>
       </c>
@@ -12070,7 +12081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294" s="55">
         <v>334</v>
       </c>
@@ -12093,7 +12104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A295" s="55">
         <v>335</v>
       </c>
@@ -12116,7 +12127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A296" s="55">
         <v>336</v>
       </c>
@@ -12136,7 +12147,7 @@
       <c r="G296" s="53"/>
       <c r="H296" s="53"/>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A297" s="55">
         <v>337</v>
       </c>
@@ -12156,7 +12167,7 @@
       <c r="G297" s="53"/>
       <c r="H297" s="53"/>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298" s="55">
         <v>338</v>
       </c>
@@ -12179,7 +12190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299" s="55">
         <v>339</v>
       </c>
@@ -12202,7 +12213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300" s="55">
         <v>340</v>
       </c>
@@ -12225,7 +12236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" s="55">
         <v>341</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A302" s="55">
         <v>342</v>
       </c>
@@ -12268,7 +12279,7 @@
       <c r="G302" s="53"/>
       <c r="H302" s="53"/>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A303" s="55">
         <v>343</v>
       </c>
@@ -12288,7 +12299,7 @@
       <c r="G303" s="53"/>
       <c r="H303" s="53"/>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304" s="55">
         <v>344</v>
       </c>
@@ -12311,7 +12322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="305" spans="1:38">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A305" s="55">
         <v>345</v>
       </c>
@@ -12334,7 +12345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="306" spans="1:38">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A306" s="55">
         <v>346</v>
       </c>
@@ -12357,7 +12368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="307" spans="1:38">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A307" s="55">
         <v>347</v>
       </c>
@@ -12380,7 +12391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:38">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A308" s="55">
         <v>348</v>
       </c>
@@ -12400,7 +12411,7 @@
       <c r="G308" s="53"/>
       <c r="H308" s="53"/>
     </row>
-    <row r="309" spans="1:38">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A309" s="55">
         <v>349</v>
       </c>
@@ -12420,7 +12431,7 @@
       <c r="G309" s="53"/>
       <c r="H309" s="53"/>
     </row>
-    <row r="310" spans="1:38">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A310" s="55">
         <v>350</v>
       </c>
@@ -12443,7 +12454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="311" spans="1:38">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A311" s="55">
         <v>351</v>
       </c>
@@ -12466,7 +12477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:38">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A312" s="55">
         <v>352</v>
       </c>
@@ -12489,7 +12500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:38">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A313" s="55">
         <v>353</v>
       </c>
@@ -12512,7 +12523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="314" spans="1:38">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A314" s="55">
         <v>354</v>
       </c>
@@ -12532,7 +12543,7 @@
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
     </row>
-    <row r="315" spans="1:38">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A315" s="55">
         <v>355</v>
       </c>
@@ -12552,7 +12563,7 @@
       <c r="G315" s="53"/>
       <c r="H315" s="53"/>
     </row>
-    <row r="316" spans="1:38">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A316" s="55">
         <v>356</v>
       </c>
@@ -12575,7 +12586,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="317" spans="1:38">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A317" s="55">
         <v>357</v>
       </c>
@@ -12613,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A318" s="55">
         <v>358</v>
       </c>
@@ -12636,7 +12647,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="319" spans="1:38">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A319" s="55">
         <v>359</v>
       </c>
@@ -12659,7 +12670,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:38">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A320" s="55">
         <v>360</v>
       </c>
@@ -12679,7 +12690,7 @@
       <c r="G320" s="53"/>
       <c r="H320" s="53"/>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A321" s="55">
         <v>361</v>
       </c>
@@ -12699,7 +12710,7 @@
       <c r="G321" s="53"/>
       <c r="H321" s="53"/>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322" s="55">
         <v>362</v>
       </c>
@@ -12722,7 +12733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323" s="55">
         <v>363</v>
       </c>
@@ -12745,7 +12756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324" s="55">
         <v>364</v>
       </c>
@@ -12768,7 +12779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325" s="55">
         <v>365</v>
       </c>
@@ -12791,7 +12802,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A326" s="55">
         <v>366</v>
       </c>
@@ -12811,7 +12822,7 @@
       <c r="G326" s="53"/>
       <c r="H326" s="53"/>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A327" s="55">
         <v>367</v>
       </c>
@@ -12831,7 +12842,7 @@
       <c r="G327" s="53"/>
       <c r="H327" s="53"/>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A328" s="55">
         <v>368</v>
       </c>
@@ -12854,7 +12865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A329" s="55">
         <v>369</v>
       </c>
@@ -12877,7 +12888,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330" s="55">
         <v>370</v>
       </c>
@@ -12900,7 +12911,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331" s="55">
         <v>371</v>
       </c>
@@ -12923,7 +12934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332" s="55">
         <v>372</v>
       </c>
@@ -12943,7 +12954,7 @@
       <c r="G332" s="53"/>
       <c r="H332" s="53"/>
     </row>
-    <row r="333" spans="1:18">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333" s="55">
         <v>373</v>
       </c>
@@ -12963,7 +12974,7 @@
       <c r="G333" s="53"/>
       <c r="H333" s="53"/>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334" s="55">
         <v>374</v>
       </c>
@@ -12986,7 +12997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="335" spans="1:18">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335" s="55">
         <v>375</v>
       </c>
@@ -13009,7 +13020,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336" s="55">
         <v>376</v>
       </c>
@@ -13032,7 +13043,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="337" spans="1:18">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337" s="55">
         <v>377</v>
       </c>
@@ -13055,7 +13066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:18">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338" s="55">
         <v>378</v>
       </c>
@@ -13075,7 +13086,7 @@
       <c r="G338" s="53"/>
       <c r="H338" s="53"/>
     </row>
-    <row r="339" spans="1:18">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339" s="55">
         <v>379</v>
       </c>
@@ -13095,7 +13106,7 @@
       <c r="G339" s="53"/>
       <c r="H339" s="53"/>
     </row>
-    <row r="340" spans="1:18">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340" s="55">
         <v>380</v>
       </c>
@@ -13118,7 +13129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="341" spans="1:18">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341" s="55">
         <v>381</v>
       </c>
@@ -13141,7 +13152,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="342" spans="1:18">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A342" s="55">
         <v>382</v>
       </c>
@@ -13164,7 +13175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="343" spans="1:18">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A343" s="55">
         <v>383</v>
       </c>
@@ -13185,7 +13196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A344" s="55">
         <v>384</v>
       </c>
@@ -13203,7 +13214,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="345" spans="1:18">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A345" s="55">
         <v>385</v>
       </c>
@@ -13221,7 +13232,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A346" s="55">
         <v>386</v>
       </c>
@@ -13242,7 +13253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="347" spans="1:18">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A347" s="55">
         <v>387</v>
       </c>
@@ -13263,7 +13274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A348" s="55">
         <v>388</v>
       </c>
@@ -13284,7 +13295,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="349" spans="1:18">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A349" s="55">
         <v>389</v>
       </c>
@@ -13305,7 +13316,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="350" spans="1:18">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A350" s="55">
         <v>390</v>
       </c>
@@ -13323,7 +13334,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="351" spans="1:18">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A351" s="55">
         <v>391</v>
       </c>
@@ -13341,7 +13352,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="352" spans="1:18">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A352" s="55">
         <v>392</v>
       </c>
@@ -13362,7 +13373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A353" s="55">
         <v>393</v>
       </c>
@@ -13383,7 +13394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A354" s="55">
         <v>394</v>
       </c>
@@ -13404,7 +13415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A355" s="55">
         <v>395</v>
       </c>
@@ -13425,7 +13436,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A356" s="55">
         <v>396</v>
       </c>
@@ -13443,7 +13454,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A357" s="55">
         <v>397</v>
       </c>
@@ -13461,7 +13472,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A358" s="55">
         <v>398</v>
       </c>
@@ -13482,7 +13493,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A359" s="55">
         <v>399</v>
       </c>
@@ -13503,7 +13514,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A360" s="55">
         <v>400</v>
       </c>
@@ -13524,7 +13535,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:18">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A361" s="55">
         <v>401</v>
       </c>
@@ -13545,7 +13556,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A362" s="55">
         <v>402</v>
       </c>
@@ -13563,7 +13574,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A363" s="55">
         <v>403</v>
       </c>
@@ -13581,7 +13592,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A364" s="55">
         <v>404</v>
       </c>
@@ -13599,7 +13610,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A365" s="55">
         <v>405</v>
       </c>
@@ -13617,7 +13628,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A366" s="55">
         <v>406</v>
       </c>
@@ -13635,7 +13646,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A367" s="55">
         <v>407</v>
       </c>
@@ -13653,7 +13664,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="368" spans="1:18">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A368" s="55">
         <v>408</v>
       </c>
@@ -13671,7 +13682,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="369" spans="1:34">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A369" s="55">
         <v>409</v>
       </c>
@@ -13689,7 +13700,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="370" spans="1:34">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A370" s="55">
         <v>410</v>
       </c>
@@ -13707,7 +13718,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="371" spans="1:34">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A371" s="55">
         <v>411</v>
       </c>
@@ -13725,7 +13736,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="372" spans="1:34">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A372" s="55">
         <v>412</v>
       </c>
@@ -13743,7 +13754,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="373" spans="1:34">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A373" s="55">
         <v>413</v>
       </c>
@@ -13761,7 +13772,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="374" spans="1:34">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A374" s="55">
         <v>414</v>
       </c>
@@ -13779,7 +13790,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="375" spans="1:34">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A375" s="55">
         <v>415</v>
       </c>
@@ -13797,7 +13808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="376" spans="1:34">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A376" s="55">
         <v>416</v>
       </c>
@@ -13815,7 +13826,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="377" spans="1:34">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A377" s="55">
         <v>417</v>
       </c>
@@ -13833,7 +13844,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="378" spans="1:34">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A378" s="55">
         <v>418</v>
       </c>
@@ -13851,7 +13862,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="379" spans="1:34">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A379" s="55">
         <v>419</v>
       </c>
@@ -13869,7 +13880,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="380" spans="1:34">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A380" s="55">
         <v>420</v>
       </c>
@@ -13887,7 +13898,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="381" spans="1:34">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" s="55">
         <v>421</v>
       </c>
@@ -13908,7 +13919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="382" spans="1:34">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A382" s="55">
         <v>421</v>
       </c>
@@ -13931,7 +13942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:34">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A383" s="75">
         <v>421</v>
       </c>
@@ -13979,7 +13990,7 @@
       <c r="AG383" s="77"/>
       <c r="AH383" s="78"/>
     </row>
-    <row r="384" spans="1:34" s="78" customFormat="1">
+    <row r="384" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A384" s="75">
         <v>422</v>
       </c>
@@ -14024,7 +14035,7 @@
       <c r="AF384" s="77"/>
       <c r="AG384" s="77"/>
     </row>
-    <row r="385" spans="1:33" s="78" customFormat="1">
+    <row r="385" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="75">
         <v>423</v>
       </c>
@@ -14069,7 +14080,7 @@
       <c r="AF385" s="77"/>
       <c r="AG385" s="77"/>
     </row>
-    <row r="386" spans="1:33">
+    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A386" s="55">
         <v>424</v>
       </c>
@@ -14089,7 +14100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:33" s="78" customFormat="1">
+    <row r="387" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="75">
         <v>425</v>
       </c>
@@ -14134,7 +14145,7 @@
       <c r="AF387" s="77"/>
       <c r="AG387" s="77"/>
     </row>
-    <row r="388" spans="1:33" s="78" customFormat="1" ht="21.65" customHeight="1">
+    <row r="388" spans="1:33" s="78" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="75">
         <v>427</v>
       </c>
@@ -14183,7 +14194,7 @@
       <c r="AF388" s="77"/>
       <c r="AG388" s="77"/>
     </row>
-    <row r="389" spans="1:33" s="78" customFormat="1">
+    <row r="389" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="75">
         <v>428</v>
       </c>
@@ -14228,7 +14239,7 @@
       <c r="AF389" s="77"/>
       <c r="AG389" s="77"/>
     </row>
-    <row r="390" spans="1:33" s="78" customFormat="1">
+    <row r="390" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="75">
         <v>429</v>
       </c>
@@ -14273,7 +14284,7 @@
       <c r="AF390" s="77"/>
       <c r="AG390" s="77"/>
     </row>
-    <row r="391" spans="1:33">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A391" s="55">
         <v>430</v>
       </c>
@@ -14293,7 +14304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:33">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A392" s="55">
         <v>432</v>
       </c>
@@ -14313,7 +14324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:33">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A393" s="55">
         <v>433</v>
       </c>
@@ -14333,7 +14344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:33">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A394" s="55">
         <v>434</v>
       </c>
@@ -14353,7 +14364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:33">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A395" s="55">
         <v>435</v>
       </c>
@@ -14373,7 +14384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:33" ht="15.5" customHeight="1">
+    <row r="396" spans="1:33" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="55">
         <v>436</v>
       </c>
@@ -14393,7 +14404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:33">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A397" s="55">
         <v>437</v>
       </c>
@@ -14413,7 +14424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:33" ht="15" customHeight="1">
+    <row r="398" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="55">
         <v>438</v>
       </c>
@@ -14433,7 +14444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:33" ht="11.5" customHeight="1">
+    <row r="399" spans="1:33" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="55">
         <v>439</v>
       </c>
@@ -14453,7 +14464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:33">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A400" s="55">
         <v>440</v>
       </c>
@@ -14473,7 +14484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:33" s="78" customFormat="1">
+    <row r="401" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A401" s="75">
         <v>441</v>
       </c>
@@ -14518,7 +14529,7 @@
       <c r="AF401" s="77"/>
       <c r="AG401" s="77"/>
     </row>
-    <row r="402" spans="1:33">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A402" s="55">
         <v>442</v>
       </c>
@@ -14535,7 +14546,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="403" spans="1:33">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A403" s="55">
         <v>443</v>
       </c>
@@ -14555,7 +14566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:33">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A404" s="55">
         <v>444</v>
       </c>
@@ -14575,7 +14586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:33">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A405" s="55">
         <v>445</v>
       </c>
@@ -14612,7 +14623,7 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
@@ -14632,7 +14643,7 @@
     <col min="34" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="62" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
@@ -14649,7 +14660,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
@@ -14664,7 +14675,7 @@
       </c>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
@@ -14695,7 +14706,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.1796875" style="28" customWidth="1"/>
     <col min="2" max="2" width="6.54296875" style="28" customWidth="1"/>
@@ -14703,7 +14714,7 @@
     <col min="6" max="10" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>1001</v>
       </c>
@@ -14750,7 +14761,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -14797,7 +14808,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -14844,7 +14855,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -14891,7 +14902,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -14938,7 +14949,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -14985,7 +14996,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -15032,7 +15043,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -15079,7 +15090,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -15126,7 +15137,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -15173,7 +15184,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -15220,7 +15231,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -15267,7 +15278,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -15314,7 +15325,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -15361,7 +15372,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -15408,7 +15419,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -15455,7 +15466,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -15502,7 +15513,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -15549,7 +15560,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -15596,7 +15607,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -15643,7 +15654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -15690,7 +15701,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -15737,7 +15748,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -15784,7 +15795,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -15831,7 +15842,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -15878,7 +15889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -15925,7 +15936,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -15972,7 +15983,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -16019,7 +16030,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -16066,7 +16077,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -16098,7 +16109,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -16130,7 +16141,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -16165,7 +16176,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -16200,7 +16211,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -16235,7 +16246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -16271,7 +16282,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -16303,7 +16314,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1">
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -16335,7 +16346,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -16367,7 +16378,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44">
         <v>38</v>
       </c>
@@ -16399,7 +16410,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -16431,7 +16442,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -16463,7 +16474,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -16495,7 +16506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="40">
         <v>42</v>
       </c>
@@ -16527,7 +16538,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="40">
         <v>43</v>
       </c>
@@ -16559,7 +16570,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>44</v>
       </c>
@@ -16591,7 +16602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="40">
         <v>45</v>
       </c>
@@ -16623,7 +16634,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="40">
         <v>46</v>
       </c>
@@ -16655,7 +16666,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="40">
         <v>47</v>
       </c>
@@ -16687,7 +16698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1">
+    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="40">
         <v>48</v>
       </c>
@@ -16719,7 +16730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1">
+    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="40">
         <v>49</v>
       </c>
@@ -16751,7 +16762,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="40">
         <v>50</v>
       </c>
@@ -16783,7 +16794,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>51</v>
       </c>
@@ -16815,7 +16826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -16847,7 +16858,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1">
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="23">
         <v>53</v>
       </c>
@@ -16879,7 +16890,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1">
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -16911,7 +16922,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -16943,7 +16954,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -16975,7 +16986,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1">
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40">
         <v>57</v>
       </c>
@@ -17007,7 +17018,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1">
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -17039,7 +17050,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="40">
         <v>59</v>
       </c>
@@ -17071,7 +17082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -17103,7 +17114,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -17135,7 +17146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -17167,7 +17178,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="40">
         <v>63</v>
       </c>
@@ -17199,7 +17210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="40">
         <v>64</v>
       </c>
@@ -17231,7 +17242,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -17263,7 +17274,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1">
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -17295,7 +17306,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -17327,7 +17338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1">
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -17359,7 +17370,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="40">
         <v>69</v>
       </c>
@@ -17391,7 +17402,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -17423,7 +17434,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1">
+    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -17455,7 +17466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1">
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -17487,7 +17498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1">
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="40">
         <v>73</v>
       </c>
@@ -17519,7 +17530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -17551,7 +17562,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1">
+    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -17583,7 +17594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1">
+    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -17615,7 +17626,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1">
+    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -17647,7 +17658,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -17679,7 +17690,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1">
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -17711,7 +17722,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1">
+    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -17743,7 +17754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1">
+    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -17775,7 +17786,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -17807,7 +17818,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1">
+    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -17839,7 +17850,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1">
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -17871,7 +17882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1">
+    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -17903,7 +17914,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1">
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -17935,7 +17946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1">
+    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -17967,7 +17978,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1">
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -17999,7 +18010,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -18031,7 +18042,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1">
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>90</v>
       </c>
@@ -18063,7 +18074,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1">
+    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="23">
         <v>91</v>
       </c>
@@ -18095,7 +18106,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1">
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="24">
         <v>92</v>
       </c>
@@ -18127,7 +18138,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1">
+    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -18159,7 +18170,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1">
+    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -18191,7 +18202,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="24">
         <v>95</v>
       </c>
@@ -18223,7 +18234,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1">
+    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -18255,7 +18266,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="24">
         <v>97</v>
       </c>
@@ -18287,7 +18298,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1">
+    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -18319,7 +18330,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" thickBot="1">
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="24">
         <v>99</v>
       </c>
@@ -18351,7 +18362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" thickBot="1">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -18383,7 +18394,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1">
+    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="24">
         <v>101</v>
       </c>
@@ -18415,7 +18426,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" thickBot="1">
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -18447,7 +18458,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="24">
         <v>103</v>
       </c>
@@ -18479,7 +18490,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1">
+    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="44">
         <v>104</v>
       </c>
@@ -18511,7 +18522,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" thickBot="1">
+    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -18543,7 +18554,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" thickBot="1">
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="24">
         <v>106</v>
       </c>
@@ -18575,7 +18586,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" thickBot="1">
+    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -18607,7 +18618,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" thickBot="1">
+    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="24">
         <v>108</v>
       </c>
@@ -18639,7 +18650,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" thickBot="1">
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -18671,7 +18682,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" thickBot="1">
+    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="24">
         <v>110</v>
       </c>
@@ -18703,7 +18714,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" thickBot="1">
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="44">
         <v>111</v>
       </c>
@@ -18735,7 +18746,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1">
+    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -18767,7 +18778,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1">
+    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="24">
         <v>113</v>
       </c>
@@ -18799,7 +18810,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" thickBot="1">
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="44">
         <v>114</v>
       </c>
@@ -18831,7 +18842,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" thickBot="1">
+    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -18863,7 +18874,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" thickBot="1">
+    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="44">
         <v>116</v>
       </c>
@@ -18895,7 +18906,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" thickBot="1">
+    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -18927,7 +18938,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" thickBot="1">
+    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="44">
         <v>118</v>
       </c>
@@ -18959,7 +18970,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1">
+    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -18991,7 +19002,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" thickBot="1">
+    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -19023,7 +19034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1">
+    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -19055,7 +19066,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1">
+    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="23">
         <v>122</v>
       </c>
@@ -19087,7 +19098,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" thickBot="1">
+    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="23">
         <v>123</v>
       </c>
@@ -19119,7 +19130,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1">
+    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="24">
         <v>124</v>
       </c>
@@ -19151,7 +19162,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1">
+    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -19183,7 +19194,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" thickBot="1">
+    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="24">
         <v>126</v>
       </c>
@@ -19215,7 +19226,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" thickBot="1">
+    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -19247,7 +19258,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1">
+    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="24">
         <v>128</v>
       </c>
@@ -19279,7 +19290,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1">
+    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -19311,7 +19322,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" thickBot="1">
+    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -19343,7 +19354,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" thickBot="1">
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -19375,7 +19386,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" thickBot="1">
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -19407,7 +19418,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" thickBot="1">
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -19439,7 +19450,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" thickBot="1">
+    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -19471,7 +19482,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" thickBot="1">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="24">
         <v>135</v>
       </c>
@@ -19503,7 +19514,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1">
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -19535,7 +19546,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1">
+    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -19567,7 +19578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" thickBot="1">
+    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="24">
         <v>138</v>
       </c>
@@ -19599,7 +19610,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1">
+    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="44">
         <v>139</v>
       </c>
@@ -19631,7 +19642,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1">
+    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="40">
         <v>140</v>
       </c>
@@ -19663,7 +19674,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" thickBot="1">
+    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="44">
         <v>141</v>
       </c>
@@ -19695,7 +19706,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" thickBot="1">
+    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -19727,7 +19738,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" thickBot="1">
+    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="24">
         <v>143</v>
       </c>
@@ -19759,7 +19770,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" thickBot="1">
+    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="44">
         <v>144</v>
       </c>
@@ -19791,7 +19802,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" thickBot="1">
+    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="40">
         <v>145</v>
       </c>
@@ -19823,7 +19834,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" thickBot="1">
+    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="44">
         <v>146</v>
       </c>
@@ -19855,7 +19866,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" thickBot="1">
+    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="40">
         <v>147</v>
       </c>
@@ -19887,7 +19898,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" thickBot="1">
+    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -19919,7 +19930,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" thickBot="1">
+    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="24">
         <v>149</v>
       </c>
@@ -19951,7 +19962,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" thickBot="1">
+    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="44">
         <v>150</v>
       </c>
@@ -19983,7 +19994,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" thickBot="1">
+    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="40">
         <v>151</v>
       </c>
@@ -20015,7 +20026,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" thickBot="1">
+    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="44">
         <v>152</v>
       </c>
@@ -20047,7 +20058,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" thickBot="1">
+    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="40">
         <v>153</v>
       </c>
@@ -20079,7 +20090,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" thickBot="1">
+    <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="44">
         <v>154</v>
       </c>
@@ -20111,7 +20122,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1">
+    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="40">
         <v>155</v>
       </c>
@@ -20143,7 +20154,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" thickBot="1">
+    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="44">
         <v>156</v>
       </c>
@@ -20175,7 +20186,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" thickBot="1">
+    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -20207,7 +20218,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" thickBot="1">
+    <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="24">
         <v>158</v>
       </c>
@@ -20239,7 +20250,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" thickBot="1">
+    <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="44">
         <v>159</v>
       </c>
@@ -20271,7 +20282,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1">
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="40">
         <v>160</v>
       </c>
@@ -20303,7 +20314,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" thickBot="1">
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="44">
         <v>161</v>
       </c>
@@ -20335,7 +20346,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" thickBot="1">
+    <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="40">
         <v>162</v>
       </c>
@@ -20367,7 +20378,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15" thickBot="1">
+    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -20399,7 +20410,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" thickBot="1">
+    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="24">
         <v>164</v>
       </c>
@@ -20431,7 +20442,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" thickBot="1">
+    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="44">
         <v>165</v>
       </c>
@@ -20463,7 +20474,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" thickBot="1">
+    <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="40">
         <v>166</v>
       </c>
@@ -20495,7 +20506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" thickBot="1">
+    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -20527,7 +20538,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" thickBot="1">
+    <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="24">
         <v>168</v>
       </c>
@@ -20559,7 +20570,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" thickBot="1">
+    <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="44">
         <v>169</v>
       </c>
@@ -20591,7 +20602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" thickBot="1">
+    <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="40">
         <v>170</v>
       </c>
@@ -20623,7 +20634,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" thickBot="1">
+    <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="44">
         <v>171</v>
       </c>
@@ -20655,7 +20666,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" thickBot="1">
+    <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="40">
         <v>172</v>
       </c>
@@ -20687,7 +20698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" thickBot="1">
+    <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="44">
         <v>173</v>
       </c>
@@ -20719,7 +20730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15" thickBot="1">
+    <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="40">
         <v>174</v>
       </c>
@@ -20751,7 +20762,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" thickBot="1">
+    <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="44">
         <v>175</v>
       </c>
@@ -20783,7 +20794,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1">
+    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="40">
         <v>176</v>
       </c>
@@ -20815,7 +20826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" thickBot="1">
+    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="44">
         <v>177</v>
       </c>
@@ -20847,7 +20858,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1">
+    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -20879,7 +20890,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1">
+    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="24">
         <v>179</v>
       </c>
@@ -20911,7 +20922,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" thickBot="1">
+    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="44">
         <v>180</v>
       </c>
@@ -20943,7 +20954,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1">
+    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="40">
         <v>181</v>
       </c>
@@ -20975,7 +20986,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1">
+    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="44">
         <v>182</v>
       </c>
@@ -21007,7 +21018,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1">
+    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="40">
         <v>183</v>
       </c>
@@ -21039,7 +21050,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" thickBot="1">
+    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="44">
         <v>184</v>
       </c>
@@ -21071,7 +21082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" thickBot="1">
+    <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -21103,7 +21114,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" thickBot="1">
+    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="24">
         <v>186</v>
       </c>
@@ -21135,7 +21146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" thickBot="1">
+    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="44">
         <v>187</v>
       </c>
@@ -21167,7 +21178,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" thickBot="1">
+    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="40">
         <v>188</v>
       </c>
@@ -21199,7 +21210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" thickBot="1">
+    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -21231,7 +21242,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" thickBot="1">
+    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="24">
         <v>190</v>
       </c>
@@ -21263,7 +21274,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15" thickBot="1">
+    <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="44">
         <v>191</v>
       </c>
@@ -21295,7 +21306,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" thickBot="1">
+    <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -21327,7 +21338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" thickBot="1">
+    <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="24">
         <v>193</v>
       </c>
@@ -21359,7 +21370,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15" thickBot="1">
+    <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="44">
         <v>194</v>
       </c>
@@ -21391,7 +21402,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" thickBot="1">
+    <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="40">
         <v>195</v>
       </c>
@@ -21423,7 +21434,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" thickBot="1">
+    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="44">
         <v>196</v>
       </c>
@@ -21455,7 +21466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" thickBot="1">
+    <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -21487,7 +21498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" thickBot="1">
+    <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="24">
         <v>198</v>
       </c>
@@ -21519,7 +21530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" thickBot="1">
+    <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="44">
         <v>199</v>
       </c>
@@ -21551,7 +21562,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" thickBot="1">
+    <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="40">
         <v>200</v>
       </c>
@@ -21583,7 +21594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" thickBot="1">
+    <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -21615,7 +21626,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" thickBot="1">
+    <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="24">
         <v>202</v>
       </c>
@@ -21647,7 +21658,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" thickBot="1">
+    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="44">
         <v>203</v>
       </c>
@@ -21679,7 +21690,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" thickBot="1">
+    <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -21711,7 +21722,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" thickBot="1">
+    <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="24">
         <v>205</v>
       </c>
@@ -21743,7 +21754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" thickBot="1">
+    <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="44">
         <v>206</v>
       </c>
@@ -21775,7 +21786,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" thickBot="1">
+    <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="40">
         <v>207</v>
       </c>
@@ -21807,7 +21818,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" thickBot="1">
+    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -21839,7 +21850,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" thickBot="1">
+    <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="23">
         <v>209</v>
       </c>
@@ -21871,7 +21882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" thickBot="1">
+    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="24">
         <v>210</v>
       </c>
@@ -21903,7 +21914,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" thickBot="1">
+    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -21935,7 +21946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" thickBot="1">
+    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="24">
         <v>212</v>
       </c>
@@ -21967,7 +21978,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" thickBot="1">
+    <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="44">
         <v>213</v>
       </c>
@@ -21999,7 +22010,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" thickBot="1">
+    <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="40">
         <v>214</v>
       </c>
@@ -22031,7 +22042,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" thickBot="1">
+    <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="44">
         <v>215</v>
       </c>
@@ -22053,7 +22064,7 @@
       <c r="I216" s="30"/>
       <c r="J216" s="31"/>
     </row>
-    <row r="217" spans="1:10" ht="15" thickBot="1">
+    <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="40">
         <v>216</v>
       </c>
@@ -22075,7 +22086,7 @@
       <c r="I217" s="33"/>
       <c r="J217" s="34"/>
     </row>
-    <row r="218" spans="1:10" ht="15" thickBot="1">
+    <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="44">
         <v>217</v>
       </c>
@@ -22097,7 +22108,7 @@
       <c r="I218" s="33"/>
       <c r="J218" s="34"/>
     </row>
-    <row r="219" spans="1:10" ht="15" thickBot="1">
+    <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="40">
         <v>218</v>
       </c>
@@ -22119,7 +22130,7 @@
       <c r="I219" s="33"/>
       <c r="J219" s="34"/>
     </row>
-    <row r="220" spans="1:10" ht="15" thickBot="1">
+    <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="44">
         <v>219</v>
       </c>
@@ -22141,7 +22152,7 @@
       <c r="I220" s="33"/>
       <c r="J220" s="34"/>
     </row>
-    <row r="221" spans="1:10" ht="15" thickBot="1">
+    <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="40">
         <v>220</v>
       </c>
@@ -22163,7 +22174,7 @@
       <c r="I221" s="33"/>
       <c r="J221" s="34"/>
     </row>
-    <row r="222" spans="1:10" ht="15" thickBot="1">
+    <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="44">
         <v>221</v>
       </c>
@@ -22185,7 +22196,7 @@
       <c r="I222" s="33"/>
       <c r="J222" s="34"/>
     </row>
-    <row r="223" spans="1:10" ht="15" thickBot="1">
+    <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="40">
         <v>222</v>
       </c>
@@ -22207,7 +22218,7 @@
       <c r="I223" s="33"/>
       <c r="J223" s="34"/>
     </row>
-    <row r="224" spans="1:10" ht="15" thickBot="1">
+    <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -22229,7 +22240,7 @@
       <c r="I224" s="33"/>
       <c r="J224" s="34"/>
     </row>
-    <row r="225" spans="1:10" ht="15" thickBot="1">
+    <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="23">
         <v>224</v>
       </c>
@@ -22251,7 +22262,7 @@
       <c r="I225" s="33"/>
       <c r="J225" s="34"/>
     </row>
-    <row r="226" spans="1:10" ht="15" thickBot="1">
+    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="23">
         <v>225</v>
       </c>
@@ -22273,7 +22284,7 @@
       <c r="I226" s="33"/>
       <c r="J226" s="34"/>
     </row>
-    <row r="227" spans="1:10" ht="15" thickBot="1">
+    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="23">
         <v>226</v>
       </c>
@@ -22295,7 +22306,7 @@
       <c r="I227" s="33"/>
       <c r="J227" s="34"/>
     </row>
-    <row r="228" spans="1:10" ht="15" thickBot="1">
+    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="23">
         <v>227</v>
       </c>
@@ -22317,7 +22328,7 @@
       <c r="I228" s="33"/>
       <c r="J228" s="34"/>
     </row>
-    <row r="229" spans="1:10" ht="15" thickBot="1">
+    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="24">
         <v>228</v>
       </c>
@@ -22339,7 +22350,7 @@
       <c r="I229" s="33"/>
       <c r="J229" s="34"/>
     </row>
-    <row r="230" spans="1:10" ht="15" thickBot="1">
+    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="44">
         <v>229</v>
       </c>
@@ -22361,7 +22372,7 @@
       <c r="I230" s="33"/>
       <c r="J230" s="34"/>
     </row>
-    <row r="231" spans="1:10" ht="15" thickBot="1">
+    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="40">
         <v>230</v>
       </c>
@@ -22383,7 +22394,7 @@
       <c r="I231" s="33"/>
       <c r="J231" s="34"/>
     </row>
-    <row r="232" spans="1:10" ht="15" thickBot="1">
+    <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="44">
         <v>231</v>
       </c>
@@ -22405,7 +22416,7 @@
       <c r="I232" s="33"/>
       <c r="J232" s="34"/>
     </row>
-    <row r="233" spans="1:10" ht="15" thickBot="1">
+    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="40">
         <v>232</v>
       </c>
@@ -22427,7 +22438,7 @@
       <c r="I233" s="33"/>
       <c r="J233" s="34"/>
     </row>
-    <row r="234" spans="1:10" ht="15" thickBot="1">
+    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="44">
         <v>233</v>
       </c>
@@ -22449,7 +22460,7 @@
       <c r="I234" s="33"/>
       <c r="J234" s="34"/>
     </row>
-    <row r="235" spans="1:10" ht="15" thickBot="1">
+    <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="40">
         <v>234</v>
       </c>
@@ -22471,7 +22482,7 @@
       <c r="I235" s="33"/>
       <c r="J235" s="34"/>
     </row>
-    <row r="236" spans="1:10" ht="15" thickBot="1">
+    <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="44">
         <v>235</v>
       </c>
@@ -22493,7 +22504,7 @@
       <c r="I236" s="33"/>
       <c r="J236" s="34"/>
     </row>
-    <row r="237" spans="1:10" ht="15" thickBot="1">
+    <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="40">
         <v>236</v>
       </c>
@@ -22515,7 +22526,7 @@
       <c r="I237" s="33"/>
       <c r="J237" s="34"/>
     </row>
-    <row r="238" spans="1:10" ht="15" thickBot="1">
+    <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -22537,7 +22548,7 @@
       <c r="I238" s="33"/>
       <c r="J238" s="34"/>
     </row>
-    <row r="239" spans="1:10" ht="15" thickBot="1">
+    <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="24">
         <v>238</v>
       </c>
@@ -22559,7 +22570,7 @@
       <c r="I239" s="33"/>
       <c r="J239" s="34"/>
     </row>
-    <row r="240" spans="1:10" ht="15" thickBot="1">
+    <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="44">
         <v>239</v>
       </c>
@@ -22581,7 +22592,7 @@
       <c r="I240" s="33"/>
       <c r="J240" s="34"/>
     </row>
-    <row r="241" spans="1:10" ht="15" thickBot="1">
+    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="40">
         <v>240</v>
       </c>
@@ -22603,7 +22614,7 @@
       <c r="I241" s="33"/>
       <c r="J241" s="34"/>
     </row>
-    <row r="242" spans="1:10" ht="15" thickBot="1">
+    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="44">
         <v>241</v>
       </c>
@@ -22625,7 +22636,7 @@
       <c r="I242" s="33"/>
       <c r="J242" s="34"/>
     </row>
-    <row r="243" spans="1:10" ht="15" thickBot="1">
+    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="40">
         <v>242</v>
       </c>
@@ -22647,7 +22658,7 @@
       <c r="I243" s="33"/>
       <c r="J243" s="34"/>
     </row>
-    <row r="244" spans="1:10" ht="15" thickBot="1">
+    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="44">
         <v>243</v>
       </c>
@@ -22669,7 +22680,7 @@
       <c r="I244" s="33"/>
       <c r="J244" s="34"/>
     </row>
-    <row r="245" spans="1:10" ht="15" thickBot="1">
+    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="40">
         <v>244</v>
       </c>
@@ -22691,7 +22702,7 @@
       <c r="I245" s="33"/>
       <c r="J245" s="34"/>
     </row>
-    <row r="246" spans="1:10" ht="15" thickBot="1">
+    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="44">
         <v>245</v>
       </c>
@@ -22713,7 +22724,7 @@
       <c r="I246" s="33"/>
       <c r="J246" s="34"/>
     </row>
-    <row r="247" spans="1:10" ht="15" thickBot="1">
+    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="40">
         <v>246</v>
       </c>
@@ -22735,7 +22746,7 @@
       <c r="I247" s="33"/>
       <c r="J247" s="34"/>
     </row>
-    <row r="248" spans="1:10" ht="15" thickBot="1">
+    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="44">
         <v>247</v>
       </c>
@@ -22757,7 +22768,7 @@
       <c r="I248" s="33"/>
       <c r="J248" s="34"/>
     </row>
-    <row r="249" spans="1:10" ht="15" thickBot="1">
+    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="40">
         <v>248</v>
       </c>
@@ -22779,7 +22790,7 @@
       <c r="I249" s="33"/>
       <c r="J249" s="34"/>
     </row>
-    <row r="250" spans="1:10" ht="15" thickBot="1">
+    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -22801,7 +22812,7 @@
       <c r="I250" s="33"/>
       <c r="J250" s="34"/>
     </row>
-    <row r="251" spans="1:10" ht="15" thickBot="1">
+    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="24">
         <v>250</v>
       </c>
@@ -22823,7 +22834,7 @@
       <c r="I251" s="33"/>
       <c r="J251" s="34"/>
     </row>
-    <row r="252" spans="1:10" ht="15" thickBot="1">
+    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="44">
         <v>251</v>
       </c>
@@ -22845,7 +22856,7 @@
       <c r="I252" s="33"/>
       <c r="J252" s="34"/>
     </row>
-    <row r="253" spans="1:10" ht="15" thickBot="1">
+    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="40">
         <v>252</v>
       </c>
@@ -22867,7 +22878,7 @@
       <c r="I253" s="33"/>
       <c r="J253" s="34"/>
     </row>
-    <row r="254" spans="1:10" ht="15" thickBot="1">
+    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -22889,7 +22900,7 @@
       <c r="I254" s="33"/>
       <c r="J254" s="34"/>
     </row>
-    <row r="255" spans="1:10" ht="15" thickBot="1">
+    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="23">
         <v>254</v>
       </c>
@@ -22911,7 +22922,7 @@
       <c r="I255" s="33"/>
       <c r="J255" s="34"/>
     </row>
-    <row r="256" spans="1:10" ht="15" thickBot="1">
+    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="23">
         <v>255</v>
       </c>
@@ -22933,7 +22944,7 @@
       <c r="I256" s="33"/>
       <c r="J256" s="34"/>
     </row>
-    <row r="257" spans="1:10" ht="15" thickBot="1">
+    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="24">
         <v>256</v>
       </c>
@@ -22955,7 +22966,7 @@
       <c r="I257" s="33"/>
       <c r="J257" s="34"/>
     </row>
-    <row r="258" spans="1:10" ht="15" thickBot="1">
+    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="44">
         <v>257</v>
       </c>
@@ -22977,7 +22988,7 @@
       <c r="I258" s="33"/>
       <c r="J258" s="34"/>
     </row>
-    <row r="259" spans="1:10" ht="15" thickBot="1">
+    <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="40">
         <v>258</v>
       </c>
@@ -22999,7 +23010,7 @@
       <c r="I259" s="33"/>
       <c r="J259" s="34"/>
     </row>
-    <row r="260" spans="1:10" ht="15" thickBot="1">
+    <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -23021,7 +23032,7 @@
       <c r="I260" s="33"/>
       <c r="J260" s="34"/>
     </row>
-    <row r="261" spans="1:10" ht="15" thickBot="1">
+    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="24">
         <v>260</v>
       </c>
@@ -23043,7 +23054,7 @@
       <c r="I261" s="33"/>
       <c r="J261" s="34"/>
     </row>
-    <row r="262" spans="1:10" ht="15" thickBot="1">
+    <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="40">
         <v>261</v>
       </c>
@@ -23065,7 +23076,7 @@
       <c r="I262" s="33"/>
       <c r="J262" s="34"/>
     </row>
-    <row r="263" spans="1:10" ht="15" thickBot="1">
+    <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="40">
         <v>262</v>
       </c>
@@ -23087,7 +23098,7 @@
       <c r="I263" s="33"/>
       <c r="J263" s="34"/>
     </row>
-    <row r="264" spans="1:10" ht="15" thickBot="1">
+    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="20">
         <v>263</v>
       </c>
@@ -23109,7 +23120,7 @@
       <c r="I264" s="33"/>
       <c r="J264" s="34"/>
     </row>
-    <row r="265" spans="1:10" ht="15" thickBot="1">
+    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="24">
         <v>264</v>
       </c>
@@ -23131,7 +23142,7 @@
       <c r="I265" s="33"/>
       <c r="J265" s="34"/>
     </row>
-    <row r="266" spans="1:10" ht="15" thickBot="1">
+    <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="40">
         <v>265</v>
       </c>
@@ -23153,7 +23164,7 @@
       <c r="I266" s="33"/>
       <c r="J266" s="34"/>
     </row>
-    <row r="267" spans="1:10" ht="15" thickBot="1">
+    <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="20">
         <v>266</v>
       </c>
@@ -23175,7 +23186,7 @@
       <c r="I267" s="33"/>
       <c r="J267" s="34"/>
     </row>
-    <row r="268" spans="1:10" ht="15" thickBot="1">
+    <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -23197,7 +23208,7 @@
       <c r="I268" s="33"/>
       <c r="J268" s="34"/>
     </row>
-    <row r="269" spans="1:10" ht="15" thickBot="1">
+    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="20">
         <v>268</v>
       </c>
@@ -23219,7 +23230,7 @@
       <c r="I269" s="33"/>
       <c r="J269" s="34"/>
     </row>
-    <row r="270" spans="1:10" ht="15" thickBot="1">
+    <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="23">
         <v>269</v>
       </c>
@@ -23241,7 +23252,7 @@
       <c r="I270" s="33"/>
       <c r="J270" s="34"/>
     </row>
-    <row r="271" spans="1:10" ht="15" thickBot="1">
+    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="24">
         <v>270</v>
       </c>
@@ -23263,7 +23274,7 @@
       <c r="I271" s="33"/>
       <c r="J271" s="34"/>
     </row>
-    <row r="272" spans="1:10" ht="15" thickBot="1">
+    <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="44">
         <v>271</v>
       </c>
@@ -23285,7 +23296,7 @@
       <c r="I272" s="33"/>
       <c r="J272" s="34"/>
     </row>
-    <row r="273" spans="1:10" ht="15" thickBot="1">
+    <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="40">
         <v>272</v>
       </c>
@@ -23307,7 +23318,7 @@
       <c r="I273" s="33"/>
       <c r="J273" s="34"/>
     </row>
-    <row r="274" spans="1:10" ht="15" thickBot="1">
+    <row r="274" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="20">
         <v>273</v>
       </c>
@@ -23329,7 +23340,7 @@
       <c r="I274" s="33"/>
       <c r="J274" s="34"/>
     </row>
-    <row r="275" spans="1:10" ht="15" thickBot="1">
+    <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="24">
         <v>274</v>
       </c>
@@ -23351,7 +23362,7 @@
       <c r="I275" s="33"/>
       <c r="J275" s="34"/>
     </row>
-    <row r="276" spans="1:10" ht="15" thickBot="1">
+    <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="44">
         <v>275</v>
       </c>
@@ -23373,7 +23384,7 @@
       <c r="I276" s="33"/>
       <c r="J276" s="34"/>
     </row>
-    <row r="277" spans="1:10" ht="15" thickBot="1">
+    <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="40">
         <v>276</v>
       </c>
@@ -23395,7 +23406,7 @@
       <c r="I277" s="33"/>
       <c r="J277" s="34"/>
     </row>
-    <row r="278" spans="1:10" ht="15" thickBot="1">
+    <row r="278" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="44">
         <v>277</v>
       </c>
@@ -23417,7 +23428,7 @@
       <c r="I278" s="33"/>
       <c r="J278" s="34"/>
     </row>
-    <row r="279" spans="1:10" ht="15" thickBot="1">
+    <row r="279" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="40">
         <v>278</v>
       </c>
@@ -23439,7 +23450,7 @@
       <c r="I279" s="33"/>
       <c r="J279" s="34"/>
     </row>
-    <row r="280" spans="1:10" ht="15" thickBot="1">
+    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="20">
         <v>279</v>
       </c>
@@ -23461,7 +23472,7 @@
       <c r="I280" s="33"/>
       <c r="J280" s="34"/>
     </row>
-    <row r="281" spans="1:10" ht="15" thickBot="1">
+    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="23">
         <v>280</v>
       </c>
@@ -23483,7 +23494,7 @@
       <c r="I281" s="33"/>
       <c r="J281" s="34"/>
     </row>
-    <row r="282" spans="1:10" ht="15" thickBot="1">
+    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="24">
         <v>281</v>
       </c>
@@ -23505,7 +23516,7 @@
       <c r="I282" s="33"/>
       <c r="J282" s="34"/>
     </row>
-    <row r="283" spans="1:10" ht="15" thickBot="1">
+    <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="44">
         <v>282</v>
       </c>
@@ -23527,7 +23538,7 @@
       <c r="I283" s="33"/>
       <c r="J283" s="34"/>
     </row>
-    <row r="284" spans="1:10" ht="15" thickBot="1">
+    <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="40">
         <v>283</v>
       </c>
@@ -23549,7 +23560,7 @@
       <c r="I284" s="33"/>
       <c r="J284" s="34"/>
     </row>
-    <row r="285" spans="1:10" ht="15" thickBot="1">
+    <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="20">
         <v>284</v>
       </c>
@@ -23571,7 +23582,7 @@
       <c r="I285" s="33"/>
       <c r="J285" s="34"/>
     </row>
-    <row r="286" spans="1:10" ht="15" thickBot="1">
+    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="23">
         <v>285</v>
       </c>
@@ -23593,7 +23604,7 @@
       <c r="I286" s="33"/>
       <c r="J286" s="34"/>
     </row>
-    <row r="287" spans="1:10" ht="15" thickBot="1">
+    <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="24">
         <v>286</v>
       </c>
@@ -23615,7 +23626,7 @@
       <c r="I287" s="33"/>
       <c r="J287" s="34"/>
     </row>
-    <row r="288" spans="1:10" ht="15" thickBot="1">
+    <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="20">
         <v>287</v>
       </c>
@@ -23637,7 +23648,7 @@
       <c r="I288" s="33"/>
       <c r="J288" s="34"/>
     </row>
-    <row r="289" spans="1:10" ht="15" thickBot="1">
+    <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="24">
         <v>288</v>
       </c>
@@ -23659,7 +23670,7 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
     </row>
-    <row r="290" spans="1:10" ht="15" thickBot="1">
+    <row r="290" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="40">
         <v>289</v>
       </c>
@@ -23681,7 +23692,7 @@
       <c r="I290" s="33"/>
       <c r="J290" s="34"/>
     </row>
-    <row r="291" spans="1:10" ht="15" thickBot="1">
+    <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="44">
         <v>290</v>
       </c>
@@ -23703,7 +23714,7 @@
       <c r="I291" s="33"/>
       <c r="J291" s="34"/>
     </row>
-    <row r="292" spans="1:10" ht="15" thickBot="1">
+    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="40">
         <v>291</v>
       </c>
@@ -23725,7 +23736,7 @@
       <c r="I292" s="33"/>
       <c r="J292" s="34"/>
     </row>
-    <row r="293" spans="1:10" ht="15" thickBot="1">
+    <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="44">
         <v>292</v>
       </c>
@@ -23747,7 +23758,7 @@
       <c r="I293" s="33"/>
       <c r="J293" s="34"/>
     </row>
-    <row r="294" spans="1:10" ht="15" thickBot="1">
+    <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="40">
         <v>293</v>
       </c>
@@ -23769,7 +23780,7 @@
       <c r="I294" s="33"/>
       <c r="J294" s="34"/>
     </row>
-    <row r="295" spans="1:10" ht="15" thickBot="1">
+    <row r="295" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="40">
         <v>294</v>
       </c>
@@ -23791,7 +23802,7 @@
       <c r="I295" s="33"/>
       <c r="J295" s="34"/>
     </row>
-    <row r="296" spans="1:10" ht="15" thickBot="1">
+    <row r="296" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="44">
         <v>295</v>
       </c>
@@ -23813,7 +23824,7 @@
       <c r="I296" s="33"/>
       <c r="J296" s="34"/>
     </row>
-    <row r="297" spans="1:10" ht="15" thickBot="1">
+    <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="20">
         <v>296</v>
       </c>
@@ -23835,7 +23846,7 @@
       <c r="I297" s="33"/>
       <c r="J297" s="34"/>
     </row>
-    <row r="298" spans="1:10" ht="15" thickBot="1">
+    <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="24">
         <v>297</v>
       </c>
@@ -23857,7 +23868,7 @@
       <c r="I298" s="33"/>
       <c r="J298" s="34"/>
     </row>
-    <row r="299" spans="1:10" ht="15" thickBot="1">
+    <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="40">
         <v>298</v>
       </c>
@@ -23879,7 +23890,7 @@
       <c r="I299" s="33"/>
       <c r="J299" s="34"/>
     </row>
-    <row r="300" spans="1:10" ht="15" thickBot="1">
+    <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="20">
         <v>299</v>
       </c>
@@ -23901,7 +23912,7 @@
       <c r="I300" s="33"/>
       <c r="J300" s="34"/>
     </row>
-    <row r="301" spans="1:10" ht="15" thickBot="1">
+    <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="24">
         <v>300</v>
       </c>
@@ -23923,7 +23934,7 @@
       <c r="I301" s="33"/>
       <c r="J301" s="34"/>
     </row>
-    <row r="302" spans="1:10" ht="15" thickBot="1">
+    <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="23">
         <v>301</v>
       </c>
@@ -23945,7 +23956,7 @@
       <c r="I302" s="33"/>
       <c r="J302" s="34"/>
     </row>
-    <row r="303" spans="1:10" ht="15" thickBot="1">
+    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="44">
         <v>302</v>
       </c>
@@ -23967,7 +23978,7 @@
       <c r="I303" s="33"/>
       <c r="J303" s="34"/>
     </row>
-    <row r="304" spans="1:10" ht="15" thickBot="1">
+    <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="40">
         <v>303</v>
       </c>
@@ -23989,7 +24000,7 @@
       <c r="I304" s="33"/>
       <c r="J304" s="34"/>
     </row>
-    <row r="305" spans="1:10" ht="15" thickBot="1">
+    <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="44">
         <v>304</v>
       </c>
@@ -24011,7 +24022,7 @@
       <c r="I305" s="33"/>
       <c r="J305" s="34"/>
     </row>
-    <row r="306" spans="1:10" ht="15" thickBot="1">
+    <row r="306" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="40">
         <v>305</v>
       </c>
@@ -24033,7 +24044,7 @@
       <c r="I306" s="33"/>
       <c r="J306" s="34"/>
     </row>
-    <row r="307" spans="1:10" ht="15" thickBot="1">
+    <row r="307" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="44">
         <v>306</v>
       </c>
@@ -24055,7 +24066,7 @@
       <c r="I307" s="33"/>
       <c r="J307" s="34"/>
     </row>
-    <row r="308" spans="1:10" ht="15" thickBot="1">
+    <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="40">
         <v>307</v>
       </c>
@@ -24077,7 +24088,7 @@
       <c r="I308" s="33"/>
       <c r="J308" s="34"/>
     </row>
-    <row r="309" spans="1:10" ht="15" thickBot="1">
+    <row r="309" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="44">
         <v>308</v>
       </c>
@@ -24099,7 +24110,7 @@
       <c r="I309" s="33"/>
       <c r="J309" s="34"/>
     </row>
-    <row r="310" spans="1:10" ht="15" thickBot="1">
+    <row r="310" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="40">
         <v>309</v>
       </c>
@@ -24121,7 +24132,7 @@
       <c r="I310" s="33"/>
       <c r="J310" s="34"/>
     </row>
-    <row r="311" spans="1:10" ht="15" thickBot="1">
+    <row r="311" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="44">
         <v>310</v>
       </c>
@@ -24143,7 +24154,7 @@
       <c r="I311" s="33"/>
       <c r="J311" s="34"/>
     </row>
-    <row r="312" spans="1:10" ht="15" thickBot="1">
+    <row r="312" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="40">
         <v>311</v>
       </c>
@@ -24165,7 +24176,7 @@
       <c r="I312" s="33"/>
       <c r="J312" s="34"/>
     </row>
-    <row r="313" spans="1:10" ht="15" thickBot="1">
+    <row r="313" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="20">
         <v>312</v>
       </c>
@@ -24187,7 +24198,7 @@
       <c r="I313" s="33"/>
       <c r="J313" s="34"/>
     </row>
-    <row r="314" spans="1:10" ht="15" thickBot="1">
+    <row r="314" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="24">
         <v>313</v>
       </c>
@@ -24209,7 +24220,7 @@
       <c r="I314" s="33"/>
       <c r="J314" s="34"/>
     </row>
-    <row r="315" spans="1:10" ht="15" thickBot="1">
+    <row r="315" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="44">
         <v>314</v>
       </c>
@@ -24231,7 +24242,7 @@
       <c r="I315" s="33"/>
       <c r="J315" s="34"/>
     </row>
-    <row r="316" spans="1:10" ht="15" thickBot="1">
+    <row r="316" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="20">
         <v>315</v>
       </c>
@@ -24253,7 +24264,7 @@
       <c r="I316" s="33"/>
       <c r="J316" s="34"/>
     </row>
-    <row r="317" spans="1:10" ht="15" thickBot="1">
+    <row r="317" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="24">
         <v>316</v>
       </c>
@@ -24275,7 +24286,7 @@
       <c r="I317" s="33"/>
       <c r="J317" s="34"/>
     </row>
-    <row r="318" spans="1:10" ht="15" thickBot="1">
+    <row r="318" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="44">
         <v>317</v>
       </c>
@@ -24297,7 +24308,7 @@
       <c r="I318" s="33"/>
       <c r="J318" s="34"/>
     </row>
-    <row r="319" spans="1:10" ht="15" thickBot="1">
+    <row r="319" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="40">
         <v>318</v>
       </c>
@@ -24319,7 +24330,7 @@
       <c r="I319" s="33"/>
       <c r="J319" s="34"/>
     </row>
-    <row r="320" spans="1:10" ht="15" thickBot="1">
+    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="44">
         <v>319</v>
       </c>
@@ -24341,7 +24352,7 @@
       <c r="I320" s="33"/>
       <c r="J320" s="34"/>
     </row>
-    <row r="321" spans="1:10" ht="15" thickBot="1">
+    <row r="321" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="40">
         <v>320</v>
       </c>
@@ -24363,7 +24374,7 @@
       <c r="I321" s="33"/>
       <c r="J321" s="34"/>
     </row>
-    <row r="322" spans="1:10" ht="15" thickBot="1">
+    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="44">
         <v>321</v>
       </c>
@@ -24385,7 +24396,7 @@
       <c r="I322" s="33"/>
       <c r="J322" s="34"/>
     </row>
-    <row r="323" spans="1:10" ht="15" thickBot="1">
+    <row r="323" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="40">
         <v>322</v>
       </c>
@@ -24407,7 +24418,7 @@
       <c r="I323" s="33"/>
       <c r="J323" s="34"/>
     </row>
-    <row r="324" spans="1:10" ht="15" thickBot="1">
+    <row r="324" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="44">
         <v>323</v>
       </c>
@@ -24429,7 +24440,7 @@
       <c r="I324" s="33"/>
       <c r="J324" s="34"/>
     </row>
-    <row r="325" spans="1:10" ht="15" thickBot="1">
+    <row r="325" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="40">
         <v>324</v>
       </c>
@@ -24451,7 +24462,7 @@
       <c r="I325" s="33"/>
       <c r="J325" s="34"/>
     </row>
-    <row r="326" spans="1:10" ht="15" thickBot="1">
+    <row r="326" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="23">
         <v>325</v>
       </c>
@@ -24473,7 +24484,7 @@
       <c r="I326" s="33"/>
       <c r="J326" s="34"/>
     </row>
-    <row r="327" spans="1:10" ht="15" thickBot="1">
+    <row r="327" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="44">
         <v>326</v>
       </c>
@@ -24495,7 +24506,7 @@
       <c r="I327" s="33"/>
       <c r="J327" s="34"/>
     </row>
-    <row r="328" spans="1:10" ht="15" thickBot="1">
+    <row r="328" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="20">
         <v>327</v>
       </c>
@@ -24517,7 +24528,7 @@
       <c r="I328" s="33"/>
       <c r="J328" s="34"/>
     </row>
-    <row r="329" spans="1:10" ht="15" thickBot="1">
+    <row r="329" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="24">
         <v>328</v>
       </c>
@@ -24539,7 +24550,7 @@
       <c r="I329" s="33"/>
       <c r="J329" s="34"/>
     </row>
-    <row r="330" spans="1:10" ht="15" thickBot="1">
+    <row r="330" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="44">
         <v>329</v>
       </c>
@@ -24561,7 +24572,7 @@
       <c r="I330" s="33"/>
       <c r="J330" s="34"/>
     </row>
-    <row r="331" spans="1:10" ht="15" thickBot="1">
+    <row r="331" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="40">
         <v>330</v>
       </c>
@@ -24583,7 +24594,7 @@
       <c r="I331" s="33"/>
       <c r="J331" s="34"/>
     </row>
-    <row r="332" spans="1:10" ht="15" thickBot="1">
+    <row r="332" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="20">
         <v>331</v>
       </c>
@@ -24605,7 +24616,7 @@
       <c r="I332" s="33"/>
       <c r="J332" s="34"/>
     </row>
-    <row r="333" spans="1:10" ht="15" thickBot="1">
+    <row r="333" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="24">
         <v>332</v>
       </c>
@@ -24627,7 +24638,7 @@
       <c r="I333" s="33"/>
       <c r="J333" s="34"/>
     </row>
-    <row r="334" spans="1:10" ht="15" thickBot="1">
+    <row r="334" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="44">
         <v>333</v>
       </c>
@@ -24649,7 +24660,7 @@
       <c r="I334" s="33"/>
       <c r="J334" s="34"/>
     </row>
-    <row r="335" spans="1:10" ht="15" thickBot="1">
+    <row r="335" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="20">
         <v>334</v>
       </c>
@@ -24671,7 +24682,7 @@
       <c r="I335" s="33"/>
       <c r="J335" s="34"/>
     </row>
-    <row r="336" spans="1:10" ht="15" thickBot="1">
+    <row r="336" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="24">
         <v>335</v>
       </c>
@@ -24693,7 +24704,7 @@
       <c r="I336" s="33"/>
       <c r="J336" s="34"/>
     </row>
-    <row r="337" spans="1:10" ht="15" thickBot="1">
+    <row r="337" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="44">
         <v>336</v>
       </c>
@@ -24715,7 +24726,7 @@
       <c r="I337" s="33"/>
       <c r="J337" s="34"/>
     </row>
-    <row r="338" spans="1:10" ht="15" thickBot="1">
+    <row r="338" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="40">
         <v>337</v>
       </c>
@@ -24737,7 +24748,7 @@
       <c r="I338" s="33"/>
       <c r="J338" s="34"/>
     </row>
-    <row r="339" spans="1:10" ht="15" thickBot="1">
+    <row r="339" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="44">
         <v>338</v>
       </c>
@@ -24759,7 +24770,7 @@
       <c r="I339" s="33"/>
       <c r="J339" s="34"/>
     </row>
-    <row r="340" spans="1:10" ht="15" thickBot="1">
+    <row r="340" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="40">
         <v>339</v>
       </c>
@@ -24781,7 +24792,7 @@
       <c r="I340" s="33"/>
       <c r="J340" s="34"/>
     </row>
-    <row r="341" spans="1:10" ht="15" thickBot="1">
+    <row r="341" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="44">
         <v>340</v>
       </c>
@@ -24803,7 +24814,7 @@
       <c r="I341" s="33"/>
       <c r="J341" s="34"/>
     </row>
-    <row r="342" spans="1:10" ht="15" thickBot="1">
+    <row r="342" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="40">
         <v>341</v>
       </c>
@@ -24825,7 +24836,7 @@
       <c r="I342" s="33"/>
       <c r="J342" s="34"/>
     </row>
-    <row r="343" spans="1:10" ht="15" thickBot="1">
+    <row r="343" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="44">
         <v>342</v>
       </c>
@@ -24847,7 +24858,7 @@
       <c r="I343" s="33"/>
       <c r="J343" s="34"/>
     </row>
-    <row r="344" spans="1:10" ht="15" thickBot="1">
+    <row r="344" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="40">
         <v>343</v>
       </c>
@@ -24869,7 +24880,7 @@
       <c r="I344" s="33"/>
       <c r="J344" s="34"/>
     </row>
-    <row r="345" spans="1:10" ht="15" thickBot="1">
+    <row r="345" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="44">
         <v>344</v>
       </c>
@@ -24891,7 +24902,7 @@
       <c r="I345" s="33"/>
       <c r="J345" s="34"/>
     </row>
-    <row r="346" spans="1:10" ht="15" thickBot="1">
+    <row r="346" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="20">
         <v>345</v>
       </c>
@@ -24913,7 +24924,7 @@
       <c r="I346" s="33"/>
       <c r="J346" s="34"/>
     </row>
-    <row r="347" spans="1:10" ht="15" thickBot="1">
+    <row r="347" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="24">
         <v>346</v>
       </c>
@@ -24935,7 +24946,7 @@
       <c r="I347" s="33"/>
       <c r="J347" s="34"/>
     </row>
-    <row r="348" spans="1:10" ht="15" thickBot="1">
+    <row r="348" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="44">
         <v>347</v>
       </c>
@@ -24957,7 +24968,7 @@
       <c r="I348" s="33"/>
       <c r="J348" s="34"/>
     </row>
-    <row r="349" spans="1:10" ht="15" thickBot="1">
+    <row r="349" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="20">
         <v>348</v>
       </c>
@@ -24979,7 +24990,7 @@
       <c r="I349" s="33"/>
       <c r="J349" s="34"/>
     </row>
-    <row r="350" spans="1:10" ht="15" thickBot="1">
+    <row r="350" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="23">
         <v>349</v>
       </c>
@@ -25001,7 +25012,7 @@
       <c r="I350" s="33"/>
       <c r="J350" s="34"/>
     </row>
-    <row r="351" spans="1:10" ht="15" thickBot="1">
+    <row r="351" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="24">
         <v>350</v>
       </c>
@@ -25023,7 +25034,7 @@
       <c r="I351" s="33"/>
       <c r="J351" s="34"/>
     </row>
-    <row r="352" spans="1:10" ht="15" thickBot="1">
+    <row r="352" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="44">
         <v>351</v>
       </c>
@@ -25045,7 +25056,7 @@
       <c r="I352" s="33"/>
       <c r="J352" s="34"/>
     </row>
-    <row r="353" spans="1:10" ht="15" thickBot="1">
+    <row r="353" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="40">
         <v>352</v>
       </c>
@@ -25067,7 +25078,7 @@
       <c r="I353" s="33"/>
       <c r="J353" s="34"/>
     </row>
-    <row r="354" spans="1:10" ht="15" thickBot="1">
+    <row r="354" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="44">
         <v>353</v>
       </c>
@@ -25089,7 +25100,7 @@
       <c r="I354" s="33"/>
       <c r="J354" s="34"/>
     </row>
-    <row r="355" spans="1:10" ht="15" thickBot="1">
+    <row r="355" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="40">
         <v>354</v>
       </c>
@@ -25111,7 +25122,7 @@
       <c r="I355" s="33"/>
       <c r="J355" s="34"/>
     </row>
-    <row r="356" spans="1:10" ht="15" thickBot="1">
+    <row r="356" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="20">
         <v>355</v>
       </c>
@@ -25133,7 +25144,7 @@
       <c r="I356" s="33"/>
       <c r="J356" s="34"/>
     </row>
-    <row r="357" spans="1:10" ht="15" thickBot="1">
+    <row r="357" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="24">
         <v>356</v>
       </c>
@@ -25155,7 +25166,7 @@
       <c r="I357" s="33"/>
       <c r="J357" s="34"/>
     </row>
-    <row r="358" spans="1:10" ht="15" thickBot="1">
+    <row r="358" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="20">
         <v>357</v>
       </c>
@@ -25177,7 +25188,7 @@
       <c r="I358" s="33"/>
       <c r="J358" s="34"/>
     </row>
-    <row r="359" spans="1:10" ht="15" thickBot="1">
+    <row r="359" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="24">
         <v>358</v>
       </c>
@@ -25199,7 +25210,7 @@
       <c r="I359" s="33"/>
       <c r="J359" s="34"/>
     </row>
-    <row r="360" spans="1:10" ht="15" thickBot="1">
+    <row r="360" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="44">
         <v>359</v>
       </c>
@@ -25221,7 +25232,7 @@
       <c r="I360" s="33"/>
       <c r="J360" s="34"/>
     </row>
-    <row r="361" spans="1:10" ht="15" thickBot="1">
+    <row r="361" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="40">
         <v>360</v>
       </c>
@@ -25243,7 +25254,7 @@
       <c r="I361" s="33"/>
       <c r="J361" s="34"/>
     </row>
-    <row r="362" spans="1:10" ht="15" thickBot="1">
+    <row r="362" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="44">
         <v>361</v>
       </c>
@@ -25265,7 +25276,7 @@
       <c r="I362" s="33"/>
       <c r="J362" s="34"/>
     </row>
-    <row r="363" spans="1:10" ht="15" thickBot="1">
+    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="40">
         <v>362</v>
       </c>
@@ -25287,7 +25298,7 @@
       <c r="I363" s="33"/>
       <c r="J363" s="34"/>
     </row>
-    <row r="364" spans="1:10" ht="15" thickBot="1">
+    <row r="364" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="44">
         <v>363</v>
       </c>
@@ -25309,7 +25320,7 @@
       <c r="I364" s="33"/>
       <c r="J364" s="34"/>
     </row>
-    <row r="365" spans="1:10" ht="15" thickBot="1">
+    <row r="365" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="40">
         <v>364</v>
       </c>
@@ -25331,7 +25342,7 @@
       <c r="I365" s="33"/>
       <c r="J365" s="34"/>
     </row>
-    <row r="366" spans="1:10" ht="15" thickBot="1">
+    <row r="366" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="44">
         <v>365</v>
       </c>
@@ -25353,7 +25364,7 @@
       <c r="I366" s="33"/>
       <c r="J366" s="34"/>
     </row>
-    <row r="367" spans="1:10" ht="15" thickBot="1">
+    <row r="367" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="40">
         <v>366</v>
       </c>
@@ -25375,7 +25386,7 @@
       <c r="I367" s="33"/>
       <c r="J367" s="34"/>
     </row>
-    <row r="368" spans="1:10" ht="15" thickBot="1">
+    <row r="368" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="44">
         <v>367</v>
       </c>
@@ -25397,7 +25408,7 @@
       <c r="I368" s="33"/>
       <c r="J368" s="34"/>
     </row>
-    <row r="369" spans="1:10" ht="15" thickBot="1">
+    <row r="369" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="40">
         <v>368</v>
       </c>
@@ -25419,7 +25430,7 @@
       <c r="I369" s="33"/>
       <c r="J369" s="34"/>
     </row>
-    <row r="370" spans="1:10" ht="15" thickBot="1">
+    <row r="370" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="20">
         <v>369</v>
       </c>
@@ -25441,7 +25452,7 @@
       <c r="I370" s="33"/>
       <c r="J370" s="34"/>
     </row>
-    <row r="371" spans="1:10" ht="15" thickBot="1">
+    <row r="371" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="23">
         <v>370</v>
       </c>
@@ -25463,7 +25474,7 @@
       <c r="I371" s="33"/>
       <c r="J371" s="34"/>
     </row>
-    <row r="372" spans="1:10" ht="15" thickBot="1">
+    <row r="372" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="24">
         <v>371</v>
       </c>
@@ -25485,7 +25496,7 @@
       <c r="I372" s="33"/>
       <c r="J372" s="34"/>
     </row>
-    <row r="373" spans="1:10" ht="15" thickBot="1">
+    <row r="373" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="44">
         <v>372</v>
       </c>
@@ -25507,7 +25518,7 @@
       <c r="I373" s="33"/>
       <c r="J373" s="34"/>
     </row>
-    <row r="374" spans="1:10" ht="15" thickBot="1">
+    <row r="374" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="40">
         <v>373</v>
       </c>
@@ -25529,7 +25540,7 @@
       <c r="I374" s="33"/>
       <c r="J374" s="34"/>
     </row>
-    <row r="375" spans="1:10" ht="15" thickBot="1">
+    <row r="375" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="20">
         <v>374</v>
       </c>
@@ -25551,7 +25562,7 @@
       <c r="I375" s="33"/>
       <c r="J375" s="34"/>
     </row>
-    <row r="376" spans="1:10" ht="15" thickBot="1">
+    <row r="376" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="23">
         <v>375</v>
       </c>
@@ -25573,7 +25584,7 @@
       <c r="I376" s="33"/>
       <c r="J376" s="34"/>
     </row>
-    <row r="377" spans="1:10" ht="15" thickBot="1">
+    <row r="377" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="24">
         <v>376</v>
       </c>
@@ -25595,7 +25606,7 @@
       <c r="I377" s="33"/>
       <c r="J377" s="34"/>
     </row>
-    <row r="378" spans="1:10" ht="15" thickBot="1">
+    <row r="378" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="44">
         <v>377</v>
       </c>
@@ -25617,7 +25628,7 @@
       <c r="I378" s="33"/>
       <c r="J378" s="34"/>
     </row>
-    <row r="379" spans="1:10" ht="15" thickBot="1">
+    <row r="379" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="40">
         <v>378</v>
       </c>
@@ -25639,7 +25650,7 @@
       <c r="I379" s="33"/>
       <c r="J379" s="34"/>
     </row>
-    <row r="380" spans="1:10" ht="15" thickBot="1">
+    <row r="380" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="20">
         <v>379</v>
       </c>
@@ -25661,7 +25672,7 @@
       <c r="I380" s="33"/>
       <c r="J380" s="34"/>
     </row>
-    <row r="381" spans="1:10" ht="15" thickBot="1">
+    <row r="381" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="23">
         <v>380</v>
       </c>
@@ -25683,7 +25694,7 @@
       <c r="I381" s="33"/>
       <c r="J381" s="34"/>
     </row>
-    <row r="382" spans="1:10" ht="15" thickBot="1">
+    <row r="382" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="24">
         <v>381</v>
       </c>
@@ -25705,7 +25716,7 @@
       <c r="I382" s="33"/>
       <c r="J382" s="34"/>
     </row>
-    <row r="383" spans="1:10" ht="15" thickBot="1">
+    <row r="383" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="20">
         <v>382</v>
       </c>
@@ -25727,7 +25738,7 @@
       <c r="I383" s="33"/>
       <c r="J383" s="34"/>
     </row>
-    <row r="384" spans="1:10" ht="15" thickBot="1">
+    <row r="384" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="24">
         <v>383</v>
       </c>
@@ -25749,7 +25760,7 @@
       <c r="I384" s="33"/>
       <c r="J384" s="34"/>
     </row>
-    <row r="385" spans="1:10" ht="15" thickBot="1">
+    <row r="385" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="40">
         <v>384</v>
       </c>
@@ -25771,7 +25782,7 @@
       <c r="I385" s="33"/>
       <c r="J385" s="34"/>
     </row>
-    <row r="386" spans="1:10" ht="15" thickBot="1">
+    <row r="386" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="20">
         <v>385</v>
       </c>
@@ -25793,7 +25804,7 @@
       <c r="I386" s="33"/>
       <c r="J386" s="34"/>
     </row>
-    <row r="387" spans="1:10" ht="15" thickBot="1">
+    <row r="387" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="24">
         <v>386</v>
       </c>
@@ -25815,7 +25826,7 @@
       <c r="I387" s="33"/>
       <c r="J387" s="34"/>
     </row>
-    <row r="388" spans="1:10" ht="15" thickBot="1">
+    <row r="388" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="23">
         <v>387</v>
       </c>
@@ -25837,7 +25848,7 @@
       <c r="I388" s="33"/>
       <c r="J388" s="34"/>
     </row>
-    <row r="389" spans="1:10" ht="15" thickBot="1">
+    <row r="389" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="44">
         <v>388</v>
       </c>
@@ -25859,7 +25870,7 @@
       <c r="I389" s="33"/>
       <c r="J389" s="34"/>
     </row>
-    <row r="390" spans="1:10" ht="15" thickBot="1">
+    <row r="390" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="40">
         <v>389</v>
       </c>
@@ -25881,7 +25892,7 @@
       <c r="I390" s="33"/>
       <c r="J390" s="34"/>
     </row>
-    <row r="391" spans="1:10" ht="15" thickBot="1">
+    <row r="391" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="23">
         <v>390</v>
       </c>
@@ -25903,7 +25914,7 @@
       <c r="I391" s="33"/>
       <c r="J391" s="34"/>
     </row>
-    <row r="392" spans="1:10" ht="15" thickBot="1">
+    <row r="392" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="44">
         <v>391</v>
       </c>
@@ -25925,7 +25936,7 @@
       <c r="I392" s="33"/>
       <c r="J392" s="34"/>
     </row>
-    <row r="393" spans="1:10" ht="15" thickBot="1">
+    <row r="393" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="40">
         <v>392</v>
       </c>
@@ -25947,7 +25958,7 @@
       <c r="I393" s="33"/>
       <c r="J393" s="34"/>
     </row>
-    <row r="394" spans="1:10" ht="15" thickBot="1">
+    <row r="394" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="44">
         <v>393</v>
       </c>
@@ -25969,7 +25980,7 @@
       <c r="I394" s="33"/>
       <c r="J394" s="34"/>
     </row>
-    <row r="395" spans="1:10" ht="15" thickBot="1">
+    <row r="395" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="20">
         <v>394</v>
       </c>
@@ -25991,7 +26002,7 @@
       <c r="I395" s="33"/>
       <c r="J395" s="34"/>
     </row>
-    <row r="396" spans="1:10" ht="15" thickBot="1">
+    <row r="396" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="24">
         <v>395</v>
       </c>
@@ -26013,7 +26024,7 @@
       <c r="I396" s="33"/>
       <c r="J396" s="34"/>
     </row>
-    <row r="397" spans="1:10" ht="15" thickBot="1">
+    <row r="397" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="44">
         <v>396</v>
       </c>
@@ -26035,7 +26046,7 @@
       <c r="I397" s="33"/>
       <c r="J397" s="34"/>
     </row>
-    <row r="398" spans="1:10" ht="15" thickBot="1">
+    <row r="398" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="20">
         <v>397</v>
       </c>
@@ -26057,7 +26068,7 @@
       <c r="I398" s="33"/>
       <c r="J398" s="34"/>
     </row>
-    <row r="399" spans="1:10" ht="15" thickBot="1">
+    <row r="399" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="24">
         <v>398</v>
       </c>
@@ -26079,7 +26090,7 @@
       <c r="I399" s="33"/>
       <c r="J399" s="34"/>
     </row>
-    <row r="400" spans="1:10" ht="15" thickBot="1">
+    <row r="400" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="44">
         <v>399</v>
       </c>
@@ -26101,7 +26112,7 @@
       <c r="I400" s="33"/>
       <c r="J400" s="34"/>
     </row>
-    <row r="401" spans="1:10" ht="15" thickBot="1">
+    <row r="401" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A401" s="40">
         <v>400</v>
       </c>
@@ -26123,7 +26134,7 @@
       <c r="I401" s="33"/>
       <c r="J401" s="34"/>
     </row>
-    <row r="402" spans="1:10" ht="15" thickBot="1">
+    <row r="402" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A402" s="44">
         <v>401</v>
       </c>
@@ -26145,7 +26156,7 @@
       <c r="I402" s="33"/>
       <c r="J402" s="34"/>
     </row>
-    <row r="403" spans="1:10" ht="15" thickBot="1">
+    <row r="403" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="40">
         <v>402</v>
       </c>
@@ -26181,13 +26192,13 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>243</v>
       </c>
@@ -26195,7 +26206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>244</v>
       </c>
@@ -26203,7 +26214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="44" thickBot="1">
+    <row r="3" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>245</v>
       </c>
@@ -26211,7 +26222,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.5" thickBot="1">
+    <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>246</v>
       </c>
@@ -26219,7 +26230,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
@@ -26227,7 +26238,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>248</v>
       </c>
@@ -26235,7 +26246,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.5" thickBot="1">
+    <row r="7" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>249</v>
       </c>
@@ -26243,7 +26254,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.5" thickBot="1">
+    <row r="8" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>250</v>
       </c>
@@ -26251,7 +26262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>251</v>
       </c>
@@ -26259,7 +26270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>252</v>
       </c>
@@ -26267,7 +26278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>253</v>
       </c>
@@ -26275,7 +26286,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>254</v>
       </c>
@@ -26283,7 +26294,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>255</v>
       </c>
@@ -26291,7 +26302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>256</v>
       </c>
@@ -26299,7 +26310,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>257</v>
       </c>
@@ -26307,7 +26318,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>258</v>
       </c>
@@ -26315,7 +26326,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>259</v>
       </c>
@@ -26323,7 +26334,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>260</v>
       </c>
@@ -26331,7 +26342,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>261</v>
       </c>
@@ -26339,7 +26350,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>262</v>
       </c>
@@ -26347,7 +26358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>263</v>
       </c>
@@ -26355,7 +26366,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="44" thickBot="1">
+    <row r="22" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>264</v>
       </c>
@@ -26363,7 +26374,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>265</v>
       </c>
@@ -26371,7 +26382,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>266</v>
       </c>
@@ -26379,7 +26390,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>267</v>
       </c>
@@ -26387,7 +26398,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="44" thickBot="1">
+    <row r="26" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>268</v>
       </c>
@@ -26395,7 +26406,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44" thickBot="1">
+    <row r="27" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>269</v>
       </c>
@@ -26403,7 +26414,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1">
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>270</v>
       </c>
@@ -26411,7 +26422,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.5" thickBot="1">
+    <row r="29" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>271</v>
       </c>
@@ -26419,7 +26430,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1">
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>272</v>
       </c>
@@ -26427,7 +26438,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1">
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>273</v>
       </c>
@@ -26435,7 +26446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>274</v>
       </c>
@@ -26443,7 +26454,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>275</v>
       </c>
@@ -26451,7 +26462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29.5" thickBot="1">
+    <row r="34" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>276</v>
       </c>
@@ -26472,1327 +26483,1327 @@
       <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5">
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.5">
+    <row r="2" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.5">
+    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.5">
+    <row r="4" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.5">
+    <row r="5" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19" thickBot="1">
+    <row r="6" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.5">
+    <row r="7" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.5">
+    <row r="8" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.5">
+    <row r="9" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.5">
+    <row r="10" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.5">
+    <row r="11" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19" thickBot="1">
+    <row r="12" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.5">
+    <row r="13" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.5">
+    <row r="14" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.5">
+    <row r="15" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.5">
+    <row r="16" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.5">
+    <row r="17" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="19" thickBot="1">
+    <row r="18" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.5">
+    <row r="19" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.5">
+    <row r="20" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.5">
+    <row r="21" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.5">
+    <row r="22" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.5">
+    <row r="23" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="19" thickBot="1">
+    <row r="24" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.5">
+    <row r="25" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.5">
+    <row r="26" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.5">
+    <row r="27" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.5">
+    <row r="28" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.5">
+    <row r="29" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="19" thickBot="1">
+    <row r="30" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.5">
+    <row r="31" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.5">
+    <row r="32" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.5">
+    <row r="33" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.5">
+    <row r="34" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.5">
+    <row r="35" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="19" thickBot="1">
+    <row r="36" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.5">
+    <row r="37" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.5">
+    <row r="38" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.5">
+    <row r="39" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.5">
+    <row r="40" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.5">
+    <row r="41" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="19" thickBot="1">
+    <row r="42" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.5">
+    <row r="43" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.5">
+    <row r="44" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.5">
+    <row r="45" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.5">
+    <row r="46" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.5">
+    <row r="47" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="19" thickBot="1">
+    <row r="48" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.5">
+    <row r="49" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.5">
+    <row r="50" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.5">
+    <row r="51" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.5">
+    <row r="52" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.5">
+    <row r="53" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="19" thickBot="1">
+    <row r="54" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.5">
+    <row r="55" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.5">
+    <row r="56" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.5">
+    <row r="57" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.5">
+    <row r="58" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.5">
+    <row r="59" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="19" thickBot="1">
+    <row r="60" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.5">
+    <row r="61" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.5">
+    <row r="62" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.5">
+    <row r="63" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.5">
+    <row r="64" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.5">
+    <row r="65" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="19" thickBot="1">
+    <row r="66" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.5">
+    <row r="67" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.5">
+    <row r="68" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.5">
+    <row r="69" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.5">
+    <row r="70" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.5">
+    <row r="71" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="19" thickBot="1">
+    <row r="72" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.5">
+    <row r="73" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.5">
+    <row r="74" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.5">
+    <row r="75" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.5">
+    <row r="76" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.5">
+    <row r="77" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="19" thickBot="1">
+    <row r="78" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.5">
+    <row r="79" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.5">
+    <row r="80" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.5">
+    <row r="81" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.5">
+    <row r="82" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.5">
+    <row r="83" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="19" thickBot="1">
+    <row r="84" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.5">
+    <row r="85" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.5">
+    <row r="86" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.5">
+    <row r="87" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.5">
+    <row r="88" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.5">
+    <row r="89" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="19" thickBot="1">
+    <row r="90" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.5">
+    <row r="91" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.5">
+    <row r="92" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.5">
+    <row r="93" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.5">
+    <row r="94" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.5">
+    <row r="95" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="19" thickBot="1">
+    <row r="96" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.5">
+    <row r="97" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.5">
+    <row r="98" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.5">
+    <row r="99" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.5">
+    <row r="100" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.5">
+    <row r="101" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="19" thickBot="1">
+    <row r="102" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.5">
+    <row r="103" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.5">
+    <row r="104" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.5">
+    <row r="105" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.5">
+    <row r="106" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.5">
+    <row r="107" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="19" thickBot="1">
+    <row r="108" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.5">
+    <row r="109" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A109" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.5">
+    <row r="110" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.5">
+    <row r="111" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.5">
+    <row r="112" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.5">
+    <row r="113" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="19" thickBot="1">
+    <row r="114" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.5">
+    <row r="115" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A115" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.5">
+    <row r="116" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.5">
+    <row r="117" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.5">
+    <row r="118" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.5">
+    <row r="119" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="19" thickBot="1">
+    <row r="120" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.5">
+    <row r="121" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A121" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.5">
+    <row r="122" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.5">
+    <row r="123" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A123" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.5">
+    <row r="124" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A124" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.5">
+    <row r="125" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A125" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="19" thickBot="1">
+    <row r="126" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.5">
+    <row r="127" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A127" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.5">
+    <row r="128" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A128" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.5">
+    <row r="129" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A129" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.5">
+    <row r="130" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A130" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.5">
+    <row r="131" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A131" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="19" thickBot="1">
+    <row r="132" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.5">
+    <row r="133" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A133" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.5">
+    <row r="134" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A134" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.5">
+    <row r="135" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A135" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.5">
+    <row r="136" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.5">
+    <row r="137" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="19" thickBot="1">
+    <row r="138" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.5">
+    <row r="139" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.5">
+    <row r="140" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A140" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.5">
+    <row r="141" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A141" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.5">
+    <row r="142" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A142" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.5">
+    <row r="143" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A143" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="19" thickBot="1">
+    <row r="144" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.5">
+    <row r="145" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A145" s="13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.5">
+    <row r="146" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A146" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.5">
+    <row r="147" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A147" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.5">
+    <row r="148" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A148" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.5">
+    <row r="149" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A149" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="19" thickBot="1">
+    <row r="150" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A150" s="14" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.5">
+    <row r="151" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A151" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.5">
+    <row r="152" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A152" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.5">
+    <row r="153" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A153" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.5">
+    <row r="154" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.5">
+    <row r="155" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="19" thickBot="1">
+    <row r="156" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A156" s="14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.5">
+    <row r="157" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.5">
+    <row r="158" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.5">
+    <row r="159" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.5">
+    <row r="160" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.5">
+    <row r="161" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="19" thickBot="1">
+    <row r="162" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.5">
+    <row r="163" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.5">
+    <row r="164" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.5">
+    <row r="165" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.5">
+    <row r="166" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.5">
+    <row r="167" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="19" thickBot="1">
+    <row r="168" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A168" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.5">
+    <row r="169" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.5">
+    <row r="170" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.5">
+    <row r="171" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.5">
+    <row r="172" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.5">
+    <row r="173" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="19" thickBot="1">
+    <row r="174" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="14" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.5">
+    <row r="175" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A175" s="13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.5">
+    <row r="176" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A176" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.5">
+    <row r="177" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A177" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.5">
+    <row r="178" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A178" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.5">
+    <row r="179" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A179" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="19" thickBot="1">
+    <row r="180" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A180" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.5">
+    <row r="181" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.5">
+    <row r="182" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.5">
+    <row r="183" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.5">
+    <row r="184" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="18.5">
+    <row r="185" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="19" thickBot="1">
+    <row r="186" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A186" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.5">
+    <row r="187" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A187" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.5">
+    <row r="188" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A188" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="18.5">
+    <row r="189" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="18.5">
+    <row r="190" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.5">
+    <row r="191" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="19" thickBot="1">
+    <row r="192" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="18.5">
+    <row r="193" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="18.5">
+    <row r="194" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A194" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.5">
+    <row r="195" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.5">
+    <row r="196" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="18.5">
+    <row r="197" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="19" thickBot="1">
+    <row r="198" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.5">
+    <row r="199" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="18.5">
+    <row r="200" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A200" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.5">
+    <row r="201" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.5">
+    <row r="202" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A202" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.5">
+    <row r="203" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="19" thickBot="1">
+    <row r="204" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="14" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.5">
+    <row r="205" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.5">
+    <row r="206" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="8" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="18.5">
+    <row r="207" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A207" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="18.5">
+    <row r="208" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="18.5">
+    <row r="209" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A209" s="8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="19" thickBot="1">
+    <row r="210" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A210" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.5">
+    <row r="211" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18.5">
+    <row r="212" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A212" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="18.5">
+    <row r="213" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A213" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="18.5">
+    <row r="214" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A214" s="8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.5">
+    <row r="215" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A215" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="19" thickBot="1">
+    <row r="216" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="18.5">
+    <row r="217" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A217" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.5">
+    <row r="218" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A218" s="8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.5">
+    <row r="219" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A219" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18.5">
+    <row r="220" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A220" s="8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="18.5">
+    <row r="221" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A221" s="8" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="19" thickBot="1">
+    <row r="222" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.5">
+    <row r="223" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A223" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.5">
+    <row r="224" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A224" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18.5">
+    <row r="225" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A225" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18.5">
+    <row r="226" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A226" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.5">
+    <row r="227" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A227" s="8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="19" thickBot="1">
+    <row r="228" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A228" s="14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18.5">
+    <row r="229" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A229" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="18.5">
+    <row r="230" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A230" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.5">
+    <row r="231" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A231" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18.5">
+    <row r="232" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A232" s="8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.5">
+    <row r="233" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A233" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="19" thickBot="1">
+    <row r="234" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.5">
+    <row r="235" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A235" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.5">
+    <row r="236" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A236" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="18.5">
+    <row r="237" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A237" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18.5">
+    <row r="238" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A238" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18.5">
+    <row r="239" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A239" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="19" thickBot="1">
+    <row r="240" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.5">
+    <row r="241" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A241" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="18.5">
+    <row r="242" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A242" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="18.5">
+    <row r="243" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A243" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="18.5">
+    <row r="244" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A244" s="8" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.5">
+    <row r="245" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A245" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="19" thickBot="1">
+    <row r="246" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A246" s="14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.5">
+    <row r="247" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A247" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.5">
+    <row r="248" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A248" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="18.5">
+    <row r="249" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A249" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="18.5">
+    <row r="250" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A250" s="8" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="18.5">
+    <row r="251" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A251" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="19" thickBot="1">
+    <row r="252" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A252" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.5">
+    <row r="253" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A253" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.5">
+    <row r="254" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A254" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="18.5">
+    <row r="255" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A255" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="18.5">
+    <row r="256" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A256" s="8" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.5">
+    <row r="257" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A257" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="19" thickBot="1">
+    <row r="258" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.5">
+    <row r="259" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A259" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.5">
+    <row r="260" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A260" s="8" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18.5">
+    <row r="261" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A261" s="8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="18.5">
+    <row r="262" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A262" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18.5">
+    <row r="263" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A263" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="19" thickBot="1">
+    <row r="264" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="14" t="s">
         <v>505</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -3510,7 +3510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4495,14 +4495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6.26953125" style="55" customWidth="1"/>
     <col min="2" max="2" width="41.453125" style="55" customWidth="1"/>
@@ -4536,7 +4536,7 @@
     <col min="35" max="16384" width="9.1796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="15.75" customHeight="1">
       <c r="A2" s="55">
         <v>2</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="15" customHeight="1">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" ht="15" thickBot="1">
       <c r="A4" s="55">
         <v>4</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" ht="15" thickBot="1">
       <c r="A5" s="84">
         <v>5</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39">
       <c r="A6" s="55">
         <v>6</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39">
       <c r="A7" s="55">
         <v>7</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39">
       <c r="A8" s="55">
         <v>8</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39">
       <c r="A9" s="55">
         <v>9</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39">
       <c r="A10" s="55">
         <v>10</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39">
       <c r="A11" s="55">
         <v>11</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39">
       <c r="A12" s="55">
         <v>12</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39">
       <c r="A13" s="55">
         <v>13</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39">
       <c r="A14" s="55">
         <v>14</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39">
       <c r="A15" s="55">
         <v>15</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39">
       <c r="A16" s="55">
         <v>16</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24">
       <c r="A17" s="55">
         <v>17</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24">
       <c r="A18" s="55">
         <v>18</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24">
       <c r="A19" s="55">
         <v>19</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24">
       <c r="A20" s="55">
         <v>20</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24">
       <c r="A21" s="55">
         <v>21</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24">
       <c r="A22" s="55">
         <v>22</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24">
       <c r="A23" s="55">
         <v>23</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24">
       <c r="A24" s="55">
         <v>24</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24">
       <c r="A25" s="55">
         <v>25</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24">
       <c r="A26" s="55">
         <v>26</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24">
       <c r="A27" s="55">
         <v>27</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24">
       <c r="A28" s="55">
         <v>28</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24">
       <c r="A29" s="55">
         <v>29</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24">
       <c r="A30" s="55">
         <v>30</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24">
       <c r="A31" s="55">
         <v>31</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24">
       <c r="A32" s="55">
         <v>32</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33">
       <c r="A33" s="55">
         <v>33</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33">
       <c r="A34" s="55">
         <v>34</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33">
       <c r="A35" s="55">
         <v>35</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33">
       <c r="A36" s="55">
         <v>36</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33">
       <c r="A37" s="55">
         <v>37</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" s="71" customFormat="1">
       <c r="A38" s="69">
         <v>38</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="AF38" s="70"/>
       <c r="AG38" s="70"/>
     </row>
-    <row r="39" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" s="71" customFormat="1">
       <c r="A39" s="69">
         <v>39</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="AF39" s="70"/>
       <c r="AG39" s="70"/>
     </row>
-    <row r="40" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" s="71" customFormat="1">
       <c r="A40" s="69">
         <v>40</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="AF40" s="70"/>
       <c r="AG40" s="70"/>
     </row>
-    <row r="41" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" s="71" customFormat="1">
       <c r="A41" s="69">
         <v>41</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="AF41" s="70"/>
       <c r="AG41" s="70"/>
     </row>
-    <row r="42" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" s="71" customFormat="1">
       <c r="A42" s="69">
         <v>42</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="AF42" s="70"/>
       <c r="AG42" s="70"/>
     </row>
-    <row r="43" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" s="71" customFormat="1">
       <c r="A43" s="69">
         <v>43</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="AF43" s="70"/>
       <c r="AG43" s="70"/>
     </row>
-    <row r="44" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" s="71" customFormat="1">
       <c r="A44" s="69">
         <v>44</v>
       </c>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="AG44" s="70"/>
     </row>
-    <row r="45" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" s="71" customFormat="1">
       <c r="A45" s="69">
         <v>45</v>
       </c>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="AG45" s="70"/>
     </row>
-    <row r="46" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" s="71" customFormat="1">
       <c r="A46" s="69">
         <v>46</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="AG46" s="70"/>
     </row>
-    <row r="47" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" s="71" customFormat="1">
       <c r="A47" s="69">
         <v>47</v>
       </c>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="AG47" s="70"/>
     </row>
-    <row r="48" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" s="71" customFormat="1">
       <c r="A48" s="69">
         <v>48</v>
       </c>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="AG48" s="70"/>
     </row>
-    <row r="49" spans="1:33" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" s="71" customFormat="1">
       <c r="A49" s="69">
         <v>49</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="AG49" s="70"/>
     </row>
-    <row r="50" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="69">
         <v>50</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="AF50" s="70"/>
       <c r="AG50" s="70"/>
     </row>
-    <row r="51" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="69">
         <v>51</v>
       </c>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="AG51" s="70"/>
     </row>
-    <row r="52" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" s="71" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="69">
         <v>52</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="AG52" s="70"/>
     </row>
-    <row r="53" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
       <c r="A53" s="69">
         <v>53</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="AF53" s="70"/>
       <c r="AG53" s="70"/>
     </row>
-    <row r="54" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
       <c r="A54" s="69">
         <v>54</v>
       </c>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="AG54" s="70"/>
     </row>
-    <row r="55" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
       <c r="A55" s="69">
         <v>55</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="AG55" s="70"/>
     </row>
-    <row r="56" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" s="71" customFormat="1" ht="15.65" customHeight="1">
       <c r="A56" s="69">
         <v>56</v>
       </c>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="AG56" s="70"/>
     </row>
-    <row r="57" spans="1:33" s="71" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" s="71" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="69">
         <v>57</v>
       </c>
@@ -6687,7 +6687,7 @@
       <c r="AF57" s="70"/>
       <c r="AG57" s="70"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33">
       <c r="A58" s="55">
         <v>58</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33">
       <c r="A59" s="55">
         <v>59</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33">
       <c r="A60" s="55">
         <v>60</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33">
       <c r="A61" s="55">
         <v>61</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33">
       <c r="A62" s="55">
         <v>62</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33">
       <c r="A63" s="55">
         <v>63</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33">
       <c r="A64" s="55">
         <v>64</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39">
       <c r="A65" s="55">
         <v>65</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39">
       <c r="A66" s="55">
         <v>66</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39">
       <c r="A67" s="55">
         <v>67</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39">
       <c r="A68" s="55">
         <v>68</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39">
       <c r="A69" s="55">
         <v>69</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39">
       <c r="A70" s="55">
         <v>70</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39">
       <c r="A71" s="55">
         <v>71</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39">
       <c r="A72" s="55">
         <v>72</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" s="67" customFormat="1">
       <c r="A73" s="64">
         <v>73</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39" s="67" customFormat="1">
       <c r="A74" s="64">
         <v>74</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" s="67" customFormat="1">
       <c r="A75" s="64">
         <v>75</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" s="67" customFormat="1">
       <c r="A76" s="64">
         <v>76</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" s="67" customFormat="1">
       <c r="A77" s="64">
         <v>77</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="AG77" s="66"/>
       <c r="AM77" s="66"/>
     </row>
-    <row r="78" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" s="67" customFormat="1">
       <c r="A78" s="64">
         <v>78</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="AG78" s="66"/>
       <c r="AM78" s="66"/>
     </row>
-    <row r="79" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" s="67" customFormat="1">
       <c r="A79" s="64">
         <v>79</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="AG79" s="66"/>
       <c r="AM79" s="66"/>
     </row>
-    <row r="80" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" s="67" customFormat="1">
       <c r="A80" s="64">
         <v>80</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" s="78" customFormat="1">
       <c r="A81" s="75">
         <v>81</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="AG81" s="77"/>
       <c r="AM81" s="77"/>
     </row>
-    <row r="82" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" s="67" customFormat="1">
       <c r="A82" s="64">
         <v>82</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" s="67" customFormat="1">
       <c r="A83" s="64">
         <v>83</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" s="67" customFormat="1">
       <c r="A84" s="64">
         <v>84</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="AF84" s="66"/>
       <c r="AG84" s="66"/>
     </row>
-    <row r="85" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" s="67" customFormat="1">
       <c r="A85" s="64">
         <v>85</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="AF85" s="66"/>
       <c r="AG85" s="66"/>
     </row>
-    <row r="86" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" s="67" customFormat="1">
       <c r="A86" s="64">
         <v>86</v>
       </c>
@@ -7911,7 +7911,7 @@
       <c r="AF86" s="66"/>
       <c r="AG86" s="66"/>
     </row>
-    <row r="87" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" s="67" customFormat="1">
       <c r="A87" s="64">
         <v>86</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39">
       <c r="A88" s="55">
         <v>87</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39">
       <c r="A89" s="55">
         <v>88</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39">
       <c r="A90" s="55">
         <v>89</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39">
       <c r="A91" s="55">
         <v>90</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39">
       <c r="A92" s="55">
         <v>91</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39">
       <c r="A93" s="55">
         <v>92</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39">
       <c r="A94" s="55">
         <v>93</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39">
       <c r="A95" s="55">
         <v>94</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39">
       <c r="A96" s="55">
         <v>95</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17">
       <c r="A97" s="55">
         <v>96</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17">
       <c r="A98" s="55">
         <v>97</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17">
       <c r="A99" s="55">
         <v>98</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17">
       <c r="A100" s="55">
         <v>99</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17">
       <c r="A101" s="55">
         <v>100</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17">
       <c r="A102" s="55">
         <v>101</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17">
       <c r="A103" s="55">
         <v>102</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17">
       <c r="A104" s="55">
         <v>103</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17">
       <c r="A105" s="55">
         <v>104</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17">
       <c r="A106" s="55">
         <v>105</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17">
       <c r="A107" s="55">
         <v>106</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17">
       <c r="A108" s="55">
         <v>107</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17">
       <c r="A109" s="55">
         <v>108</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17">
       <c r="A110" s="55">
         <v>109</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17">
       <c r="A111" s="55">
         <v>110</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17">
       <c r="A112" s="55">
         <v>111</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18">
       <c r="A113" s="55">
         <v>112</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18">
       <c r="A114" s="55">
         <v>113</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18">
       <c r="A115" s="55">
         <v>114</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18">
       <c r="A116" s="55">
         <v>115</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" ht="29">
       <c r="A117" s="55">
         <v>116</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18">
       <c r="A118" s="55">
         <v>117</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18">
       <c r="A119" s="55">
         <v>118</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" ht="43.5">
       <c r="A120" s="55">
         <v>119</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" ht="29">
       <c r="A121" s="55">
         <v>120</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18">
       <c r="A122" s="55">
         <v>121</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18">
       <c r="A123" s="55">
         <v>122</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" ht="43.5">
       <c r="A124" s="55">
         <v>123</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" ht="29">
       <c r="A125" s="55">
         <v>124</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18">
       <c r="A126" s="55">
         <v>125</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18">
       <c r="A127" s="55">
         <v>126</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18">
       <c r="A128" s="55">
         <v>127</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18">
       <c r="A129" s="55">
         <v>128</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18">
       <c r="A130" s="55">
         <v>129</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" ht="29">
       <c r="A131" s="55">
         <v>130</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18">
       <c r="A132" s="55">
         <v>131</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18">
       <c r="A133" s="55">
         <v>132</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18">
       <c r="A134" s="55">
         <v>133</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18">
       <c r="A135" s="55">
         <v>134</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18">
       <c r="A136" s="55">
         <v>135</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18">
       <c r="A137" s="55">
         <v>136</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18">
       <c r="A138" s="55">
         <v>137</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" ht="43.5">
       <c r="A139" s="55">
         <v>138</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18">
       <c r="A140" s="55">
         <v>139</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18">
       <c r="A141" s="55">
         <v>140</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18">
       <c r="A142" s="55">
         <v>141</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" ht="18" customHeight="1">
       <c r="A143" s="55">
         <v>142</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18">
       <c r="A144" s="55">
         <v>143</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:39">
       <c r="A145" s="55">
         <v>144</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:39" ht="29">
       <c r="A146" s="55">
         <v>145</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:39">
       <c r="A147" s="55">
         <v>146</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:39">
       <c r="A148" s="55">
         <v>147</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:39" ht="29">
       <c r="A149" s="55">
         <v>148</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:39">
       <c r="A150" s="55">
         <v>149</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:39" ht="29">
       <c r="A151" s="55">
         <v>150</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:39">
       <c r="A152" s="55">
         <v>151</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:39" ht="29">
       <c r="A153" s="55">
         <v>152</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:39">
       <c r="A154" s="55">
         <v>152</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:39">
       <c r="A155" s="55">
         <v>153</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:39">
       <c r="A156" s="55">
         <v>154</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:39">
       <c r="A157" s="55">
         <v>155</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:39">
       <c r="A158" s="55">
         <v>156</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:39" ht="24.75" customHeight="1">
       <c r="A159" s="55">
         <v>157</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:39">
       <c r="A160" s="55">
         <v>158</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18">
       <c r="A161" s="55">
         <v>159</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18">
       <c r="A162" s="55">
         <v>160</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18">
       <c r="A163" s="55">
         <v>161</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18">
       <c r="A164" s="55">
         <v>162</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18">
       <c r="A165" s="55">
         <v>163</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18">
       <c r="A166" s="55">
         <v>164</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18">
       <c r="A167" s="55">
         <v>165</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18">
       <c r="A168" s="55">
         <v>166</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18">
       <c r="A169" s="55">
         <v>167</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18">
       <c r="A170" s="55">
         <v>168</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18">
       <c r="A171" s="55">
         <v>169</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18">
       <c r="A172" s="55">
         <v>170</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18">
       <c r="A173" s="55">
         <v>171</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18">
       <c r="A174" s="55">
         <v>172</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18">
       <c r="A175" s="55">
         <v>173</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18">
       <c r="A176" s="55">
         <v>174</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18">
       <c r="A177" s="55">
         <v>175</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18">
       <c r="A178" s="55">
         <v>176</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18">
       <c r="A179" s="55">
         <v>177</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18">
       <c r="A180" s="55">
         <v>178</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18">
       <c r="A181" s="55">
         <v>179</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18">
       <c r="A182" s="55">
         <v>180</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18">
       <c r="A183" s="55">
         <v>181</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18">
       <c r="A184" s="55">
         <v>182</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18">
       <c r="A185" s="55">
         <v>183</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18">
       <c r="A186" s="55">
         <v>184</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18">
       <c r="A187" s="55">
         <v>185</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18">
       <c r="A188" s="55">
         <v>186</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18">
       <c r="A189" s="55">
         <v>187</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18">
       <c r="A190" s="55">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18">
       <c r="A191" s="55">
         <v>189</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18">
       <c r="A192" s="55">
         <v>190</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18">
       <c r="A193" s="55">
         <v>191</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18">
       <c r="A194" s="55">
         <v>192</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18">
       <c r="A195" s="55">
         <v>193</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18">
       <c r="A196" s="55">
         <v>194</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18">
       <c r="A197" s="55">
         <v>195</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18">
       <c r="A198" s="55">
         <v>196</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18">
       <c r="A199" s="55">
         <v>197</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18">
       <c r="A200" s="55">
         <v>198</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18">
       <c r="A201" s="55">
         <v>199</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18">
       <c r="A202" s="55">
         <v>200</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18">
       <c r="A203" s="55">
         <v>201</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18">
       <c r="A204" s="55">
         <v>202</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18">
       <c r="A205" s="55">
         <v>203</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18">
       <c r="A206" s="55">
         <v>204</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18">
       <c r="A207" s="55">
         <v>205</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" ht="29">
       <c r="A208" s="55">
         <v>206</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" ht="29">
       <c r="A209" s="55">
         <v>207</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" ht="29">
       <c r="A210" s="55">
         <v>208</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" ht="43.5">
       <c r="A211" s="55">
         <v>209</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18">
       <c r="A212" s="55">
         <v>210</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18">
       <c r="A213" s="55">
         <v>211</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" ht="29">
       <c r="A214" s="55">
         <v>212</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" ht="29">
       <c r="A215" s="55">
         <v>213</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" ht="29">
       <c r="A216" s="55">
         <v>214</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" ht="43.5">
       <c r="A217" s="55">
         <v>215</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18">
       <c r="A218" s="55">
         <v>216</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18">
       <c r="A219" s="55">
         <v>217</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="G219" s="53"/>
       <c r="H219" s="53"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18">
       <c r="A220" s="55">
         <v>218</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="G220" s="53"/>
       <c r="H220" s="53"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18">
       <c r="A221" s="55">
         <v>219</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="G221" s="53"/>
       <c r="H221" s="53"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18">
       <c r="A222" s="55">
         <v>220</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="G222" s="53"/>
       <c r="H222" s="53"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18">
       <c r="A223" s="55">
         <v>221</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="G223" s="53"/>
       <c r="H223" s="53"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18">
       <c r="A224" s="55">
         <v>222</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="G224" s="53"/>
       <c r="H224" s="53"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18">
       <c r="A225" s="55">
         <v>223</v>
       </c>
@@ -10619,7 +10619,7 @@
       <c r="G225" s="53"/>
       <c r="H225" s="53"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18">
       <c r="A226" s="55">
         <v>224</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18">
       <c r="A227" s="55">
         <v>225</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18">
       <c r="A228" s="55">
         <v>226</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18">
       <c r="A229" s="55">
         <v>227</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18">
       <c r="A230" s="55">
         <v>228</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="G230" s="53"/>
       <c r="H230" s="53"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18">
       <c r="A231" s="55">
         <v>229</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="G231" s="53"/>
       <c r="H231" s="53"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18">
       <c r="A232" s="55">
         <v>230</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18">
       <c r="A233" s="55">
         <v>231</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18">
       <c r="A234" s="55">
         <v>232</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18">
       <c r="A235" s="55">
         <v>233</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18">
       <c r="A236" s="55">
         <v>234</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="G236" s="53"/>
       <c r="H236" s="53"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18">
       <c r="A237" s="55">
         <v>235</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="G237" s="53"/>
       <c r="H237" s="53"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18">
       <c r="A238" s="55">
         <v>236</v>
       </c>
@@ -10903,7 +10903,7 @@
       <c r="G238" s="53"/>
       <c r="H238" s="53"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18">
       <c r="A239" s="55">
         <v>237</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="G239" s="53"/>
       <c r="H239" s="53"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18">
       <c r="A240" s="55">
         <v>238</v>
       </c>
@@ -10943,7 +10943,7 @@
       <c r="G240" s="53"/>
       <c r="H240" s="53"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18">
       <c r="A241" s="55">
         <v>239</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="G241" s="53"/>
       <c r="H241" s="53"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18">
       <c r="A242" s="55">
         <v>240</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="G242" s="53"/>
       <c r="H242" s="53"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18">
       <c r="A243" s="55">
         <v>241</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="G243" s="53"/>
       <c r="H243" s="53"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18">
       <c r="A244" s="55">
         <v>242</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18">
       <c r="A245" s="55">
         <v>243</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18">
       <c r="A246" s="55">
         <v>244</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18">
       <c r="A247" s="55">
         <v>245</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18">
       <c r="A248" s="55">
         <v>246</v>
       </c>
@@ -11115,7 +11115,7 @@
       <c r="G248" s="53"/>
       <c r="H248" s="53"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18">
       <c r="A249" s="55">
         <v>247</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="G249" s="53"/>
       <c r="H249" s="53"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18">
       <c r="A250" s="55">
         <v>248</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18">
       <c r="A251" s="55">
         <v>249</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18">
       <c r="A252" s="55">
         <v>250</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18">
       <c r="A253" s="55">
         <v>251</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18">
       <c r="A254" s="55">
         <v>252</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="G254" s="53"/>
       <c r="H254" s="53"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18">
       <c r="A255" s="55">
         <v>253</v>
       </c>
@@ -11267,7 +11267,7 @@
       <c r="G255" s="53"/>
       <c r="H255" s="53"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18">
       <c r="A256" s="55">
         <v>254</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="G256" s="53"/>
       <c r="H256" s="53"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18">
       <c r="A257" s="55">
         <v>255</v>
       </c>
@@ -11307,7 +11307,7 @@
       <c r="G257" s="53"/>
       <c r="H257" s="53"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18">
       <c r="A258" s="55">
         <v>256</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="G258" s="53"/>
       <c r="H258" s="53"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18">
       <c r="A259" s="55">
         <v>257</v>
       </c>
@@ -11347,7 +11347,7 @@
       <c r="G259" s="53"/>
       <c r="H259" s="53"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18">
       <c r="A260" s="55">
         <v>258</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="G260" s="53"/>
       <c r="H260" s="53"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18">
       <c r="A261" s="55">
         <v>301</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="G261" s="53"/>
       <c r="H261" s="53"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18">
       <c r="A262" s="55">
         <v>302</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18">
       <c r="A263" s="55">
         <v>303</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18">
       <c r="A264" s="55">
         <v>304</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18">
       <c r="A265" s="55">
         <v>305</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18">
       <c r="A266" s="55">
         <v>306</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="G266" s="53"/>
       <c r="H266" s="53"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18">
       <c r="A267" s="55">
         <v>307</v>
       </c>
@@ -11519,7 +11519,7 @@
       <c r="G267" s="53"/>
       <c r="H267" s="53"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18">
       <c r="A268" s="55">
         <v>308</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18">
       <c r="A269" s="55">
         <v>309</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18">
       <c r="A270" s="55">
         <v>310</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18">
       <c r="A271" s="55">
         <v>311</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18">
       <c r="A272" s="55">
         <v>312</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="G272" s="53"/>
       <c r="H272" s="53"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18">
       <c r="A273" s="55">
         <v>313</v>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="G273" s="53"/>
       <c r="H273" s="53"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18">
       <c r="A274" s="55">
         <v>314</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18">
       <c r="A275" s="55">
         <v>315</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18">
       <c r="A276" s="55">
         <v>316</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18">
       <c r="A277" s="55">
         <v>317</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18">
       <c r="A278" s="55">
         <v>318</v>
       </c>
@@ -11763,7 +11763,7 @@
       <c r="G278" s="53"/>
       <c r="H278" s="53"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18">
       <c r="A279" s="55">
         <v>319</v>
       </c>
@@ -11783,7 +11783,7 @@
       <c r="G279" s="53"/>
       <c r="H279" s="53"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18">
       <c r="A280" s="55">
         <v>320</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18">
       <c r="A281" s="55">
         <v>321</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18">
       <c r="A282" s="55">
         <v>322</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18">
       <c r="A283" s="55">
         <v>323</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18">
       <c r="A284" s="55">
         <v>324</v>
       </c>
@@ -11895,7 +11895,7 @@
       <c r="G284" s="53"/>
       <c r="H284" s="53"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18">
       <c r="A285" s="55">
         <v>325</v>
       </c>
@@ -11915,7 +11915,7 @@
       <c r="G285" s="53"/>
       <c r="H285" s="53"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18">
       <c r="A286" s="55">
         <v>326</v>
       </c>
@@ -11935,7 +11935,7 @@
       <c r="G286" s="53"/>
       <c r="H286" s="53"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18">
       <c r="A287" s="55">
         <v>327</v>
       </c>
@@ -11955,7 +11955,7 @@
       <c r="G287" s="53"/>
       <c r="H287" s="53"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18">
       <c r="A288" s="55">
         <v>328</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="G288" s="53"/>
       <c r="H288" s="53"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18">
       <c r="A289" s="55">
         <v>329</v>
       </c>
@@ -11995,7 +11995,7 @@
       <c r="G289" s="53"/>
       <c r="H289" s="53"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18">
       <c r="A290" s="55">
         <v>330</v>
       </c>
@@ -12015,7 +12015,7 @@
       <c r="G290" s="53"/>
       <c r="H290" s="53"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18">
       <c r="A291" s="55">
         <v>331</v>
       </c>
@@ -12035,7 +12035,7 @@
       <c r="G291" s="53"/>
       <c r="H291" s="53"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18">
       <c r="A292" s="55">
         <v>332</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18">
       <c r="A293" s="55">
         <v>333</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18">
       <c r="A294" s="55">
         <v>334</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18">
       <c r="A295" s="55">
         <v>335</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18">
       <c r="A296" s="55">
         <v>336</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="G296" s="53"/>
       <c r="H296" s="53"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18">
       <c r="A297" s="55">
         <v>337</v>
       </c>
@@ -12167,7 +12167,7 @@
       <c r="G297" s="53"/>
       <c r="H297" s="53"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18">
       <c r="A298" s="55">
         <v>338</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18">
       <c r="A299" s="55">
         <v>339</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18">
       <c r="A300" s="55">
         <v>340</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18">
       <c r="A301" s="55">
         <v>341</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18">
       <c r="A302" s="55">
         <v>342</v>
       </c>
@@ -12279,7 +12279,7 @@
       <c r="G302" s="53"/>
       <c r="H302" s="53"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18">
       <c r="A303" s="55">
         <v>343</v>
       </c>
@@ -12299,7 +12299,7 @@
       <c r="G303" s="53"/>
       <c r="H303" s="53"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18">
       <c r="A304" s="55">
         <v>344</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:38">
       <c r="A305" s="55">
         <v>345</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:38">
       <c r="A306" s="55">
         <v>346</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:38">
       <c r="A307" s="55">
         <v>347</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:38">
       <c r="A308" s="55">
         <v>348</v>
       </c>
@@ -12411,7 +12411,7 @@
       <c r="G308" s="53"/>
       <c r="H308" s="53"/>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:38">
       <c r="A309" s="55">
         <v>349</v>
       </c>
@@ -12431,7 +12431,7 @@
       <c r="G309" s="53"/>
       <c r="H309" s="53"/>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:38">
       <c r="A310" s="55">
         <v>350</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:38">
       <c r="A311" s="55">
         <v>351</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:38">
       <c r="A312" s="55">
         <v>352</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:38">
       <c r="A313" s="55">
         <v>353</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:38">
       <c r="A314" s="55">
         <v>354</v>
       </c>
@@ -12543,7 +12543,7 @@
       <c r="G314" s="53"/>
       <c r="H314" s="53"/>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:38">
       <c r="A315" s="55">
         <v>355</v>
       </c>
@@ -12563,7 +12563,7 @@
       <c r="G315" s="53"/>
       <c r="H315" s="53"/>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:38">
       <c r="A316" s="55">
         <v>356</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:38">
       <c r="A317" s="55">
         <v>357</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:38">
       <c r="A318" s="55">
         <v>358</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:38">
       <c r="A319" s="55">
         <v>359</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:38">
       <c r="A320" s="55">
         <v>360</v>
       </c>
@@ -12690,7 +12690,7 @@
       <c r="G320" s="53"/>
       <c r="H320" s="53"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18">
       <c r="A321" s="55">
         <v>361</v>
       </c>
@@ -12710,7 +12710,7 @@
       <c r="G321" s="53"/>
       <c r="H321" s="53"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18">
       <c r="A322" s="55">
         <v>362</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18">
       <c r="A323" s="55">
         <v>363</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:18">
       <c r="A324" s="55">
         <v>364</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18">
       <c r="A325" s="55">
         <v>365</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18">
       <c r="A326" s="55">
         <v>366</v>
       </c>
@@ -12822,7 +12822,7 @@
       <c r="G326" s="53"/>
       <c r="H326" s="53"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18">
       <c r="A327" s="55">
         <v>367</v>
       </c>
@@ -12842,7 +12842,7 @@
       <c r="G327" s="53"/>
       <c r="H327" s="53"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18">
       <c r="A328" s="55">
         <v>368</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18">
       <c r="A329" s="55">
         <v>369</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18">
       <c r="A330" s="55">
         <v>370</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18">
       <c r="A331" s="55">
         <v>371</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18">
       <c r="A332" s="55">
         <v>372</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="G332" s="53"/>
       <c r="H332" s="53"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18">
       <c r="A333" s="55">
         <v>373</v>
       </c>
@@ -12974,7 +12974,7 @@
       <c r="G333" s="53"/>
       <c r="H333" s="53"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18">
       <c r="A334" s="55">
         <v>374</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18">
       <c r="A335" s="55">
         <v>375</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18">
       <c r="A336" s="55">
         <v>376</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18">
       <c r="A337" s="55">
         <v>377</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:18">
       <c r="A338" s="55">
         <v>378</v>
       </c>
@@ -13086,7 +13086,7 @@
       <c r="G338" s="53"/>
       <c r="H338" s="53"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18">
       <c r="A339" s="55">
         <v>379</v>
       </c>
@@ -13106,7 +13106,7 @@
       <c r="G339" s="53"/>
       <c r="H339" s="53"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18">
       <c r="A340" s="55">
         <v>380</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18">
       <c r="A341" s="55">
         <v>381</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18">
       <c r="A342" s="55">
         <v>382</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18">
       <c r="A343" s="55">
         <v>383</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18">
       <c r="A344" s="55">
         <v>384</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18">
       <c r="A345" s="55">
         <v>385</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18">
       <c r="A346" s="55">
         <v>386</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18">
       <c r="A347" s="55">
         <v>387</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18">
       <c r="A348" s="55">
         <v>388</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18">
       <c r="A349" s="55">
         <v>389</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18">
       <c r="A350" s="55">
         <v>390</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18">
       <c r="A351" s="55">
         <v>391</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18">
       <c r="A352" s="55">
         <v>392</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18">
       <c r="A353" s="55">
         <v>393</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18">
       <c r="A354" s="55">
         <v>394</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18">
       <c r="A355" s="55">
         <v>395</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18">
       <c r="A356" s="55">
         <v>396</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18">
       <c r="A357" s="55">
         <v>397</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18">
       <c r="A358" s="55">
         <v>398</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18">
       <c r="A359" s="55">
         <v>399</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18">
       <c r="A360" s="55">
         <v>400</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18">
       <c r="A361" s="55">
         <v>401</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18">
       <c r="A362" s="55">
         <v>402</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18">
       <c r="A363" s="55">
         <v>403</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18">
       <c r="A364" s="55">
         <v>404</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18">
       <c r="A365" s="55">
         <v>405</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:18">
       <c r="A366" s="55">
         <v>406</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:18">
       <c r="A367" s="55">
         <v>407</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18">
       <c r="A368" s="55">
         <v>408</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:34">
       <c r="A369" s="55">
         <v>409</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:34">
       <c r="A370" s="55">
         <v>410</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:34">
       <c r="A371" s="55">
         <v>411</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:34">
       <c r="A372" s="55">
         <v>412</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:34">
       <c r="A373" s="55">
         <v>413</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:34">
       <c r="A374" s="55">
         <v>414</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:34">
       <c r="A375" s="55">
         <v>415</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:34">
       <c r="A376" s="55">
         <v>416</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:34">
       <c r="A377" s="55">
         <v>417</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:34">
       <c r="A378" s="55">
         <v>418</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:34">
       <c r="A379" s="55">
         <v>419</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:34">
       <c r="A380" s="55">
         <v>420</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:34">
       <c r="A381" s="55">
         <v>421</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:34">
       <c r="A382" s="55">
         <v>421</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:34">
       <c r="A383" s="75">
         <v>421</v>
       </c>
@@ -13990,7 +13990,7 @@
       <c r="AG383" s="77"/>
       <c r="AH383" s="78"/>
     </row>
-    <row r="384" spans="1:34" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:34" s="78" customFormat="1">
       <c r="A384" s="75">
         <v>422</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="AF384" s="77"/>
       <c r="AG384" s="77"/>
     </row>
-    <row r="385" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:33" s="78" customFormat="1">
       <c r="A385" s="75">
         <v>423</v>
       </c>
@@ -14080,7 +14080,7 @@
       <c r="AF385" s="77"/>
       <c r="AG385" s="77"/>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:33">
       <c r="A386" s="55">
         <v>424</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:33" s="78" customFormat="1">
       <c r="A387" s="75">
         <v>425</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="AF387" s="77"/>
       <c r="AG387" s="77"/>
     </row>
-    <row r="388" spans="1:33" s="78" customFormat="1" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:33" s="78" customFormat="1" ht="21.65" customHeight="1">
       <c r="A388" s="75">
         <v>427</v>
       </c>
@@ -14194,7 +14194,7 @@
       <c r="AF388" s="77"/>
       <c r="AG388" s="77"/>
     </row>
-    <row r="389" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:33" s="78" customFormat="1">
       <c r="A389" s="75">
         <v>428</v>
       </c>
@@ -14239,7 +14239,7 @@
       <c r="AF389" s="77"/>
       <c r="AG389" s="77"/>
     </row>
-    <row r="390" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:33" s="78" customFormat="1">
       <c r="A390" s="75">
         <v>429</v>
       </c>
@@ -14284,7 +14284,7 @@
       <c r="AF390" s="77"/>
       <c r="AG390" s="77"/>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:33">
       <c r="A391" s="55">
         <v>430</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:33">
       <c r="A392" s="55">
         <v>432</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:33">
       <c r="A393" s="55">
         <v>433</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:33">
       <c r="A394" s="55">
         <v>434</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:33">
       <c r="A395" s="55">
         <v>435</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:33" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:33" ht="15.5" customHeight="1">
       <c r="A396" s="55">
         <v>436</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:33">
       <c r="A397" s="55">
         <v>437</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:33" ht="15" customHeight="1">
       <c r="A398" s="55">
         <v>438</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:33" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:33" ht="11.5" customHeight="1">
       <c r="A399" s="55">
         <v>439</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:33">
       <c r="A400" s="55">
         <v>440</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:33" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:33" s="78" customFormat="1">
       <c r="A401" s="75">
         <v>441</v>
       </c>
@@ -14529,7 +14529,7 @@
       <c r="AF401" s="77"/>
       <c r="AG401" s="77"/>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:33">
       <c r="A402" s="55">
         <v>442</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:33">
       <c r="A403" s="55">
         <v>443</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:33">
       <c r="A404" s="55">
         <v>444</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:33">
       <c r="A405" s="55">
         <v>445</v>
       </c>
@@ -14623,7 +14623,7 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
@@ -14643,7 +14643,7 @@
     <col min="34" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="62" customFormat="1" ht="15">
       <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="55" t="s">
         <v>12</v>
       </c>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
@@ -14706,7 +14706,7 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.1796875" style="28" customWidth="1"/>
     <col min="2" max="2" width="6.54296875" style="28" customWidth="1"/>
@@ -14714,7 +14714,7 @@
     <col min="6" max="10" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>1001</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15" thickBot="1">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15" thickBot="1">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="15" thickBot="1">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="23">
         <v>19</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15" thickBot="1">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15" thickBot="1">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="15" thickBot="1">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="15" thickBot="1">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="15" thickBot="1">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="15" thickBot="1">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="15" thickBot="1">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="15" thickBot="1">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="15" thickBot="1">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="15" thickBot="1">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="15" thickBot="1">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="15" thickBot="1">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="15" thickBot="1">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="15" thickBot="1">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="15" thickBot="1">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="15" thickBot="1">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="15" thickBot="1">
       <c r="A39" s="44">
         <v>38</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="15" thickBot="1">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="15" thickBot="1">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="15" thickBot="1">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="15" thickBot="1">
       <c r="A43" s="40">
         <v>42</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="15" thickBot="1">
       <c r="A44" s="40">
         <v>43</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="15" thickBot="1">
       <c r="A45" s="40">
         <v>44</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="15" thickBot="1">
       <c r="A46" s="40">
         <v>45</v>
       </c>
@@ -16634,7 +16634,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="15" thickBot="1">
       <c r="A47" s="40">
         <v>46</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="15" thickBot="1">
       <c r="A48" s="40">
         <v>47</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="15" thickBot="1">
       <c r="A49" s="40">
         <v>48</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15" thickBot="1">
       <c r="A50" s="40">
         <v>49</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="15" thickBot="1">
       <c r="A51" s="40">
         <v>50</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="40">
         <v>51</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="15" thickBot="1">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="15" thickBot="1">
       <c r="A54" s="23">
         <v>53</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="15" thickBot="1">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" ht="15" thickBot="1">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" ht="15" thickBot="1">
       <c r="A58" s="40">
         <v>57</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="15" thickBot="1">
       <c r="A59" s="40">
         <v>58</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1">
       <c r="A60" s="40">
         <v>59</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" ht="15" thickBot="1">
       <c r="A64" s="40">
         <v>63</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="15" thickBot="1">
       <c r="A65" s="40">
         <v>64</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="15" thickBot="1">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="15" thickBot="1">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" ht="15" thickBot="1">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="15" thickBot="1">
       <c r="A70" s="40">
         <v>69</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" ht="15" thickBot="1">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="15" thickBot="1">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="15" thickBot="1">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="15" thickBot="1">
       <c r="A74" s="40">
         <v>73</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" ht="15" thickBot="1">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="15" thickBot="1">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" ht="15" thickBot="1">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" ht="15" thickBot="1">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" ht="15" thickBot="1">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" ht="15" thickBot="1">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" ht="15" thickBot="1">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" ht="15" thickBot="1">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="15" thickBot="1">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" ht="15" thickBot="1">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" ht="15" thickBot="1">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" ht="15" thickBot="1">
       <c r="A91" s="23">
         <v>90</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" ht="15" thickBot="1">
       <c r="A92" s="23">
         <v>91</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" ht="15" thickBot="1">
       <c r="A93" s="24">
         <v>92</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" ht="15" thickBot="1">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="24">
         <v>95</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" ht="15" thickBot="1">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1">
       <c r="A98" s="24">
         <v>97</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" ht="15" thickBot="1">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" ht="15" thickBot="1">
       <c r="A100" s="24">
         <v>99</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" ht="15" thickBot="1">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" ht="15" thickBot="1">
       <c r="A102" s="24">
         <v>101</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" ht="15" thickBot="1">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" ht="15" thickBot="1">
       <c r="A104" s="24">
         <v>103</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" ht="15" thickBot="1">
       <c r="A105" s="44">
         <v>104</v>
       </c>
@@ -18522,7 +18522,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" ht="15" thickBot="1">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="15" thickBot="1">
       <c r="A107" s="24">
         <v>106</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" ht="15" thickBot="1">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" ht="15" thickBot="1">
       <c r="A109" s="24">
         <v>108</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" ht="15" thickBot="1">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" ht="15" thickBot="1">
       <c r="A111" s="24">
         <v>110</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" ht="15" thickBot="1">
       <c r="A112" s="44">
         <v>111</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" ht="15" thickBot="1">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" ht="15" thickBot="1">
       <c r="A114" s="24">
         <v>113</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" ht="15" thickBot="1">
       <c r="A115" s="44">
         <v>114</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" ht="15" thickBot="1">
       <c r="A116" s="40">
         <v>115</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" ht="15" thickBot="1">
       <c r="A117" s="44">
         <v>116</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" ht="15" thickBot="1">
       <c r="A118" s="40">
         <v>117</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" ht="15" thickBot="1">
       <c r="A119" s="44">
         <v>118</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" ht="15" thickBot="1">
       <c r="A120" s="40">
         <v>119</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" ht="15" thickBot="1">
       <c r="A121" s="40">
         <v>120</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" ht="15" thickBot="1">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" ht="15" thickBot="1">
       <c r="A123" s="23">
         <v>122</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" ht="15" thickBot="1">
       <c r="A124" s="23">
         <v>123</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" ht="15" thickBot="1">
       <c r="A125" s="24">
         <v>124</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" ht="15" thickBot="1">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" ht="15" thickBot="1">
       <c r="A127" s="24">
         <v>126</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" ht="15" thickBot="1">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="15" thickBot="1">
       <c r="A129" s="24">
         <v>128</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" ht="15" thickBot="1">
       <c r="A130" s="40">
         <v>129</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" ht="15" thickBot="1">
       <c r="A131" s="40">
         <v>130</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" ht="15" thickBot="1">
       <c r="A132" s="40">
         <v>131</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" ht="15" thickBot="1">
       <c r="A133" s="40">
         <v>132</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" ht="15" thickBot="1">
       <c r="A134" s="40">
         <v>133</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" ht="15" thickBot="1">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" ht="15" thickBot="1">
       <c r="A136" s="24">
         <v>135</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" ht="15" thickBot="1">
       <c r="A137" s="40">
         <v>136</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" ht="15" thickBot="1">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" ht="15" thickBot="1">
       <c r="A139" s="24">
         <v>138</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" ht="15" thickBot="1">
       <c r="A140" s="44">
         <v>139</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" ht="15" thickBot="1">
       <c r="A141" s="40">
         <v>140</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" ht="15" thickBot="1">
       <c r="A142" s="44">
         <v>141</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" ht="15" thickBot="1">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" ht="15" thickBot="1">
       <c r="A144" s="24">
         <v>143</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" ht="15" thickBot="1">
       <c r="A145" s="44">
         <v>144</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" ht="15" thickBot="1">
       <c r="A146" s="40">
         <v>145</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" ht="15" thickBot="1">
       <c r="A147" s="44">
         <v>146</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="15" thickBot="1">
       <c r="A148" s="40">
         <v>147</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" ht="15" thickBot="1">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" ht="15" thickBot="1">
       <c r="A150" s="24">
         <v>149</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" ht="15" thickBot="1">
       <c r="A151" s="44">
         <v>150</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" ht="15" thickBot="1">
       <c r="A152" s="40">
         <v>151</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" ht="15" thickBot="1">
       <c r="A153" s="44">
         <v>152</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" ht="15" thickBot="1">
       <c r="A154" s="40">
         <v>153</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" ht="15" thickBot="1">
       <c r="A155" s="44">
         <v>154</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" ht="15" thickBot="1">
       <c r="A156" s="40">
         <v>155</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" ht="15" thickBot="1">
       <c r="A157" s="44">
         <v>156</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" ht="15" thickBot="1">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" ht="15" thickBot="1">
       <c r="A159" s="24">
         <v>158</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" ht="15" thickBot="1">
       <c r="A160" s="44">
         <v>159</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" ht="15" thickBot="1">
       <c r="A161" s="40">
         <v>160</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" ht="15" thickBot="1">
       <c r="A162" s="44">
         <v>161</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" ht="15" thickBot="1">
       <c r="A163" s="40">
         <v>162</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" ht="15" thickBot="1">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" ht="15" thickBot="1">
       <c r="A165" s="24">
         <v>164</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" ht="15" thickBot="1">
       <c r="A166" s="44">
         <v>165</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" ht="15" thickBot="1">
       <c r="A167" s="40">
         <v>166</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" ht="15" thickBot="1">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" ht="15" thickBot="1">
       <c r="A169" s="24">
         <v>168</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" ht="15" thickBot="1">
       <c r="A170" s="44">
         <v>169</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" ht="15" thickBot="1">
       <c r="A171" s="40">
         <v>170</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" ht="15" thickBot="1">
       <c r="A172" s="44">
         <v>171</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" ht="15" thickBot="1">
       <c r="A173" s="40">
         <v>172</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" ht="15" thickBot="1">
       <c r="A174" s="44">
         <v>173</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" ht="15" thickBot="1">
       <c r="A175" s="40">
         <v>174</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" ht="15" thickBot="1">
       <c r="A176" s="44">
         <v>175</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" ht="15" thickBot="1">
       <c r="A177" s="40">
         <v>176</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" ht="15" thickBot="1">
       <c r="A178" s="44">
         <v>177</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" ht="15" thickBot="1">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" ht="15" thickBot="1">
       <c r="A180" s="24">
         <v>179</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" ht="15" thickBot="1">
       <c r="A181" s="44">
         <v>180</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" ht="15" thickBot="1">
       <c r="A182" s="40">
         <v>181</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" ht="15" thickBot="1">
       <c r="A183" s="44">
         <v>182</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" ht="15" thickBot="1">
       <c r="A184" s="40">
         <v>183</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" ht="15" thickBot="1">
       <c r="A185" s="44">
         <v>184</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" ht="15" thickBot="1">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" ht="15" thickBot="1">
       <c r="A187" s="24">
         <v>186</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" ht="15" thickBot="1">
       <c r="A188" s="44">
         <v>187</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" ht="15" thickBot="1">
       <c r="A189" s="40">
         <v>188</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" ht="15" thickBot="1">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" ht="15" thickBot="1">
       <c r="A191" s="24">
         <v>190</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" ht="15" thickBot="1">
       <c r="A192" s="44">
         <v>191</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" ht="15" thickBot="1">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" ht="15" thickBot="1">
       <c r="A194" s="24">
         <v>193</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" ht="15" thickBot="1">
       <c r="A195" s="44">
         <v>194</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" ht="15" thickBot="1">
       <c r="A196" s="40">
         <v>195</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" ht="15" thickBot="1">
       <c r="A197" s="44">
         <v>196</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" ht="15" thickBot="1">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" ht="15" thickBot="1">
       <c r="A199" s="24">
         <v>198</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" ht="15" thickBot="1">
       <c r="A200" s="44">
         <v>199</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" ht="15" thickBot="1">
       <c r="A201" s="40">
         <v>200</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" ht="15" thickBot="1">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" ht="15" thickBot="1">
       <c r="A203" s="24">
         <v>202</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" ht="15" thickBot="1">
       <c r="A204" s="44">
         <v>203</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" ht="15" thickBot="1">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" ht="15" thickBot="1">
       <c r="A206" s="24">
         <v>205</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" ht="15" thickBot="1">
       <c r="A207" s="44">
         <v>206</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" ht="15" thickBot="1">
       <c r="A208" s="40">
         <v>207</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" ht="15" thickBot="1">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="15" thickBot="1">
       <c r="A210" s="23">
         <v>209</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="15" thickBot="1">
       <c r="A211" s="24">
         <v>210</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" ht="15" thickBot="1">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" ht="15" thickBot="1">
       <c r="A213" s="24">
         <v>212</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="15" thickBot="1">
       <c r="A214" s="44">
         <v>213</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="15" thickBot="1">
       <c r="A215" s="40">
         <v>214</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" ht="15" thickBot="1">
       <c r="A216" s="44">
         <v>215</v>
       </c>
@@ -22064,7 +22064,7 @@
       <c r="I216" s="30"/>
       <c r="J216" s="31"/>
     </row>
-    <row r="217" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" ht="15" thickBot="1">
       <c r="A217" s="40">
         <v>216</v>
       </c>
@@ -22086,7 +22086,7 @@
       <c r="I217" s="33"/>
       <c r="J217" s="34"/>
     </row>
-    <row r="218" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" ht="15" thickBot="1">
       <c r="A218" s="44">
         <v>217</v>
       </c>
@@ -22108,7 +22108,7 @@
       <c r="I218" s="33"/>
       <c r="J218" s="34"/>
     </row>
-    <row r="219" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="15" thickBot="1">
       <c r="A219" s="40">
         <v>218</v>
       </c>
@@ -22130,7 +22130,7 @@
       <c r="I219" s="33"/>
       <c r="J219" s="34"/>
     </row>
-    <row r="220" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="15" thickBot="1">
       <c r="A220" s="44">
         <v>219</v>
       </c>
@@ -22152,7 +22152,7 @@
       <c r="I220" s="33"/>
       <c r="J220" s="34"/>
     </row>
-    <row r="221" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" ht="15" thickBot="1">
       <c r="A221" s="40">
         <v>220</v>
       </c>
@@ -22174,7 +22174,7 @@
       <c r="I221" s="33"/>
       <c r="J221" s="34"/>
     </row>
-    <row r="222" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" ht="15" thickBot="1">
       <c r="A222" s="44">
         <v>221</v>
       </c>
@@ -22196,7 +22196,7 @@
       <c r="I222" s="33"/>
       <c r="J222" s="34"/>
     </row>
-    <row r="223" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="15" thickBot="1">
       <c r="A223" s="40">
         <v>222</v>
       </c>
@@ -22218,7 +22218,7 @@
       <c r="I223" s="33"/>
       <c r="J223" s="34"/>
     </row>
-    <row r="224" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="15" thickBot="1">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -22240,7 +22240,7 @@
       <c r="I224" s="33"/>
       <c r="J224" s="34"/>
     </row>
-    <row r="225" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" ht="15" thickBot="1">
       <c r="A225" s="23">
         <v>224</v>
       </c>
@@ -22262,7 +22262,7 @@
       <c r="I225" s="33"/>
       <c r="J225" s="34"/>
     </row>
-    <row r="226" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" ht="15" thickBot="1">
       <c r="A226" s="23">
         <v>225</v>
       </c>
@@ -22284,7 +22284,7 @@
       <c r="I226" s="33"/>
       <c r="J226" s="34"/>
     </row>
-    <row r="227" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" ht="15" thickBot="1">
       <c r="A227" s="23">
         <v>226</v>
       </c>
@@ -22306,7 +22306,7 @@
       <c r="I227" s="33"/>
       <c r="J227" s="34"/>
     </row>
-    <row r="228" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="15" thickBot="1">
       <c r="A228" s="23">
         <v>227</v>
       </c>
@@ -22328,7 +22328,7 @@
       <c r="I228" s="33"/>
       <c r="J228" s="34"/>
     </row>
-    <row r="229" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="15" thickBot="1">
       <c r="A229" s="24">
         <v>228</v>
       </c>
@@ -22350,7 +22350,7 @@
       <c r="I229" s="33"/>
       <c r="J229" s="34"/>
     </row>
-    <row r="230" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" ht="15" thickBot="1">
       <c r="A230" s="44">
         <v>229</v>
       </c>
@@ -22372,7 +22372,7 @@
       <c r="I230" s="33"/>
       <c r="J230" s="34"/>
     </row>
-    <row r="231" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" ht="15" thickBot="1">
       <c r="A231" s="40">
         <v>230</v>
       </c>
@@ -22394,7 +22394,7 @@
       <c r="I231" s="33"/>
       <c r="J231" s="34"/>
     </row>
-    <row r="232" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="15" thickBot="1">
       <c r="A232" s="44">
         <v>231</v>
       </c>
@@ -22416,7 +22416,7 @@
       <c r="I232" s="33"/>
       <c r="J232" s="34"/>
     </row>
-    <row r="233" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="15" thickBot="1">
       <c r="A233" s="40">
         <v>232</v>
       </c>
@@ -22438,7 +22438,7 @@
       <c r="I233" s="33"/>
       <c r="J233" s="34"/>
     </row>
-    <row r="234" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" ht="15" thickBot="1">
       <c r="A234" s="44">
         <v>233</v>
       </c>
@@ -22460,7 +22460,7 @@
       <c r="I234" s="33"/>
       <c r="J234" s="34"/>
     </row>
-    <row r="235" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" ht="15" thickBot="1">
       <c r="A235" s="40">
         <v>234</v>
       </c>
@@ -22482,7 +22482,7 @@
       <c r="I235" s="33"/>
       <c r="J235" s="34"/>
     </row>
-    <row r="236" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" ht="15" thickBot="1">
       <c r="A236" s="44">
         <v>235</v>
       </c>
@@ -22504,7 +22504,7 @@
       <c r="I236" s="33"/>
       <c r="J236" s="34"/>
     </row>
-    <row r="237" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="15" thickBot="1">
       <c r="A237" s="40">
         <v>236</v>
       </c>
@@ -22526,7 +22526,7 @@
       <c r="I237" s="33"/>
       <c r="J237" s="34"/>
     </row>
-    <row r="238" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="15" thickBot="1">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -22548,7 +22548,7 @@
       <c r="I238" s="33"/>
       <c r="J238" s="34"/>
     </row>
-    <row r="239" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" ht="15" thickBot="1">
       <c r="A239" s="24">
         <v>238</v>
       </c>
@@ -22570,7 +22570,7 @@
       <c r="I239" s="33"/>
       <c r="J239" s="34"/>
     </row>
-    <row r="240" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" ht="15" thickBot="1">
       <c r="A240" s="44">
         <v>239</v>
       </c>
@@ -22592,7 +22592,7 @@
       <c r="I240" s="33"/>
       <c r="J240" s="34"/>
     </row>
-    <row r="241" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="15" thickBot="1">
       <c r="A241" s="40">
         <v>240</v>
       </c>
@@ -22614,7 +22614,7 @@
       <c r="I241" s="33"/>
       <c r="J241" s="34"/>
     </row>
-    <row r="242" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="15" thickBot="1">
       <c r="A242" s="44">
         <v>241</v>
       </c>
@@ -22636,7 +22636,7 @@
       <c r="I242" s="33"/>
       <c r="J242" s="34"/>
     </row>
-    <row r="243" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" ht="15" thickBot="1">
       <c r="A243" s="40">
         <v>242</v>
       </c>
@@ -22658,7 +22658,7 @@
       <c r="I243" s="33"/>
       <c r="J243" s="34"/>
     </row>
-    <row r="244" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" ht="15" thickBot="1">
       <c r="A244" s="44">
         <v>243</v>
       </c>
@@ -22680,7 +22680,7 @@
       <c r="I244" s="33"/>
       <c r="J244" s="34"/>
     </row>
-    <row r="245" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" ht="15" thickBot="1">
       <c r="A245" s="40">
         <v>244</v>
       </c>
@@ -22702,7 +22702,7 @@
       <c r="I245" s="33"/>
       <c r="J245" s="34"/>
     </row>
-    <row r="246" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="15" thickBot="1">
       <c r="A246" s="44">
         <v>245</v>
       </c>
@@ -22724,7 +22724,7 @@
       <c r="I246" s="33"/>
       <c r="J246" s="34"/>
     </row>
-    <row r="247" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="15" thickBot="1">
       <c r="A247" s="40">
         <v>246</v>
       </c>
@@ -22746,7 +22746,7 @@
       <c r="I247" s="33"/>
       <c r="J247" s="34"/>
     </row>
-    <row r="248" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" ht="15" thickBot="1">
       <c r="A248" s="44">
         <v>247</v>
       </c>
@@ -22768,7 +22768,7 @@
       <c r="I248" s="33"/>
       <c r="J248" s="34"/>
     </row>
-    <row r="249" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" ht="15" thickBot="1">
       <c r="A249" s="40">
         <v>248</v>
       </c>
@@ -22790,7 +22790,7 @@
       <c r="I249" s="33"/>
       <c r="J249" s="34"/>
     </row>
-    <row r="250" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="15" thickBot="1">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -22812,7 +22812,7 @@
       <c r="I250" s="33"/>
       <c r="J250" s="34"/>
     </row>
-    <row r="251" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="15" thickBot="1">
       <c r="A251" s="24">
         <v>250</v>
       </c>
@@ -22834,7 +22834,7 @@
       <c r="I251" s="33"/>
       <c r="J251" s="34"/>
     </row>
-    <row r="252" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" ht="15" thickBot="1">
       <c r="A252" s="44">
         <v>251</v>
       </c>
@@ -22856,7 +22856,7 @@
       <c r="I252" s="33"/>
       <c r="J252" s="34"/>
     </row>
-    <row r="253" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" ht="15" thickBot="1">
       <c r="A253" s="40">
         <v>252</v>
       </c>
@@ -22878,7 +22878,7 @@
       <c r="I253" s="33"/>
       <c r="J253" s="34"/>
     </row>
-    <row r="254" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" ht="15" thickBot="1">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -22900,7 +22900,7 @@
       <c r="I254" s="33"/>
       <c r="J254" s="34"/>
     </row>
-    <row r="255" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="15" thickBot="1">
       <c r="A255" s="23">
         <v>254</v>
       </c>
@@ -22922,7 +22922,7 @@
       <c r="I255" s="33"/>
       <c r="J255" s="34"/>
     </row>
-    <row r="256" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="15" thickBot="1">
       <c r="A256" s="23">
         <v>255</v>
       </c>
@@ -22944,7 +22944,7 @@
       <c r="I256" s="33"/>
       <c r="J256" s="34"/>
     </row>
-    <row r="257" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" ht="15" thickBot="1">
       <c r="A257" s="24">
         <v>256</v>
       </c>
@@ -22966,7 +22966,7 @@
       <c r="I257" s="33"/>
       <c r="J257" s="34"/>
     </row>
-    <row r="258" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" ht="15" thickBot="1">
       <c r="A258" s="44">
         <v>257</v>
       </c>
@@ -22988,7 +22988,7 @@
       <c r="I258" s="33"/>
       <c r="J258" s="34"/>
     </row>
-    <row r="259" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="15" thickBot="1">
       <c r="A259" s="40">
         <v>258</v>
       </c>
@@ -23010,7 +23010,7 @@
       <c r="I259" s="33"/>
       <c r="J259" s="34"/>
     </row>
-    <row r="260" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="15" thickBot="1">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -23032,7 +23032,7 @@
       <c r="I260" s="33"/>
       <c r="J260" s="34"/>
     </row>
-    <row r="261" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" ht="15" thickBot="1">
       <c r="A261" s="24">
         <v>260</v>
       </c>
@@ -23054,7 +23054,7 @@
       <c r="I261" s="33"/>
       <c r="J261" s="34"/>
     </row>
-    <row r="262" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" ht="15" thickBot="1">
       <c r="A262" s="40">
         <v>261</v>
       </c>
@@ -23076,7 +23076,7 @@
       <c r="I262" s="33"/>
       <c r="J262" s="34"/>
     </row>
-    <row r="263" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" ht="15" thickBot="1">
       <c r="A263" s="40">
         <v>262</v>
       </c>
@@ -23098,7 +23098,7 @@
       <c r="I263" s="33"/>
       <c r="J263" s="34"/>
     </row>
-    <row r="264" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="15" thickBot="1">
       <c r="A264" s="20">
         <v>263</v>
       </c>
@@ -23120,7 +23120,7 @@
       <c r="I264" s="33"/>
       <c r="J264" s="34"/>
     </row>
-    <row r="265" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="15" thickBot="1">
       <c r="A265" s="24">
         <v>264</v>
       </c>
@@ -23142,7 +23142,7 @@
       <c r="I265" s="33"/>
       <c r="J265" s="34"/>
     </row>
-    <row r="266" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" ht="15" thickBot="1">
       <c r="A266" s="40">
         <v>265</v>
       </c>
@@ -23164,7 +23164,7 @@
       <c r="I266" s="33"/>
       <c r="J266" s="34"/>
     </row>
-    <row r="267" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" ht="15" thickBot="1">
       <c r="A267" s="20">
         <v>266</v>
       </c>
@@ -23186,7 +23186,7 @@
       <c r="I267" s="33"/>
       <c r="J267" s="34"/>
     </row>
-    <row r="268" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="15" thickBot="1">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -23208,7 +23208,7 @@
       <c r="I268" s="33"/>
       <c r="J268" s="34"/>
     </row>
-    <row r="269" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="15" thickBot="1">
       <c r="A269" s="20">
         <v>268</v>
       </c>
@@ -23230,7 +23230,7 @@
       <c r="I269" s="33"/>
       <c r="J269" s="34"/>
     </row>
-    <row r="270" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" ht="15" thickBot="1">
       <c r="A270" s="23">
         <v>269</v>
       </c>
@@ -23252,7 +23252,7 @@
       <c r="I270" s="33"/>
       <c r="J270" s="34"/>
     </row>
-    <row r="271" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" ht="15" thickBot="1">
       <c r="A271" s="24">
         <v>270</v>
       </c>
@@ -23274,7 +23274,7 @@
       <c r="I271" s="33"/>
       <c r="J271" s="34"/>
     </row>
-    <row r="272" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" ht="15" thickBot="1">
       <c r="A272" s="44">
         <v>271</v>
       </c>
@@ -23296,7 +23296,7 @@
       <c r="I272" s="33"/>
       <c r="J272" s="34"/>
     </row>
-    <row r="273" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="15" thickBot="1">
       <c r="A273" s="40">
         <v>272</v>
       </c>
@@ -23318,7 +23318,7 @@
       <c r="I273" s="33"/>
       <c r="J273" s="34"/>
     </row>
-    <row r="274" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="15" thickBot="1">
       <c r="A274" s="20">
         <v>273</v>
       </c>
@@ -23340,7 +23340,7 @@
       <c r="I274" s="33"/>
       <c r="J274" s="34"/>
     </row>
-    <row r="275" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" ht="15" thickBot="1">
       <c r="A275" s="24">
         <v>274</v>
       </c>
@@ -23362,7 +23362,7 @@
       <c r="I275" s="33"/>
       <c r="J275" s="34"/>
     </row>
-    <row r="276" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" ht="15" thickBot="1">
       <c r="A276" s="44">
         <v>275</v>
       </c>
@@ -23384,7 +23384,7 @@
       <c r="I276" s="33"/>
       <c r="J276" s="34"/>
     </row>
-    <row r="277" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="15" thickBot="1">
       <c r="A277" s="40">
         <v>276</v>
       </c>
@@ -23406,7 +23406,7 @@
       <c r="I277" s="33"/>
       <c r="J277" s="34"/>
     </row>
-    <row r="278" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="15" thickBot="1">
       <c r="A278" s="44">
         <v>277</v>
       </c>
@@ -23428,7 +23428,7 @@
       <c r="I278" s="33"/>
       <c r="J278" s="34"/>
     </row>
-    <row r="279" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" ht="15" thickBot="1">
       <c r="A279" s="40">
         <v>278</v>
       </c>
@@ -23450,7 +23450,7 @@
       <c r="I279" s="33"/>
       <c r="J279" s="34"/>
     </row>
-    <row r="280" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" ht="15" thickBot="1">
       <c r="A280" s="20">
         <v>279</v>
       </c>
@@ -23472,7 +23472,7 @@
       <c r="I280" s="33"/>
       <c r="J280" s="34"/>
     </row>
-    <row r="281" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" ht="15" thickBot="1">
       <c r="A281" s="23">
         <v>280</v>
       </c>
@@ -23494,7 +23494,7 @@
       <c r="I281" s="33"/>
       <c r="J281" s="34"/>
     </row>
-    <row r="282" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="15" thickBot="1">
       <c r="A282" s="24">
         <v>281</v>
       </c>
@@ -23516,7 +23516,7 @@
       <c r="I282" s="33"/>
       <c r="J282" s="34"/>
     </row>
-    <row r="283" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="15" thickBot="1">
       <c r="A283" s="44">
         <v>282</v>
       </c>
@@ -23538,7 +23538,7 @@
       <c r="I283" s="33"/>
       <c r="J283" s="34"/>
     </row>
-    <row r="284" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" ht="15" thickBot="1">
       <c r="A284" s="40">
         <v>283</v>
       </c>
@@ -23560,7 +23560,7 @@
       <c r="I284" s="33"/>
       <c r="J284" s="34"/>
     </row>
-    <row r="285" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" ht="15" thickBot="1">
       <c r="A285" s="20">
         <v>284</v>
       </c>
@@ -23582,7 +23582,7 @@
       <c r="I285" s="33"/>
       <c r="J285" s="34"/>
     </row>
-    <row r="286" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="15" thickBot="1">
       <c r="A286" s="23">
         <v>285</v>
       </c>
@@ -23604,7 +23604,7 @@
       <c r="I286" s="33"/>
       <c r="J286" s="34"/>
     </row>
-    <row r="287" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="15" thickBot="1">
       <c r="A287" s="24">
         <v>286</v>
       </c>
@@ -23626,7 +23626,7 @@
       <c r="I287" s="33"/>
       <c r="J287" s="34"/>
     </row>
-    <row r="288" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" ht="15" thickBot="1">
       <c r="A288" s="20">
         <v>287</v>
       </c>
@@ -23648,7 +23648,7 @@
       <c r="I288" s="33"/>
       <c r="J288" s="34"/>
     </row>
-    <row r="289" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" ht="15" thickBot="1">
       <c r="A289" s="24">
         <v>288</v>
       </c>
@@ -23670,7 +23670,7 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
     </row>
-    <row r="290" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" ht="15" thickBot="1">
       <c r="A290" s="40">
         <v>289</v>
       </c>
@@ -23692,7 +23692,7 @@
       <c r="I290" s="33"/>
       <c r="J290" s="34"/>
     </row>
-    <row r="291" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="15" thickBot="1">
       <c r="A291" s="44">
         <v>290</v>
       </c>
@@ -23714,7 +23714,7 @@
       <c r="I291" s="33"/>
       <c r="J291" s="34"/>
     </row>
-    <row r="292" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="15" thickBot="1">
       <c r="A292" s="40">
         <v>291</v>
       </c>
@@ -23736,7 +23736,7 @@
       <c r="I292" s="33"/>
       <c r="J292" s="34"/>
     </row>
-    <row r="293" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:10" ht="15" thickBot="1">
       <c r="A293" s="44">
         <v>292</v>
       </c>
@@ -23758,7 +23758,7 @@
       <c r="I293" s="33"/>
       <c r="J293" s="34"/>
     </row>
-    <row r="294" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" ht="15" thickBot="1">
       <c r="A294" s="40">
         <v>293</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="I294" s="33"/>
       <c r="J294" s="34"/>
     </row>
-    <row r="295" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" ht="15" thickBot="1">
       <c r="A295" s="40">
         <v>294</v>
       </c>
@@ -23802,7 +23802,7 @@
       <c r="I295" s="33"/>
       <c r="J295" s="34"/>
     </row>
-    <row r="296" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="15" thickBot="1">
       <c r="A296" s="44">
         <v>295</v>
       </c>
@@ -23824,7 +23824,7 @@
       <c r="I296" s="33"/>
       <c r="J296" s="34"/>
     </row>
-    <row r="297" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:10" ht="15" thickBot="1">
       <c r="A297" s="20">
         <v>296</v>
       </c>
@@ -23846,7 +23846,7 @@
       <c r="I297" s="33"/>
       <c r="J297" s="34"/>
     </row>
-    <row r="298" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:10" ht="15" thickBot="1">
       <c r="A298" s="24">
         <v>297</v>
       </c>
@@ -23868,7 +23868,7 @@
       <c r="I298" s="33"/>
       <c r="J298" s="34"/>
     </row>
-    <row r="299" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:10" ht="15" thickBot="1">
       <c r="A299" s="40">
         <v>298</v>
       </c>
@@ -23890,7 +23890,7 @@
       <c r="I299" s="33"/>
       <c r="J299" s="34"/>
     </row>
-    <row r="300" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" ht="15" thickBot="1">
       <c r="A300" s="20">
         <v>299</v>
       </c>
@@ -23912,7 +23912,7 @@
       <c r="I300" s="33"/>
       <c r="J300" s="34"/>
     </row>
-    <row r="301" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" ht="15" thickBot="1">
       <c r="A301" s="24">
         <v>300</v>
       </c>
@@ -23934,7 +23934,7 @@
       <c r="I301" s="33"/>
       <c r="J301" s="34"/>
     </row>
-    <row r="302" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:10" ht="15" thickBot="1">
       <c r="A302" s="23">
         <v>301</v>
       </c>
@@ -23956,7 +23956,7 @@
       <c r="I302" s="33"/>
       <c r="J302" s="34"/>
     </row>
-    <row r="303" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:10" ht="15" thickBot="1">
       <c r="A303" s="44">
         <v>302</v>
       </c>
@@ -23978,7 +23978,7 @@
       <c r="I303" s="33"/>
       <c r="J303" s="34"/>
     </row>
-    <row r="304" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" ht="15" thickBot="1">
       <c r="A304" s="40">
         <v>303</v>
       </c>
@@ -24000,7 +24000,7 @@
       <c r="I304" s="33"/>
       <c r="J304" s="34"/>
     </row>
-    <row r="305" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" ht="15" thickBot="1">
       <c r="A305" s="44">
         <v>304</v>
       </c>
@@ -24022,7 +24022,7 @@
       <c r="I305" s="33"/>
       <c r="J305" s="34"/>
     </row>
-    <row r="306" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:10" ht="15" thickBot="1">
       <c r="A306" s="40">
         <v>305</v>
       </c>
@@ -24044,7 +24044,7 @@
       <c r="I306" s="33"/>
       <c r="J306" s="34"/>
     </row>
-    <row r="307" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:10" ht="15" thickBot="1">
       <c r="A307" s="44">
         <v>306</v>
       </c>
@@ -24066,7 +24066,7 @@
       <c r="I307" s="33"/>
       <c r="J307" s="34"/>
     </row>
-    <row r="308" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:10" ht="15" thickBot="1">
       <c r="A308" s="40">
         <v>307</v>
       </c>
@@ -24088,7 +24088,7 @@
       <c r="I308" s="33"/>
       <c r="J308" s="34"/>
     </row>
-    <row r="309" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" ht="15" thickBot="1">
       <c r="A309" s="44">
         <v>308</v>
       </c>
@@ -24110,7 +24110,7 @@
       <c r="I309" s="33"/>
       <c r="J309" s="34"/>
     </row>
-    <row r="310" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" ht="15" thickBot="1">
       <c r="A310" s="40">
         <v>309</v>
       </c>
@@ -24132,7 +24132,7 @@
       <c r="I310" s="33"/>
       <c r="J310" s="34"/>
     </row>
-    <row r="311" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:10" ht="15" thickBot="1">
       <c r="A311" s="44">
         <v>310</v>
       </c>
@@ -24154,7 +24154,7 @@
       <c r="I311" s="33"/>
       <c r="J311" s="34"/>
     </row>
-    <row r="312" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:10" ht="15" thickBot="1">
       <c r="A312" s="40">
         <v>311</v>
       </c>
@@ -24176,7 +24176,7 @@
       <c r="I312" s="33"/>
       <c r="J312" s="34"/>
     </row>
-    <row r="313" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" ht="15" thickBot="1">
       <c r="A313" s="20">
         <v>312</v>
       </c>
@@ -24198,7 +24198,7 @@
       <c r="I313" s="33"/>
       <c r="J313" s="34"/>
     </row>
-    <row r="314" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" ht="15" thickBot="1">
       <c r="A314" s="24">
         <v>313</v>
       </c>
@@ -24220,7 +24220,7 @@
       <c r="I314" s="33"/>
       <c r="J314" s="34"/>
     </row>
-    <row r="315" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:10" ht="15" thickBot="1">
       <c r="A315" s="44">
         <v>314</v>
       </c>
@@ -24242,7 +24242,7 @@
       <c r="I315" s="33"/>
       <c r="J315" s="34"/>
     </row>
-    <row r="316" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:10" ht="15" thickBot="1">
       <c r="A316" s="20">
         <v>315</v>
       </c>
@@ -24264,7 +24264,7 @@
       <c r="I316" s="33"/>
       <c r="J316" s="34"/>
     </row>
-    <row r="317" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:10" ht="15" thickBot="1">
       <c r="A317" s="24">
         <v>316</v>
       </c>
@@ -24286,7 +24286,7 @@
       <c r="I317" s="33"/>
       <c r="J317" s="34"/>
     </row>
-    <row r="318" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" ht="15" thickBot="1">
       <c r="A318" s="44">
         <v>317</v>
       </c>
@@ -24308,7 +24308,7 @@
       <c r="I318" s="33"/>
       <c r="J318" s="34"/>
     </row>
-    <row r="319" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" ht="15" thickBot="1">
       <c r="A319" s="40">
         <v>318</v>
       </c>
@@ -24330,7 +24330,7 @@
       <c r="I319" s="33"/>
       <c r="J319" s="34"/>
     </row>
-    <row r="320" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:10" ht="15" thickBot="1">
       <c r="A320" s="44">
         <v>319</v>
       </c>
@@ -24352,7 +24352,7 @@
       <c r="I320" s="33"/>
       <c r="J320" s="34"/>
     </row>
-    <row r="321" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:10" ht="15" thickBot="1">
       <c r="A321" s="40">
         <v>320</v>
       </c>
@@ -24374,7 +24374,7 @@
       <c r="I321" s="33"/>
       <c r="J321" s="34"/>
     </row>
-    <row r="322" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" ht="15" thickBot="1">
       <c r="A322" s="44">
         <v>321</v>
       </c>
@@ -24396,7 +24396,7 @@
       <c r="I322" s="33"/>
       <c r="J322" s="34"/>
     </row>
-    <row r="323" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" ht="15" thickBot="1">
       <c r="A323" s="40">
         <v>322</v>
       </c>
@@ -24418,7 +24418,7 @@
       <c r="I323" s="33"/>
       <c r="J323" s="34"/>
     </row>
-    <row r="324" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:10" ht="15" thickBot="1">
       <c r="A324" s="44">
         <v>323</v>
       </c>
@@ -24440,7 +24440,7 @@
       <c r="I324" s="33"/>
       <c r="J324" s="34"/>
     </row>
-    <row r="325" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:10" ht="15" thickBot="1">
       <c r="A325" s="40">
         <v>324</v>
       </c>
@@ -24462,7 +24462,7 @@
       <c r="I325" s="33"/>
       <c r="J325" s="34"/>
     </row>
-    <row r="326" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:10" ht="15" thickBot="1">
       <c r="A326" s="23">
         <v>325</v>
       </c>
@@ -24484,7 +24484,7 @@
       <c r="I326" s="33"/>
       <c r="J326" s="34"/>
     </row>
-    <row r="327" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" ht="15" thickBot="1">
       <c r="A327" s="44">
         <v>326</v>
       </c>
@@ -24506,7 +24506,7 @@
       <c r="I327" s="33"/>
       <c r="J327" s="34"/>
     </row>
-    <row r="328" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" ht="15" thickBot="1">
       <c r="A328" s="20">
         <v>327</v>
       </c>
@@ -24528,7 +24528,7 @@
       <c r="I328" s="33"/>
       <c r="J328" s="34"/>
     </row>
-    <row r="329" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:10" ht="15" thickBot="1">
       <c r="A329" s="24">
         <v>328</v>
       </c>
@@ -24550,7 +24550,7 @@
       <c r="I329" s="33"/>
       <c r="J329" s="34"/>
     </row>
-    <row r="330" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:10" ht="15" thickBot="1">
       <c r="A330" s="44">
         <v>329</v>
       </c>
@@ -24572,7 +24572,7 @@
       <c r="I330" s="33"/>
       <c r="J330" s="34"/>
     </row>
-    <row r="331" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" ht="15" thickBot="1">
       <c r="A331" s="40">
         <v>330</v>
       </c>
@@ -24594,7 +24594,7 @@
       <c r="I331" s="33"/>
       <c r="J331" s="34"/>
     </row>
-    <row r="332" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" ht="15" thickBot="1">
       <c r="A332" s="20">
         <v>331</v>
       </c>
@@ -24616,7 +24616,7 @@
       <c r="I332" s="33"/>
       <c r="J332" s="34"/>
     </row>
-    <row r="333" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:10" ht="15" thickBot="1">
       <c r="A333" s="24">
         <v>332</v>
       </c>
@@ -24638,7 +24638,7 @@
       <c r="I333" s="33"/>
       <c r="J333" s="34"/>
     </row>
-    <row r="334" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:10" ht="15" thickBot="1">
       <c r="A334" s="44">
         <v>333</v>
       </c>
@@ -24660,7 +24660,7 @@
       <c r="I334" s="33"/>
       <c r="J334" s="34"/>
     </row>
-    <row r="335" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:10" ht="15" thickBot="1">
       <c r="A335" s="20">
         <v>334</v>
       </c>
@@ -24682,7 +24682,7 @@
       <c r="I335" s="33"/>
       <c r="J335" s="34"/>
     </row>
-    <row r="336" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" ht="15" thickBot="1">
       <c r="A336" s="24">
         <v>335</v>
       </c>
@@ -24704,7 +24704,7 @@
       <c r="I336" s="33"/>
       <c r="J336" s="34"/>
     </row>
-    <row r="337" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" ht="15" thickBot="1">
       <c r="A337" s="44">
         <v>336</v>
       </c>
@@ -24726,7 +24726,7 @@
       <c r="I337" s="33"/>
       <c r="J337" s="34"/>
     </row>
-    <row r="338" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:10" ht="15" thickBot="1">
       <c r="A338" s="40">
         <v>337</v>
       </c>
@@ -24748,7 +24748,7 @@
       <c r="I338" s="33"/>
       <c r="J338" s="34"/>
     </row>
-    <row r="339" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:10" ht="15" thickBot="1">
       <c r="A339" s="44">
         <v>338</v>
       </c>
@@ -24770,7 +24770,7 @@
       <c r="I339" s="33"/>
       <c r="J339" s="34"/>
     </row>
-    <row r="340" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" ht="15" thickBot="1">
       <c r="A340" s="40">
         <v>339</v>
       </c>
@@ -24792,7 +24792,7 @@
       <c r="I340" s="33"/>
       <c r="J340" s="34"/>
     </row>
-    <row r="341" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" ht="15" thickBot="1">
       <c r="A341" s="44">
         <v>340</v>
       </c>
@@ -24814,7 +24814,7 @@
       <c r="I341" s="33"/>
       <c r="J341" s="34"/>
     </row>
-    <row r="342" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:10" ht="15" thickBot="1">
       <c r="A342" s="40">
         <v>341</v>
       </c>
@@ -24836,7 +24836,7 @@
       <c r="I342" s="33"/>
       <c r="J342" s="34"/>
     </row>
-    <row r="343" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:10" ht="15" thickBot="1">
       <c r="A343" s="44">
         <v>342</v>
       </c>
@@ -24858,7 +24858,7 @@
       <c r="I343" s="33"/>
       <c r="J343" s="34"/>
     </row>
-    <row r="344" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:10" ht="15" thickBot="1">
       <c r="A344" s="40">
         <v>343</v>
       </c>
@@ -24880,7 +24880,7 @@
       <c r="I344" s="33"/>
       <c r="J344" s="34"/>
     </row>
-    <row r="345" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" ht="15" thickBot="1">
       <c r="A345" s="44">
         <v>344</v>
       </c>
@@ -24902,7 +24902,7 @@
       <c r="I345" s="33"/>
       <c r="J345" s="34"/>
     </row>
-    <row r="346" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" ht="15" thickBot="1">
       <c r="A346" s="20">
         <v>345</v>
       </c>
@@ -24924,7 +24924,7 @@
       <c r="I346" s="33"/>
       <c r="J346" s="34"/>
     </row>
-    <row r="347" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:10" ht="15" thickBot="1">
       <c r="A347" s="24">
         <v>346</v>
       </c>
@@ -24946,7 +24946,7 @@
       <c r="I347" s="33"/>
       <c r="J347" s="34"/>
     </row>
-    <row r="348" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:10" ht="15" thickBot="1">
       <c r="A348" s="44">
         <v>347</v>
       </c>
@@ -24968,7 +24968,7 @@
       <c r="I348" s="33"/>
       <c r="J348" s="34"/>
     </row>
-    <row r="349" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" ht="15" thickBot="1">
       <c r="A349" s="20">
         <v>348</v>
       </c>
@@ -24990,7 +24990,7 @@
       <c r="I349" s="33"/>
       <c r="J349" s="34"/>
     </row>
-    <row r="350" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" ht="15" thickBot="1">
       <c r="A350" s="23">
         <v>349</v>
       </c>
@@ -25012,7 +25012,7 @@
       <c r="I350" s="33"/>
       <c r="J350" s="34"/>
     </row>
-    <row r="351" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:10" ht="15" thickBot="1">
       <c r="A351" s="24">
         <v>350</v>
       </c>
@@ -25034,7 +25034,7 @@
       <c r="I351" s="33"/>
       <c r="J351" s="34"/>
     </row>
-    <row r="352" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:10" ht="15" thickBot="1">
       <c r="A352" s="44">
         <v>351</v>
       </c>
@@ -25056,7 +25056,7 @@
       <c r="I352" s="33"/>
       <c r="J352" s="34"/>
     </row>
-    <row r="353" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:10" ht="15" thickBot="1">
       <c r="A353" s="40">
         <v>352</v>
       </c>
@@ -25078,7 +25078,7 @@
       <c r="I353" s="33"/>
       <c r="J353" s="34"/>
     </row>
-    <row r="354" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" ht="15" thickBot="1">
       <c r="A354" s="44">
         <v>353</v>
       </c>
@@ -25100,7 +25100,7 @@
       <c r="I354" s="33"/>
       <c r="J354" s="34"/>
     </row>
-    <row r="355" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" ht="15" thickBot="1">
       <c r="A355" s="40">
         <v>354</v>
       </c>
@@ -25122,7 +25122,7 @@
       <c r="I355" s="33"/>
       <c r="J355" s="34"/>
     </row>
-    <row r="356" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:10" ht="15" thickBot="1">
       <c r="A356" s="20">
         <v>355</v>
       </c>
@@ -25144,7 +25144,7 @@
       <c r="I356" s="33"/>
       <c r="J356" s="34"/>
     </row>
-    <row r="357" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:10" ht="15" thickBot="1">
       <c r="A357" s="24">
         <v>356</v>
       </c>
@@ -25166,7 +25166,7 @@
       <c r="I357" s="33"/>
       <c r="J357" s="34"/>
     </row>
-    <row r="358" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" ht="15" thickBot="1">
       <c r="A358" s="20">
         <v>357</v>
       </c>
@@ -25188,7 +25188,7 @@
       <c r="I358" s="33"/>
       <c r="J358" s="34"/>
     </row>
-    <row r="359" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" ht="15" thickBot="1">
       <c r="A359" s="24">
         <v>358</v>
       </c>
@@ -25210,7 +25210,7 @@
       <c r="I359" s="33"/>
       <c r="J359" s="34"/>
     </row>
-    <row r="360" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:10" ht="15" thickBot="1">
       <c r="A360" s="44">
         <v>359</v>
       </c>
@@ -25232,7 +25232,7 @@
       <c r="I360" s="33"/>
       <c r="J360" s="34"/>
     </row>
-    <row r="361" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:10" ht="15" thickBot="1">
       <c r="A361" s="40">
         <v>360</v>
       </c>
@@ -25254,7 +25254,7 @@
       <c r="I361" s="33"/>
       <c r="J361" s="34"/>
     </row>
-    <row r="362" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:10" ht="15" thickBot="1">
       <c r="A362" s="44">
         <v>361</v>
       </c>
@@ -25276,7 +25276,7 @@
       <c r="I362" s="33"/>
       <c r="J362" s="34"/>
     </row>
-    <row r="363" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" ht="15" thickBot="1">
       <c r="A363" s="40">
         <v>362</v>
       </c>
@@ -25298,7 +25298,7 @@
       <c r="I363" s="33"/>
       <c r="J363" s="34"/>
     </row>
-    <row r="364" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" ht="15" thickBot="1">
       <c r="A364" s="44">
         <v>363</v>
       </c>
@@ -25320,7 +25320,7 @@
       <c r="I364" s="33"/>
       <c r="J364" s="34"/>
     </row>
-    <row r="365" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:10" ht="15" thickBot="1">
       <c r="A365" s="40">
         <v>364</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="I365" s="33"/>
       <c r="J365" s="34"/>
     </row>
-    <row r="366" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:10" ht="15" thickBot="1">
       <c r="A366" s="44">
         <v>365</v>
       </c>
@@ -25364,7 +25364,7 @@
       <c r="I366" s="33"/>
       <c r="J366" s="34"/>
     </row>
-    <row r="367" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" ht="15" thickBot="1">
       <c r="A367" s="40">
         <v>366</v>
       </c>
@@ -25386,7 +25386,7 @@
       <c r="I367" s="33"/>
       <c r="J367" s="34"/>
     </row>
-    <row r="368" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" ht="15" thickBot="1">
       <c r="A368" s="44">
         <v>367</v>
       </c>
@@ -25408,7 +25408,7 @@
       <c r="I368" s="33"/>
       <c r="J368" s="34"/>
     </row>
-    <row r="369" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:10" ht="15" thickBot="1">
       <c r="A369" s="40">
         <v>368</v>
       </c>
@@ -25430,7 +25430,7 @@
       <c r="I369" s="33"/>
       <c r="J369" s="34"/>
     </row>
-    <row r="370" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:10" ht="15" thickBot="1">
       <c r="A370" s="20">
         <v>369</v>
       </c>
@@ -25452,7 +25452,7 @@
       <c r="I370" s="33"/>
       <c r="J370" s="34"/>
     </row>
-    <row r="371" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:10" ht="15" thickBot="1">
       <c r="A371" s="23">
         <v>370</v>
       </c>
@@ -25474,7 +25474,7 @@
       <c r="I371" s="33"/>
       <c r="J371" s="34"/>
     </row>
-    <row r="372" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" ht="15" thickBot="1">
       <c r="A372" s="24">
         <v>371</v>
       </c>
@@ -25496,7 +25496,7 @@
       <c r="I372" s="33"/>
       <c r="J372" s="34"/>
     </row>
-    <row r="373" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" ht="15" thickBot="1">
       <c r="A373" s="44">
         <v>372</v>
       </c>
@@ -25518,7 +25518,7 @@
       <c r="I373" s="33"/>
       <c r="J373" s="34"/>
     </row>
-    <row r="374" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:10" ht="15" thickBot="1">
       <c r="A374" s="40">
         <v>373</v>
       </c>
@@ -25540,7 +25540,7 @@
       <c r="I374" s="33"/>
       <c r="J374" s="34"/>
     </row>
-    <row r="375" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:10" ht="15" thickBot="1">
       <c r="A375" s="20">
         <v>374</v>
       </c>
@@ -25562,7 +25562,7 @@
       <c r="I375" s="33"/>
       <c r="J375" s="34"/>
     </row>
-    <row r="376" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" ht="15" thickBot="1">
       <c r="A376" s="23">
         <v>375</v>
       </c>
@@ -25584,7 +25584,7 @@
       <c r="I376" s="33"/>
       <c r="J376" s="34"/>
     </row>
-    <row r="377" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" ht="15" thickBot="1">
       <c r="A377" s="24">
         <v>376</v>
       </c>
@@ -25606,7 +25606,7 @@
       <c r="I377" s="33"/>
       <c r="J377" s="34"/>
     </row>
-    <row r="378" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:10" ht="15" thickBot="1">
       <c r="A378" s="44">
         <v>377</v>
       </c>
@@ -25628,7 +25628,7 @@
       <c r="I378" s="33"/>
       <c r="J378" s="34"/>
     </row>
-    <row r="379" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:10" ht="15" thickBot="1">
       <c r="A379" s="40">
         <v>378</v>
       </c>
@@ -25650,7 +25650,7 @@
       <c r="I379" s="33"/>
       <c r="J379" s="34"/>
     </row>
-    <row r="380" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:10" ht="15" thickBot="1">
       <c r="A380" s="20">
         <v>379</v>
       </c>
@@ -25672,7 +25672,7 @@
       <c r="I380" s="33"/>
       <c r="J380" s="34"/>
     </row>
-    <row r="381" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" ht="15" thickBot="1">
       <c r="A381" s="23">
         <v>380</v>
       </c>
@@ -25694,7 +25694,7 @@
       <c r="I381" s="33"/>
       <c r="J381" s="34"/>
     </row>
-    <row r="382" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" ht="15" thickBot="1">
       <c r="A382" s="24">
         <v>381</v>
       </c>
@@ -25716,7 +25716,7 @@
       <c r="I382" s="33"/>
       <c r="J382" s="34"/>
     </row>
-    <row r="383" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:10" ht="15" thickBot="1">
       <c r="A383" s="20">
         <v>382</v>
       </c>
@@ -25738,7 +25738,7 @@
       <c r="I383" s="33"/>
       <c r="J383" s="34"/>
     </row>
-    <row r="384" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:10" ht="15" thickBot="1">
       <c r="A384" s="24">
         <v>383</v>
       </c>
@@ -25760,7 +25760,7 @@
       <c r="I384" s="33"/>
       <c r="J384" s="34"/>
     </row>
-    <row r="385" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" ht="15" thickBot="1">
       <c r="A385" s="40">
         <v>384</v>
       </c>
@@ -25782,7 +25782,7 @@
       <c r="I385" s="33"/>
       <c r="J385" s="34"/>
     </row>
-    <row r="386" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" ht="15" thickBot="1">
       <c r="A386" s="20">
         <v>385</v>
       </c>
@@ -25804,7 +25804,7 @@
       <c r="I386" s="33"/>
       <c r="J386" s="34"/>
     </row>
-    <row r="387" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:10" ht="15" thickBot="1">
       <c r="A387" s="24">
         <v>386</v>
       </c>
@@ -25826,7 +25826,7 @@
       <c r="I387" s="33"/>
       <c r="J387" s="34"/>
     </row>
-    <row r="388" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:10" ht="15" thickBot="1">
       <c r="A388" s="23">
         <v>387</v>
       </c>
@@ -25848,7 +25848,7 @@
       <c r="I388" s="33"/>
       <c r="J388" s="34"/>
     </row>
-    <row r="389" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:10" ht="15" thickBot="1">
       <c r="A389" s="44">
         <v>388</v>
       </c>
@@ -25870,7 +25870,7 @@
       <c r="I389" s="33"/>
       <c r="J389" s="34"/>
     </row>
-    <row r="390" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" ht="15" thickBot="1">
       <c r="A390" s="40">
         <v>389</v>
       </c>
@@ -25892,7 +25892,7 @@
       <c r="I390" s="33"/>
       <c r="J390" s="34"/>
     </row>
-    <row r="391" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" ht="15" thickBot="1">
       <c r="A391" s="23">
         <v>390</v>
       </c>
@@ -25914,7 +25914,7 @@
       <c r="I391" s="33"/>
       <c r="J391" s="34"/>
     </row>
-    <row r="392" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:10" ht="15" thickBot="1">
       <c r="A392" s="44">
         <v>391</v>
       </c>
@@ -25936,7 +25936,7 @@
       <c r="I392" s="33"/>
       <c r="J392" s="34"/>
     </row>
-    <row r="393" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:10" ht="15" thickBot="1">
       <c r="A393" s="40">
         <v>392</v>
       </c>
@@ -25958,7 +25958,7 @@
       <c r="I393" s="33"/>
       <c r="J393" s="34"/>
     </row>
-    <row r="394" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" ht="15" thickBot="1">
       <c r="A394" s="44">
         <v>393</v>
       </c>
@@ -25980,7 +25980,7 @@
       <c r="I394" s="33"/>
       <c r="J394" s="34"/>
     </row>
-    <row r="395" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" ht="15" thickBot="1">
       <c r="A395" s="20">
         <v>394</v>
       </c>
@@ -26002,7 +26002,7 @@
       <c r="I395" s="33"/>
       <c r="J395" s="34"/>
     </row>
-    <row r="396" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:10" ht="15" thickBot="1">
       <c r="A396" s="24">
         <v>395</v>
       </c>
@@ -26024,7 +26024,7 @@
       <c r="I396" s="33"/>
       <c r="J396" s="34"/>
     </row>
-    <row r="397" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:10" ht="15" thickBot="1">
       <c r="A397" s="44">
         <v>396</v>
       </c>
@@ -26046,7 +26046,7 @@
       <c r="I397" s="33"/>
       <c r="J397" s="34"/>
     </row>
-    <row r="398" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:10" ht="15" thickBot="1">
       <c r="A398" s="20">
         <v>397</v>
       </c>
@@ -26068,7 +26068,7 @@
       <c r="I398" s="33"/>
       <c r="J398" s="34"/>
     </row>
-    <row r="399" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" ht="15" thickBot="1">
       <c r="A399" s="24">
         <v>398</v>
       </c>
@@ -26090,7 +26090,7 @@
       <c r="I399" s="33"/>
       <c r="J399" s="34"/>
     </row>
-    <row r="400" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" ht="15" thickBot="1">
       <c r="A400" s="44">
         <v>399</v>
       </c>
@@ -26112,7 +26112,7 @@
       <c r="I400" s="33"/>
       <c r="J400" s="34"/>
     </row>
-    <row r="401" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:10" ht="15" thickBot="1">
       <c r="A401" s="40">
         <v>400</v>
       </c>
@@ -26134,7 +26134,7 @@
       <c r="I401" s="33"/>
       <c r="J401" s="34"/>
     </row>
-    <row r="402" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:10" ht="15" thickBot="1">
       <c r="A402" s="44">
         <v>401</v>
       </c>
@@ -26156,7 +26156,7 @@
       <c r="I402" s="33"/>
       <c r="J402" s="34"/>
     </row>
-    <row r="403" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" ht="15" thickBot="1">
       <c r="A403" s="40">
         <v>402</v>
       </c>
@@ -26192,13 +26192,13 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>243</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>244</v>
       </c>
@@ -26214,7 +26214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="44" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>245</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="29.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>246</v>
       </c>
@@ -26230,7 +26230,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
@@ -26238,7 +26238,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>248</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="29.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>249</v>
       </c>
@@ -26254,7 +26254,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="29.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>250</v>
       </c>
@@ -26262,7 +26262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>251</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>252</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>253</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>254</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>255</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>256</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>257</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="15" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>258</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="15" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>259</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>260</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>261</v>
       </c>
@@ -26350,7 +26350,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>262</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>263</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="44" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>264</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="15" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>265</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>266</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="15" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>267</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="44" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>268</v>
       </c>
@@ -26406,7 +26406,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="44" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>269</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>270</v>
       </c>
@@ -26422,7 +26422,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="29.5" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>271</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="15" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>272</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>273</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="15" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>274</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>275</v>
       </c>
@@ -26462,7 +26462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="29.5" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>276</v>
       </c>
@@ -26483,1327 +26483,1327 @@
       <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="18.5">
       <c r="A2" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="18.5">
       <c r="A3" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="18.5">
       <c r="A4" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="18.5">
       <c r="A5" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:1" ht="19" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" ht="18.5">
       <c r="A7" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" ht="18.5">
       <c r="A8" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" ht="18.5">
       <c r="A9" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" ht="18.5">
       <c r="A10" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" ht="18.5">
       <c r="A11" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:1" ht="19" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" ht="18.5">
       <c r="A13" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" ht="18.5">
       <c r="A14" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" ht="18.5">
       <c r="A15" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" ht="18.5">
       <c r="A16" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" ht="18.5">
       <c r="A17" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" ht="19" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="18.5">
       <c r="A19" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" ht="18.5">
       <c r="A20" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" ht="18.5">
       <c r="A21" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" ht="18.5">
       <c r="A22" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" ht="18.5">
       <c r="A23" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" ht="19" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" ht="18.5">
       <c r="A25" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" ht="18.5">
       <c r="A26" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" ht="18.5">
       <c r="A27" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" ht="18.5">
       <c r="A28" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" ht="18.5">
       <c r="A29" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:1" ht="19" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" ht="18.5">
       <c r="A31" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" ht="18.5">
       <c r="A32" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" ht="18.5">
       <c r="A33" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" ht="18.5">
       <c r="A34" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" ht="18.5">
       <c r="A35" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:1" ht="19" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" ht="18.5">
       <c r="A37" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" ht="18.5">
       <c r="A38" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" ht="18.5">
       <c r="A39" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" ht="18.5">
       <c r="A40" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" ht="18.5">
       <c r="A41" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:1" ht="19" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" ht="18.5">
       <c r="A43" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="18.5">
       <c r="A44" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" ht="18.5">
       <c r="A45" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" ht="18.5">
       <c r="A46" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" ht="18.5">
       <c r="A47" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" ht="19" thickBot="1">
       <c r="A48" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" ht="18.5">
       <c r="A49" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" ht="18.5">
       <c r="A50" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" ht="18.5">
       <c r="A51" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" ht="18.5">
       <c r="A52" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="18.5">
       <c r="A53" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" ht="19" thickBot="1">
       <c r="A54" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="18.5">
       <c r="A55" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" ht="18.5">
       <c r="A56" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" ht="18.5">
       <c r="A57" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" ht="18.5">
       <c r="A58" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" ht="18.5">
       <c r="A59" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" ht="19" thickBot="1">
       <c r="A60" s="12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="18.5">
       <c r="A61" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="18.5">
       <c r="A62" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="18.5">
       <c r="A63" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="18.5">
       <c r="A64" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="18.5">
       <c r="A65" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" ht="19" thickBot="1">
       <c r="A66" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="18.5">
       <c r="A67" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="18.5">
       <c r="A68" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="18.5">
       <c r="A69" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="18.5">
       <c r="A70" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="18.5">
       <c r="A71" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" ht="19" thickBot="1">
       <c r="A72" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="18.5">
       <c r="A73" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="18.5">
       <c r="A74" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="18.5">
       <c r="A75" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="18.5">
       <c r="A76" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="18.5">
       <c r="A77" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" ht="19" thickBot="1">
       <c r="A78" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" ht="18.5">
       <c r="A79" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" ht="18.5">
       <c r="A80" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" ht="18.5">
       <c r="A81" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" ht="18.5">
       <c r="A82" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" ht="18.5">
       <c r="A83" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" ht="19" thickBot="1">
       <c r="A84" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="18.5">
       <c r="A85" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="18.5">
       <c r="A86" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="18.5">
       <c r="A87" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="18.5">
       <c r="A88" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="18.5">
       <c r="A89" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" ht="19" thickBot="1">
       <c r="A90" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="18.5">
       <c r="A91" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="18.5">
       <c r="A92" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="18.5">
       <c r="A93" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="18.5">
       <c r="A94" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="18.5">
       <c r="A95" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" ht="19" thickBot="1">
       <c r="A96" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="18.5">
       <c r="A97" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="18.5">
       <c r="A98" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="18.5">
       <c r="A99" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="18.5">
       <c r="A100" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="18.5">
       <c r="A101" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:1" ht="19" thickBot="1">
       <c r="A102" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="18.5">
       <c r="A103" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="18.5">
       <c r="A104" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="18.5">
       <c r="A105" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="18.5">
       <c r="A106" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="18.5">
       <c r="A107" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:1" ht="19" thickBot="1">
       <c r="A108" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="18.5">
       <c r="A109" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="18.5">
       <c r="A110" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="18.5">
       <c r="A111" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="18.5">
       <c r="A112" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="18.5">
       <c r="A113" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:1" ht="19" thickBot="1">
       <c r="A114" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="18.5">
       <c r="A115" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="18.5">
       <c r="A116" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="18.5">
       <c r="A117" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="18.5">
       <c r="A118" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="18.5">
       <c r="A119" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:1" ht="19" thickBot="1">
       <c r="A120" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="18.5">
       <c r="A121" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" ht="18.5">
       <c r="A122" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" ht="18.5">
       <c r="A123" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" ht="18.5">
       <c r="A124" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" ht="18.5">
       <c r="A125" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:1" ht="19" thickBot="1">
       <c r="A126" s="14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" ht="18.5">
       <c r="A127" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" ht="18.5">
       <c r="A128" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" ht="18.5">
       <c r="A129" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" ht="18.5">
       <c r="A130" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" ht="18.5">
       <c r="A131" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:1" ht="19" thickBot="1">
       <c r="A132" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" ht="18.5">
       <c r="A133" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" ht="18.5">
       <c r="A134" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" ht="18.5">
       <c r="A135" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" ht="18.5">
       <c r="A136" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" ht="18.5">
       <c r="A137" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:1" ht="19" thickBot="1">
       <c r="A138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" ht="18.5">
       <c r="A139" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" ht="18.5">
       <c r="A140" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" ht="18.5">
       <c r="A141" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" ht="18.5">
       <c r="A142" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" ht="18.5">
       <c r="A143" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:1" ht="19" thickBot="1">
       <c r="A144" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" ht="18.5">
       <c r="A145" s="13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" ht="18.5">
       <c r="A146" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" ht="18.5">
       <c r="A147" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" ht="18.5">
       <c r="A148" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" ht="18.5">
       <c r="A149" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:1" ht="19" thickBot="1">
       <c r="A150" s="14" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" ht="18.5">
       <c r="A151" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" ht="18.5">
       <c r="A152" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" ht="18.5">
       <c r="A153" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" ht="18.5">
       <c r="A154" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" ht="18.5">
       <c r="A155" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:1" ht="19" thickBot="1">
       <c r="A156" s="14" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" ht="18.5">
       <c r="A157" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" ht="18.5">
       <c r="A158" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" ht="18.5">
       <c r="A159" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" ht="18.5">
       <c r="A160" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" ht="18.5">
       <c r="A161" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:1" ht="19" thickBot="1">
       <c r="A162" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" ht="18.5">
       <c r="A163" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" ht="18.5">
       <c r="A164" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" ht="18.5">
       <c r="A165" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" ht="18.5">
       <c r="A166" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" ht="18.5">
       <c r="A167" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:1" ht="19" thickBot="1">
       <c r="A168" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" ht="18.5">
       <c r="A169" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" ht="18.5">
       <c r="A170" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" ht="18.5">
       <c r="A171" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" ht="18.5">
       <c r="A172" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" ht="18.5">
       <c r="A173" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:1" ht="19" thickBot="1">
       <c r="A174" s="14" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" ht="18.5">
       <c r="A175" s="13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" ht="18.5">
       <c r="A176" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" ht="18.5">
       <c r="A177" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" ht="18.5">
       <c r="A178" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" ht="18.5">
       <c r="A179" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:1" ht="19" thickBot="1">
       <c r="A180" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" ht="18.5">
       <c r="A181" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" ht="18.5">
       <c r="A182" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" ht="18.5">
       <c r="A183" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" ht="18.5">
       <c r="A184" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" ht="18.5">
       <c r="A185" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:1" ht="19" thickBot="1">
       <c r="A186" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" ht="18.5">
       <c r="A187" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" ht="18.5">
       <c r="A188" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" ht="18.5">
       <c r="A189" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" ht="18.5">
       <c r="A190" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" ht="18.5">
       <c r="A191" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:1" ht="19" thickBot="1">
       <c r="A192" s="14" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" ht="18.5">
       <c r="A193" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" ht="18.5">
       <c r="A194" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" ht="18.5">
       <c r="A195" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" ht="18.5">
       <c r="A196" s="8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" ht="18.5">
       <c r="A197" s="8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:1" ht="19" thickBot="1">
       <c r="A198" s="14" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" ht="18.5">
       <c r="A199" s="13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" ht="18.5">
       <c r="A200" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" ht="18.5">
       <c r="A201" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" ht="18.5">
       <c r="A202" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" ht="18.5">
       <c r="A203" s="8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:1" ht="19" thickBot="1">
       <c r="A204" s="14" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" ht="18.5">
       <c r="A205" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" ht="18.5">
       <c r="A206" s="8" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" ht="18.5">
       <c r="A207" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" ht="18.5">
       <c r="A208" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" ht="18.5">
       <c r="A209" s="8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:1" ht="19" thickBot="1">
       <c r="A210" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" ht="18.5">
       <c r="A211" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" ht="18.5">
       <c r="A212" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" ht="18.5">
       <c r="A213" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" ht="18.5">
       <c r="A214" s="8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" ht="18.5">
       <c r="A215" s="8" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:1" ht="19" thickBot="1">
       <c r="A216" s="14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" ht="18.5">
       <c r="A217" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" ht="18.5">
       <c r="A218" s="8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" ht="18.5">
       <c r="A219" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" ht="18.5">
       <c r="A220" s="8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" ht="18.5">
       <c r="A221" s="8" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:1" ht="19" thickBot="1">
       <c r="A222" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" ht="18.5">
       <c r="A223" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" ht="18.5">
       <c r="A224" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" ht="18.5">
       <c r="A225" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" ht="18.5">
       <c r="A226" s="8" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" ht="18.5">
       <c r="A227" s="8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:1" ht="19" thickBot="1">
       <c r="A228" s="14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" ht="18.5">
       <c r="A229" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" ht="18.5">
       <c r="A230" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" ht="18.5">
       <c r="A231" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" ht="18.5">
       <c r="A232" s="8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" ht="18.5">
       <c r="A233" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:1" ht="19" thickBot="1">
       <c r="A234" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" ht="18.5">
       <c r="A235" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" ht="18.5">
       <c r="A236" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" ht="18.5">
       <c r="A237" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" ht="18.5">
       <c r="A238" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" ht="18.5">
       <c r="A239" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:1" ht="19" thickBot="1">
       <c r="A240" s="14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" ht="18.5">
       <c r="A241" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" ht="18.5">
       <c r="A242" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" ht="18.5">
       <c r="A243" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" ht="18.5">
       <c r="A244" s="8" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" ht="18.5">
       <c r="A245" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:1" ht="19" thickBot="1">
       <c r="A246" s="14" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" ht="18.5">
       <c r="A247" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" ht="18.5">
       <c r="A248" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" ht="18.5">
       <c r="A249" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" ht="18.5">
       <c r="A250" s="8" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" ht="18.5">
       <c r="A251" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:1" ht="19" thickBot="1">
       <c r="A252" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" ht="18.5">
       <c r="A253" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" ht="18.5">
       <c r="A254" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" ht="18.5">
       <c r="A255" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" ht="18.5">
       <c r="A256" s="8" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" ht="18.5">
       <c r="A257" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:1" ht="19" thickBot="1">
       <c r="A258" s="14" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" ht="18.5">
       <c r="A259" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" ht="18.5">
       <c r="A260" s="8" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" ht="18.5">
       <c r="A261" s="8" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" ht="18.5">
       <c r="A262" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" ht="18.5">
       <c r="A263" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:1" ht="19" thickBot="1">
       <c r="A264" s="14" t="s">
         <v>505</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -4508,11 +4508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z45" sqref="Z45"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -7026,14 +7026,18 @@
         <v>123</v>
       </c>
       <c r="AA73" s="66"/>
-      <c r="AB73" s="66"/>
+      <c r="AB73" s="66">
+        <v>5</v>
+      </c>
       <c r="AC73" s="66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
+      <c r="AE73" s="66">
+        <v>5</v>
+      </c>
       <c r="AF73" s="66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AG73" s="66">
         <v>5</v>
@@ -7103,14 +7107,18 @@
         <v>123</v>
       </c>
       <c r="AA74" s="66"/>
-      <c r="AB74" s="66"/>
+      <c r="AB74" s="66">
+        <v>6</v>
+      </c>
       <c r="AC74" s="66">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
+      <c r="AE74" s="66">
+        <v>6</v>
+      </c>
       <c r="AF74" s="66">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AG74" s="66">
         <v>6</v>
@@ -7184,14 +7192,14 @@
         <v>4</v>
       </c>
       <c r="AC75" s="66">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AD75" s="66"/>
       <c r="AE75" s="66">
         <v>4</v>
       </c>
       <c r="AF75" s="66">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AG75" s="66">
         <v>4</v>
@@ -7261,18 +7269,14 @@
         <v>123</v>
       </c>
       <c r="AA76" s="66"/>
-      <c r="AB76" s="82">
-        <v>8</v>
-      </c>
+      <c r="AB76" s="82"/>
       <c r="AC76" s="82">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AD76" s="66"/>
-      <c r="AE76" s="82">
-        <v>8</v>
-      </c>
+      <c r="AE76" s="82"/>
       <c r="AF76" s="82">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AG76" s="66">
         <v>7</v>
@@ -7335,14 +7339,10 @@
       </c>
       <c r="AA77" s="66"/>
       <c r="AB77" s="66"/>
-      <c r="AC77" s="66">
-        <v>24</v>
-      </c>
+      <c r="AC77" s="66"/>
       <c r="AD77" s="66"/>
       <c r="AE77" s="66"/>
-      <c r="AF77" s="66">
-        <v>24</v>
-      </c>
+      <c r="AF77" s="66"/>
       <c r="AG77" s="66"/>
       <c r="AM77" s="66"/>
     </row>
@@ -7391,14 +7391,10 @@
       </c>
       <c r="AA78" s="66"/>
       <c r="AB78" s="66"/>
-      <c r="AC78" s="66">
-        <v>25</v>
-      </c>
+      <c r="AC78" s="66"/>
       <c r="AD78" s="66"/>
       <c r="AE78" s="66"/>
-      <c r="AF78" s="66">
-        <v>25</v>
-      </c>
+      <c r="AF78" s="66"/>
       <c r="AG78" s="66"/>
       <c r="AM78" s="66"/>
     </row>
@@ -7498,18 +7494,14 @@
         <v>123</v>
       </c>
       <c r="AA80" s="66"/>
-      <c r="AB80" s="66">
-        <v>6</v>
-      </c>
+      <c r="AB80" s="66"/>
       <c r="AC80" s="66">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AD80" s="66"/>
-      <c r="AE80" s="66">
-        <v>6</v>
-      </c>
+      <c r="AE80" s="66"/>
       <c r="AF80" s="66">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AG80" s="66">
         <v>8</v>
@@ -7625,18 +7617,14 @@
         <v>123</v>
       </c>
       <c r="AA82" s="66"/>
-      <c r="AB82" s="66">
-        <v>7</v>
-      </c>
+      <c r="AB82" s="66"/>
       <c r="AC82" s="66">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AD82" s="66"/>
-      <c r="AE82" s="66">
-        <v>7</v>
-      </c>
+      <c r="AE82" s="66"/>
       <c r="AF82" s="66">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AG82" s="66">
         <v>9</v>
@@ -7698,18 +7686,14 @@
         <v>123</v>
       </c>
       <c r="AA83" s="66"/>
-      <c r="AB83" s="66">
-        <v>5</v>
-      </c>
+      <c r="AB83" s="66"/>
       <c r="AC83" s="66">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AD83" s="66"/>
-      <c r="AE83" s="66">
-        <v>5</v>
-      </c>
+      <c r="AE83" s="66"/>
       <c r="AF83" s="66">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AG83" s="66">
         <v>10</v>
@@ -14147,7 +14131,7 @@
       <c r="AF387" s="77"/>
       <c r="AG387" s="77"/>
     </row>
-    <row r="388" spans="1:39" s="78" customFormat="1" ht="21.65" customHeight="1">
+    <row r="388" spans="1:39" s="78" customFormat="1" ht="14.5" customHeight="1">
       <c r="A388" s="75">
         <v>427</v>
       </c>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -5368,10 +5368,10 @@
   <dimension ref="A1:VM405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -3255,346 +3255,346 @@
     <t>Male</t>
   </si>
   <si>
+    <t>refcat</t>
+  </si>
+  <si>
+    <t>GLUCOSA.Max</t>
+  </si>
+  <si>
+    <t>Glucosa</t>
+  </si>
+  <si>
+    <t>ajuste5</t>
+  </si>
+  <si>
+    <t>ajuste6</t>
+  </si>
+  <si>
+    <t>factorYN</t>
+  </si>
+  <si>
+    <t>HA1C_MMOLS1</t>
+  </si>
+  <si>
+    <t>HA1B en mmols</t>
+  </si>
+  <si>
+    <t>ajuste7</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>ajuste8</t>
+  </si>
+  <si>
+    <t>camp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEXO.SEXHombre                                  </t>
+  </si>
+  <si>
+    <t>DG.HTASi</t>
+  </si>
+  <si>
+    <t>EDAD.AGE2&gt;65 años</t>
+  </si>
+  <si>
+    <t>&gt;65 years old</t>
+  </si>
+  <si>
+    <t>desc_model</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Grupo de edad</t>
+  </si>
+  <si>
+    <t>FX.Biguanidas</t>
+  </si>
+  <si>
+    <t>FX.Sulfonilureas</t>
+  </si>
+  <si>
+    <t>FX.IDPP4</t>
+  </si>
+  <si>
+    <t>FX.INSULINAS_Rap</t>
+  </si>
+  <si>
+    <t>FX.INSULINAS_INTM</t>
+  </si>
+  <si>
+    <t>FX.INSULINAS_LENT</t>
+  </si>
+  <si>
+    <t>FX.ANTIBIO</t>
+  </si>
+  <si>
+    <t>FX.ANTIPROTO</t>
+  </si>
+  <si>
+    <t>FX.ANTI_TROMB</t>
+  </si>
+  <si>
+    <t>FX.ANTI_AGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FX.ANTI_HTA </t>
+  </si>
+  <si>
+    <t>FX.CORTIS</t>
+  </si>
+  <si>
+    <t>FX.ANTI_HIPOLIP</t>
+  </si>
+  <si>
+    <t>FX.Agents_acting_on_the_renin_angiotensin_system</t>
+  </si>
+  <si>
+    <t>FX.Beta_blocking_agents</t>
+  </si>
+  <si>
+    <t>FX.Bile_acid_sequestrants</t>
+  </si>
+  <si>
+    <t>FX.Calcium_channel_blockers</t>
+  </si>
+  <si>
+    <t>FX.Diuretics</t>
+  </si>
+  <si>
+    <t>FX.HMG_CoA_reductase_inhibitors</t>
+  </si>
+  <si>
+    <t>FX.Other lipid modifying agents</t>
+  </si>
+  <si>
+    <t>EV2.COMP_NEUMO</t>
+  </si>
+  <si>
+    <t>EV1.SDRA</t>
+  </si>
+  <si>
+    <t>EV1.TEP</t>
+  </si>
+  <si>
+    <t>EV1.Mechanical_ventialtion</t>
+  </si>
+  <si>
+    <t>EV1.TVP</t>
+  </si>
+  <si>
+    <t>EV3.VENT1</t>
+  </si>
+  <si>
+    <t>EV3.VENT3</t>
+  </si>
+  <si>
+    <t>EV3.VENT4</t>
+  </si>
+  <si>
+    <t>EV3.VENT6</t>
+  </si>
+  <si>
+    <t>EV3.VENT5</t>
+  </si>
+  <si>
+    <t>EV3.VENT7</t>
+  </si>
+  <si>
+    <t>EV3.VENT8</t>
+  </si>
+  <si>
+    <t>EV3.VENT9</t>
+  </si>
+  <si>
+    <t>EV3.VENT10</t>
+  </si>
+  <si>
+    <t>DG2.HTA</t>
+  </si>
+  <si>
+    <t>DG2.Hyperlip</t>
+  </si>
+  <si>
+    <t>DG2.HyperlipSi</t>
+  </si>
+  <si>
+    <t>DG2.OB</t>
+  </si>
+  <si>
+    <t>DG2.OBSi</t>
+  </si>
+  <si>
+    <t>DG2.COMP_CARDIOVASC</t>
+  </si>
+  <si>
+    <t>DG2.COMP_CARDIOVASCSi</t>
+  </si>
+  <si>
+    <t>DG2.INSUF_CARD</t>
+  </si>
+  <si>
+    <t>DG2.INSUF_CARDSi</t>
+  </si>
+  <si>
+    <t>DG2.TRAST_MENTAL</t>
+  </si>
+  <si>
+    <t>DG2.Neoplasia</t>
+  </si>
+  <si>
+    <t>DG2.IRCSi</t>
+  </si>
+  <si>
+    <t>G_DIABETIC</t>
+  </si>
+  <si>
+    <t>G_DIABETICSi</t>
+  </si>
+  <si>
+    <t>DG.ASMA</t>
+  </si>
+  <si>
+    <t>EV1.IRA</t>
+  </si>
+  <si>
+    <t>Acute kidney failure</t>
+  </si>
+  <si>
+    <t>Diabetes * Obesidad</t>
+  </si>
+  <si>
+    <t>G_DIABETIC_DG2.OB</t>
+  </si>
+  <si>
+    <t>COVID Pendiente.BASAL</t>
+  </si>
+  <si>
+    <t>COVID Pendiente.</t>
+  </si>
+  <si>
+    <t>EV1.COMP_NEURO</t>
+  </si>
+  <si>
+    <t>CVD.CVD</t>
+  </si>
+  <si>
+    <t>CVD</t>
+  </si>
+  <si>
+    <t>G45.9   |    1 |  0.05 |    0.13 |   0.13</t>
+  </si>
+  <si>
+    <t>G46.7   |    1 |  0.05 |    0.13 |   0.27</t>
+  </si>
+  <si>
+    <t>I10     |  530 | 25.62 |   70.76 |  71.03</t>
+  </si>
+  <si>
+    <t>I11.0   |   16 |  0.77 |    2.14 |  73.16</t>
+  </si>
+  <si>
+    <t>I11.9   |   18 |  0.87 |    2.40 |  75.57</t>
+  </si>
+  <si>
+    <t>I12.0   |    1 |  0.05 |    0.13 |  75.70</t>
+  </si>
+  <si>
+    <t>I12.9   |   34 |  1.64 |    4.54 |  80.24</t>
+  </si>
+  <si>
+    <t>I13.0   |    3 |  0.14 |    0.40 |  80.64</t>
+  </si>
+  <si>
+    <t>I13.10  |    2 |  0.10 |    0.27 |  80.91</t>
+  </si>
+  <si>
+    <t>I16.9   |    4 |  0.19 |    0.53 |  81.44</t>
+  </si>
+  <si>
+    <t>I20.8   |    1 |  0.05 |    0.13 |  81.58</t>
+  </si>
+  <si>
+    <t>I20.9   |    1 |  0.05 |    0.13 |  81.71</t>
+  </si>
+  <si>
+    <t>I21.4   |    1 |  0.05 |    0.13 |  81.84</t>
+  </si>
+  <si>
+    <t>I24.9   |    1 |  0.05 |    0.13 |  81.98</t>
+  </si>
+  <si>
+    <t>I25.9   |   11 |  0.53 |    1.47 |  83.44</t>
+  </si>
+  <si>
+    <t>I30.9   |    1 |  0.05 |    0.13 |  83.58</t>
+  </si>
+  <si>
+    <t>I35.0   |    2 |  0.10 |    0.27 |  83.85</t>
+  </si>
+  <si>
+    <t>I46.9   |    1 |  0.05 |    0.13 |  83.98</t>
+  </si>
+  <si>
+    <t>I48.0   |   16 |  0.77 |    2.14 |  86.11</t>
+  </si>
+  <si>
+    <t>I48.2   |   15 |  0.72 |    2.00 |  88.12</t>
+  </si>
+  <si>
+    <t>I48.91  |   31 |  1.50 |    4.14 |  92.26</t>
+  </si>
+  <si>
+    <t>I50.1   |    1 |  0.05 |    0.13 |  92.39</t>
+  </si>
+  <si>
+    <t>I50.9   |   26 |  1.26 |    3.47 |  95.86</t>
+  </si>
+  <si>
+    <t>I51.4   |    1 |  0.05 |    0.13 |  95.99</t>
+  </si>
+  <si>
+    <t>I51.89  |    3 |  0.14 |    0.40 |  96.40</t>
+  </si>
+  <si>
+    <t>I63.512 |    1 |  0.05 |    0.13 |  96.53</t>
+  </si>
+  <si>
+    <t>I63.9   |    5 |  0.24 |    0.67 |  97.20</t>
+  </si>
+  <si>
+    <t>I65.23  |    1 |  0.05 |    0.13 |  97.33</t>
+  </si>
+  <si>
+    <t>I65.29  |    1 |  0.05 |    0.13 |  97.46</t>
+  </si>
+  <si>
+    <t>I69.322 |    1 |  0.05 |    0.13 |  97.60</t>
+  </si>
+  <si>
+    <t>I69.354 |    2 |  0.10 |    0.27 |  97.86</t>
+  </si>
+  <si>
+    <t>I73.9   |    1 |  0.05 |    0.13 |  98.00</t>
+  </si>
+  <si>
+    <t>R00.0   |    4 |  0.19 |    0.53 |  98.53</t>
+  </si>
+  <si>
+    <t>R00.1   |   11 |  0.53 |    1.47 | 100.00</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;    | 1320 | 63.80 |    &lt;NA&gt; |   &lt;NA&gt;</t>
+  </si>
+  <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>refcat</t>
-  </si>
-  <si>
-    <t>GLUCOSA.Max</t>
-  </si>
-  <si>
-    <t>Glucosa</t>
-  </si>
-  <si>
-    <t>ajuste5</t>
-  </si>
-  <si>
-    <t>ajuste6</t>
-  </si>
-  <si>
-    <t>factorYN</t>
-  </si>
-  <si>
-    <t>HA1C_MMOLS1</t>
-  </si>
-  <si>
-    <t>HA1B en mmols</t>
-  </si>
-  <si>
-    <t>ajuste7</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>ajuste8</t>
-  </si>
-  <si>
-    <t>camp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEXO.SEXHombre                                  </t>
-  </si>
-  <si>
-    <t>DG.HTASi</t>
-  </si>
-  <si>
-    <t>EDAD.AGE2&gt;65 años</t>
-  </si>
-  <si>
-    <t>&gt;65 years old</t>
-  </si>
-  <si>
-    <t>desc_model</t>
-  </si>
-  <si>
-    <t>Age group</t>
-  </si>
-  <si>
-    <t>Grupo de edad</t>
-  </si>
-  <si>
-    <t>FX.Biguanidas</t>
-  </si>
-  <si>
-    <t>FX.Sulfonilureas</t>
-  </si>
-  <si>
-    <t>FX.IDPP4</t>
-  </si>
-  <si>
-    <t>FX.INSULINAS_Rap</t>
-  </si>
-  <si>
-    <t>FX.INSULINAS_INTM</t>
-  </si>
-  <si>
-    <t>FX.INSULINAS_LENT</t>
-  </si>
-  <si>
-    <t>FX.ANTIBIO</t>
-  </si>
-  <si>
-    <t>FX.ANTIPROTO</t>
-  </si>
-  <si>
-    <t>FX.ANTI_TROMB</t>
-  </si>
-  <si>
-    <t>FX.ANTI_AGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FX.ANTI_HTA </t>
-  </si>
-  <si>
-    <t>FX.CORTIS</t>
-  </si>
-  <si>
-    <t>FX.ANTI_HIPOLIP</t>
-  </si>
-  <si>
-    <t>FX.Agents_acting_on_the_renin_angiotensin_system</t>
-  </si>
-  <si>
-    <t>FX.Beta_blocking_agents</t>
-  </si>
-  <si>
-    <t>FX.Bile_acid_sequestrants</t>
-  </si>
-  <si>
-    <t>FX.Calcium_channel_blockers</t>
-  </si>
-  <si>
-    <t>FX.Diuretics</t>
-  </si>
-  <si>
-    <t>FX.HMG_CoA_reductase_inhibitors</t>
-  </si>
-  <si>
-    <t>FX.Other lipid modifying agents</t>
-  </si>
-  <si>
-    <t>EV2.COMP_NEUMO</t>
-  </si>
-  <si>
-    <t>EV1.SDRA</t>
-  </si>
-  <si>
-    <t>EV1.TEP</t>
-  </si>
-  <si>
-    <t>EV1.Mechanical_ventialtion</t>
-  </si>
-  <si>
-    <t>EV1.TVP</t>
-  </si>
-  <si>
-    <t>EV3.VENT1</t>
-  </si>
-  <si>
-    <t>EV3.VENT3</t>
-  </si>
-  <si>
-    <t>EV3.VENT4</t>
-  </si>
-  <si>
-    <t>EV3.VENT6</t>
-  </si>
-  <si>
-    <t>EV3.VENT5</t>
-  </si>
-  <si>
-    <t>EV3.VENT7</t>
-  </si>
-  <si>
-    <t>EV3.VENT8</t>
-  </si>
-  <si>
-    <t>EV3.VENT9</t>
-  </si>
-  <si>
-    <t>EV3.VENT10</t>
-  </si>
-  <si>
-    <t>DG2.HTA</t>
-  </si>
-  <si>
-    <t>DG2.Hyperlip</t>
-  </si>
-  <si>
-    <t>DG2.HyperlipSi</t>
-  </si>
-  <si>
-    <t>DG2.OB</t>
-  </si>
-  <si>
-    <t>DG2.OBSi</t>
-  </si>
-  <si>
-    <t>DG2.COMP_CARDIOVASC</t>
-  </si>
-  <si>
-    <t>DG2.COMP_CARDIOVASCSi</t>
-  </si>
-  <si>
-    <t>DG2.INSUF_CARD</t>
-  </si>
-  <si>
-    <t>DG2.INSUF_CARDSi</t>
-  </si>
-  <si>
-    <t>DG2.TRAST_MENTAL</t>
-  </si>
-  <si>
-    <t>DG2.Neoplasia</t>
-  </si>
-  <si>
-    <t>DG2.IRCSi</t>
-  </si>
-  <si>
-    <t>G_DIABETIC</t>
-  </si>
-  <si>
-    <t>G_DIABETICSi</t>
-  </si>
-  <si>
-    <t>DG.ASMA</t>
-  </si>
-  <si>
-    <t>EV1.IRA</t>
-  </si>
-  <si>
-    <t>Acute kidney failure</t>
-  </si>
-  <si>
-    <t>Diabetes * Obesidad</t>
-  </si>
-  <si>
-    <t>G_DIABETIC_DG2.OB</t>
-  </si>
-  <si>
-    <t>COVID Pendiente.BASAL</t>
-  </si>
-  <si>
-    <t>COVID Pendiente.</t>
-  </si>
-  <si>
-    <t>EV1.COMP_NEURO</t>
-  </si>
-  <si>
-    <t>CVD.CVD</t>
-  </si>
-  <si>
-    <t>CVD</t>
-  </si>
-  <si>
-    <t>G45.9   |    1 |  0.05 |    0.13 |   0.13</t>
-  </si>
-  <si>
-    <t>G46.7   |    1 |  0.05 |    0.13 |   0.27</t>
-  </si>
-  <si>
-    <t>I10     |  530 | 25.62 |   70.76 |  71.03</t>
-  </si>
-  <si>
-    <t>I11.0   |   16 |  0.77 |    2.14 |  73.16</t>
-  </si>
-  <si>
-    <t>I11.9   |   18 |  0.87 |    2.40 |  75.57</t>
-  </si>
-  <si>
-    <t>I12.0   |    1 |  0.05 |    0.13 |  75.70</t>
-  </si>
-  <si>
-    <t>I12.9   |   34 |  1.64 |    4.54 |  80.24</t>
-  </si>
-  <si>
-    <t>I13.0   |    3 |  0.14 |    0.40 |  80.64</t>
-  </si>
-  <si>
-    <t>I13.10  |    2 |  0.10 |    0.27 |  80.91</t>
-  </si>
-  <si>
-    <t>I16.9   |    4 |  0.19 |    0.53 |  81.44</t>
-  </si>
-  <si>
-    <t>I20.8   |    1 |  0.05 |    0.13 |  81.58</t>
-  </si>
-  <si>
-    <t>I20.9   |    1 |  0.05 |    0.13 |  81.71</t>
-  </si>
-  <si>
-    <t>I21.4   |    1 |  0.05 |    0.13 |  81.84</t>
-  </si>
-  <si>
-    <t>I24.9   |    1 |  0.05 |    0.13 |  81.98</t>
-  </si>
-  <si>
-    <t>I25.9   |   11 |  0.53 |    1.47 |  83.44</t>
-  </si>
-  <si>
-    <t>I30.9   |    1 |  0.05 |    0.13 |  83.58</t>
-  </si>
-  <si>
-    <t>I35.0   |    2 |  0.10 |    0.27 |  83.85</t>
-  </si>
-  <si>
-    <t>I46.9   |    1 |  0.05 |    0.13 |  83.98</t>
-  </si>
-  <si>
-    <t>I48.0   |   16 |  0.77 |    2.14 |  86.11</t>
-  </si>
-  <si>
-    <t>I48.2   |   15 |  0.72 |    2.00 |  88.12</t>
-  </si>
-  <si>
-    <t>I48.91  |   31 |  1.50 |    4.14 |  92.26</t>
-  </si>
-  <si>
-    <t>I50.1   |    1 |  0.05 |    0.13 |  92.39</t>
-  </si>
-  <si>
-    <t>I50.9   |   26 |  1.26 |    3.47 |  95.86</t>
-  </si>
-  <si>
-    <t>I51.4   |    1 |  0.05 |    0.13 |  95.99</t>
-  </si>
-  <si>
-    <t>I51.89  |    3 |  0.14 |    0.40 |  96.40</t>
-  </si>
-  <si>
-    <t>I63.512 |    1 |  0.05 |    0.13 |  96.53</t>
-  </si>
-  <si>
-    <t>I63.9   |    5 |  0.24 |    0.67 |  97.20</t>
-  </si>
-  <si>
-    <t>I65.23  |    1 |  0.05 |    0.13 |  97.33</t>
-  </si>
-  <si>
-    <t>I65.29  |    1 |  0.05 |    0.13 |  97.46</t>
-  </si>
-  <si>
-    <t>I69.322 |    1 |  0.05 |    0.13 |  97.60</t>
-  </si>
-  <si>
-    <t>I69.354 |    2 |  0.10 |    0.27 |  97.86</t>
-  </si>
-  <si>
-    <t>I73.9   |    1 |  0.05 |    0.13 |  98.00</t>
-  </si>
-  <si>
-    <t>R00.0   |    4 |  0.19 |    0.53 |  98.53</t>
-  </si>
-  <si>
-    <t>R00.1   |   11 |  0.53 |    1.47 | 100.00</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;    | 1320 | 63.80 |    &lt;NA&gt; |   &lt;NA&gt;</t>
   </si>
 </sst>
 </file>
@@ -5510,10 +5510,10 @@
   <dimension ref="A1:VM406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -5554,10 +5554,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1" s="82" t="s">
         <v>177</v>
@@ -5638,19 +5638,19 @@
         <v>1068</v>
       </c>
       <c r="AD1" s="82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AE1" s="82" t="s">
         <v>1079</v>
       </c>
-      <c r="AE1" s="82" t="s">
-        <v>1080</v>
-      </c>
       <c r="AF1" s="82" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AG1" s="84" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AH1" s="314" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AI1" s="78"/>
     </row>
@@ -5730,7 +5730,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C3" s="197" t="s">
         <v>1074</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="38" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A38" s="286" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B38" s="112"/>
       <c r="C38" s="105" t="s">
@@ -8113,7 +8113,7 @@
     </row>
     <row r="39" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A39" s="286" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B39" s="112"/>
       <c r="C39" s="105" t="s">
@@ -8712,7 +8712,7 @@
     </row>
     <row r="40" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A40" s="286" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B40" s="112"/>
       <c r="C40" s="118" t="s">
@@ -9311,7 +9311,7 @@
     </row>
     <row r="41" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A41" s="286" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B41" s="112"/>
       <c r="C41" s="105" t="s">
@@ -9910,7 +9910,7 @@
     </row>
     <row r="42" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A42" s="286" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B42" s="112"/>
       <c r="C42" s="105" t="s">
@@ -10509,7 +10509,7 @@
     </row>
     <row r="43" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A43" s="286" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B43" s="112"/>
       <c r="C43" s="105" t="s">
@@ -11108,7 +11108,7 @@
     </row>
     <row r="44" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A44" s="286" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B44" s="112"/>
       <c r="C44" s="105" t="s">
@@ -11707,7 +11707,7 @@
     </row>
     <row r="45" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A45" s="286" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="105" t="s">
@@ -12306,7 +12306,7 @@
     </row>
     <row r="46" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A46" s="286" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B46" s="112"/>
       <c r="C46" s="119" t="s">
@@ -12905,7 +12905,7 @@
     </row>
     <row r="47" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A47" s="286" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B47" s="112"/>
       <c r="C47" s="119" t="s">
@@ -13504,7 +13504,7 @@
     </row>
     <row r="48" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A48" s="286" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B48" s="112"/>
       <c r="C48" s="118" t="s">
@@ -14103,7 +14103,7 @@
     </row>
     <row r="49" spans="1:585" s="63" customFormat="1" ht="15">
       <c r="A49" s="286" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B49" s="112"/>
       <c r="C49" s="105" t="s">
@@ -14702,7 +14702,7 @@
     </row>
     <row r="50" spans="1:585" s="63" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="286" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B50" s="112"/>
       <c r="C50" s="105" t="s">
@@ -15303,7 +15303,7 @@
     </row>
     <row r="51" spans="1:585" s="63" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="286" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B51" s="112"/>
       <c r="C51" s="105" t="s">
@@ -15902,7 +15902,7 @@
     </row>
     <row r="52" spans="1:585" s="63" customFormat="1" ht="15.75" customHeight="1">
       <c r="A52" s="286" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B52" s="112"/>
       <c r="C52" s="105" t="s">
@@ -16501,7 +16501,7 @@
     </row>
     <row r="53" spans="1:585" s="63" customFormat="1" ht="15.65" customHeight="1">
       <c r="A53" s="286" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B53" s="112"/>
       <c r="C53" s="85" t="s">
@@ -17102,7 +17102,7 @@
     </row>
     <row r="54" spans="1:585" s="63" customFormat="1" ht="15.65" customHeight="1">
       <c r="A54" s="286" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B54" s="112"/>
       <c r="C54" s="105" t="s">
@@ -17701,7 +17701,7 @@
     </row>
     <row r="55" spans="1:585" s="63" customFormat="1" ht="15.65" customHeight="1">
       <c r="A55" s="286" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="85" t="s">
@@ -18300,7 +18300,7 @@
     </row>
     <row r="56" spans="1:585" s="63" customFormat="1" ht="15.65" customHeight="1">
       <c r="A56" s="286" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B56" s="112"/>
       <c r="C56" s="85" t="s">
@@ -18899,7 +18899,7 @@
     </row>
     <row r="57" spans="1:585" s="63" customFormat="1" ht="19" customHeight="1">
       <c r="A57" s="286" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B57" s="112"/>
       <c r="C57" s="120" t="s">
@@ -19886,10 +19886,10 @@
     </row>
     <row r="72" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A72" s="278" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B72" s="157" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C72" s="175" t="s">
         <v>1052</v>
@@ -20503,10 +20503,10 @@
     </row>
     <row r="73" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A73" s="279" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B73" s="114" t="s">
         <v>1131</v>
-      </c>
-      <c r="B73" s="114" t="s">
-        <v>1132</v>
       </c>
       <c r="C73" s="121" t="s">
         <v>1051</v>
@@ -21120,10 +21120,10 @@
     </row>
     <row r="74" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A74" s="280" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B74" s="113" t="s">
         <v>1133</v>
-      </c>
-      <c r="B74" s="113" t="s">
-        <v>1134</v>
       </c>
       <c r="C74" s="122" t="s">
         <v>1050</v>
@@ -21737,10 +21737,10 @@
     </row>
     <row r="75" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A75" s="280" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B75" s="113" t="s">
         <v>1135</v>
-      </c>
-      <c r="B75" s="113" t="s">
-        <v>1136</v>
       </c>
       <c r="C75" s="106" t="s">
         <v>1049</v>
@@ -24157,10 +24157,10 @@
     </row>
     <row r="79" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A79" s="280" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B79" s="113" t="s">
         <v>1137</v>
-      </c>
-      <c r="B79" s="113" t="s">
-        <v>1138</v>
       </c>
       <c r="C79" s="121" t="s">
         <v>1046</v>
@@ -25376,7 +25376,7 @@
         <v>140</v>
       </c>
       <c r="B81" s="113" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C81" s="106" t="s">
         <v>1044</v>
@@ -26597,7 +26597,7 @@
     </row>
     <row r="83" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A83" s="280" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B83" s="113"/>
       <c r="C83" s="106" t="s">
@@ -27200,7 +27200,7 @@
     </row>
     <row r="84" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A84" s="280" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B84" s="113"/>
       <c r="C84" s="106" t="s">
@@ -27803,7 +27803,7 @@
     </row>
     <row r="85" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A85" s="280" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B85" s="113"/>
       <c r="C85" s="106" t="s">
@@ -28406,19 +28406,19 @@
     </row>
     <row r="86" spans="1:585" s="60" customFormat="1" ht="15">
       <c r="A86" s="304" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B86" s="304" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C86" s="304" t="s">
         <v>1152</v>
       </c>
-      <c r="B86" s="304" t="s">
+      <c r="D86" s="304" t="s">
         <v>1152</v>
       </c>
-      <c r="C86" s="304" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D86" s="304" t="s">
-        <v>1153</v>
-      </c>
       <c r="E86" s="304" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F86" s="305">
         <v>1</v>
@@ -29009,16 +29009,16 @@
     </row>
     <row r="87" spans="1:585" s="60" customFormat="1" ht="15.5" thickBot="1">
       <c r="A87" s="281" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B87" s="166" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C87" s="167" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D87" s="168" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E87" s="168"/>
       <c r="F87" s="182"/>
@@ -32670,17 +32670,17 @@
     </row>
     <row r="154" spans="1:35" ht="15.5" thickBot="1">
       <c r="A154" s="294" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B154" s="251"/>
       <c r="C154" s="252" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D154" s="253" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E154" s="253" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F154" s="254"/>
       <c r="G154" s="254"/>
@@ -32721,10 +32721,10 @@
       </c>
       <c r="B155" s="157"/>
       <c r="C155" s="158" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D155" s="159" t="s">
         <v>1149</v>
-      </c>
-      <c r="D155" s="159" t="s">
-        <v>1150</v>
       </c>
       <c r="E155" s="159" t="s">
         <v>560</v>
@@ -32815,10 +32815,10 @@
     </row>
     <row r="157" spans="1:35" ht="15">
       <c r="A157" s="295" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B157" s="109" t="s">
         <v>1142</v>
-      </c>
-      <c r="B157" s="109" t="s">
-        <v>1143</v>
       </c>
       <c r="C157" s="103" t="s">
         <v>1073</v>
@@ -40166,13 +40166,13 @@
       </c>
       <c r="B317" s="273"/>
       <c r="C317" s="274" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D317" s="267" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E317" s="267" t="s">
         <v>1077</v>
-      </c>
-      <c r="D317" s="267" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E317" s="267" t="s">
-        <v>1078</v>
       </c>
       <c r="F317" s="267"/>
       <c r="G317" s="267"/>
@@ -43137,16 +43137,16 @@
         <v>711</v>
       </c>
       <c r="B382" s="110" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C382" s="74" t="s">
         <v>1091</v>
       </c>
-      <c r="C382" s="74" t="s">
-        <v>1092</v>
-      </c>
       <c r="D382" s="55" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E382" s="55" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M382" s="133"/>
       <c r="N382" s="146"/>
@@ -43160,7 +43160,7 @@
     </row>
     <row r="383" spans="1:585" ht="15">
       <c r="A383" s="301" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B383" s="116"/>
       <c r="C383" s="107" t="s">
@@ -43170,7 +43170,7 @@
         <v>1045</v>
       </c>
       <c r="E383" s="90" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F383" s="69"/>
       <c r="G383" s="69"/>
@@ -43207,7 +43207,7 @@
     </row>
     <row r="384" spans="1:585" s="70" customFormat="1" ht="15">
       <c r="A384" s="301" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B384" s="116"/>
       <c r="C384" s="123" t="s">
@@ -43802,7 +43802,7 @@
     </row>
     <row r="385" spans="1:585" s="70" customFormat="1" ht="15">
       <c r="A385" s="301" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B385" s="116"/>
       <c r="C385" s="86" t="s">
@@ -44397,7 +44397,7 @@
     </row>
     <row r="386" spans="1:585" ht="15">
       <c r="A386" s="301" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B386" s="116"/>
       <c r="C386" s="86" t="s">
@@ -44444,7 +44444,7 @@
     </row>
     <row r="387" spans="1:585" s="70" customFormat="1" ht="15">
       <c r="A387" s="302" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B387" s="130"/>
       <c r="C387" s="124" t="s">
@@ -45638,7 +45638,7 @@
     </row>
     <row r="389" spans="1:585" s="70" customFormat="1" ht="15">
       <c r="A389" s="301" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B389" s="116"/>
       <c r="C389" s="126" t="s">
@@ -46233,7 +46233,7 @@
     </row>
     <row r="390" spans="1:585" s="70" customFormat="1" ht="15">
       <c r="A390" s="301" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B390" s="116"/>
       <c r="C390" s="126" t="s">
@@ -46828,7 +46828,7 @@
     </row>
     <row r="391" spans="1:585" ht="15">
       <c r="A391" s="287" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B391" s="110"/>
       <c r="C391" s="127" t="s">
@@ -46852,7 +46852,7 @@
     </row>
     <row r="392" spans="1:585" ht="15">
       <c r="A392" s="287" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B392" s="110"/>
       <c r="C392" s="78" t="s">
@@ -46876,7 +46876,7 @@
     </row>
     <row r="393" spans="1:585" ht="15">
       <c r="A393" s="287" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B393" s="110"/>
       <c r="C393" s="127" t="s">
@@ -46900,7 +46900,7 @@
     </row>
     <row r="394" spans="1:585" ht="15">
       <c r="A394" s="287" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B394" s="110"/>
       <c r="C394" s="127" t="s">
@@ -46924,7 +46924,7 @@
     </row>
     <row r="395" spans="1:585" ht="15">
       <c r="A395" s="287" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B395" s="110"/>
       <c r="C395" s="78" t="s">
@@ -46948,7 +46948,7 @@
     </row>
     <row r="396" spans="1:585" ht="15.5" customHeight="1">
       <c r="A396" s="287" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B396" s="110"/>
       <c r="C396" s="128" t="s">
@@ -46972,7 +46972,7 @@
     </row>
     <row r="397" spans="1:585" ht="15">
       <c r="A397" s="287" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B397" s="110"/>
       <c r="C397" s="78" t="s">
@@ -46996,7 +46996,7 @@
     </row>
     <row r="398" spans="1:585" ht="15" customHeight="1">
       <c r="A398" s="287" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B398" s="110"/>
       <c r="C398" s="128" t="s">
@@ -47020,7 +47020,7 @@
     </row>
     <row r="399" spans="1:585" ht="11.5" customHeight="1">
       <c r="A399" s="287" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B399" s="110"/>
       <c r="C399" s="128" t="s">
@@ -47827,7 +47827,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -47864,7 +47864,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -47878,7 +47878,7 @@
         <v>1074</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" s="55"/>
     </row>
@@ -47890,13 +47890,13 @@
         <v>66</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1075</v>
+        <v>1188</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -61035,7 +61035,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="315" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="316"/>
       <c r="C1" s="316"/>
@@ -61046,7 +61046,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="318" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B2" s="319"/>
       <c r="C2" s="319"/>
@@ -61057,7 +61057,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="318" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B3" s="319"/>
       <c r="C3" s="319"/>
@@ -61068,7 +61068,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="318" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B4" s="319"/>
       <c r="C4" s="319"/>
@@ -61079,7 +61079,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="318" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="319"/>
       <c r="C5" s="319"/>
@@ -61090,7 +61090,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="318" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B6" s="319"/>
       <c r="C6" s="319"/>
@@ -61101,7 +61101,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="318" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="319"/>
       <c r="C7" s="319"/>
@@ -61112,7 +61112,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="318" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B8" s="319"/>
       <c r="C8" s="319"/>
@@ -61123,7 +61123,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="318" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B9" s="319"/>
       <c r="C9" s="319"/>
@@ -61134,7 +61134,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="318" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B10" s="319"/>
       <c r="C10" s="319"/>
@@ -61145,7 +61145,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="318" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B11" s="319"/>
       <c r="C11" s="319"/>
@@ -61156,7 +61156,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="318" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B12" s="319"/>
       <c r="C12" s="319"/>
@@ -61167,7 +61167,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="318" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B13" s="319"/>
       <c r="C13" s="319"/>
@@ -61178,7 +61178,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="318" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B14" s="319"/>
       <c r="C14" s="319"/>
@@ -61189,7 +61189,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="318" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B15" s="319"/>
       <c r="C15" s="319"/>
@@ -61200,7 +61200,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="318" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B16" s="319"/>
       <c r="C16" s="319"/>
@@ -61211,7 +61211,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="318" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B17" s="319"/>
       <c r="C17" s="319"/>
@@ -61222,7 +61222,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="318" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B18" s="319"/>
       <c r="C18" s="319"/>
@@ -61233,7 +61233,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="318" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B19" s="319"/>
       <c r="C19" s="319"/>
@@ -61244,7 +61244,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="318" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B20" s="319"/>
       <c r="C20" s="319"/>
@@ -61255,7 +61255,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="318" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B21" s="319"/>
       <c r="C21" s="319"/>
@@ -61266,7 +61266,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="318" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B22" s="319"/>
       <c r="C22" s="319"/>
@@ -61277,7 +61277,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="318" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B23" s="319"/>
       <c r="C23" s="319"/>
@@ -61288,7 +61288,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="318" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B24" s="319"/>
       <c r="C24" s="319"/>
@@ -61299,7 +61299,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="318" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B25" s="319"/>
       <c r="C25" s="319"/>
@@ -61310,7 +61310,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="318" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B26" s="319"/>
       <c r="C26" s="319"/>
@@ -61321,7 +61321,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="318" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B27" s="319"/>
       <c r="C27" s="319"/>
@@ -61332,7 +61332,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="318" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B28" s="319"/>
       <c r="C28" s="319"/>
@@ -61343,7 +61343,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="318" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B29" s="319"/>
       <c r="C29" s="319"/>
@@ -61354,7 +61354,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="318" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B30" s="319"/>
       <c r="C30" s="319"/>
@@ -61365,7 +61365,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="318" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B31" s="319"/>
       <c r="C31" s="319"/>
@@ -61376,7 +61376,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="318" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B32" s="319"/>
       <c r="C32" s="319"/>
@@ -61387,7 +61387,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="318" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B33" s="319"/>
       <c r="C33" s="319"/>
@@ -61398,7 +61398,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="318" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B34" s="319"/>
       <c r="C34" s="319"/>
@@ -61409,7 +61409,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1">
       <c r="A35" s="321" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B35" s="322"/>
       <c r="C35" s="322"/>

--- a/conductor_Covid.xlsx
+++ b/conductor_Covid.xlsx
@@ -5584,10 +5584,10 @@
   <dimension ref="A1:VM409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
